--- a/expected_deaths_per_country_using_diamond_princess_data.xlsx
+++ b/expected_deaths_per_country_using_diamond_princess_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t xml:space="preserve">location</t>
   </si>
@@ -980,6 +980,9 @@
     <t xml:space="preserve">UnitedKingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">UnitedStates</t>
+  </si>
+  <si>
     <t xml:space="preserve">UnitedStatesVirginIslands</t>
   </si>
   <si>
@@ -61417,272 +61420,442 @@
         <v>322</v>
       </c>
       <c r="B176" t="n">
-        <v>6</v>
+        <v>90353</v>
       </c>
       <c r="C176" t="n">
-        <v>212.650878421411</v>
+        <v>601512.345001202</v>
       </c>
       <c r="D176" t="n">
-        <v>104423</v>
+        <v>331002647</v>
       </c>
       <c r="E176" t="n">
-        <v>0.00203339942456336</v>
+        <v>0.00182794431714275</v>
       </c>
       <c r="F176" t="s">
         <v>148</v>
       </c>
-      <c r="G176"/>
-      <c r="H176"/>
-      <c r="I176"/>
-      <c r="J176"/>
-      <c r="K176"/>
-      <c r="L176"/>
-      <c r="M176"/>
-      <c r="N176"/>
-      <c r="O176"/>
-      <c r="P176"/>
-      <c r="Q176"/>
-      <c r="R176"/>
-      <c r="S176"/>
-      <c r="T176"/>
-      <c r="U176"/>
-      <c r="V176"/>
-      <c r="W176"/>
-      <c r="X176"/>
-      <c r="Y176"/>
-      <c r="Z176"/>
-      <c r="AA176"/>
-      <c r="AB176"/>
-      <c r="AC176"/>
-      <c r="AD176"/>
-      <c r="AE176"/>
-      <c r="AF176"/>
-      <c r="AG176"/>
-      <c r="AH176"/>
-      <c r="AI176"/>
-      <c r="AJ176"/>
-      <c r="AK176"/>
-      <c r="AL176"/>
-      <c r="AM176"/>
-      <c r="AN176"/>
-      <c r="AO176"/>
-      <c r="AP176"/>
-      <c r="AQ176"/>
-      <c r="AR176"/>
-      <c r="AS176"/>
-      <c r="AT176"/>
-      <c r="AU176"/>
-      <c r="AV176"/>
-      <c r="AW176"/>
-      <c r="AX176"/>
-      <c r="AY176"/>
-      <c r="AZ176"/>
-      <c r="BA176"/>
-      <c r="BB176"/>
-      <c r="BC176"/>
-      <c r="BD176"/>
-      <c r="BE176"/>
-      <c r="BF176"/>
-      <c r="BG176"/>
-      <c r="BH176"/>
-      <c r="BI176"/>
-      <c r="BJ176"/>
-      <c r="BK176"/>
-      <c r="BL176"/>
-      <c r="BM176"/>
-      <c r="BN176"/>
-      <c r="BO176"/>
-      <c r="BP176"/>
-      <c r="BQ176"/>
-      <c r="BR176"/>
-      <c r="BS176"/>
-      <c r="BT176"/>
-      <c r="BU176"/>
-      <c r="BV176"/>
-      <c r="BW176"/>
-      <c r="BX176"/>
-      <c r="BY176"/>
-      <c r="BZ176"/>
-      <c r="CA176"/>
-      <c r="CB176"/>
-      <c r="CC176"/>
-      <c r="CD176"/>
-      <c r="CE176"/>
-      <c r="CF176"/>
-      <c r="CG176"/>
-      <c r="CH176"/>
-      <c r="CI176"/>
-      <c r="CJ176"/>
-      <c r="CK176"/>
-      <c r="CL176"/>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
+      <c r="S176" t="n">
+        <v>0</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>0</v>
+      </c>
+      <c r="V176" t="n">
+        <v>0</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0</v>
+      </c>
+      <c r="X176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ176" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BU176" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BX176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BY176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BZ176" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA176" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB176" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC176" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD176" t="n">
+        <v>10</v>
+      </c>
+      <c r="CE176" t="n">
+        <v>12</v>
+      </c>
+      <c r="CF176" t="n">
+        <v>16</v>
+      </c>
+      <c r="CG176" t="n">
+        <v>23</v>
+      </c>
+      <c r="CH176" t="n">
+        <v>42</v>
+      </c>
+      <c r="CI176" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ176" t="n">
+        <v>110</v>
+      </c>
+      <c r="CK176" t="n">
+        <v>80</v>
+      </c>
+      <c r="CL176" t="n">
+        <v>131</v>
+      </c>
       <c r="CM176" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="CN176" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="CO176" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="CP176" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="CQ176" t="n">
-        <v>0</v>
+        <v>411</v>
       </c>
       <c r="CR176" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="CS176" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT176"/>
+        <v>318</v>
+      </c>
+      <c r="CT176" t="n">
+        <v>661</v>
+      </c>
       <c r="CU176" t="n">
-        <v>0</v>
+        <v>909</v>
       </c>
       <c r="CV176" t="n">
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="CW176" t="n">
-        <v>0</v>
+        <v>915</v>
       </c>
       <c r="CX176" t="n">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="CY176" t="n">
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="CZ176" t="n">
-        <v>1</v>
+        <v>1146</v>
       </c>
       <c r="DA176" t="n">
-        <v>0</v>
+        <v>1342</v>
       </c>
       <c r="DB176" t="n">
-        <v>0</v>
+        <v>1906</v>
       </c>
       <c r="DC176" t="n">
-        <v>0</v>
+        <v>1922</v>
       </c>
       <c r="DD176" t="n">
-        <v>0</v>
+        <v>1873</v>
       </c>
       <c r="DE176" t="n">
-        <v>0</v>
+        <v>2087</v>
       </c>
       <c r="DF176" t="n">
-        <v>0</v>
+        <v>1831</v>
       </c>
       <c r="DG176" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="DH176" t="n">
-        <v>0</v>
+        <v>1541</v>
       </c>
       <c r="DI176" t="n">
-        <v>0</v>
+        <v>2408</v>
       </c>
       <c r="DJ176" t="n">
-        <v>0</v>
+        <v>4928</v>
       </c>
       <c r="DK176" t="n">
-        <v>0</v>
+        <v>2299</v>
       </c>
       <c r="DL176" t="n">
-        <v>1</v>
+        <v>3770</v>
       </c>
       <c r="DM176" t="n">
-        <v>1</v>
+        <v>1856</v>
       </c>
       <c r="DN176" t="n">
-        <v>0</v>
+        <v>1772</v>
       </c>
       <c r="DO176" t="n">
-        <v>0</v>
+        <v>1857</v>
       </c>
       <c r="DP176" t="n">
-        <v>0</v>
+        <v>2524</v>
       </c>
       <c r="DQ176" t="n">
-        <v>0</v>
+        <v>1721</v>
       </c>
       <c r="DR176" t="n">
-        <v>0</v>
+        <v>3179</v>
       </c>
       <c r="DS176" t="n">
-        <v>0</v>
+        <v>1054</v>
       </c>
       <c r="DT176" t="n">
-        <v>0</v>
+        <v>2172</v>
       </c>
       <c r="DU176" t="n">
-        <v>0</v>
+        <v>1687</v>
       </c>
       <c r="DV176" t="n">
-        <v>1</v>
+        <v>1369</v>
       </c>
       <c r="DW176" t="n">
-        <v>0</v>
+        <v>2110</v>
       </c>
       <c r="DX176" t="n">
-        <v>0</v>
+        <v>2611</v>
       </c>
       <c r="DY176" t="n">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="DZ176" t="n">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="EA176" t="n">
-        <v>0</v>
+        <v>1317</v>
       </c>
       <c r="EB176" t="n">
-        <v>0</v>
+        <v>1297</v>
       </c>
       <c r="EC176" t="n">
-        <v>0</v>
+        <v>1252</v>
       </c>
       <c r="ED176" t="n">
-        <v>0</v>
+        <v>2144</v>
       </c>
       <c r="EE176" t="n">
-        <v>0</v>
+        <v>2353</v>
       </c>
       <c r="EF176" t="n">
-        <v>0</v>
+        <v>2239</v>
       </c>
       <c r="EG176" t="n">
-        <v>0</v>
+        <v>1510</v>
       </c>
       <c r="EH176" t="n">
-        <v>0</v>
+        <v>1614</v>
       </c>
       <c r="EI176" t="n">
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="EJ176" t="n">
-        <v>1</v>
+        <v>1156</v>
       </c>
       <c r="EK176" t="n">
-        <v>0</v>
+        <v>1703</v>
       </c>
       <c r="EL176" t="n">
-        <v>1</v>
+        <v>1746</v>
       </c>
       <c r="EM176" t="n">
-        <v>0</v>
+        <v>1773</v>
       </c>
       <c r="EN176" t="n">
-        <v>0</v>
+        <v>1662</v>
       </c>
       <c r="EO176" t="n">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="EP176" t="n">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="EQ176" t="n">
-        <v>0</v>
+        <v>791</v>
       </c>
     </row>
     <row r="177">
@@ -61690,16 +61863,16 @@
         <v>323</v>
       </c>
       <c r="B177" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C177" t="n">
-        <v>6235.19647848937</v>
+        <v>212.650878421411</v>
       </c>
       <c r="D177" t="n">
-        <v>3473727</v>
+        <v>104423</v>
       </c>
       <c r="E177" t="n">
-        <v>0.00180117879710739</v>
+        <v>0.00203339942456336</v>
       </c>
       <c r="F177" t="s">
         <v>148</v>
@@ -61779,33 +61952,15 @@
       <c r="CA177"/>
       <c r="CB177"/>
       <c r="CC177"/>
-      <c r="CD177" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE177" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF177" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG177" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH177" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI177" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ177" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK177" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL177" t="n">
-        <v>0</v>
-      </c>
+      <c r="CD177"/>
+      <c r="CE177"/>
+      <c r="CF177"/>
+      <c r="CG177"/>
+      <c r="CH177"/>
+      <c r="CI177"/>
+      <c r="CJ177"/>
+      <c r="CK177"/>
+      <c r="CL177"/>
       <c r="CM177" t="n">
         <v>0</v>
       </c>
@@ -61825,25 +61980,23 @@
         <v>0</v>
       </c>
       <c r="CS177" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="CT177"/>
       <c r="CU177" t="n">
         <v>0</v>
       </c>
       <c r="CV177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CX177" t="n">
         <v>0</v>
       </c>
       <c r="CY177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ177" t="n">
         <v>1</v>
@@ -61852,7 +62005,7 @@
         <v>0</v>
       </c>
       <c r="DB177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC177" t="n">
         <v>0</v>
@@ -61867,7 +62020,7 @@
         <v>0</v>
       </c>
       <c r="DG177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH177" t="n">
         <v>0</v>
@@ -61876,25 +62029,25 @@
         <v>0</v>
       </c>
       <c r="DJ177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK177" t="n">
         <v>0</v>
       </c>
       <c r="DL177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DM177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO177" t="n">
         <v>0</v>
       </c>
       <c r="DP177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DQ177" t="n">
         <v>0</v>
@@ -61906,13 +62059,13 @@
         <v>0</v>
       </c>
       <c r="DT177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DU177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DW177" t="n">
         <v>0</v>
@@ -61921,7 +62074,7 @@
         <v>0</v>
       </c>
       <c r="DY177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DZ177" t="n">
         <v>0</v>
@@ -61945,22 +62098,22 @@
         <v>0</v>
       </c>
       <c r="EG177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EH177" t="n">
         <v>0</v>
       </c>
       <c r="EI177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EJ177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK177" t="n">
         <v>0</v>
       </c>
       <c r="EL177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM177" t="n">
         <v>0</v>
@@ -61972,7 +62125,7 @@
         <v>0</v>
       </c>
       <c r="EP177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EQ177" t="n">
         <v>0</v>
@@ -61983,16 +62136,16 @@
         <v>324</v>
       </c>
       <c r="B178" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C178" t="n">
-        <v>20087.0880840868</v>
+        <v>6235.19647848937</v>
       </c>
       <c r="D178" t="n">
-        <v>33469199</v>
+        <v>3473727</v>
       </c>
       <c r="E178" t="n">
-        <v>0.000609037100832592</v>
+        <v>0.00180117879710739</v>
       </c>
       <c r="F178" t="s">
         <v>148</v>
@@ -62072,7 +62225,9 @@
       <c r="CA178"/>
       <c r="CB178"/>
       <c r="CC178"/>
-      <c r="CD178"/>
+      <c r="CD178" t="n">
+        <v>0</v>
+      </c>
       <c r="CE178" t="n">
         <v>0</v>
       </c>
@@ -62113,40 +62268,40 @@
         <v>0</v>
       </c>
       <c r="CR178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU178" t="n">
         <v>0</v>
       </c>
       <c r="CV178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CX178" t="n">
         <v>0</v>
       </c>
       <c r="CY178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA178" t="n">
         <v>0</v>
       </c>
       <c r="DB178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD178" t="n">
         <v>0</v>
@@ -62155,10 +62310,10 @@
         <v>0</v>
       </c>
       <c r="DF178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH178" t="n">
         <v>0</v>
@@ -62167,7 +62322,7 @@
         <v>0</v>
       </c>
       <c r="DJ178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK178" t="n">
         <v>0</v>
@@ -62176,31 +62331,31 @@
         <v>0</v>
       </c>
       <c r="DM178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO178" t="n">
         <v>0</v>
       </c>
       <c r="DP178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DQ178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR178" t="n">
         <v>0</v>
       </c>
       <c r="DS178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DU178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DV178" t="n">
         <v>0</v>
@@ -62209,10 +62364,10 @@
         <v>0</v>
       </c>
       <c r="DX178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DZ178" t="n">
         <v>0</v>
@@ -62221,7 +62376,7 @@
         <v>0</v>
       </c>
       <c r="EB178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC178" t="n">
         <v>0</v>
@@ -62236,13 +62391,13 @@
         <v>0</v>
       </c>
       <c r="EG178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH178" t="n">
         <v>0</v>
       </c>
       <c r="EI178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ178" t="n">
         <v>0</v>
@@ -62251,7 +62406,7 @@
         <v>0</v>
       </c>
       <c r="EL178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EM178" t="n">
         <v>0</v>
@@ -62266,7 +62421,7 @@
         <v>1</v>
       </c>
       <c r="EQ178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -62274,16 +62429,16 @@
         <v>325</v>
       </c>
       <c r="B179" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C179" t="n">
-        <v>25545.540248594</v>
+        <v>20087.0880840868</v>
       </c>
       <c r="D179" t="n">
-        <v>28435943</v>
+        <v>33469199</v>
       </c>
       <c r="E179" t="n">
-        <v>0.000895837225859055</v>
+        <v>0.000609037100832592</v>
       </c>
       <c r="F179" t="s">
         <v>148</v>
@@ -62363,9 +62518,7 @@
       <c r="CA179"/>
       <c r="CB179"/>
       <c r="CC179"/>
-      <c r="CD179" t="n">
-        <v>0</v>
-      </c>
+      <c r="CD179"/>
       <c r="CE179" t="n">
         <v>0</v>
       </c>
@@ -62400,19 +62553,19 @@
         <v>0</v>
       </c>
       <c r="CP179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ179" t="n">
         <v>0</v>
       </c>
       <c r="CR179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS179" t="n">
         <v>0</v>
       </c>
       <c r="CT179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CU179" t="n">
         <v>0</v>
@@ -62427,7 +62580,7 @@
         <v>0</v>
       </c>
       <c r="CY179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CZ179" t="n">
         <v>0</v>
@@ -62436,19 +62589,19 @@
         <v>0</v>
       </c>
       <c r="DB179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DC179" t="n">
         <v>1</v>
       </c>
       <c r="DD179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE179" t="n">
         <v>0</v>
       </c>
       <c r="DF179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG179" t="n">
         <v>0</v>
@@ -62469,7 +62622,7 @@
         <v>0</v>
       </c>
       <c r="DM179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DN179" t="n">
         <v>0</v>
@@ -62481,13 +62634,13 @@
         <v>1</v>
       </c>
       <c r="DQ179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR179" t="n">
         <v>0</v>
       </c>
       <c r="DS179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DT179" t="n">
         <v>0</v>
@@ -62502,7 +62655,7 @@
         <v>0</v>
       </c>
       <c r="DX179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY179" t="n">
         <v>0</v>
@@ -62514,7 +62667,7 @@
         <v>0</v>
       </c>
       <c r="EB179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC179" t="n">
         <v>0</v>
@@ -62544,7 +62697,7 @@
         <v>0</v>
       </c>
       <c r="EL179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM179" t="n">
         <v>0</v>
@@ -62556,10 +62709,10 @@
         <v>0</v>
       </c>
       <c r="EP179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -62567,245 +62720,95 @@
         <v>326</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C180" t="n">
-        <v>95044.0895391896</v>
+        <v>25545.540248594</v>
       </c>
       <c r="D180" t="n">
-        <v>97338583</v>
+        <v>28435943</v>
       </c>
       <c r="E180" t="n">
-        <v>0.000985299746139586</v>
+        <v>0.000895837225859055</v>
       </c>
       <c r="F180" t="s">
         <v>148</v>
       </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0</v>
-      </c>
-      <c r="M180" t="n">
-        <v>0</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0</v>
-      </c>
-      <c r="P180" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q180" t="n">
-        <v>0</v>
-      </c>
-      <c r="R180" t="n">
-        <v>0</v>
-      </c>
-      <c r="S180" t="n">
-        <v>0</v>
-      </c>
-      <c r="T180" t="n">
-        <v>0</v>
-      </c>
-      <c r="U180" t="n">
-        <v>0</v>
-      </c>
-      <c r="V180" t="n">
-        <v>0</v>
-      </c>
-      <c r="W180" t="n">
-        <v>0</v>
-      </c>
-      <c r="X180" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y180" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY180" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY180" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ180" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA180" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB180" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC180" t="n">
-        <v>0</v>
-      </c>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180"/>
+      <c r="K180"/>
+      <c r="L180"/>
+      <c r="M180"/>
+      <c r="N180"/>
+      <c r="O180"/>
+      <c r="P180"/>
+      <c r="Q180"/>
+      <c r="R180"/>
+      <c r="S180"/>
+      <c r="T180"/>
+      <c r="U180"/>
+      <c r="V180"/>
+      <c r="W180"/>
+      <c r="X180"/>
+      <c r="Y180"/>
+      <c r="Z180"/>
+      <c r="AA180"/>
+      <c r="AB180"/>
+      <c r="AC180"/>
+      <c r="AD180"/>
+      <c r="AE180"/>
+      <c r="AF180"/>
+      <c r="AG180"/>
+      <c r="AH180"/>
+      <c r="AI180"/>
+      <c r="AJ180"/>
+      <c r="AK180"/>
+      <c r="AL180"/>
+      <c r="AM180"/>
+      <c r="AN180"/>
+      <c r="AO180"/>
+      <c r="AP180"/>
+      <c r="AQ180"/>
+      <c r="AR180"/>
+      <c r="AS180"/>
+      <c r="AT180"/>
+      <c r="AU180"/>
+      <c r="AV180"/>
+      <c r="AW180"/>
+      <c r="AX180"/>
+      <c r="AY180"/>
+      <c r="AZ180"/>
+      <c r="BA180"/>
+      <c r="BB180"/>
+      <c r="BC180"/>
+      <c r="BD180"/>
+      <c r="BE180"/>
+      <c r="BF180"/>
+      <c r="BG180"/>
+      <c r="BH180"/>
+      <c r="BI180"/>
+      <c r="BJ180"/>
+      <c r="BK180"/>
+      <c r="BL180"/>
+      <c r="BM180"/>
+      <c r="BN180"/>
+      <c r="BO180"/>
+      <c r="BP180"/>
+      <c r="BQ180"/>
+      <c r="BR180"/>
+      <c r="BS180"/>
+      <c r="BT180"/>
+      <c r="BU180"/>
+      <c r="BV180"/>
+      <c r="BW180"/>
+      <c r="BX180"/>
+      <c r="BY180"/>
+      <c r="BZ180"/>
+      <c r="CA180"/>
+      <c r="CB180"/>
+      <c r="CC180"/>
       <c r="CD180" t="n">
         <v>0</v>
       </c>
@@ -62843,7 +62846,7 @@
         <v>0</v>
       </c>
       <c r="CP180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ180" t="n">
         <v>0</v>
@@ -62855,7 +62858,7 @@
         <v>0</v>
       </c>
       <c r="CT180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU180" t="n">
         <v>0</v>
@@ -62870,7 +62873,7 @@
         <v>0</v>
       </c>
       <c r="CY180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CZ180" t="n">
         <v>0</v>
@@ -62879,13 +62882,13 @@
         <v>0</v>
       </c>
       <c r="DB180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE180" t="n">
         <v>0</v>
@@ -62921,7 +62924,7 @@
         <v>0</v>
       </c>
       <c r="DP180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ180" t="n">
         <v>0</v>
@@ -63013,134 +63016,368 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>262.313408380827</v>
+        <v>95044.0895391896</v>
       </c>
       <c r="D181" t="n">
-        <v>597330</v>
+        <v>97338583</v>
       </c>
       <c r="E181" t="n">
-        <v>0.000450355919878905</v>
+        <v>0.000985299746139586</v>
       </c>
       <c r="F181" t="s">
         <v>148</v>
       </c>
-      <c r="G181"/>
-      <c r="H181"/>
-      <c r="I181"/>
-      <c r="J181"/>
-      <c r="K181"/>
-      <c r="L181"/>
-      <c r="M181"/>
-      <c r="N181"/>
-      <c r="O181"/>
-      <c r="P181"/>
-      <c r="Q181"/>
-      <c r="R181"/>
-      <c r="S181"/>
-      <c r="T181"/>
-      <c r="U181"/>
-      <c r="V181"/>
-      <c r="W181"/>
-      <c r="X181"/>
-      <c r="Y181"/>
-      <c r="Z181"/>
-      <c r="AA181"/>
-      <c r="AB181"/>
-      <c r="AC181"/>
-      <c r="AD181"/>
-      <c r="AE181"/>
-      <c r="AF181"/>
-      <c r="AG181"/>
-      <c r="AH181"/>
-      <c r="AI181"/>
-      <c r="AJ181"/>
-      <c r="AK181"/>
-      <c r="AL181"/>
-      <c r="AM181"/>
-      <c r="AN181"/>
-      <c r="AO181"/>
-      <c r="AP181"/>
-      <c r="AQ181"/>
-      <c r="AR181"/>
-      <c r="AS181"/>
-      <c r="AT181"/>
-      <c r="AU181"/>
-      <c r="AV181"/>
-      <c r="AW181"/>
-      <c r="AX181"/>
-      <c r="AY181"/>
-      <c r="AZ181"/>
-      <c r="BA181"/>
-      <c r="BB181"/>
-      <c r="BC181"/>
-      <c r="BD181"/>
-      <c r="BE181"/>
-      <c r="BF181"/>
-      <c r="BG181"/>
-      <c r="BH181"/>
-      <c r="BI181"/>
-      <c r="BJ181"/>
-      <c r="BK181"/>
-      <c r="BL181"/>
-      <c r="BM181"/>
-      <c r="BN181"/>
-      <c r="BO181"/>
-      <c r="BP181"/>
-      <c r="BQ181"/>
-      <c r="BR181"/>
-      <c r="BS181"/>
-      <c r="BT181"/>
-      <c r="BU181"/>
-      <c r="BV181"/>
-      <c r="BW181"/>
-      <c r="BX181"/>
-      <c r="BY181"/>
-      <c r="BZ181"/>
-      <c r="CA181"/>
-      <c r="CB181"/>
-      <c r="CC181"/>
-      <c r="CD181"/>
-      <c r="CE181"/>
-      <c r="CF181"/>
-      <c r="CG181"/>
-      <c r="CH181"/>
-      <c r="CI181"/>
-      <c r="CJ181"/>
-      <c r="CK181"/>
-      <c r="CL181"/>
-      <c r="CM181"/>
-      <c r="CN181"/>
-      <c r="CO181"/>
-      <c r="CP181"/>
-      <c r="CQ181"/>
-      <c r="CR181"/>
-      <c r="CS181"/>
-      <c r="CT181"/>
-      <c r="CU181"/>
-      <c r="CV181"/>
-      <c r="CW181"/>
-      <c r="CX181"/>
-      <c r="CY181"/>
-      <c r="CZ181"/>
-      <c r="DA181"/>
-      <c r="DB181"/>
-      <c r="DC181"/>
-      <c r="DD181"/>
-      <c r="DE181"/>
-      <c r="DF181"/>
-      <c r="DG181"/>
-      <c r="DH181"/>
-      <c r="DI181"/>
-      <c r="DJ181"/>
-      <c r="DK181"/>
-      <c r="DL181"/>
-      <c r="DM181"/>
-      <c r="DN181"/>
-      <c r="DO181"/>
-      <c r="DP181"/>
-      <c r="DQ181"/>
-      <c r="DR181"/>
-      <c r="DS181"/>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" t="n">
+        <v>0</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>0</v>
+      </c>
+      <c r="V181" t="n">
+        <v>0</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY181" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR181" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS181" t="n">
+        <v>0</v>
+      </c>
       <c r="DT181" t="n">
         <v>0</v>
       </c>
@@ -63219,442 +63456,208 @@
         <v>328</v>
       </c>
       <c r="B182" t="n">
-        <v>318201</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>8087237.51412203</v>
+        <v>262.313408380827</v>
       </c>
       <c r="D182" t="n">
-        <v>7794798729</v>
+        <v>597330</v>
       </c>
       <c r="E182" t="n">
-        <v>0.00104845671277592</v>
+        <v>0.000450355919878905</v>
       </c>
       <c r="F182" t="s">
         <v>148</v>
       </c>
-      <c r="G182" t="n">
-        <v>0</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0</v>
-      </c>
-      <c r="P182" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q182" t="n">
-        <v>0</v>
-      </c>
-      <c r="R182" t="n">
-        <v>1</v>
-      </c>
-      <c r="S182" t="n">
-        <v>0</v>
-      </c>
-      <c r="T182" t="n">
-        <v>0</v>
-      </c>
-      <c r="U182" t="n">
-        <v>0</v>
-      </c>
-      <c r="V182" t="n">
-        <v>1</v>
-      </c>
-      <c r="W182" t="n">
-        <v>0</v>
-      </c>
-      <c r="X182" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y182" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z182" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB182" t="n">
-        <v>3</v>
-      </c>
-      <c r="AC182" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD182" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE182" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF182" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG182" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH182" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI182" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ182" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK182" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL182" t="n">
-        <v>43</v>
-      </c>
-      <c r="AM182" t="n">
-        <v>46</v>
-      </c>
-      <c r="AN182" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO182" t="n">
-        <v>57</v>
-      </c>
-      <c r="AP182" t="n">
-        <v>65</v>
-      </c>
-      <c r="AQ182" t="n">
-        <v>66</v>
-      </c>
-      <c r="AR182" t="n">
-        <v>72</v>
-      </c>
-      <c r="AS182" t="n">
-        <v>73</v>
-      </c>
-      <c r="AT182" t="n">
-        <v>86</v>
-      </c>
-      <c r="AU182" t="n">
-        <v>89</v>
-      </c>
-      <c r="AV182" t="n">
-        <v>97</v>
-      </c>
-      <c r="AW182" t="n">
-        <v>108</v>
-      </c>
-      <c r="AX182" t="n">
-        <v>97</v>
-      </c>
-      <c r="AY182" t="n">
-        <v>255</v>
-      </c>
-      <c r="AZ182" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA182" t="n">
-        <v>144</v>
-      </c>
-      <c r="BB182" t="n">
-        <v>142</v>
-      </c>
-      <c r="BC182" t="n">
-        <v>106</v>
-      </c>
-      <c r="BD182" t="n">
-        <v>98</v>
-      </c>
-      <c r="BE182" t="n">
-        <v>139</v>
-      </c>
-      <c r="BF182" t="n">
-        <v>116</v>
-      </c>
-      <c r="BG182" t="n">
-        <v>119</v>
-      </c>
-      <c r="BH182" t="n">
-        <v>112</v>
-      </c>
-      <c r="BI182" t="n">
-        <v>104</v>
-      </c>
-      <c r="BJ182" t="n">
-        <v>156</v>
-      </c>
-      <c r="BK182" t="n">
-        <v>79</v>
-      </c>
-      <c r="BL182" t="n">
-        <v>64</v>
-      </c>
-      <c r="BM182" t="n">
-        <v>38</v>
-      </c>
-      <c r="BN182" t="n">
-        <v>57</v>
-      </c>
-      <c r="BO182" t="n">
-        <v>64</v>
-      </c>
-      <c r="BP182" t="n">
-        <v>58</v>
-      </c>
-      <c r="BQ182" t="n">
-        <v>67</v>
-      </c>
-      <c r="BR182" t="n">
-        <v>72</v>
-      </c>
-      <c r="BS182" t="n">
-        <v>84</v>
-      </c>
-      <c r="BT182" t="n">
-        <v>80</v>
-      </c>
-      <c r="BU182" t="n">
-        <v>102</v>
-      </c>
-      <c r="BV182" t="n">
-        <v>104</v>
-      </c>
-      <c r="BW182" t="n">
-        <v>97</v>
-      </c>
-      <c r="BX182" t="n">
-        <v>228</v>
-      </c>
-      <c r="BY182" t="n">
-        <v>208</v>
-      </c>
-      <c r="BZ182" t="n">
-        <v>272</v>
-      </c>
-      <c r="CA182" t="n">
-        <v>326</v>
-      </c>
-      <c r="CB182" t="n">
-        <v>349</v>
-      </c>
-      <c r="CC182" t="n">
-        <v>439</v>
-      </c>
-      <c r="CD182" t="n">
-        <v>361</v>
-      </c>
-      <c r="CE182" t="n">
-        <v>746</v>
-      </c>
-      <c r="CF182" t="n">
-        <v>598</v>
-      </c>
-      <c r="CG182" t="n">
-        <v>800</v>
-      </c>
-      <c r="CH182" t="n">
-        <v>942</v>
-      </c>
-      <c r="CI182" t="n">
-        <v>1043</v>
-      </c>
-      <c r="CJ182" t="n">
-        <v>1369</v>
-      </c>
-      <c r="CK182" t="n">
-        <v>1700</v>
-      </c>
-      <c r="CL182" t="n">
-        <v>1641</v>
-      </c>
-      <c r="CM182" t="n">
-        <v>1780</v>
-      </c>
-      <c r="CN182" t="n">
-        <v>2264</v>
-      </c>
-      <c r="CO182" t="n">
-        <v>2573</v>
-      </c>
-      <c r="CP182" t="n">
-        <v>2749</v>
-      </c>
-      <c r="CQ182" t="n">
-        <v>3422</v>
-      </c>
-      <c r="CR182" t="n">
-        <v>3493</v>
-      </c>
-      <c r="CS182" t="n">
-        <v>3129</v>
-      </c>
-      <c r="CT182" t="n">
-        <v>3894</v>
-      </c>
-      <c r="CU182" t="n">
-        <v>4629</v>
-      </c>
-      <c r="CV182" t="n">
-        <v>4907</v>
-      </c>
-      <c r="CW182" t="n">
-        <v>4956</v>
-      </c>
-      <c r="CX182" t="n">
-        <v>6631</v>
-      </c>
-      <c r="CY182" t="n">
-        <v>6145</v>
-      </c>
-      <c r="CZ182" t="n">
-        <v>4675</v>
-      </c>
-      <c r="DA182" t="n">
-        <v>5266</v>
-      </c>
-      <c r="DB182" t="n">
-        <v>7663</v>
-      </c>
-      <c r="DC182" t="n">
-        <v>6436</v>
-      </c>
-      <c r="DD182" t="n">
-        <v>7445</v>
-      </c>
-      <c r="DE182" t="n">
-        <v>7221</v>
-      </c>
-      <c r="DF182" t="n">
-        <v>6026</v>
-      </c>
-      <c r="DG182" t="n">
-        <v>5266</v>
-      </c>
-      <c r="DH182" t="n">
-        <v>5371</v>
-      </c>
-      <c r="DI182" t="n">
-        <v>7604</v>
-      </c>
-      <c r="DJ182" t="n">
-        <v>10520</v>
-      </c>
-      <c r="DK182" t="n">
-        <v>8709</v>
-      </c>
-      <c r="DL182" t="n">
-        <v>8568</v>
-      </c>
-      <c r="DM182" t="n">
-        <v>6493</v>
-      </c>
-      <c r="DN182" t="n">
-        <v>5036</v>
-      </c>
-      <c r="DO182" t="n">
-        <v>5336</v>
-      </c>
-      <c r="DP182" t="n">
-        <v>7284</v>
-      </c>
-      <c r="DQ182" t="n">
-        <v>6103</v>
-      </c>
-      <c r="DR182" t="n">
-        <v>7444</v>
-      </c>
-      <c r="DS182" t="n">
-        <v>5432</v>
-      </c>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+      <c r="K182"/>
+      <c r="L182"/>
+      <c r="M182"/>
+      <c r="N182"/>
+      <c r="O182"/>
+      <c r="P182"/>
+      <c r="Q182"/>
+      <c r="R182"/>
+      <c r="S182"/>
+      <c r="T182"/>
+      <c r="U182"/>
+      <c r="V182"/>
+      <c r="W182"/>
+      <c r="X182"/>
+      <c r="Y182"/>
+      <c r="Z182"/>
+      <c r="AA182"/>
+      <c r="AB182"/>
+      <c r="AC182"/>
+      <c r="AD182"/>
+      <c r="AE182"/>
+      <c r="AF182"/>
+      <c r="AG182"/>
+      <c r="AH182"/>
+      <c r="AI182"/>
+      <c r="AJ182"/>
+      <c r="AK182"/>
+      <c r="AL182"/>
+      <c r="AM182"/>
+      <c r="AN182"/>
+      <c r="AO182"/>
+      <c r="AP182"/>
+      <c r="AQ182"/>
+      <c r="AR182"/>
+      <c r="AS182"/>
+      <c r="AT182"/>
+      <c r="AU182"/>
+      <c r="AV182"/>
+      <c r="AW182"/>
+      <c r="AX182"/>
+      <c r="AY182"/>
+      <c r="AZ182"/>
+      <c r="BA182"/>
+      <c r="BB182"/>
+      <c r="BC182"/>
+      <c r="BD182"/>
+      <c r="BE182"/>
+      <c r="BF182"/>
+      <c r="BG182"/>
+      <c r="BH182"/>
+      <c r="BI182"/>
+      <c r="BJ182"/>
+      <c r="BK182"/>
+      <c r="BL182"/>
+      <c r="BM182"/>
+      <c r="BN182"/>
+      <c r="BO182"/>
+      <c r="BP182"/>
+      <c r="BQ182"/>
+      <c r="BR182"/>
+      <c r="BS182"/>
+      <c r="BT182"/>
+      <c r="BU182"/>
+      <c r="BV182"/>
+      <c r="BW182"/>
+      <c r="BX182"/>
+      <c r="BY182"/>
+      <c r="BZ182"/>
+      <c r="CA182"/>
+      <c r="CB182"/>
+      <c r="CC182"/>
+      <c r="CD182"/>
+      <c r="CE182"/>
+      <c r="CF182"/>
+      <c r="CG182"/>
+      <c r="CH182"/>
+      <c r="CI182"/>
+      <c r="CJ182"/>
+      <c r="CK182"/>
+      <c r="CL182"/>
+      <c r="CM182"/>
+      <c r="CN182"/>
+      <c r="CO182"/>
+      <c r="CP182"/>
+      <c r="CQ182"/>
+      <c r="CR182"/>
+      <c r="CS182"/>
+      <c r="CT182"/>
+      <c r="CU182"/>
+      <c r="CV182"/>
+      <c r="CW182"/>
+      <c r="CX182"/>
+      <c r="CY182"/>
+      <c r="CZ182"/>
+      <c r="DA182"/>
+      <c r="DB182"/>
+      <c r="DC182"/>
+      <c r="DD182"/>
+      <c r="DE182"/>
+      <c r="DF182"/>
+      <c r="DG182"/>
+      <c r="DH182"/>
+      <c r="DI182"/>
+      <c r="DJ182"/>
+      <c r="DK182"/>
+      <c r="DL182"/>
+      <c r="DM182"/>
+      <c r="DN182"/>
+      <c r="DO182"/>
+      <c r="DP182"/>
+      <c r="DQ182"/>
+      <c r="DR182"/>
+      <c r="DS182"/>
       <c r="DT182" t="n">
-        <v>6246</v>
+        <v>0</v>
       </c>
       <c r="DU182" t="n">
-        <v>3928</v>
+        <v>0</v>
       </c>
       <c r="DV182" t="n">
-        <v>4890</v>
+        <v>0</v>
       </c>
       <c r="DW182" t="n">
-        <v>6518</v>
+        <v>0</v>
       </c>
       <c r="DX182" t="n">
-        <v>6671</v>
+        <v>0</v>
       </c>
       <c r="DY182" t="n">
-        <v>5534</v>
+        <v>0</v>
       </c>
       <c r="DZ182" t="n">
-        <v>5838</v>
+        <v>0</v>
       </c>
       <c r="EA182" t="n">
-        <v>4769</v>
+        <v>0</v>
       </c>
       <c r="EB182" t="n">
-        <v>3687</v>
+        <v>0</v>
       </c>
       <c r="EC182" t="n">
-        <v>3999</v>
+        <v>0</v>
       </c>
       <c r="ED182" t="n">
-        <v>5952</v>
+        <v>0</v>
       </c>
       <c r="EE182" t="n">
-        <v>6386</v>
+        <v>0</v>
       </c>
       <c r="EF182" t="n">
-        <v>5748</v>
+        <v>0</v>
       </c>
       <c r="EG182" t="n">
-        <v>5268</v>
+        <v>0</v>
       </c>
       <c r="EH182" t="n">
-        <v>4440</v>
+        <v>0</v>
       </c>
       <c r="EI182" t="n">
-        <v>3410</v>
+        <v>0</v>
       </c>
       <c r="EJ182" t="n">
-        <v>3569</v>
+        <v>0</v>
       </c>
       <c r="EK182" t="n">
-        <v>5766</v>
+        <v>0</v>
       </c>
       <c r="EL182" t="n">
-        <v>5187</v>
+        <v>0</v>
       </c>
       <c r="EM182" t="n">
-        <v>5370</v>
+        <v>0</v>
       </c>
       <c r="EN182" t="n">
-        <v>5145</v>
+        <v>0</v>
       </c>
       <c r="EO182" t="n">
-        <v>4277</v>
+        <v>0</v>
       </c>
       <c r="EP182" t="n">
-        <v>3388</v>
+        <v>0</v>
       </c>
       <c r="EQ182" t="n">
-        <v>3138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -63662,240 +63665,442 @@
         <v>329</v>
       </c>
       <c r="B183" t="n">
-        <v>20</v>
+        <v>318201</v>
       </c>
       <c r="C183" t="n">
-        <v>10578.1771306963</v>
+        <v>8087237.51412203</v>
       </c>
       <c r="D183" t="n">
-        <v>29825968</v>
+        <v>7794798729</v>
       </c>
       <c r="E183" t="n">
-        <v>0.000362739367134179</v>
+        <v>0.00104845671277592</v>
       </c>
       <c r="F183" t="s">
         <v>148</v>
       </c>
-      <c r="G183"/>
-      <c r="H183"/>
-      <c r="I183"/>
-      <c r="J183"/>
-      <c r="K183"/>
-      <c r="L183"/>
-      <c r="M183"/>
-      <c r="N183"/>
-      <c r="O183"/>
-      <c r="P183"/>
-      <c r="Q183"/>
-      <c r="R183"/>
-      <c r="S183"/>
-      <c r="T183"/>
-      <c r="U183"/>
-      <c r="V183"/>
-      <c r="W183"/>
-      <c r="X183"/>
-      <c r="Y183"/>
-      <c r="Z183"/>
-      <c r="AA183"/>
-      <c r="AB183"/>
-      <c r="AC183"/>
-      <c r="AD183"/>
-      <c r="AE183"/>
-      <c r="AF183"/>
-      <c r="AG183"/>
-      <c r="AH183"/>
-      <c r="AI183"/>
-      <c r="AJ183"/>
-      <c r="AK183"/>
-      <c r="AL183"/>
-      <c r="AM183"/>
-      <c r="AN183"/>
-      <c r="AO183"/>
-      <c r="AP183"/>
-      <c r="AQ183"/>
-      <c r="AR183"/>
-      <c r="AS183"/>
-      <c r="AT183"/>
-      <c r="AU183"/>
-      <c r="AV183"/>
-      <c r="AW183"/>
-      <c r="AX183"/>
-      <c r="AY183"/>
-      <c r="AZ183"/>
-      <c r="BA183"/>
-      <c r="BB183"/>
-      <c r="BC183"/>
-      <c r="BD183"/>
-      <c r="BE183"/>
-      <c r="BF183"/>
-      <c r="BG183"/>
-      <c r="BH183"/>
-      <c r="BI183"/>
-      <c r="BJ183"/>
-      <c r="BK183"/>
-      <c r="BL183"/>
-      <c r="BM183"/>
-      <c r="BN183"/>
-      <c r="BO183"/>
-      <c r="BP183"/>
-      <c r="BQ183"/>
-      <c r="BR183"/>
-      <c r="BS183"/>
-      <c r="BT183"/>
-      <c r="BU183"/>
-      <c r="BV183"/>
-      <c r="BW183"/>
-      <c r="BX183"/>
-      <c r="BY183"/>
-      <c r="BZ183"/>
-      <c r="CA183"/>
-      <c r="CB183"/>
-      <c r="CC183"/>
-      <c r="CD183"/>
-      <c r="CE183"/>
-      <c r="CF183"/>
-      <c r="CG183"/>
-      <c r="CH183"/>
-      <c r="CI183"/>
-      <c r="CJ183"/>
-      <c r="CK183"/>
-      <c r="CL183"/>
-      <c r="CM183"/>
-      <c r="CN183"/>
-      <c r="CO183"/>
-      <c r="CP183"/>
-      <c r="CQ183"/>
-      <c r="CR183"/>
-      <c r="CS183"/>
-      <c r="CT183"/>
-      <c r="CU183"/>
-      <c r="CV183"/>
-      <c r="CW183"/>
-      <c r="CX183"/>
-      <c r="CY183"/>
-      <c r="CZ183"/>
-      <c r="DA183"/>
-      <c r="DB183"/>
-      <c r="DC183"/>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1</v>
+      </c>
+      <c r="S183" t="n">
+        <v>0</v>
+      </c>
+      <c r="T183" t="n">
+        <v>0</v>
+      </c>
+      <c r="U183" t="n">
+        <v>0</v>
+      </c>
+      <c r="V183" t="n">
+        <v>1</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0</v>
+      </c>
+      <c r="X183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>43</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>46</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>66</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>72</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>73</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>86</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>89</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>97</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>108</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>97</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>255</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>144</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>142</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>106</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>98</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>139</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>116</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>119</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>112</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>104</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>156</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>79</v>
+      </c>
+      <c r="BL183" t="n">
+        <v>64</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>38</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>57</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>64</v>
+      </c>
+      <c r="BP183" t="n">
+        <v>58</v>
+      </c>
+      <c r="BQ183" t="n">
+        <v>67</v>
+      </c>
+      <c r="BR183" t="n">
+        <v>72</v>
+      </c>
+      <c r="BS183" t="n">
+        <v>84</v>
+      </c>
+      <c r="BT183" t="n">
+        <v>80</v>
+      </c>
+      <c r="BU183" t="n">
+        <v>102</v>
+      </c>
+      <c r="BV183" t="n">
+        <v>104</v>
+      </c>
+      <c r="BW183" t="n">
+        <v>97</v>
+      </c>
+      <c r="BX183" t="n">
+        <v>228</v>
+      </c>
+      <c r="BY183" t="n">
+        <v>208</v>
+      </c>
+      <c r="BZ183" t="n">
+        <v>272</v>
+      </c>
+      <c r="CA183" t="n">
+        <v>326</v>
+      </c>
+      <c r="CB183" t="n">
+        <v>349</v>
+      </c>
+      <c r="CC183" t="n">
+        <v>439</v>
+      </c>
+      <c r="CD183" t="n">
+        <v>361</v>
+      </c>
+      <c r="CE183" t="n">
+        <v>746</v>
+      </c>
+      <c r="CF183" t="n">
+        <v>598</v>
+      </c>
+      <c r="CG183" t="n">
+        <v>800</v>
+      </c>
+      <c r="CH183" t="n">
+        <v>942</v>
+      </c>
+      <c r="CI183" t="n">
+        <v>1043</v>
+      </c>
+      <c r="CJ183" t="n">
+        <v>1369</v>
+      </c>
+      <c r="CK183" t="n">
+        <v>1700</v>
+      </c>
+      <c r="CL183" t="n">
+        <v>1641</v>
+      </c>
+      <c r="CM183" t="n">
+        <v>1780</v>
+      </c>
+      <c r="CN183" t="n">
+        <v>2264</v>
+      </c>
+      <c r="CO183" t="n">
+        <v>2573</v>
+      </c>
+      <c r="CP183" t="n">
+        <v>2749</v>
+      </c>
+      <c r="CQ183" t="n">
+        <v>3422</v>
+      </c>
+      <c r="CR183" t="n">
+        <v>3493</v>
+      </c>
+      <c r="CS183" t="n">
+        <v>3129</v>
+      </c>
+      <c r="CT183" t="n">
+        <v>3894</v>
+      </c>
+      <c r="CU183" t="n">
+        <v>4629</v>
+      </c>
+      <c r="CV183" t="n">
+        <v>4907</v>
+      </c>
+      <c r="CW183" t="n">
+        <v>4956</v>
+      </c>
+      <c r="CX183" t="n">
+        <v>6631</v>
+      </c>
+      <c r="CY183" t="n">
+        <v>6145</v>
+      </c>
+      <c r="CZ183" t="n">
+        <v>4675</v>
+      </c>
+      <c r="DA183" t="n">
+        <v>5266</v>
+      </c>
+      <c r="DB183" t="n">
+        <v>7663</v>
+      </c>
+      <c r="DC183" t="n">
+        <v>6436</v>
+      </c>
       <c r="DD183" t="n">
-        <v>0</v>
+        <v>7445</v>
       </c>
       <c r="DE183" t="n">
-        <v>0</v>
+        <v>7221</v>
       </c>
       <c r="DF183" t="n">
-        <v>0</v>
+        <v>6026</v>
       </c>
       <c r="DG183" t="n">
-        <v>0</v>
+        <v>5266</v>
       </c>
       <c r="DH183" t="n">
-        <v>0</v>
+        <v>5371</v>
       </c>
       <c r="DI183" t="n">
-        <v>0</v>
+        <v>7604</v>
       </c>
       <c r="DJ183" t="n">
-        <v>0</v>
+        <v>10520</v>
       </c>
       <c r="DK183" t="n">
-        <v>0</v>
+        <v>8709</v>
       </c>
       <c r="DL183" t="n">
-        <v>0</v>
+        <v>8568</v>
       </c>
       <c r="DM183" t="n">
-        <v>0</v>
+        <v>6493</v>
       </c>
       <c r="DN183" t="n">
-        <v>0</v>
+        <v>5036</v>
       </c>
       <c r="DO183" t="n">
-        <v>0</v>
+        <v>5336</v>
       </c>
       <c r="DP183" t="n">
-        <v>0</v>
+        <v>7284</v>
       </c>
       <c r="DQ183" t="n">
-        <v>0</v>
+        <v>6103</v>
       </c>
       <c r="DR183" t="n">
-        <v>0</v>
+        <v>7444</v>
       </c>
       <c r="DS183" t="n">
-        <v>0</v>
+        <v>5432</v>
       </c>
       <c r="DT183" t="n">
-        <v>0</v>
+        <v>6246</v>
       </c>
       <c r="DU183" t="n">
-        <v>0</v>
+        <v>3928</v>
       </c>
       <c r="DV183" t="n">
-        <v>0</v>
+        <v>4890</v>
       </c>
       <c r="DW183" t="n">
-        <v>0</v>
+        <v>6518</v>
       </c>
       <c r="DX183" t="n">
-        <v>0</v>
+        <v>6671</v>
       </c>
       <c r="DY183" t="n">
-        <v>2</v>
+        <v>5534</v>
       </c>
       <c r="DZ183" t="n">
-        <v>0</v>
+        <v>5838</v>
       </c>
       <c r="EA183" t="n">
-        <v>0</v>
+        <v>4769</v>
       </c>
       <c r="EB183" t="n">
-        <v>0</v>
+        <v>3687</v>
       </c>
       <c r="EC183" t="n">
-        <v>0</v>
+        <v>3999</v>
       </c>
       <c r="ED183" t="n">
-        <v>1</v>
+        <v>5952</v>
       </c>
       <c r="EE183" t="n">
-        <v>2</v>
+        <v>6386</v>
       </c>
       <c r="EF183" t="n">
-        <v>1</v>
+        <v>5748</v>
       </c>
       <c r="EG183" t="n">
-        <v>1</v>
+        <v>5268</v>
       </c>
       <c r="EH183" t="n">
-        <v>0</v>
+        <v>4440</v>
       </c>
       <c r="EI183" t="n">
-        <v>1</v>
+        <v>3410</v>
       </c>
       <c r="EJ183" t="n">
-        <v>1</v>
+        <v>3569</v>
       </c>
       <c r="EK183" t="n">
-        <v>2</v>
+        <v>5766</v>
       </c>
       <c r="EL183" t="n">
-        <v>1</v>
+        <v>5187</v>
       </c>
       <c r="EM183" t="n">
-        <v>1</v>
+        <v>5370</v>
       </c>
       <c r="EN183" t="n">
-        <v>2</v>
+        <v>5145</v>
       </c>
       <c r="EO183" t="n">
-        <v>4</v>
+        <v>4277</v>
       </c>
       <c r="EP183" t="n">
-        <v>1</v>
+        <v>3388</v>
       </c>
       <c r="EQ183" t="n">
-        <v>0</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="184">
@@ -63903,16 +64108,16 @@
         <v>330</v>
       </c>
       <c r="B184" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C184" t="n">
-        <v>5058.0513712094</v>
+        <v>10578.1771306963</v>
       </c>
       <c r="D184" t="n">
-        <v>18383956</v>
+        <v>29825968</v>
       </c>
       <c r="E184" t="n">
-        <v>0.000283189168735102</v>
+        <v>0.000362739367134179</v>
       </c>
       <c r="F184" t="s">
         <v>148</v>
@@ -63996,77 +64201,33 @@
       <c r="CE184"/>
       <c r="CF184"/>
       <c r="CG184"/>
-      <c r="CH184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW184" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY184" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ184" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA184" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB184" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC184" t="n">
-        <v>0</v>
-      </c>
+      <c r="CH184"/>
+      <c r="CI184"/>
+      <c r="CJ184"/>
+      <c r="CK184"/>
+      <c r="CL184"/>
+      <c r="CM184"/>
+      <c r="CN184"/>
+      <c r="CO184"/>
+      <c r="CP184"/>
+      <c r="CQ184"/>
+      <c r="CR184"/>
+      <c r="CS184"/>
+      <c r="CT184"/>
+      <c r="CU184"/>
+      <c r="CV184"/>
+      <c r="CW184"/>
+      <c r="CX184"/>
+      <c r="CY184"/>
+      <c r="CZ184"/>
+      <c r="DA184"/>
+      <c r="DB184"/>
+      <c r="DC184"/>
       <c r="DD184" t="n">
         <v>0</v>
       </c>
       <c r="DE184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF184" t="n">
         <v>0</v>
@@ -64093,7 +64254,7 @@
         <v>0</v>
       </c>
       <c r="DN184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO184" t="n">
         <v>0</v>
@@ -64126,7 +64287,7 @@
         <v>0</v>
       </c>
       <c r="DY184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DZ184" t="n">
         <v>0</v>
@@ -64144,40 +64305,40 @@
         <v>1</v>
       </c>
       <c r="EE184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EF184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EH184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EI184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EJ184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EL184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EM184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EN184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EO184" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EP184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EQ184" t="n">
         <v>0</v>
@@ -64188,16 +64349,16 @@
         <v>331</v>
       </c>
       <c r="B185" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C185" t="n">
-        <v>5453.81874480727</v>
+        <v>5058.0513712094</v>
       </c>
       <c r="D185" t="n">
-        <v>14862927</v>
+        <v>18383956</v>
       </c>
       <c r="E185" t="n">
-        <v>0.00037238941461274</v>
+        <v>0.000283189168735102</v>
       </c>
       <c r="F185" t="s">
         <v>148</v>
@@ -64281,8 +64442,12 @@
       <c r="CE185"/>
       <c r="CF185"/>
       <c r="CG185"/>
-      <c r="CH185"/>
-      <c r="CI185"/>
+      <c r="CH185" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI185" t="n">
+        <v>0</v>
+      </c>
       <c r="CJ185" t="n">
         <v>0</v>
       </c>
@@ -64293,7 +64458,7 @@
         <v>0</v>
       </c>
       <c r="CM185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN185" t="n">
         <v>0</v>
@@ -64323,7 +64488,7 @@
         <v>0</v>
       </c>
       <c r="CW185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX185" t="n">
         <v>0</v>
@@ -64341,13 +64506,13 @@
         <v>0</v>
       </c>
       <c r="DC185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF185" t="n">
         <v>0</v>
@@ -64374,7 +64539,7 @@
         <v>0</v>
       </c>
       <c r="DN185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO185" t="n">
         <v>0</v>
@@ -64389,7 +64554,7 @@
         <v>0</v>
       </c>
       <c r="DS185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT185" t="n">
         <v>0</v>
@@ -64422,7 +64587,7 @@
         <v>0</v>
       </c>
       <c r="ED185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EE185" t="n">
         <v>0</v>
@@ -64434,7 +64599,7 @@
         <v>0</v>
       </c>
       <c r="EH185" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EI185" t="n">
         <v>0</v>
@@ -64461,6 +64626,287 @@
         <v>0</v>
       </c>
       <c r="EQ185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>332</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5453.81874480727</v>
+      </c>
+      <c r="D186" t="n">
+        <v>14862927</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.00037238941461274</v>
+      </c>
+      <c r="F186" t="s">
+        <v>148</v>
+      </c>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+      <c r="K186"/>
+      <c r="L186"/>
+      <c r="M186"/>
+      <c r="N186"/>
+      <c r="O186"/>
+      <c r="P186"/>
+      <c r="Q186"/>
+      <c r="R186"/>
+      <c r="S186"/>
+      <c r="T186"/>
+      <c r="U186"/>
+      <c r="V186"/>
+      <c r="W186"/>
+      <c r="X186"/>
+      <c r="Y186"/>
+      <c r="Z186"/>
+      <c r="AA186"/>
+      <c r="AB186"/>
+      <c r="AC186"/>
+      <c r="AD186"/>
+      <c r="AE186"/>
+      <c r="AF186"/>
+      <c r="AG186"/>
+      <c r="AH186"/>
+      <c r="AI186"/>
+      <c r="AJ186"/>
+      <c r="AK186"/>
+      <c r="AL186"/>
+      <c r="AM186"/>
+      <c r="AN186"/>
+      <c r="AO186"/>
+      <c r="AP186"/>
+      <c r="AQ186"/>
+      <c r="AR186"/>
+      <c r="AS186"/>
+      <c r="AT186"/>
+      <c r="AU186"/>
+      <c r="AV186"/>
+      <c r="AW186"/>
+      <c r="AX186"/>
+      <c r="AY186"/>
+      <c r="AZ186"/>
+      <c r="BA186"/>
+      <c r="BB186"/>
+      <c r="BC186"/>
+      <c r="BD186"/>
+      <c r="BE186"/>
+      <c r="BF186"/>
+      <c r="BG186"/>
+      <c r="BH186"/>
+      <c r="BI186"/>
+      <c r="BJ186"/>
+      <c r="BK186"/>
+      <c r="BL186"/>
+      <c r="BM186"/>
+      <c r="BN186"/>
+      <c r="BO186"/>
+      <c r="BP186"/>
+      <c r="BQ186"/>
+      <c r="BR186"/>
+      <c r="BS186"/>
+      <c r="BT186"/>
+      <c r="BU186"/>
+      <c r="BV186"/>
+      <c r="BW186"/>
+      <c r="BX186"/>
+      <c r="BY186"/>
+      <c r="BZ186"/>
+      <c r="CA186"/>
+      <c r="CB186"/>
+      <c r="CC186"/>
+      <c r="CD186"/>
+      <c r="CE186"/>
+      <c r="CF186"/>
+      <c r="CG186"/>
+      <c r="CH186"/>
+      <c r="CI186"/>
+      <c r="CJ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM186" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC186" t="n">
+        <v>1</v>
+      </c>
+      <c r="DD186" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS186" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ186" t="n">
         <v>0</v>
       </c>
     </row>

--- a/expected_deaths_per_country_using_diamond_princess_data.xlsx
+++ b/expected_deaths_per_country_using_diamond_princess_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t xml:space="preserve">location</t>
   </si>
@@ -453,6 +453,12 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-21</t>
   </si>
   <si>
     <t xml:space="preserve">Afghanistan</t>
@@ -1784,13 +1790,19 @@
       <c r="EQ1" t="s">
         <v>146</v>
       </c>
+      <c r="ER1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ES1" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" t="n">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C2" t="n">
         <v>12424.7386346819</v>
@@ -1802,7 +1814,7 @@
         <v>0.000326607907060704</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2207,10 +2219,16 @@
       <c r="EQ2" t="n">
         <v>4</v>
       </c>
+      <c r="ER2" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B3" t="n">
         <v>31</v>
@@ -2225,7 +2243,7 @@
         <v>0.00157829474428685</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -2512,13 +2530,19 @@
       <c r="EQ3" t="n">
         <v>0</v>
       </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="n">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="C4" t="n">
         <v>33668.8832121543</v>
@@ -2530,7 +2554,7 @@
         <v>0.000782032401514519</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2945,13 +2969,19 @@
       <c r="EQ4" t="n">
         <v>7</v>
       </c>
+      <c r="ER4" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES4" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>9405.17919303885</v>
@@ -2963,7 +2993,7 @@
         <v>0.000295525242136416</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -3224,10 +3254,16 @@
       <c r="EQ5" t="n">
         <v>0</v>
       </c>
+      <c r="ER5" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -3242,7 +3278,7 @@
         <v>0.00106574934476638</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -3507,13 +3543,19 @@
       <c r="EQ6" t="n">
         <v>0</v>
       </c>
+      <c r="ER6" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="n">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C7" t="n">
         <v>57649.9059297918</v>
@@ -3525,7 +3567,7 @@
         <v>0.00128738358521375</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -3816,13 +3858,19 @@
       <c r="EQ7" t="n">
         <v>16</v>
       </c>
+      <c r="ER7" t="n">
+        <v>11</v>
+      </c>
+      <c r="ES7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B8" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
         <v>4275.07811346079</v>
@@ -3834,7 +3882,7 @@
         <v>0.0014453925829085</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4241,10 +4289,16 @@
       <c r="EQ8" t="n">
         <v>1</v>
       </c>
+      <c r="ER8" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -4259,7 +4313,7 @@
         <v>0.00152318504812503</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -4518,13 +4572,19 @@
       <c r="EQ9" t="n">
         <v>0</v>
       </c>
+      <c r="ER9" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B10" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C10" t="n">
         <v>45969.5380912888</v>
@@ -4536,7 +4596,7 @@
         <v>0.00182395640598371</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -4959,15 +5019,21 @@
         <v>0</v>
       </c>
       <c r="EQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B11" t="n">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C11" t="n">
         <v>20229.6818387648</v>
@@ -4979,7 +5045,7 @@
         <v>0.00225901037025626</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5403,14 +5469,20 @@
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
+      </c>
+      <c r="ER11" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
         <v>8603.8284399583</v>
@@ -5422,7 +5494,7 @@
         <v>0.000856296681859664</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5833,10 +5905,16 @@
       <c r="EQ12" t="n">
         <v>1</v>
       </c>
+      <c r="ER12" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -5851,7 +5929,7 @@
         <v>0.000900763549577317</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -6120,10 +6198,16 @@
       <c r="EQ13" t="n">
         <v>0</v>
       </c>
+      <c r="ER13" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -6138,7 +6222,7 @@
         <v>0.000435083638427136</v>
       </c>
       <c r="F14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6559,15 +6643,21 @@
         <v>0</v>
       </c>
       <c r="EQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B15" t="n">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="C15" t="n">
         <v>109749.69017571</v>
@@ -6579,7 +6669,7 @@
         <v>0.000673120307924738</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -6876,10 +6966,16 @@
       <c r="EQ15" t="n">
         <v>21</v>
       </c>
+      <c r="ER15" t="n">
+        <v>21</v>
+      </c>
+      <c r="ES15" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -6894,7 +6990,7 @@
         <v>0.00191516379412982</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -7163,13 +7259,19 @@
       <c r="EQ16" t="n">
         <v>0</v>
       </c>
+      <c r="ER16" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B17" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C17" t="n">
         <v>16849.9976684598</v>
@@ -7181,7 +7283,7 @@
         <v>0.0017826141112239</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -7605,14 +7707,20 @@
       </c>
       <c r="EQ17" t="n">
         <v>6</v>
+      </c>
+      <c r="ER17" t="n">
+        <v>4</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="n">
-        <v>9080</v>
+        <v>9150</v>
       </c>
       <c r="C18" t="n">
         <v>26083.2114659941</v>
@@ -7624,7 +7732,7 @@
         <v>0.00226037564637606</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -8048,11 +8156,17 @@
       </c>
       <c r="EQ18" t="n">
         <v>28</v>
+      </c>
+      <c r="ER18" t="n">
+        <v>28</v>
+      </c>
+      <c r="ES18" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -8067,7 +8181,7 @@
         <v>0.00063466604356105</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -8324,10 +8438,16 @@
       <c r="EQ19" t="n">
         <v>0</v>
       </c>
+      <c r="ER19" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
@@ -8342,7 +8462,7 @@
         <v>0.00040002212752087</v>
       </c>
       <c r="F20" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -8613,10 +8733,16 @@
       <c r="EQ20" t="n">
         <v>0</v>
       </c>
+      <c r="ER20" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -8631,7 +8757,7 @@
         <v>0.000749780099492276</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -8908,13 +9034,19 @@
       <c r="EQ21" t="n">
         <v>0</v>
       </c>
+      <c r="ER21" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B22" t="n">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="C22" t="n">
         <v>10032.7800236585</v>
@@ -8926,7 +9058,7 @@
         <v>0.000871422914092258</v>
       </c>
       <c r="F22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -9205,13 +9337,19 @@
       <c r="EQ22" t="n">
         <v>5</v>
       </c>
+      <c r="ER22" t="n">
+        <v>15</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B23" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C23" t="n">
         <v>6171.93069714818</v>
@@ -9223,7 +9361,7 @@
         <v>0.0018697177146377</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -9502,10 +9640,16 @@
       <c r="EQ23" t="n">
         <v>0</v>
       </c>
+      <c r="ER23" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -9520,7 +9664,7 @@
         <v>0.000508439076061826</v>
       </c>
       <c r="F24" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -9761,13 +9905,19 @@
       <c r="EQ24" t="n">
         <v>0</v>
       </c>
+      <c r="ER24" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="n">
-        <v>16792</v>
+        <v>18859</v>
       </c>
       <c r="C25" t="n">
         <v>228696.724029016</v>
@@ -9779,7 +9929,7 @@
         <v>0.00108361641908796</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -10203,11 +10353,17 @@
       </c>
       <c r="EQ25" t="n">
         <v>674</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>1179</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>888</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -10222,7 +10378,7 @@
         <v>0.000675623465190034</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -10505,13 +10661,19 @@
       <c r="EQ26" t="n">
         <v>0</v>
       </c>
+      <c r="ER26" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B27" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C27" t="n">
         <v>15897.177855263</v>
@@ -10523,7 +10685,7 @@
         <v>0.00227098777438303</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -10808,13 +10970,19 @@
       <c r="EQ27" t="n">
         <v>2</v>
       </c>
+      <c r="ER27" t="n">
+        <v>4</v>
+      </c>
+      <c r="ES27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B28" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="n">
         <v>6235.97030972033</v>
@@ -10826,7 +10994,7 @@
         <v>0.00030686743203392</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -11105,10 +11273,16 @@
       <c r="EQ28" t="n">
         <v>0</v>
       </c>
+      <c r="ER28" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -11123,7 +11297,7 @@
         <v>0.000304105056117771</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -11364,10 +11538,16 @@
       <c r="EQ29" t="n">
         <v>0</v>
       </c>
+      <c r="ER29" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -11382,7 +11562,7 @@
         <v>0.00055263869255376</v>
       </c>
       <c r="F30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -11789,13 +11969,19 @@
       <c r="EQ30" t="n">
         <v>0</v>
       </c>
+      <c r="ER30" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C31" t="n">
         <v>8786.28394509146</v>
@@ -11807,7 +11993,7 @@
         <v>0.000339548328176243</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -12086,13 +12272,19 @@
       <c r="EQ31" t="n">
         <v>0</v>
       </c>
+      <c r="ER31" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES31" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B32" t="n">
-        <v>5842</v>
+        <v>6030</v>
       </c>
       <c r="C32" t="n">
         <v>74837.0137910231</v>
@@ -12104,7 +12296,7 @@
         <v>0.00200039934180448</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -12528,11 +12720,17 @@
       </c>
       <c r="EQ32" t="n">
         <v>60</v>
+      </c>
+      <c r="ER32" t="n">
+        <v>70</v>
+      </c>
+      <c r="ES32" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" t="n">
         <v>3</v>
@@ -12547,7 +12745,7 @@
         <v>0.000655840557052802</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -12810,10 +13008,16 @@
       <c r="EQ33" t="n">
         <v>0</v>
       </c>
+      <c r="ER33" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -12828,7 +13032,7 @@
         <v>0.000348558509633733</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -13101,13 +13305,19 @@
       <c r="EQ34" t="n">
         <v>0</v>
       </c>
+      <c r="ER34" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B35" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C35" t="n">
         <v>4924.69422049695</v>
@@ -13119,7 +13329,7 @@
         <v>0.00030881862802377</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -13384,13 +13594,19 @@
       <c r="EQ35" t="n">
         <v>0</v>
       </c>
+      <c r="ER35" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B36" t="n">
-        <v>478</v>
+        <v>544</v>
       </c>
       <c r="C36" t="n">
         <v>26201.5450466779</v>
@@ -13402,7 +13618,7 @@
         <v>0.00138251881904386</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -13697,10 +13913,16 @@
       <c r="EQ36" t="n">
         <v>28</v>
       </c>
+      <c r="ER36" t="n">
+        <v>31</v>
+      </c>
+      <c r="ES36" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B37" t="n">
         <v>4638</v>
@@ -13715,7 +13937,7 @@
         <v>0.00123190966398218</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -14138,15 +14360,21 @@
         <v>0</v>
       </c>
       <c r="EQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER37" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B38" t="n">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="C38" t="n">
         <v>51741.5321868646</v>
@@ -14158,7 +14386,7 @@
         <v>0.00102785269568566</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -14453,10 +14681,16 @@
       <c r="EQ38" t="n">
         <v>18</v>
       </c>
+      <c r="ER38" t="n">
+        <v>21</v>
+      </c>
+      <c r="ES38" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -14471,7 +14705,7 @@
         <v>0.000391342858180625</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -14650,10 +14884,16 @@
       <c r="EQ39" t="n">
         <v>0</v>
       </c>
+      <c r="ER39" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B40" t="n">
         <v>15</v>
@@ -14668,7 +14908,7 @@
         <v>0.000352089946363116</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -14941,10 +15181,16 @@
       <c r="EQ40" t="n">
         <v>0</v>
       </c>
+      <c r="ER40" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B41" t="n">
         <v>10</v>
@@ -14959,7 +15205,7 @@
         <v>0.00117101694264372</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -15248,13 +15494,19 @@
       <c r="EQ41" t="n">
         <v>0</v>
       </c>
+      <c r="ER41" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B42" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" t="n">
         <v>9812.49523348445</v>
@@ -15266,7 +15518,7 @@
         <v>0.00237573483989524</v>
       </c>
       <c r="F42" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -15689,12 +15941,18 @@
         <v>0</v>
       </c>
       <c r="EQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER42" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B43" t="n">
         <v>79</v>
@@ -15709,7 +15967,7 @@
         <v>0.00177238545118044</v>
       </c>
       <c r="F43" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -15984,10 +16242,16 @@
       <c r="EQ43" t="n">
         <v>0</v>
       </c>
+      <c r="ER43" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B44" t="n">
         <v>17</v>
@@ -16002,7 +16266,7 @@
         <v>0.00158961905147417</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -16283,13 +16547,19 @@
       <c r="EQ44" t="n">
         <v>0</v>
       </c>
+      <c r="ER44" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B45" t="n">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C45" t="n">
         <v>22118.8199723267</v>
@@ -16301,7 +16571,7 @@
         <v>0.00206926552706235</v>
       </c>
       <c r="F45" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -16725,11 +16995,17 @@
       </c>
       <c r="EQ45" t="n">
         <v>0</v>
+      </c>
+      <c r="ER45" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B46" t="n">
         <v>61</v>
@@ -16744,7 +17020,7 @@
         <v>0.000365596851382535</v>
       </c>
       <c r="F46" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -17023,13 +17299,19 @@
       <c r="EQ46" t="n">
         <v>1</v>
       </c>
+      <c r="ER46" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B47" t="n">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="C47" t="n">
         <v>12584.2078665055</v>
@@ -17041,7 +17323,7 @@
         <v>0.00218026265398681</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -17413,28 +17695,28 @@
         <v>9</v>
       </c>
       <c r="DZ47" t="n">
+        <v>10</v>
+      </c>
+      <c r="EA47" t="n">
+        <v>11</v>
+      </c>
+      <c r="EB47" t="n">
         <v>8</v>
-      </c>
-      <c r="EA47" t="n">
-        <v>15</v>
-      </c>
-      <c r="EB47" t="n">
-        <v>9</v>
       </c>
       <c r="EC47" t="n">
         <v>9</v>
       </c>
       <c r="ED47" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="EE47" t="n">
         <v>3</v>
       </c>
       <c r="EF47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="EG47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="EH47" t="n">
         <v>4</v>
@@ -17443,10 +17725,10 @@
         <v>3</v>
       </c>
       <c r="EJ47" t="n">
+        <v>5</v>
+      </c>
+      <c r="EK47" t="n">
         <v>4</v>
-      </c>
-      <c r="EK47" t="n">
-        <v>-6</v>
       </c>
       <c r="EL47" t="n">
         <v>6</v>
@@ -17458,21 +17740,27 @@
         <v>0</v>
       </c>
       <c r="EO47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="EP47" t="n">
         <v>4</v>
       </c>
       <c r="EQ47" t="n">
         <v>1</v>
+      </c>
+      <c r="ER47" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES47" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" t="n">
         <v>549.356432708689</v>
@@ -17484,7 +17772,7 @@
         <v>0.000564277625972274</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -17751,13 +18039,19 @@
       <c r="EQ48" t="n">
         <v>3</v>
       </c>
+      <c r="ER48" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B49" t="n">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="C49" t="n">
         <v>9563.68459374326</v>
@@ -17769,7 +18063,7 @@
         <v>0.000890559911334337</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -18176,13 +18470,19 @@
       <c r="EQ49" t="n">
         <v>6</v>
       </c>
+      <c r="ER49" t="n">
+        <v>7</v>
+      </c>
+      <c r="ES49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B50" t="n">
-        <v>2799</v>
+        <v>2888</v>
       </c>
       <c r="C50" t="n">
         <v>15274.9141172754</v>
@@ -18194,7 +18494,7 @@
         <v>0.000879199705466463</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -18609,13 +18909,19 @@
       <c r="EQ50" t="n">
         <v>63</v>
       </c>
+      <c r="ER50" t="n">
+        <v>40</v>
+      </c>
+      <c r="ES50" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B51" t="n">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="C51" t="n">
         <v>62145.086674715</v>
@@ -18627,7 +18933,7 @@
         <v>0.000619048494302884</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -19044,13 +19350,19 @@
       <c r="EQ51" t="n">
         <v>15</v>
       </c>
+      <c r="ER51" t="n">
+        <v>14</v>
+      </c>
+      <c r="ES51" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C52" t="n">
         <v>6416.52499255144</v>
@@ -19062,7 +19374,7 @@
         <v>0.000994262846425834</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -19329,10 +19641,16 @@
       <c r="EQ52" t="n">
         <v>0</v>
       </c>
+      <c r="ER52" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B53" t="n">
         <v>7</v>
@@ -19347,7 +19665,7 @@
         <v>0.000321815515316653</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -19622,10 +19940,16 @@
       <c r="EQ53" t="n">
         <v>0</v>
       </c>
+      <c r="ER53" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -19640,7 +19964,7 @@
         <v>0.000500137454675162</v>
       </c>
       <c r="F54" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -19901,10 +20225,16 @@
       <c r="EQ54" t="n">
         <v>0</v>
       </c>
+      <c r="ER54" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B55" t="n">
         <v>64</v>
@@ -19919,7 +20249,7 @@
         <v>0.00232392345130483</v>
       </c>
       <c r="F55" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -20343,11 +20673,17 @@
       </c>
       <c r="EQ55" t="n">
         <v>1</v>
+      </c>
+      <c r="ER55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B56" t="n">
         <v>5</v>
@@ -20362,7 +20698,7 @@
         <v>0.00042237218402554</v>
       </c>
       <c r="F56" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -20639,10 +20975,16 @@
       <c r="EQ56" t="n">
         <v>0</v>
       </c>
+      <c r="ER56" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -20657,7 +20999,7 @@
         <v>0.000658740043712816</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -20922,13 +21264,19 @@
       <c r="EQ57" t="n">
         <v>0</v>
       </c>
+      <c r="ER57" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B58" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C58" t="n">
         <v>13371.3393209836</v>
@@ -20940,7 +21288,7 @@
         <v>0.00241702006774997</v>
       </c>
       <c r="F58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -21364,14 +21712,20 @@
       </c>
       <c r="EQ58" t="n">
         <v>2</v>
+      </c>
+      <c r="ER58" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES58" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B59" t="n">
-        <v>28239</v>
+        <v>28132</v>
       </c>
       <c r="C59" t="n">
         <v>155494.034736421</v>
@@ -21383,7 +21737,7 @@
         <v>0.00238745097091409</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -21797,21 +22151,27 @@
         <v>351</v>
       </c>
       <c r="EN59" t="n">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="EO59" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="EP59" t="n">
-        <v>483</v>
+        <v>68</v>
       </c>
       <c r="EQ59" t="n">
-        <v>131</v>
+        <v>186</v>
+      </c>
+      <c r="ER59" t="n">
+        <v>125</v>
+      </c>
+      <c r="ES59" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -21826,7 +22186,7 @@
         <v>0.000992700472639409</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -22093,13 +22453,19 @@
       <c r="EQ60" t="n">
         <v>0</v>
       </c>
+      <c r="ER60" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
         <v>966.553501733155</v>
@@ -22111,7 +22477,7 @@
         <v>0.00044488782530853</v>
       </c>
       <c r="F61" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -22388,10 +22754,16 @@
       <c r="EQ61" t="n">
         <v>0</v>
       </c>
+      <c r="ER61" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -22406,7 +22778,7 @@
         <v>0.00031828406811343</v>
       </c>
       <c r="F62" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -22675,10 +23047,16 @@
       <c r="EQ62" t="n">
         <v>0</v>
       </c>
+      <c r="ER62" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B63" t="n">
         <v>12</v>
@@ -22693,7 +23071,7 @@
         <v>0.00173743284021825</v>
       </c>
       <c r="F63" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -23112,13 +23490,19 @@
       <c r="EQ63" t="n">
         <v>0</v>
       </c>
+      <c r="ER63" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B64" t="n">
-        <v>8007</v>
+        <v>8147</v>
       </c>
       <c r="C64" t="n">
         <v>218868.764986589</v>
@@ -23130,7 +23514,7 @@
         <v>0.0026206478568128</v>
       </c>
       <c r="F64" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -23554,14 +23938,20 @@
       </c>
       <c r="EQ64" t="n">
         <v>72</v>
+      </c>
+      <c r="ER64" t="n">
+        <v>83</v>
+      </c>
+      <c r="ES64" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B65" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C65" t="n">
         <v>12190.9828388573</v>
@@ -23573,7 +23963,7 @@
         <v>0.000400783738251961</v>
       </c>
       <c r="F65" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -23850,13 +24240,19 @@
       <c r="EQ65" t="n">
         <v>0</v>
       </c>
+      <c r="ER65" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B66" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C66" t="n">
         <v>28263.1945021056</v>
@@ -23868,7 +24264,7 @@
         <v>0.00269855578677456</v>
       </c>
       <c r="F66" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -24292,11 +24688,17 @@
       </c>
       <c r="EQ66" t="n">
         <v>2</v>
+      </c>
+      <c r="ER66" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -24311,7 +24713,7 @@
         <v>0.00116597229275071</v>
       </c>
       <c r="F67" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -24570,10 +24972,16 @@
       <c r="EQ67" t="n">
         <v>0</v>
       </c>
+      <c r="ER67" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B68" t="n">
         <v>5</v>
@@ -24588,7 +24996,7 @@
         <v>0.00116117444660682</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -24855,13 +25263,19 @@
       <c r="EQ68" t="n">
         <v>0</v>
       </c>
+      <c r="ER68" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B69" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C69" t="n">
         <v>10675.1133572492</v>
@@ -24873,7 +25287,7 @@
         <v>0.000607179588178444</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -25148,13 +25562,19 @@
       <c r="EQ69" t="n">
         <v>3</v>
       </c>
+      <c r="ER69" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C70" t="n">
         <v>4481.23143358768</v>
@@ -25166,7 +25586,7 @@
         <v>0.000350884462210825</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -25441,13 +25861,19 @@
       <c r="EQ70" t="n">
         <v>0</v>
       </c>
+      <c r="ER70" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
         <v>652.600813657327</v>
@@ -25459,7 +25885,7 @@
         <v>0.000339734175600248</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -25710,10 +26136,16 @@
       <c r="EQ71" t="n">
         <v>0</v>
       </c>
+      <c r="ER71" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B72" t="n">
         <v>10</v>
@@ -25728,7 +26160,7 @@
         <v>0.000824424853209571</v>
       </c>
       <c r="F72" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -26003,13 +26435,19 @@
       <c r="EQ72" t="n">
         <v>0</v>
       </c>
+      <c r="ER72" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B73" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73" t="n">
         <v>6785.40203132334</v>
@@ -26021,7 +26459,7 @@
         <v>0.000602446456366269</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -26286,13 +26724,19 @@
       <c r="EQ73" t="n">
         <v>1</v>
       </c>
+      <c r="ER73" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B74" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C74" t="n">
         <v>5975.1028994163</v>
@@ -26304,7 +26748,7 @@
         <v>0.000613075416459965</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -26581,10 +27025,16 @@
       <c r="EQ74" t="n">
         <v>4</v>
       </c>
+      <c r="ER74" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -26599,7 +27049,7 @@
         <v>0.00211272955020031</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -26948,13 +27398,15 @@
       <c r="EO75"/>
       <c r="EP75"/>
       <c r="EQ75"/>
+      <c r="ER75"/>
+      <c r="ES75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B76" t="n">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C76" t="n">
         <v>20343.8576548164</v>
@@ -26966,7 +27418,7 @@
         <v>0.00210062259721708</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -27263,10 +27715,16 @@
       <c r="EQ76" t="n">
         <v>5</v>
       </c>
+      <c r="ER76" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B77" t="n">
         <v>10</v>
@@ -27281,7 +27739,7 @@
         <v>0.00173303942255681</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -27704,15 +28162,21 @@
         <v>0</v>
       </c>
       <c r="EQ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER77" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B78" t="n">
-        <v>3163</v>
+        <v>3435</v>
       </c>
       <c r="C78" t="n">
         <v>1007352.75961413</v>
@@ -27724,7 +28188,7 @@
         <v>0.000737221655623268</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -28146,14 +28610,20 @@
       </c>
       <c r="EQ78" t="n">
         <v>134</v>
+      </c>
+      <c r="ER78" t="n">
+        <v>140</v>
+      </c>
+      <c r="ES78" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B79" t="n">
-        <v>1191</v>
+        <v>1242</v>
       </c>
       <c r="C79" t="n">
         <v>197413.463693284</v>
@@ -28165,7 +28635,7 @@
         <v>0.000729470854811306</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -28576,13 +29046,19 @@
       <c r="EQ79" t="n">
         <v>43</v>
       </c>
+      <c r="ER79" t="n">
+        <v>30</v>
+      </c>
+      <c r="ES79" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B80" t="n">
-        <v>7057</v>
+        <v>7183</v>
       </c>
       <c r="C80" t="n">
         <v>64236.7361883875</v>
@@ -28594,7 +29070,7 @@
         <v>0.000774740322329184</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -29018,14 +29494,20 @@
       </c>
       <c r="EQ80" t="n">
         <v>69</v>
+      </c>
+      <c r="ER80" t="n">
+        <v>62</v>
+      </c>
+      <c r="ES80" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B81" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C81" t="n">
         <v>16242.4441635167</v>
@@ -29037,7 +29519,7 @@
         <v>0.000413190835918949</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -29457,14 +29939,20 @@
       </c>
       <c r="EQ81" t="n">
         <v>4</v>
+      </c>
+      <c r="ER81" t="n">
+        <v>4</v>
+      </c>
+      <c r="ES81" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B82" t="n">
-        <v>1547</v>
+        <v>1571</v>
       </c>
       <c r="C82" t="n">
         <v>7663.69136924019</v>
@@ -29476,7 +29964,7 @@
         <v>0.00156962509134468</v>
       </c>
       <c r="F82" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -29898,14 +30386,20 @@
       </c>
       <c r="EQ82" t="n">
         <v>4</v>
+      </c>
+      <c r="ER82" t="n">
+        <v>14</v>
+      </c>
+      <c r="ES82" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B83" t="n">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C83" t="n">
         <v>11713.287711048</v>
@@ -29917,7 +30411,7 @@
         <v>0.00137490036953991</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -30341,14 +30835,20 @@
       </c>
       <c r="EQ83" t="n">
         <v>0</v>
+      </c>
+      <c r="ER83" t="n">
+        <v>5</v>
+      </c>
+      <c r="ES83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B84" t="n">
-        <v>32007</v>
+        <v>32330</v>
       </c>
       <c r="C84" t="n">
         <v>167507.793589674</v>
@@ -30360,7 +30860,7 @@
         <v>0.00276643334562851</v>
       </c>
       <c r="F84" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -30784,11 +31284,17 @@
       </c>
       <c r="EQ84" t="n">
         <v>99</v>
+      </c>
+      <c r="ER84" t="n">
+        <v>162</v>
+      </c>
+      <c r="ES84" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B85" t="n">
         <v>9</v>
@@ -30803,7 +31309,7 @@
         <v>0.00107588252839865</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -31082,13 +31588,19 @@
       <c r="EQ85" t="n">
         <v>0</v>
       </c>
+      <c r="ER85" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B86" t="n">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="C86" t="n">
         <v>408185.308690873</v>
@@ -31100,7 +31612,7 @@
         <v>0.00321759693070622</v>
       </c>
       <c r="F86" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -31524,11 +32036,17 @@
       </c>
       <c r="EQ86" t="n">
         <v>14</v>
+      </c>
+      <c r="ER86" t="n">
+        <v>8</v>
+      </c>
+      <c r="ES86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B87" t="n">
         <v>9</v>
@@ -31543,7 +32061,7 @@
         <v>0.000499912687157966</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -31822,10 +32340,16 @@
       <c r="EQ87" t="n">
         <v>0</v>
       </c>
+      <c r="ER87" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B88" t="n">
         <v>35</v>
@@ -31840,7 +32364,7 @@
         <v>0.000923583142332935</v>
       </c>
       <c r="F88" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -32119,10 +32643,16 @@
       <c r="EQ88" t="n">
         <v>1</v>
       </c>
+      <c r="ER88" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B89" t="n">
         <v>50</v>
@@ -32137,7 +32667,7 @@
         <v>0.000324137912152746</v>
       </c>
       <c r="F89" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -32430,13 +32960,19 @@
       <c r="EQ89" t="n">
         <v>0</v>
       </c>
+      <c r="ER89" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B90" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C90" t="n">
         <v>2002.98606207839</v>
@@ -32448,7 +32984,7 @@
         <v>0.000476099216172748</v>
       </c>
       <c r="F90" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -32867,10 +33403,16 @@
       <c r="EQ90" t="n">
         <v>6</v>
       </c>
+      <c r="ER90" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B91" t="n">
         <v>14</v>
@@ -32885,7 +33427,7 @@
         <v>0.000612172004263775</v>
       </c>
       <c r="F91" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -33152,10 +33694,16 @@
       <c r="EQ91" t="n">
         <v>0</v>
       </c>
+      <c r="ER91" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -33170,7 +33718,7 @@
         <v>0.000511768875418625</v>
       </c>
       <c r="F92" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -33425,13 +33973,19 @@
       <c r="EQ92" t="n">
         <v>0</v>
       </c>
+      <c r="ER92" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C93" t="n">
         <v>4497.91263416745</v>
@@ -33443,7 +33997,7 @@
         <v>0.00235895435883626</v>
       </c>
       <c r="F93" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -33748,10 +34302,16 @@
       <c r="EQ93" t="n">
         <v>0</v>
       </c>
+      <c r="ER93" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B94" t="n">
         <v>26</v>
@@ -33766,7 +34326,7 @@
         <v>0.000880726431371255</v>
       </c>
       <c r="F94" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -34183,10 +34743,16 @@
       <c r="EQ94" t="n">
         <v>0</v>
       </c>
+      <c r="ER94" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -34201,7 +34767,7 @@
         <v>0.000585965544185038</v>
       </c>
       <c r="F95" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -34354,13 +34920,19 @@
       <c r="EQ95" t="n">
         <v>0</v>
       </c>
+      <c r="ER95" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B96" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C96" t="n">
         <v>1986.37607313627</v>
@@ -34372,7 +34944,7 @@
         <v>0.000402314281465465</v>
       </c>
       <c r="F96" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -34643,10 +35215,16 @@
       <c r="EQ96" t="n">
         <v>1</v>
       </c>
+      <c r="ER96" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B97" t="n">
         <v>3</v>
@@ -34661,7 +35239,7 @@
         <v>0.000579300651412643</v>
       </c>
       <c r="F97" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -34916,13 +35494,19 @@
       <c r="EQ97" t="n">
         <v>0</v>
       </c>
+      <c r="ER97" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B98" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C98" t="n">
         <v>6676.53568545475</v>
@@ -34934,7 +35518,7 @@
         <v>0.00241935812630557</v>
       </c>
       <c r="F98" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -35358,14 +35942,20 @@
       </c>
       <c r="EQ98" t="n">
         <v>3</v>
+      </c>
+      <c r="ER98" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B99" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C99" t="n">
         <v>1068.92055629367</v>
@@ -35377,7 +35967,7 @@
         <v>0.00173602156187562</v>
       </c>
       <c r="F99" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -35788,13 +36378,19 @@
       <c r="EQ99" t="n">
         <v>0</v>
       </c>
+      <c r="ER99" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B100" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C100" t="n">
         <v>3135.76609940643</v>
@@ -35806,7 +36402,7 @@
         <v>0.00150507766386768</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -36213,13 +36809,19 @@
       <c r="EQ100" t="n">
         <v>3</v>
       </c>
+      <c r="ER100" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C101" t="n">
         <v>10444.1668407235</v>
@@ -36231,7 +36833,7 @@
         <v>0.000387261238413905</v>
       </c>
       <c r="F101" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -36494,10 +37096,16 @@
       <c r="EQ101" t="n">
         <v>0</v>
       </c>
+      <c r="ER101" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B102" t="n">
         <v>3</v>
@@ -36512,7 +37120,7 @@
         <v>0.000329749892185964</v>
       </c>
       <c r="F102" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
@@ -36749,13 +37357,19 @@
       <c r="EQ102" t="n">
         <v>0</v>
       </c>
+      <c r="ER102" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B103" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C103" t="n">
         <v>25774.5103419537</v>
@@ -36767,7 +37381,7 @@
         <v>0.00080671926634488</v>
       </c>
       <c r="F103" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -37190,12 +37804,18 @@
         <v>0</v>
       </c>
       <c r="EQ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER103" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B104" t="n">
         <v>4</v>
@@ -37210,7 +37830,7 @@
         <v>0.000542245776326512</v>
       </c>
       <c r="F104" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
@@ -37495,13 +38115,19 @@
       <c r="EQ104" t="n">
         <v>0</v>
       </c>
+      <c r="ER104" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B105" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C105" t="n">
         <v>5961.46439416279</v>
@@ -37513,7 +38139,7 @@
         <v>0.000303258608326046</v>
       </c>
       <c r="F105" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
@@ -37766,10 +38392,16 @@
       <c r="EQ105" t="n">
         <v>0</v>
       </c>
+      <c r="ER105" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B106" t="n">
         <v>6</v>
@@ -37784,7 +38416,7 @@
         <v>0.00223922557196121</v>
       </c>
       <c r="F106" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
@@ -38075,10 +38707,16 @@
       <c r="EQ106" t="n">
         <v>0</v>
       </c>
+      <c r="ER106" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B107" t="n">
         <v>4</v>
@@ -38093,7 +38731,7 @@
         <v>0.000399808350339084</v>
       </c>
       <c r="F107" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
@@ -38368,10 +39006,16 @@
       <c r="EQ107" t="n">
         <v>0</v>
       </c>
+      <c r="ER107" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B108" t="n">
         <v>10</v>
@@ -38386,7 +39030,7 @@
         <v>0.00131209265770585</v>
       </c>
       <c r="F108" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -38651,13 +39295,19 @@
       <c r="EQ108" t="n">
         <v>0</v>
       </c>
+      <c r="ER108" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B109" t="n">
-        <v>5332</v>
+        <v>6090</v>
       </c>
       <c r="C109" t="n">
         <v>114239.082347694</v>
@@ -38669,7 +39319,7 @@
         <v>0.000895462351899451</v>
       </c>
       <c r="F109" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -39093,14 +39743,20 @@
       </c>
       <c r="EQ109" t="n">
         <v>155</v>
+      </c>
+      <c r="ER109" t="n">
+        <v>334</v>
+      </c>
+      <c r="ES109" t="n">
+        <v>424</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B110" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="C110" t="n">
         <v>5369.62504534586</v>
@@ -39112,7 +39768,7 @@
         <v>0.00132804412811299</v>
       </c>
       <c r="F110" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
@@ -39397,10 +40053,16 @@
       <c r="EQ110" t="n">
         <v>4</v>
       </c>
+      <c r="ER110" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES110" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -39415,7 +40077,7 @@
         <v>0.000560116659650488</v>
       </c>
       <c r="F111" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
@@ -39688,10 +40350,16 @@
       <c r="EQ111" t="n">
         <v>0</v>
       </c>
+      <c r="ER111" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B112" t="n">
         <v>9</v>
@@ -39706,7 +40374,7 @@
         <v>0.00169587961599432</v>
       </c>
       <c r="F112" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -39975,13 +40643,19 @@
       <c r="EQ112" t="n">
         <v>0</v>
       </c>
+      <c r="ER112" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B113" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C113" t="n">
         <v>30904.1648122975</v>
@@ -39993,7 +40667,7 @@
         <v>0.000847344897208913</v>
       </c>
       <c r="F113" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
@@ -40033,30 +40707,78 @@
       <c r="AP113"/>
       <c r="AQ113"/>
       <c r="AR113"/>
-      <c r="AS113"/>
-      <c r="AT113"/>
-      <c r="AU113"/>
-      <c r="AV113"/>
-      <c r="AW113"/>
-      <c r="AX113"/>
-      <c r="AY113"/>
-      <c r="AZ113"/>
-      <c r="BA113"/>
-      <c r="BB113"/>
-      <c r="BC113"/>
-      <c r="BD113"/>
-      <c r="BE113"/>
-      <c r="BF113"/>
-      <c r="BG113"/>
-      <c r="BH113"/>
-      <c r="BI113"/>
-      <c r="BJ113"/>
-      <c r="BK113"/>
-      <c r="BL113"/>
-      <c r="BM113"/>
-      <c r="BN113"/>
-      <c r="BO113"/>
-      <c r="BP113"/>
+      <c r="AS113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>0</v>
+      </c>
       <c r="BQ113" t="n">
         <v>0</v>
       </c>
@@ -40293,11 +41015,17 @@
       </c>
       <c r="EQ113" t="n">
         <v>0</v>
+      </c>
+      <c r="ER113" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES113" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -40312,7 +41040,7 @@
         <v>0.000347850161660036</v>
       </c>
       <c r="F114" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
@@ -40571,10 +41299,16 @@
       <c r="EQ114" t="n">
         <v>0</v>
       </c>
+      <c r="ER114" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B115" t="n">
         <v>6</v>
@@ -40589,7 +41323,7 @@
         <v>0.000700909676076501</v>
       </c>
       <c r="F115" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
@@ -40848,10 +41582,16 @@
       <c r="EQ115" t="n">
         <v>0</v>
       </c>
+      <c r="ER115" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -40866,7 +41606,7 @@
         <v>0.000460552988349411</v>
       </c>
       <c r="F116" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
@@ -41141,10 +41881,16 @@
       <c r="EQ116" t="n">
         <v>0</v>
       </c>
+      <c r="ER116" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B117" t="n">
         <v>2</v>
@@ -41159,7 +41905,7 @@
         <v>0.000648489167394676</v>
       </c>
       <c r="F117" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -41582,15 +42328,21 @@
         <v>1</v>
       </c>
       <c r="EQ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER117" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B118" t="n">
-        <v>5694</v>
+        <v>5748</v>
       </c>
       <c r="C118" t="n">
         <v>37338.4501582691</v>
@@ -41602,7 +42354,7 @@
         <v>0.00218390265673188</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -42026,11 +42778,17 @@
       </c>
       <c r="EQ118" t="n">
         <v>14</v>
+      </c>
+      <c r="ER118" t="n">
+        <v>21</v>
+      </c>
+      <c r="ES118" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -42045,7 +42803,7 @@
         <v>0.00104863171588723</v>
       </c>
       <c r="F119" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
@@ -42308,10 +43066,16 @@
       <c r="EQ119" t="n">
         <v>0</v>
       </c>
+      <c r="ER119" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B120" t="n">
         <v>21</v>
@@ -42326,7 +43090,7 @@
         <v>0.00179953713455411</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -42745,12 +43509,18 @@
         <v>0</v>
       </c>
       <c r="EQ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER120" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B121" t="n">
         <v>8</v>
@@ -42765,7 +43535,7 @@
         <v>0.000683051292448351</v>
       </c>
       <c r="F121" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -43032,13 +43802,19 @@
       <c r="EQ121" t="n">
         <v>0</v>
       </c>
+      <c r="ER121" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B122" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C122" t="n">
         <v>7126.85814362392</v>
@@ -43050,7 +43826,7 @@
         <v>0.00030573308972683</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
@@ -43313,13 +44089,19 @@
       <c r="EQ122" t="n">
         <v>1</v>
       </c>
+      <c r="ER122" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES122" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B123" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C123" t="n">
         <v>67019.9122461298</v>
@@ -43331,7 +44113,7 @@
         <v>0.00033349278797579</v>
       </c>
       <c r="F123" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -43734,13 +44516,19 @@
       <c r="EQ123" t="n">
         <v>9</v>
       </c>
+      <c r="ER123" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES123" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B124" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C124" t="n">
         <v>10423.9075967239</v>
@@ -43752,7 +44540,7 @@
         <v>0.00193794029490713</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -44175,15 +44963,21 @@
         <v>0</v>
       </c>
       <c r="EQ124" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER124" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES124" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B125" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C125" t="n">
         <v>1977.24805262704</v>
@@ -44195,7 +44989,7 @@
         <v>0.000397437433593268</v>
       </c>
       <c r="F125" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -44608,13 +45402,19 @@
       <c r="EQ125" t="n">
         <v>4</v>
       </c>
+      <c r="ER125" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B126" t="n">
-        <v>939</v>
+        <v>1017</v>
       </c>
       <c r="C126" t="n">
         <v>114749.416789966</v>
@@ -44626,7 +45426,7 @@
         <v>0.000529860544520923</v>
       </c>
       <c r="F126" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -45041,10 +45841,16 @@
       <c r="EQ126" t="n">
         <v>36</v>
       </c>
+      <c r="ER126" t="n">
+        <v>46</v>
+      </c>
+      <c r="ES126" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B127" t="n">
         <v>4</v>
@@ -45059,7 +45865,7 @@
         <v>0.000401489546672574</v>
       </c>
       <c r="F127" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
@@ -45346,13 +46152,19 @@
       <c r="EQ127" t="n">
         <v>0</v>
       </c>
+      <c r="ER127" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B128" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C128" t="n">
         <v>4294.40325124701</v>
@@ -45364,7 +46176,7 @@
         <v>0.00101129493204826</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
@@ -45651,10 +46463,16 @@
       <c r="EQ128" t="n">
         <v>4</v>
       </c>
+      <c r="ER128" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES128" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -45669,7 +46487,7 @@
         <v>0.000430456683036194</v>
       </c>
       <c r="F129" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G129"/>
       <c r="H129"/>
@@ -45932,10 +46750,16 @@
       <c r="EQ129" t="n">
         <v>0</v>
       </c>
+      <c r="ER129" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B130" t="n">
         <v>11</v>
@@ -45950,7 +46774,7 @@
         <v>0.000769195183228435</v>
       </c>
       <c r="F130" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G130"/>
       <c r="H130"/>
@@ -46241,13 +47065,19 @@
       <c r="EQ130" t="n">
         <v>0</v>
       </c>
+      <c r="ER130" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B131" t="n">
-        <v>2789</v>
+        <v>3024</v>
       </c>
       <c r="C131" t="n">
         <v>31935.9331415483</v>
@@ -46259,7 +47089,7 @@
         <v>0.000982327877762806</v>
       </c>
       <c r="F131" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G131"/>
       <c r="H131"/>
@@ -46556,13 +47386,19 @@
       <c r="EQ131" t="n">
         <v>141</v>
       </c>
+      <c r="ER131" t="n">
+        <v>125</v>
+      </c>
+      <c r="ES131" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B132" t="n">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="C132" t="n">
         <v>68981.1109537369</v>
@@ -46574,7 +47410,7 @@
         <v>0.000638025029617896</v>
       </c>
       <c r="F132" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -46991,13 +47827,19 @@
       <c r="EQ132" t="n">
         <v>7</v>
       </c>
+      <c r="ER132" t="n">
+        <v>6</v>
+      </c>
+      <c r="ES132" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B133" t="n">
-        <v>936</v>
+        <v>962</v>
       </c>
       <c r="C133" t="n">
         <v>77215.1423090302</v>
@@ -47009,7 +47851,7 @@
         <v>0.0020379964909265</v>
       </c>
       <c r="F133" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
@@ -47308,13 +48150,19 @@
       <c r="EQ133" t="n">
         <v>11</v>
       </c>
+      <c r="ER133" t="n">
+        <v>12</v>
+      </c>
+      <c r="ES133" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B134" t="n">
-        <v>1231</v>
+        <v>1263</v>
       </c>
       <c r="C134" t="n">
         <v>26615.3148012212</v>
@@ -47326,7 +48174,7 @@
         <v>0.00260266492537302</v>
       </c>
       <c r="F134" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
@@ -47629,13 +48477,19 @@
       <c r="EQ134" t="n">
         <v>13</v>
       </c>
+      <c r="ER134" t="n">
+        <v>16</v>
+      </c>
+      <c r="ES134" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B135" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C135" t="n">
         <v>6595.95722933069</v>
@@ -47647,7 +48501,7 @@
         <v>0.00224856761268843</v>
       </c>
       <c r="F135" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
@@ -47896,13 +48750,19 @@
       <c r="EQ135" t="n">
         <v>1</v>
       </c>
+      <c r="ER135" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B136" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C136" t="n">
         <v>950.68527167165</v>
@@ -47914,7 +48774,7 @@
         <v>0.000335685536016452</v>
       </c>
       <c r="F136" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -48331,13 +49191,19 @@
       <c r="EQ136" t="n">
         <v>0</v>
       </c>
+      <c r="ER136" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B137" t="n">
-        <v>1107</v>
+        <v>1141</v>
       </c>
       <c r="C137" t="n">
         <v>40873.3267557483</v>
@@ -48349,7 +49215,7 @@
         <v>0.00211072861852815</v>
       </c>
       <c r="F137" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -48769,14 +49635,20 @@
       </c>
       <c r="EQ137" t="n">
         <v>10</v>
+      </c>
+      <c r="ER137" t="n">
+        <v>19</v>
+      </c>
+      <c r="ES137" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B138" t="n">
-        <v>2722</v>
+        <v>2972</v>
       </c>
       <c r="C138" t="n">
         <v>256123.517136503</v>
@@ -48788,7 +49660,7 @@
         <v>0.00175580691218415</v>
       </c>
       <c r="F138" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -49212,11 +50084,17 @@
       </c>
       <c r="EQ138" t="n">
         <v>91</v>
+      </c>
+      <c r="ER138" t="n">
+        <v>115</v>
+      </c>
+      <c r="ES138" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -49231,7 +50109,7 @@
         <v>0.000379243935153201</v>
       </c>
       <c r="F139" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
@@ -49506,10 +50384,16 @@
       <c r="EQ139" t="n">
         <v>0</v>
       </c>
+      <c r="ER139" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -49524,7 +50408,7 @@
         <v>0.00122176693298997</v>
       </c>
       <c r="F140" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G140"/>
       <c r="H140"/>
@@ -49799,10 +50683,16 @@
       <c r="EQ140" t="n">
         <v>0</v>
       </c>
+      <c r="ER140" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -49817,7 +50707,7 @@
         <v>0.00119556052142664</v>
       </c>
       <c r="F141" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G141"/>
       <c r="H141"/>
@@ -50074,13 +50964,19 @@
       <c r="EQ141" t="n">
         <v>0</v>
       </c>
+      <c r="ER141" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="n">
         <v>85.8934005844624</v>
@@ -50092,7 +50988,7 @@
         <v>0.000399415017040207</v>
       </c>
       <c r="F142" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G142"/>
       <c r="H142"/>
@@ -50317,13 +51213,19 @@
       <c r="EQ142" t="n">
         <v>0</v>
       </c>
+      <c r="ER142" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B143" t="n">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C143" t="n">
         <v>16751.8648403159</v>
@@ -50335,7 +51237,7 @@
         <v>0.000488841083325049</v>
       </c>
       <c r="F143" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G143"/>
       <c r="H143"/>
@@ -50628,13 +51530,19 @@
       <c r="EQ143" t="n">
         <v>8</v>
       </c>
+      <c r="ER143" t="n">
+        <v>9</v>
+      </c>
+      <c r="ES143" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B144" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C144" t="n">
         <v>6117.70598387866</v>
@@ -50646,7 +51554,7 @@
         <v>0.000375403194853051</v>
       </c>
       <c r="F144" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G144"/>
       <c r="H144"/>
@@ -50947,13 +51855,19 @@
       <c r="EQ144" t="n">
         <v>0</v>
       </c>
+      <c r="ER144" t="n">
+        <v>4</v>
+      </c>
+      <c r="ES144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B145" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C145" t="n">
         <v>17271.4268963359</v>
@@ -50965,7 +51879,7 @@
         <v>0.00196887574015814</v>
       </c>
       <c r="F145" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G145"/>
       <c r="H145"/>
@@ -51276,10 +52190,16 @@
       <c r="EQ145" t="n">
         <v>1</v>
       </c>
+      <c r="ER145" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -51294,7 +52214,7 @@
         <v>0.00100000001120105</v>
       </c>
       <c r="F146" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G146"/>
       <c r="H146"/>
@@ -51569,13 +52489,19 @@
       <c r="EQ146" t="n">
         <v>0</v>
       </c>
+      <c r="ER146" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B147" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C147" t="n">
         <v>2872.35158124797</v>
@@ -51587,7 +52513,7 @@
         <v>0.000367627733560364</v>
       </c>
       <c r="F147" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G147"/>
       <c r="H147"/>
@@ -51828,10 +52754,16 @@
       <c r="EQ147" t="n">
         <v>1</v>
       </c>
+      <c r="ER147" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B148" t="n">
         <v>22</v>
@@ -51846,7 +52778,7 @@
         <v>0.00139991315382775</v>
       </c>
       <c r="F148" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -52269,12 +53201,18 @@
         <v>0</v>
       </c>
       <c r="EQ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER148" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B149" t="n">
         <v>28</v>
@@ -52289,7 +53227,7 @@
         <v>0.00173961526791426</v>
       </c>
       <c r="F149" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
@@ -52578,13 +53516,19 @@
       <c r="EQ149" t="n">
         <v>0</v>
       </c>
+      <c r="ER149" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B150" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C150" t="n">
         <v>4772.62846619235</v>
@@ -52596,7 +53540,7 @@
         <v>0.0022960187054663</v>
       </c>
       <c r="F150" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G150"/>
       <c r="H150"/>
@@ -52889,13 +53833,19 @@
       <c r="EQ150" t="n">
         <v>0</v>
       </c>
+      <c r="ER150" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B151" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C151" t="n">
         <v>5327.50127014116</v>
@@ -52907,7 +53857,7 @@
         <v>0.000344980489432569</v>
       </c>
       <c r="F151" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G151"/>
       <c r="H151"/>
@@ -53178,13 +54128,19 @@
       <c r="EQ151" t="n">
         <v>1</v>
       </c>
+      <c r="ER151" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES151" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B152" t="n">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="C152" t="n">
         <v>37042.917524683</v>
@@ -53196,7 +54152,7 @@
         <v>0.000632582202691945</v>
       </c>
       <c r="F152" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G152"/>
       <c r="H152"/>
@@ -53545,13 +54501,19 @@
       <c r="EQ152" t="n">
         <v>22</v>
       </c>
+      <c r="ER152" t="n">
+        <v>26</v>
+      </c>
+      <c r="ES152" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B153" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C153" t="n">
         <v>90298.5937303062</v>
@@ -53563,7 +54525,7 @@
         <v>0.00176277266262673</v>
       </c>
       <c r="F153" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -53987,14 +54949,20 @@
       </c>
       <c r="EQ153" t="n">
         <v>0</v>
+      </c>
+      <c r="ER153" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B154" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C154" t="n">
         <v>4549.93201544883</v>
@@ -54006,7 +54974,7 @@
         <v>0.000411307678329522</v>
       </c>
       <c r="F154" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
@@ -54237,13 +55205,19 @@
       <c r="EQ154" t="n">
         <v>0</v>
       </c>
+      <c r="ER154" t="n">
+        <v>2</v>
+      </c>
+      <c r="ES154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B155" t="n">
-        <v>27709</v>
+        <v>27888</v>
       </c>
       <c r="C155" t="n">
         <v>112006.542881271</v>
@@ -54255,7 +55229,7 @@
         <v>0.00239653947251376</v>
       </c>
       <c r="F155" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -54677,11 +55651,17 @@
       <c r="EP155" t="n">
         <v>59</v>
       </c>
-      <c r="EQ155"/>
+      <c r="EQ155" t="n">
+        <v>69</v>
+      </c>
+      <c r="ER155" t="n">
+        <v>110</v>
+      </c>
+      <c r="ES155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B156" t="n">
         <v>9</v>
@@ -54696,7 +55676,7 @@
         <v>0.00115704230111971</v>
       </c>
       <c r="F156" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -55103,13 +56083,19 @@
       <c r="EQ156" t="n">
         <v>0</v>
       </c>
+      <c r="ER156" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B157" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C157" t="n">
         <v>18767.4341538849</v>
@@ -55121,7 +56107,7 @@
         <v>0.000438355879371722</v>
       </c>
       <c r="F157" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G157"/>
       <c r="H157"/>
@@ -55398,10 +56384,16 @@
       <c r="EQ157" t="n">
         <v>8</v>
       </c>
+      <c r="ER157" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES157" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -55416,7 +56408,7 @@
         <v>0.000850962176264273</v>
       </c>
       <c r="F158" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G158"/>
       <c r="H158"/>
@@ -55681,10 +56673,16 @@
       <c r="EQ158" t="n">
         <v>0</v>
       </c>
+      <c r="ER158" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B159" t="n">
         <v>2</v>
@@ -55699,7 +56697,7 @@
         <v>0.00046743122966527</v>
       </c>
       <c r="F159" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G159"/>
       <c r="H159"/>
@@ -55974,13 +56972,19 @@
       <c r="EQ159" t="n">
         <v>0</v>
       </c>
+      <c r="ER159" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B160" t="n">
-        <v>3698</v>
+        <v>3831</v>
       </c>
       <c r="C160" t="n">
         <v>22679.7805716106</v>
@@ -55992,7 +56996,7 @@
         <v>0.0022597545842535</v>
       </c>
       <c r="F160" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -56416,14 +57420,20 @@
       </c>
       <c r="EQ160" t="n">
         <v>19</v>
+      </c>
+      <c r="ER160" t="n">
+        <v>45</v>
+      </c>
+      <c r="ES160" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B161" t="n">
-        <v>1602</v>
+        <v>1629</v>
       </c>
       <c r="C161" t="n">
         <v>18989.5836166627</v>
@@ -56435,7 +57445,7 @@
         <v>0.00221031145317519</v>
       </c>
       <c r="F161" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -56859,11 +57869,17 @@
       </c>
       <c r="EQ161" t="n">
         <v>0</v>
+      </c>
+      <c r="ER161" t="n">
+        <v>11</v>
+      </c>
+      <c r="ES161" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B162" t="n">
         <v>3</v>
@@ -56878,7 +57894,7 @@
         <v>0.000579795030307747</v>
       </c>
       <c r="F162" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G162"/>
       <c r="H162"/>
@@ -57137,10 +58153,16 @@
       <c r="EQ162" t="n">
         <v>0</v>
       </c>
+      <c r="ER162" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B163" t="n">
         <v>7</v>
@@ -57155,7 +58177,7 @@
         <v>0.0017433162231338</v>
       </c>
       <c r="F163" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -57576,15 +58598,21 @@
         <v>0</v>
       </c>
       <c r="EQ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER163" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B164" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C164" t="n">
         <v>4083.0421521526</v>
@@ -57596,7 +58624,7 @@
         <v>0.000438046569797392</v>
       </c>
       <c r="F164" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
@@ -57777,10 +58805,16 @@
       <c r="EQ164" t="n">
         <v>2</v>
       </c>
+      <c r="ER164" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES164" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B165" t="n">
         <v>21</v>
@@ -57795,7 +58829,7 @@
         <v>0.000329580140837123</v>
       </c>
       <c r="F165" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G165"/>
       <c r="H165"/>
@@ -58066,10 +59100,16 @@
       <c r="EQ165" t="n">
         <v>0</v>
       </c>
+      <c r="ER165" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B166" t="n">
         <v>56</v>
@@ -58084,7 +59124,7 @@
         <v>0.00144914219064351</v>
       </c>
       <c r="F166" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -58495,10 +59535,16 @@
       <c r="EQ166" t="n">
         <v>0</v>
       </c>
+      <c r="ER166" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -58513,7 +59559,7 @@
         <v>0.000510082908744125</v>
       </c>
       <c r="F167" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
@@ -58774,10 +59820,16 @@
       <c r="EQ167" t="n">
         <v>0</v>
       </c>
+      <c r="ER167" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B168" t="n">
         <v>12</v>
@@ -58792,7 +59844,7 @@
         <v>0.000354676783542218</v>
       </c>
       <c r="F168" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
@@ -59069,10 +60121,16 @@
       <c r="EQ168" t="n">
         <v>1</v>
       </c>
+      <c r="ER168" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B169" t="n">
         <v>8</v>
@@ -59087,7 +60145,7 @@
         <v>0.0012244639344628</v>
       </c>
       <c r="F169" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
@@ -59366,13 +60424,19 @@
       <c r="EQ169" t="n">
         <v>0</v>
       </c>
+      <c r="ER169" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B170" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C170" t="n">
         <v>11863.7430392756</v>
@@ -59384,7 +60448,7 @@
         <v>0.00101445302270842</v>
       </c>
       <c r="F170" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
@@ -59671,13 +60735,19 @@
       <c r="EQ170" t="n">
         <v>1</v>
       </c>
+      <c r="ER170" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B171" t="n">
-        <v>4171</v>
+        <v>4222</v>
       </c>
       <c r="C171" t="n">
         <v>84422.3993097077</v>
@@ -59689,7 +60759,7 @@
         <v>0.00101189976011403</v>
       </c>
       <c r="F171" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
@@ -59966,10 +61036,16 @@
       <c r="EQ171" t="n">
         <v>31</v>
       </c>
+      <c r="ER171" t="n">
+        <v>28</v>
+      </c>
+      <c r="ES171" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -59984,7 +61060,7 @@
         <v>0.000260931558111894</v>
       </c>
       <c r="F172" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G172"/>
       <c r="H172"/>
@@ -60245,13 +61321,19 @@
       <c r="EQ172" t="n">
         <v>0</v>
       </c>
+      <c r="ER172" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B173" t="n">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="C173" t="n">
         <v>83772.0903411142</v>
@@ -60263,7 +61345,7 @@
         <v>0.00190418625575323</v>
       </c>
       <c r="F173" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G173"/>
       <c r="H173"/>
@@ -60540,13 +61622,19 @@
       <c r="EQ173" t="n">
         <v>21</v>
       </c>
+      <c r="ER173" t="n">
+        <v>13</v>
+      </c>
+      <c r="ES173" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B174" t="n">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C174" t="n">
         <v>3087.01051243429</v>
@@ -60558,7 +61646,7 @@
         <v>0.000315951312389353</v>
       </c>
       <c r="F174" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -60970,14 +62058,20 @@
       </c>
       <c r="EQ174" t="n">
         <v>4</v>
+      </c>
+      <c r="ER174" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES174" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B175" t="n">
-        <v>34796</v>
+        <v>35704</v>
       </c>
       <c r="C175" t="n">
         <v>144477.647009207</v>
@@ -60989,7 +62083,7 @@
         <v>0.00213945361405561</v>
       </c>
       <c r="F175" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -61413,14 +62507,20 @@
       </c>
       <c r="EQ175" t="n">
         <v>160</v>
+      </c>
+      <c r="ER175" t="n">
+        <v>545</v>
+      </c>
+      <c r="ES175" t="n">
+        <v>363</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B176" t="n">
-        <v>90353</v>
+        <v>93439</v>
       </c>
       <c r="C176" t="n">
         <v>601512.345001202</v>
@@ -61432,7 +62532,7 @@
         <v>0.00182794431714275</v>
       </c>
       <c r="F176" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -61856,11 +62956,17 @@
       </c>
       <c r="EQ176" t="n">
         <v>791</v>
+      </c>
+      <c r="ER176" t="n">
+        <v>1568</v>
+      </c>
+      <c r="ES176" t="n">
+        <v>1518</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B177" t="n">
         <v>6</v>
@@ -61875,7 +62981,7 @@
         <v>0.00203339942456336</v>
       </c>
       <c r="F177" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G177"/>
       <c r="H177"/>
@@ -62130,10 +63236,16 @@
       <c r="EQ177" t="n">
         <v>0</v>
       </c>
+      <c r="ER177" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B178" t="n">
         <v>20</v>
@@ -62148,7 +63260,7 @@
         <v>0.00180117879710739</v>
       </c>
       <c r="F178" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G178"/>
       <c r="H178"/>
@@ -62423,10 +63535,16 @@
       <c r="EQ178" t="n">
         <v>0</v>
       </c>
+      <c r="ER178" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B179" t="n">
         <v>13</v>
@@ -62441,7 +63559,7 @@
         <v>0.000609037100832592</v>
       </c>
       <c r="F179" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G179"/>
       <c r="H179"/>
@@ -62714,10 +63832,16 @@
       <c r="EQ179" t="n">
         <v>1</v>
       </c>
+      <c r="ER179" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B180" t="n">
         <v>10</v>
@@ -62732,7 +63856,7 @@
         <v>0.000895837225859055</v>
       </c>
       <c r="F180" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
@@ -63007,10 +64131,16 @@
       <c r="EQ180" t="n">
         <v>0</v>
       </c>
+      <c r="ER180" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -63025,7 +64155,7 @@
         <v>0.000985299746139586</v>
       </c>
       <c r="F181" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -63448,12 +64578,18 @@
         <v>0</v>
       </c>
       <c r="EQ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER181" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -63468,7 +64604,7 @@
         <v>0.000450355919878905</v>
       </c>
       <c r="F182" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G182"/>
       <c r="H182"/>
@@ -63659,13 +64795,19 @@
       <c r="EQ182" t="n">
         <v>0</v>
       </c>
+      <c r="ER182" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B183" t="n">
-        <v>318201</v>
+        <v>327904</v>
       </c>
       <c r="C183" t="n">
         <v>8087237.51412203</v>
@@ -63677,7 +64819,7 @@
         <v>0.00104845671277592</v>
       </c>
       <c r="F183" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -64049,28 +65191,28 @@
         <v>5534</v>
       </c>
       <c r="DZ183" t="n">
-        <v>5838</v>
+        <v>5840</v>
       </c>
       <c r="EA183" t="n">
-        <v>4769</v>
+        <v>4765</v>
       </c>
       <c r="EB183" t="n">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="EC183" t="n">
         <v>3999</v>
       </c>
       <c r="ED183" t="n">
-        <v>5952</v>
+        <v>5949</v>
       </c>
       <c r="EE183" t="n">
         <v>6386</v>
       </c>
       <c r="EF183" t="n">
-        <v>5748</v>
+        <v>5746</v>
       </c>
       <c r="EG183" t="n">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="EH183" t="n">
         <v>4440</v>
@@ -64079,10 +65221,10 @@
         <v>3410</v>
       </c>
       <c r="EJ183" t="n">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="EK183" t="n">
-        <v>5766</v>
+        <v>5776</v>
       </c>
       <c r="EL183" t="n">
         <v>5187</v>
@@ -64091,24 +65233,30 @@
         <v>5370</v>
       </c>
       <c r="EN183" t="n">
-        <v>5145</v>
+        <v>5171</v>
       </c>
       <c r="EO183" t="n">
-        <v>4277</v>
+        <v>4268</v>
       </c>
       <c r="EP183" t="n">
-        <v>3388</v>
+        <v>2973</v>
       </c>
       <c r="EQ183" t="n">
-        <v>3138</v>
+        <v>3262</v>
+      </c>
+      <c r="ER183" t="n">
+        <v>5228</v>
+      </c>
+      <c r="ES183" t="n">
+        <v>4748</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B184" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C184" t="n">
         <v>10578.1771306963</v>
@@ -64120,7 +65268,7 @@
         <v>0.000362739367134179</v>
       </c>
       <c r="F184" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G184"/>
       <c r="H184"/>
@@ -64343,10 +65491,16 @@
       <c r="EQ184" t="n">
         <v>0</v>
       </c>
+      <c r="ER184" t="n">
+        <v>8</v>
+      </c>
+      <c r="ES184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B185" t="n">
         <v>7</v>
@@ -64361,7 +65515,7 @@
         <v>0.000283189168735102</v>
       </c>
       <c r="F185" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G185"/>
       <c r="H185"/>
@@ -64628,10 +65782,16 @@
       <c r="EQ185" t="n">
         <v>0</v>
       </c>
+      <c r="ER185" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B186" t="n">
         <v>4</v>
@@ -64646,7 +65806,7 @@
         <v>0.00037238941461274</v>
       </c>
       <c r="F186" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G186"/>
       <c r="H186"/>
@@ -64909,6 +66069,12 @@
       <c r="EQ186" t="n">
         <v>0</v>
       </c>
+      <c r="ER186" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES186" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/expected_deaths_per_country_using_diamond_princess_data.xlsx
+++ b/expected_deaths_per_country_using_diamond_princess_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
   <si>
     <t xml:space="preserve">location</t>
   </si>
@@ -459,6 +459,24 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-27</t>
   </si>
   <si>
     <t xml:space="preserve">Afghanistan</t>
@@ -1796,13 +1814,31 @@
       <c r="ES1" t="s">
         <v>148</v>
       </c>
+      <c r="ET1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EU1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EV1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EW1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EX1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EY1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B2" t="n">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="C2" t="n">
         <v>12424.7386346819</v>
@@ -1814,7 +1850,7 @@
         <v>0.000326607907060704</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2225,13 +2261,31 @@
       <c r="ES2" t="n">
         <v>9</v>
       </c>
+      <c r="ET2" t="n">
+        <v>6</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>12</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>11</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
         <v>4546.92984664766</v>
@@ -2243,7 +2297,7 @@
         <v>0.00157829474428685</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -2536,13 +2590,31 @@
       <c r="ES3" t="n">
         <v>0</v>
       </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B4" t="n">
-        <v>568</v>
+        <v>617</v>
       </c>
       <c r="C4" t="n">
         <v>33668.8832121543</v>
@@ -2554,7 +2626,7 @@
         <v>0.000782032401514519</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2975,13 +3047,31 @@
       <c r="ES4" t="n">
         <v>7</v>
       </c>
+      <c r="ET4" t="n">
+        <v>7</v>
+      </c>
+      <c r="EU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="EV4" t="n">
+        <v>10</v>
+      </c>
+      <c r="EW4" t="n">
+        <v>8</v>
+      </c>
+      <c r="EX4" t="n">
+        <v>9</v>
+      </c>
+      <c r="EY4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>9405.17919303885</v>
@@ -2993,7 +3083,7 @@
         <v>0.000295525242136416</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -3260,10 +3350,28 @@
       <c r="ES5" t="n">
         <v>1</v>
       </c>
+      <c r="ET5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW5" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -3278,7 +3386,7 @@
         <v>0.00106574934476638</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -3549,13 +3657,31 @@
       <c r="ES6" t="n">
         <v>0</v>
       </c>
+      <c r="ET6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B7" t="n">
-        <v>403</v>
+        <v>484</v>
       </c>
       <c r="C7" t="n">
         <v>57649.9059297918</v>
@@ -3567,7 +3693,7 @@
         <v>0.00128738358521375</v>
       </c>
       <c r="F7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -3864,13 +3990,31 @@
       <c r="ES7" t="n">
         <v>10</v>
       </c>
+      <c r="ET7" t="n">
+        <v>13</v>
+      </c>
+      <c r="EU7" t="n">
+        <v>17</v>
+      </c>
+      <c r="EV7" t="n">
+        <v>12</v>
+      </c>
+      <c r="EW7" t="n">
+        <v>7</v>
+      </c>
+      <c r="EX7" t="n">
+        <v>15</v>
+      </c>
+      <c r="EY7" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B8" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="C8" t="n">
         <v>4275.07811346079</v>
@@ -3882,7 +4026,7 @@
         <v>0.0014453925829085</v>
       </c>
       <c r="F8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4295,10 +4439,28 @@
       <c r="ES8" t="n">
         <v>3</v>
       </c>
+      <c r="ET8" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU8" t="n">
+        <v>4</v>
+      </c>
+      <c r="EV8" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW8" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX8" t="n">
+        <v>6</v>
+      </c>
+      <c r="EY8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -4313,7 +4475,7 @@
         <v>0.00152318504812503</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -4578,13 +4740,31 @@
       <c r="ES9" t="n">
         <v>0</v>
       </c>
+      <c r="ET9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C10" t="n">
         <v>45969.5380912888</v>
@@ -4596,7 +4776,7 @@
         <v>0.00182395640598371</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5026,14 +5206,32 @@
       </c>
       <c r="ES10" t="n">
         <v>1</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B11" t="n">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C11" t="n">
         <v>20229.6818387648</v>
@@ -5045,7 +5243,7 @@
         <v>0.00225901037025626</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5475,14 +5673,32 @@
       </c>
       <c r="ES11" t="n">
         <v>1</v>
+      </c>
+      <c r="ET11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU11" t="n">
+        <v>2</v>
+      </c>
+      <c r="EV11" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX11" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B12" t="n">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C12" t="n">
         <v>8603.8284399583</v>
@@ -5494,7 +5710,7 @@
         <v>0.000856296681859664</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -5911,10 +6127,28 @@
       <c r="ES12" t="n">
         <v>2</v>
       </c>
+      <c r="ET12" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EV12" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX12" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -5929,7 +6163,7 @@
         <v>0.000900763549577317</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -6204,13 +6438,31 @@
       <c r="ES13" t="n">
         <v>0</v>
       </c>
+      <c r="ET13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
         <v>714.043604375632</v>
@@ -6222,7 +6474,7 @@
         <v>0.000435083638427136</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6649,15 +6901,33 @@
         <v>0</v>
       </c>
       <c r="ES14" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B15" t="n">
-        <v>386</v>
+        <v>522</v>
       </c>
       <c r="C15" t="n">
         <v>109749.69017571</v>
@@ -6669,7 +6939,7 @@
         <v>0.000673120307924738</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -6972,10 +7242,28 @@
       <c r="ES15" t="n">
         <v>16</v>
       </c>
+      <c r="ET15" t="n">
+        <v>22</v>
+      </c>
+      <c r="EU15" t="n">
+        <v>24</v>
+      </c>
+      <c r="EV15" t="n">
+        <v>20</v>
+      </c>
+      <c r="EW15" t="n">
+        <v>28</v>
+      </c>
+      <c r="EX15" t="n">
+        <v>21</v>
+      </c>
+      <c r="EY15" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -6990,7 +7278,7 @@
         <v>0.00191516379412982</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -7265,13 +7553,31 @@
       <c r="ES16" t="n">
         <v>0</v>
       </c>
+      <c r="ET16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B17" t="n">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="C17" t="n">
         <v>16849.9976684598</v>
@@ -7283,7 +7589,7 @@
         <v>0.0017826141112239</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -7712,15 +8018,33 @@
         <v>4</v>
       </c>
       <c r="ES17" t="n">
+        <v>4</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>6</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>5</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>5</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>5</v>
+      </c>
+      <c r="EY17" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B18" t="n">
-        <v>9150</v>
+        <v>9334</v>
       </c>
       <c r="C18" t="n">
         <v>26083.2114659941</v>
@@ -7732,7 +8056,7 @@
         <v>0.00226037564637606</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -8162,11 +8486,29 @@
       </c>
       <c r="ES18" t="n">
         <v>42</v>
+      </c>
+      <c r="ET18" t="n">
+        <v>36</v>
+      </c>
+      <c r="EU18" t="n">
+        <v>26</v>
+      </c>
+      <c r="EV18" t="n">
+        <v>25</v>
+      </c>
+      <c r="EW18" t="n">
+        <v>43</v>
+      </c>
+      <c r="EX18" t="n">
+        <v>32</v>
+      </c>
+      <c r="EY18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -8181,7 +8523,7 @@
         <v>0.00063466604356105</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -8444,13 +8786,31 @@
       <c r="ES19" t="n">
         <v>0</v>
       </c>
+      <c r="ET19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
         <v>4720.72113019291</v>
@@ -8462,7 +8822,7 @@
         <v>0.00040002212752087</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -8739,10 +9099,28 @@
       <c r="ES20" t="n">
         <v>0</v>
       </c>
+      <c r="ET20" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -8757,7 +9135,7 @@
         <v>0.000749780099492276</v>
       </c>
       <c r="F21" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -9040,13 +9418,31 @@
       <c r="ES21" t="n">
         <v>0</v>
       </c>
+      <c r="ET21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B22" t="n">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="C22" t="n">
         <v>10032.7800236585</v>
@@ -9058,7 +9454,7 @@
         <v>0.000871422914092258</v>
       </c>
       <c r="F22" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -9343,13 +9739,31 @@
       <c r="ES22" t="n">
         <v>10</v>
       </c>
+      <c r="ET22" t="n">
+        <v>16</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>15</v>
+      </c>
+      <c r="EV22" t="n">
+        <v>10</v>
+      </c>
+      <c r="EW22" t="n">
+        <v>10</v>
+      </c>
+      <c r="EX22" t="n">
+        <v>11</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B23" t="n">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C23" t="n">
         <v>6171.93069714818</v>
@@ -9361,7 +9775,7 @@
         <v>0.0018697177146377</v>
       </c>
       <c r="F23" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -9646,10 +10060,28 @@
       <c r="ES23" t="n">
         <v>2</v>
       </c>
+      <c r="ET23" t="n">
+        <v>4</v>
+      </c>
+      <c r="EU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="EV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW23" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX23" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -9664,7 +10096,7 @@
         <v>0.000508439076061826</v>
       </c>
       <c r="F24" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -9911,13 +10343,31 @@
       <c r="ES24" t="n">
         <v>0</v>
       </c>
+      <c r="ET24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B25" t="n">
-        <v>18859</v>
+        <v>24512</v>
       </c>
       <c r="C25" t="n">
         <v>228696.724029016</v>
@@ -9929,7 +10379,7 @@
         <v>0.00108361641908796</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -10359,11 +10809,29 @@
       </c>
       <c r="ES25" t="n">
         <v>888</v>
+      </c>
+      <c r="ET25" t="n">
+        <v>1188</v>
+      </c>
+      <c r="EU25" t="n">
+        <v>1001</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>965</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>653</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>807</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>1039</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -10378,7 +10846,7 @@
         <v>0.000675623465190034</v>
       </c>
       <c r="F26" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -10667,13 +11135,31 @@
       <c r="ES26" t="n">
         <v>0</v>
       </c>
+      <c r="ET26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B27" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C27" t="n">
         <v>15897.177855263</v>
@@ -10685,7 +11171,7 @@
         <v>0.00227098777438303</v>
       </c>
       <c r="F27" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -10976,13 +11462,31 @@
       <c r="ES27" t="n">
         <v>4</v>
       </c>
+      <c r="ET27" t="n">
+        <v>5</v>
+      </c>
+      <c r="EU27" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW27" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B28" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" t="n">
         <v>6235.97030972033</v>
@@ -10994,7 +11498,7 @@
         <v>0.00030686743203392</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -11279,10 +11783,28 @@
       <c r="ES28" t="n">
         <v>0</v>
       </c>
+      <c r="ET28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -11297,7 +11819,7 @@
         <v>0.000304105056117771</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -11544,10 +12066,28 @@
       <c r="ES29" t="n">
         <v>0</v>
       </c>
+      <c r="ET29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -11562,7 +12102,7 @@
         <v>0.00055263869255376</v>
       </c>
       <c r="F30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -11975,13 +12515,31 @@
       <c r="ES30" t="n">
         <v>0</v>
       </c>
+      <c r="ET30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B31" t="n">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C31" t="n">
         <v>8786.28394509146</v>
@@ -11993,7 +12551,7 @@
         <v>0.000339548328176243</v>
       </c>
       <c r="F31" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -12278,13 +12836,31 @@
       <c r="ES31" t="n">
         <v>6</v>
       </c>
+      <c r="ET31" t="n">
+        <v>10</v>
+      </c>
+      <c r="EU31" t="n">
+        <v>3</v>
+      </c>
+      <c r="EV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW31" t="n">
+        <v>6</v>
+      </c>
+      <c r="EX31" t="n">
+        <v>6</v>
+      </c>
+      <c r="EY31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B32" t="n">
-        <v>6030</v>
+        <v>6639</v>
       </c>
       <c r="C32" t="n">
         <v>74837.0137910231</v>
@@ -12296,7 +12872,7 @@
         <v>0.00200039934180448</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -12726,14 +13302,32 @@
       </c>
       <c r="ES32" t="n">
         <v>118</v>
+      </c>
+      <c r="ET32" t="n">
+        <v>122</v>
+      </c>
+      <c r="EU32" t="n">
+        <v>98</v>
+      </c>
+      <c r="EV32" t="n">
+        <v>105</v>
+      </c>
+      <c r="EW32" t="n">
+        <v>69</v>
+      </c>
+      <c r="EX32" t="n">
+        <v>121</v>
+      </c>
+      <c r="EY32" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
         <v>360.67033258339</v>
@@ -12745,7 +13339,7 @@
         <v>0.000655840557052802</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -13014,13 +13608,31 @@
       <c r="ES33" t="n">
         <v>0</v>
       </c>
+      <c r="ET33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
         <v>1653.97217162678</v>
@@ -13032,7 +13644,7 @@
         <v>0.000348558509633733</v>
       </c>
       <c r="F34" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -13311,13 +13923,31 @@
       <c r="ES34" t="n">
         <v>0</v>
       </c>
+      <c r="ET34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV34" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B35" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C35" t="n">
         <v>4924.69422049695</v>
@@ -13329,7 +13959,7 @@
         <v>0.00030881862802377</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -13600,13 +14230,31 @@
       <c r="ES35" t="n">
         <v>1</v>
       </c>
+      <c r="ET35" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU35" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV35" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX35" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B36" t="n">
-        <v>544</v>
+        <v>806</v>
       </c>
       <c r="C36" t="n">
         <v>26201.5450466779</v>
@@ -13618,7 +14266,7 @@
         <v>0.00138251881904386</v>
       </c>
       <c r="F36" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -13919,10 +14567,28 @@
       <c r="ES36" t="n">
         <v>35</v>
       </c>
+      <c r="ET36" t="n">
+        <v>45</v>
+      </c>
+      <c r="EU36" t="n">
+        <v>41</v>
+      </c>
+      <c r="EV36" t="n">
+        <v>43</v>
+      </c>
+      <c r="EW36" t="n">
+        <v>45</v>
+      </c>
+      <c r="EX36" t="n">
+        <v>43</v>
+      </c>
+      <c r="EY36" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B37" t="n">
         <v>4638</v>
@@ -13937,7 +14603,7 @@
         <v>0.00123190966398218</v>
       </c>
       <c r="F37" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -14366,15 +15032,33 @@
         <v>0</v>
       </c>
       <c r="ES37" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B38" t="n">
-        <v>630</v>
+        <v>776</v>
       </c>
       <c r="C38" t="n">
         <v>51741.5321868646</v>
@@ -14386,7 +15070,7 @@
         <v>0.00102785269568566</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -14687,10 +15371,28 @@
       <c r="ES38" t="n">
         <v>17</v>
       </c>
+      <c r="ET38" t="n">
+        <v>22</v>
+      </c>
+      <c r="EU38" t="n">
+        <v>30</v>
+      </c>
+      <c r="EV38" t="n">
+        <v>23</v>
+      </c>
+      <c r="EW38" t="n">
+        <v>22</v>
+      </c>
+      <c r="EX38" t="n">
+        <v>23</v>
+      </c>
+      <c r="EY38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -14705,7 +15407,7 @@
         <v>0.000391342858180625</v>
       </c>
       <c r="F39" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -14890,13 +15592,31 @@
       <c r="ES39" t="n">
         <v>0</v>
       </c>
+      <c r="ET39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B40" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
         <v>1894.42101267658</v>
@@ -14908,7 +15628,7 @@
         <v>0.000352089946363116</v>
       </c>
       <c r="F40" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -15187,10 +15907,28 @@
       <c r="ES40" t="n">
         <v>0</v>
       </c>
+      <c r="ET40" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX40" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B41" t="n">
         <v>10</v>
@@ -15205,7 +15943,7 @@
         <v>0.00117101694264372</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -15500,13 +16238,31 @@
       <c r="ES41" t="n">
         <v>0</v>
       </c>
+      <c r="ET41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B42" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C42" t="n">
         <v>9812.49523348445</v>
@@ -15518,7 +16274,7 @@
         <v>0.00237573483989524</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -15948,14 +16704,32 @@
       </c>
       <c r="ES42" t="n">
         <v>0</v>
+      </c>
+      <c r="ET42" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU42" t="n">
+        <v>2</v>
+      </c>
+      <c r="EV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW42" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX42" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B43" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C43" t="n">
         <v>20087.3021527863</v>
@@ -15967,7 +16741,7 @@
         <v>0.00177238545118044</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -16248,10 +17022,28 @@
       <c r="ES43" t="n">
         <v>0</v>
       </c>
+      <c r="ET43" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU43" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW43" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B44" t="n">
         <v>17</v>
@@ -16266,7 +17058,7 @@
         <v>0.00158961905147417</v>
       </c>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -16553,13 +17345,31 @@
       <c r="ES44" t="n">
         <v>0</v>
       </c>
+      <c r="ET44" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX44" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B45" t="n">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C45" t="n">
         <v>22118.8199723267</v>
@@ -16571,7 +17381,7 @@
         <v>0.00206926552706235</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -17001,14 +17811,32 @@
       </c>
       <c r="ES45" t="n">
         <v>2</v>
+      </c>
+      <c r="ET45" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU45" t="n">
+        <v>6</v>
+      </c>
+      <c r="EV45" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW45" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX45" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B46" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" t="n">
         <v>31730.3580249049</v>
@@ -17020,7 +17848,7 @@
         <v>0.000365596851382535</v>
       </c>
       <c r="F46" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -17305,13 +18133,31 @@
       <c r="ES46" t="n">
         <v>0</v>
       </c>
+      <c r="ET46" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU46" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW46" t="n">
+        <v>4</v>
+      </c>
+      <c r="EX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B47" t="n">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="C47" t="n">
         <v>12584.2078665055</v>
@@ -17323,7 +18169,7 @@
         <v>0.00218026265398681</v>
       </c>
       <c r="F47" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -17753,14 +18599,32 @@
       </c>
       <c r="ES47" t="n">
         <v>3</v>
+      </c>
+      <c r="ET47" t="n">
+        <v>7</v>
+      </c>
+      <c r="EU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW47" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX47" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C48" t="n">
         <v>549.356432708689</v>
@@ -17772,7 +18636,7 @@
         <v>0.000564277625972274</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -18045,13 +18909,31 @@
       <c r="ES48" t="n">
         <v>2</v>
       </c>
+      <c r="ET48" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX48" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B49" t="n">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="C49" t="n">
         <v>9563.68459374326</v>
@@ -18063,7 +18945,7 @@
         <v>0.000890559911334337</v>
       </c>
       <c r="F49" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -18476,13 +19358,31 @@
       <c r="ES49" t="n">
         <v>5</v>
       </c>
+      <c r="ET49" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU49" t="n">
+        <v>8</v>
+      </c>
+      <c r="EV49" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW49" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX49" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B50" t="n">
-        <v>2888</v>
+        <v>3203</v>
       </c>
       <c r="C50" t="n">
         <v>15274.9141172754</v>
@@ -18494,7 +19394,7 @@
         <v>0.000879199705466463</v>
       </c>
       <c r="F50" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -18915,13 +19815,31 @@
       <c r="ES50" t="n">
         <v>49</v>
       </c>
+      <c r="ET50" t="n">
+        <v>51</v>
+      </c>
+      <c r="EU50" t="n">
+        <v>117</v>
+      </c>
+      <c r="EV50" t="n">
+        <v>40</v>
+      </c>
+      <c r="EW50" t="n">
+        <v>12</v>
+      </c>
+      <c r="EX50" t="n">
+        <v>95</v>
+      </c>
+      <c r="EY50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B51" t="n">
-        <v>680</v>
+        <v>797</v>
       </c>
       <c r="C51" t="n">
         <v>62145.086674715</v>
@@ -18933,7 +19851,7 @@
         <v>0.000619048494302884</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -19356,13 +20274,31 @@
       <c r="ES51" t="n">
         <v>21</v>
       </c>
+      <c r="ET51" t="n">
+        <v>16</v>
+      </c>
+      <c r="EU51" t="n">
+        <v>11</v>
+      </c>
+      <c r="EV51" t="n">
+        <v>28</v>
+      </c>
+      <c r="EW51" t="n">
+        <v>29</v>
+      </c>
+      <c r="EX51" t="n">
+        <v>19</v>
+      </c>
+      <c r="EY51" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B52" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C52" t="n">
         <v>6416.52499255144</v>
@@ -19374,7 +20310,7 @@
         <v>0.000994262846425834</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -19647,13 +20583,31 @@
       <c r="ES52" t="n">
         <v>1</v>
       </c>
+      <c r="ET52" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV52" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX52" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B53" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C53" t="n">
         <v>436.376046090106</v>
@@ -19665,7 +20619,7 @@
         <v>0.000321815515316653</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -19946,10 +20900,28 @@
       <c r="ES53" t="n">
         <v>0</v>
       </c>
+      <c r="ET53" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV53" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -19964,7 +20936,7 @@
         <v>0.000500137454675162</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -20231,13 +21203,31 @@
       <c r="ES54" t="n">
         <v>0</v>
       </c>
+      <c r="ET54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B55" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C55" t="n">
         <v>3080.7067992988</v>
@@ -20249,7 +21239,7 @@
         <v>0.00232392345130483</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -20678,15 +21668,33 @@
         <v>0</v>
       </c>
       <c r="ES55" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX55" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
         <v>47338.9362834201</v>
@@ -20698,7 +21706,7 @@
         <v>0.00042237218402554</v>
       </c>
       <c r="F56" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -20981,10 +21989,28 @@
       <c r="ES56" t="n">
         <v>0</v>
       </c>
+      <c r="ET56" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU56" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV56" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW56" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -20999,7 +22025,7 @@
         <v>0.000658740043712816</v>
       </c>
       <c r="F57" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -21270,13 +22296,31 @@
       <c r="ES57" t="n">
         <v>0</v>
       </c>
+      <c r="ET57" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW57" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B58" t="n">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C58" t="n">
         <v>13371.3393209836</v>
@@ -21288,7 +22332,7 @@
         <v>0.00241702006774997</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -21718,14 +22762,32 @@
       </c>
       <c r="ES58" t="n">
         <v>3</v>
+      </c>
+      <c r="ET58" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU58" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW58" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX58" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY58" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B59" t="n">
-        <v>28132</v>
+        <v>28530</v>
       </c>
       <c r="C59" t="n">
         <v>155494.034736421</v>
@@ -21737,7 +22799,7 @@
         <v>0.00238745097091409</v>
       </c>
       <c r="F59" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -22167,11 +23229,29 @@
       </c>
       <c r="ES59" t="n">
         <v>110</v>
+      </c>
+      <c r="ET59" t="n">
+        <v>83</v>
+      </c>
+      <c r="EU59" t="n">
+        <v>74</v>
+      </c>
+      <c r="EV59" t="n">
+        <v>43</v>
+      </c>
+      <c r="EW59" t="n">
+        <v>35</v>
+      </c>
+      <c r="EX59" t="n">
+        <v>65</v>
+      </c>
+      <c r="EY59" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -22186,7 +23266,7 @@
         <v>0.000992700472639409</v>
       </c>
       <c r="F60" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -22459,13 +23539,31 @@
       <c r="ES60" t="n">
         <v>0</v>
       </c>
+      <c r="ET60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B61" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C61" t="n">
         <v>966.553501733155</v>
@@ -22477,7 +23575,7 @@
         <v>0.00044488782530853</v>
       </c>
       <c r="F61" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -22760,10 +23858,28 @@
       <c r="ES61" t="n">
         <v>0</v>
       </c>
+      <c r="ET61" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU61" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW61" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX61" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -22778,7 +23894,7 @@
         <v>0.00031828406811343</v>
       </c>
       <c r="F62" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -23053,10 +24169,28 @@
       <c r="ES62" t="n">
         <v>0</v>
       </c>
+      <c r="ET62" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU62" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV62" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW62" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX62" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B63" t="n">
         <v>12</v>
@@ -23071,7 +24205,7 @@
         <v>0.00173743284021825</v>
       </c>
       <c r="F63" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -23496,13 +24630,31 @@
       <c r="ES63" t="n">
         <v>0</v>
       </c>
+      <c r="ET63" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU63" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV63" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW63" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B64" t="n">
-        <v>8147</v>
+        <v>8349</v>
       </c>
       <c r="C64" t="n">
         <v>218868.764986589</v>
@@ -23514,7 +24666,7 @@
         <v>0.0026206478568128</v>
       </c>
       <c r="F64" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -23944,14 +25096,32 @@
       </c>
       <c r="ES64" t="n">
         <v>57</v>
+      </c>
+      <c r="ET64" t="n">
+        <v>27</v>
+      </c>
+      <c r="EU64" t="n">
+        <v>42</v>
+      </c>
+      <c r="EV64" t="n">
+        <v>31</v>
+      </c>
+      <c r="EW64" t="n">
+        <v>10</v>
+      </c>
+      <c r="EX64" t="n">
+        <v>45</v>
+      </c>
+      <c r="EY64" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B65" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C65" t="n">
         <v>12190.9828388573</v>
@@ -23963,7 +25133,7 @@
         <v>0.000400783738251961</v>
       </c>
       <c r="F65" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -24246,13 +25416,31 @@
       <c r="ES65" t="n">
         <v>0</v>
       </c>
+      <c r="ET65" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV65" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW65" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B66" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C66" t="n">
         <v>28263.1945021056</v>
@@ -24264,7 +25452,7 @@
         <v>0.00269855578677456</v>
       </c>
       <c r="F66" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -24693,12 +25881,30 @@
         <v>0</v>
       </c>
       <c r="ES66" t="n">
+        <v>1</v>
+      </c>
+      <c r="ET66" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU66" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV66" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW66" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX66" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY66" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -24713,7 +25919,7 @@
         <v>0.00116597229275071</v>
       </c>
       <c r="F67" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -24978,10 +26184,28 @@
       <c r="ES67" t="n">
         <v>0</v>
       </c>
+      <c r="ET67" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV67" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW67" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B68" t="n">
         <v>5</v>
@@ -24996,7 +26220,7 @@
         <v>0.00116117444660682</v>
       </c>
       <c r="F68" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -25269,13 +26493,31 @@
       <c r="ES68" t="n">
         <v>0</v>
       </c>
+      <c r="ET68" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU68" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV68" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW68" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B69" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C69" t="n">
         <v>10675.1133572492</v>
@@ -25287,7 +26529,7 @@
         <v>0.000607179588178444</v>
       </c>
       <c r="F69" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -25568,13 +26810,31 @@
       <c r="ES69" t="n">
         <v>2</v>
       </c>
+      <c r="ET69" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU69" t="n">
+        <v>3</v>
+      </c>
+      <c r="EV69" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW69" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX69" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B70" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C70" t="n">
         <v>4481.23143358768</v>
@@ -25586,7 +26846,7 @@
         <v>0.000350884462210825</v>
       </c>
       <c r="F70" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -25867,10 +27127,28 @@
       <c r="ES70" t="n">
         <v>0</v>
       </c>
+      <c r="ET70" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU70" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV70" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW70" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX70" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B71" t="n">
         <v>6</v>
@@ -25885,7 +27163,7 @@
         <v>0.000339734175600248</v>
       </c>
       <c r="F71" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -26142,13 +27420,31 @@
       <c r="ES71" t="n">
         <v>0</v>
       </c>
+      <c r="ET71" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU71" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV71" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW71" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B72" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C72" t="n">
         <v>645.339164471122</v>
@@ -26160,7 +27456,7 @@
         <v>0.000824424853209571</v>
       </c>
       <c r="F72" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -26441,13 +27737,31 @@
       <c r="ES72" t="n">
         <v>0</v>
       </c>
+      <c r="ET72" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU72" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV72" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW72" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX72" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B73" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C73" t="n">
         <v>6785.40203132334</v>
@@ -26459,7 +27773,7 @@
         <v>0.000602446456366269</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -26730,13 +28044,31 @@
       <c r="ES73" t="n">
         <v>0</v>
       </c>
+      <c r="ET73" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU73" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV73" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW73" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX73" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B74" t="n">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="C74" t="n">
         <v>5975.1028994163</v>
@@ -26748,7 +28080,7 @@
         <v>0.000613075416459965</v>
       </c>
       <c r="F74" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -27031,10 +28363,28 @@
       <c r="ES74" t="n">
         <v>4</v>
       </c>
+      <c r="ET74" t="n">
+        <v>5</v>
+      </c>
+      <c r="EU74" t="n">
+        <v>11</v>
+      </c>
+      <c r="EV74" t="n">
+        <v>7</v>
+      </c>
+      <c r="EW74" t="n">
+        <v>6</v>
+      </c>
+      <c r="EX74" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY74" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -27049,7 +28399,7 @@
         <v>0.00211272955020031</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -27391,22 +28741,42 @@
       <c r="EJ75" t="n">
         <v>0</v>
       </c>
-      <c r="EK75"/>
-      <c r="EL75"/>
-      <c r="EM75"/>
-      <c r="EN75"/>
-      <c r="EO75"/>
-      <c r="EP75"/>
-      <c r="EQ75"/>
+      <c r="EK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ75" t="n">
+        <v>0</v>
+      </c>
       <c r="ER75"/>
       <c r="ES75"/>
+      <c r="ET75"/>
+      <c r="EU75"/>
+      <c r="EV75"/>
+      <c r="EW75"/>
+      <c r="EX75"/>
+      <c r="EY75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B76" t="n">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="C76" t="n">
         <v>20343.8576548164</v>
@@ -27418,7 +28788,7 @@
         <v>0.00210062259721708</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -27721,10 +29091,28 @@
       <c r="ES76" t="n">
         <v>3</v>
       </c>
+      <c r="ET76" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU76" t="n">
+        <v>6</v>
+      </c>
+      <c r="EV76" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW76" t="n">
+        <v>5</v>
+      </c>
+      <c r="EX76" t="n">
+        <v>8</v>
+      </c>
+      <c r="EY76" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B77" t="n">
         <v>10</v>
@@ -27739,7 +29127,7 @@
         <v>0.00173303942255681</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -28168,15 +29556,33 @@
         <v>0</v>
       </c>
       <c r="ES77" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET77" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV77" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW77" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B78" t="n">
-        <v>3435</v>
+        <v>4337</v>
       </c>
       <c r="C78" t="n">
         <v>1007352.75961413</v>
@@ -28188,7 +29594,7 @@
         <v>0.000737221655623268</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -28616,14 +30022,32 @@
       </c>
       <c r="ES78" t="n">
         <v>132</v>
+      </c>
+      <c r="ET78" t="n">
+        <v>148</v>
+      </c>
+      <c r="EU78" t="n">
+        <v>137</v>
+      </c>
+      <c r="EV78" t="n">
+        <v>147</v>
+      </c>
+      <c r="EW78" t="n">
+        <v>154</v>
+      </c>
+      <c r="EX78" t="n">
+        <v>146</v>
+      </c>
+      <c r="EY78" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B79" t="n">
-        <v>1242</v>
+        <v>1418</v>
       </c>
       <c r="C79" t="n">
         <v>197413.463693284</v>
@@ -28635,7 +30059,7 @@
         <v>0.000729470854811306</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -29052,13 +30476,31 @@
       <c r="ES79" t="n">
         <v>21</v>
       </c>
+      <c r="ET79" t="n">
+        <v>36</v>
+      </c>
+      <c r="EU79" t="n">
+        <v>48</v>
+      </c>
+      <c r="EV79" t="n">
+        <v>25</v>
+      </c>
+      <c r="EW79" t="n">
+        <v>21</v>
+      </c>
+      <c r="EX79" t="n">
+        <v>19</v>
+      </c>
+      <c r="EY79" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B80" t="n">
-        <v>7183</v>
+        <v>7508</v>
       </c>
       <c r="C80" t="n">
         <v>64236.7361883875</v>
@@ -29070,7 +30512,7 @@
         <v>0.000774740322329184</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -29500,14 +30942,32 @@
       </c>
       <c r="ES80" t="n">
         <v>64</v>
+      </c>
+      <c r="ET80" t="n">
+        <v>66</v>
+      </c>
+      <c r="EU80" t="n">
+        <v>51</v>
+      </c>
+      <c r="EV80" t="n">
+        <v>59</v>
+      </c>
+      <c r="EW80" t="n">
+        <v>58</v>
+      </c>
+      <c r="EX80" t="n">
+        <v>34</v>
+      </c>
+      <c r="EY80" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B81" t="n">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C81" t="n">
         <v>16242.4441635167</v>
@@ -29519,7 +30979,7 @@
         <v>0.000413190835918949</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -29945,14 +31405,32 @@
       </c>
       <c r="ES81" t="n">
         <v>3</v>
+      </c>
+      <c r="ET81" t="n">
+        <v>6</v>
+      </c>
+      <c r="EU81" t="n">
+        <v>7</v>
+      </c>
+      <c r="EV81" t="n">
+        <v>5</v>
+      </c>
+      <c r="EW81" t="n">
+        <v>8</v>
+      </c>
+      <c r="EX81" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY81" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B82" t="n">
-        <v>1571</v>
+        <v>1615</v>
       </c>
       <c r="C82" t="n">
         <v>7663.69136924019</v>
@@ -29964,7 +31442,7 @@
         <v>0.00156962509134468</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -30392,14 +31870,32 @@
       </c>
       <c r="ES82" t="n">
         <v>10</v>
+      </c>
+      <c r="ET82" t="n">
+        <v>12</v>
+      </c>
+      <c r="EU82" t="n">
+        <v>9</v>
+      </c>
+      <c r="EV82" t="n">
+        <v>12</v>
+      </c>
+      <c r="EW82" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY82" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B83" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C83" t="n">
         <v>11713.287711048</v>
@@ -30411,7 +31907,7 @@
         <v>0.00137490036953991</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -30841,14 +32337,32 @@
       </c>
       <c r="ES83" t="n">
         <v>2</v>
+      </c>
+      <c r="ET83" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU83" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV83" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW83" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX83" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B84" t="n">
-        <v>32330</v>
+        <v>32955</v>
       </c>
       <c r="C84" t="n">
         <v>167507.793589674</v>
@@ -30860,7 +32374,7 @@
         <v>0.00276643334562851</v>
       </c>
       <c r="F84" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -31290,11 +32804,29 @@
       </c>
       <c r="ES84" t="n">
         <v>161</v>
+      </c>
+      <c r="ET84" t="n">
+        <v>156</v>
+      </c>
+      <c r="EU84" t="n">
+        <v>130</v>
+      </c>
+      <c r="EV84" t="n">
+        <v>119</v>
+      </c>
+      <c r="EW84" t="n">
+        <v>50</v>
+      </c>
+      <c r="EX84" t="n">
+        <v>92</v>
+      </c>
+      <c r="EY84" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B85" t="n">
         <v>9</v>
@@ -31309,7 +32841,7 @@
         <v>0.00107588252839865</v>
       </c>
       <c r="F85" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -31594,13 +33126,31 @@
       <c r="ES85" t="n">
         <v>0</v>
       </c>
+      <c r="ET85" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU85" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV85" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW85" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B86" t="n">
-        <v>777</v>
+        <v>858</v>
       </c>
       <c r="C86" t="n">
         <v>408185.308690873</v>
@@ -31612,7 +33162,7 @@
         <v>0.00321759693070622</v>
       </c>
       <c r="F86" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -32042,11 +33592,29 @@
       </c>
       <c r="ES86" t="n">
         <v>6</v>
+      </c>
+      <c r="ET86" t="n">
+        <v>19</v>
+      </c>
+      <c r="EU86" t="n">
+        <v>12</v>
+      </c>
+      <c r="EV86" t="n">
+        <v>12</v>
+      </c>
+      <c r="EW86" t="n">
+        <v>10</v>
+      </c>
+      <c r="EX86" t="n">
+        <v>16</v>
+      </c>
+      <c r="EY86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B87" t="n">
         <v>9</v>
@@ -32061,7 +33629,7 @@
         <v>0.000499912687157966</v>
       </c>
       <c r="F87" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -32346,13 +33914,31 @@
       <c r="ES87" t="n">
         <v>0</v>
       </c>
+      <c r="ET87" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU87" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV87" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW87" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B88" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C88" t="n">
         <v>17133.7852434201</v>
@@ -32364,7 +33950,7 @@
         <v>0.000923583142332935</v>
       </c>
       <c r="F88" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -32649,13 +34235,31 @@
       <c r="ES88" t="n">
         <v>0</v>
       </c>
+      <c r="ET88" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU88" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV88" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW88" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B89" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C89" t="n">
         <v>17041.2158969674</v>
@@ -32667,7 +34271,7 @@
         <v>0.000324137912152746</v>
       </c>
       <c r="F89" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -32966,13 +34570,31 @@
       <c r="ES89" t="n">
         <v>0</v>
       </c>
+      <c r="ET89" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU89" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV89" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW89" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX89" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B90" t="n">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="C90" t="n">
         <v>2002.98606207839</v>
@@ -32984,7 +34606,7 @@
         <v>0.000476099216172748</v>
       </c>
       <c r="F90" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -33409,13 +35031,31 @@
       <c r="ES90" t="n">
         <v>3</v>
       </c>
+      <c r="ET90" t="n">
+        <v>5</v>
+      </c>
+      <c r="EU90" t="n">
+        <v>9</v>
+      </c>
+      <c r="EV90" t="n">
+        <v>10</v>
+      </c>
+      <c r="EW90" t="n">
+        <v>8</v>
+      </c>
+      <c r="EX90" t="n">
+        <v>9</v>
+      </c>
+      <c r="EY90" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B91" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C91" t="n">
         <v>3927.60436572775</v>
@@ -33427,7 +35067,7 @@
         <v>0.000612172004263775</v>
       </c>
       <c r="F91" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -33700,10 +35340,28 @@
       <c r="ES91" t="n">
         <v>0</v>
       </c>
+      <c r="ET91" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU91" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV91" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW91" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX91" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -33718,7 +35376,7 @@
         <v>0.000511768875418625</v>
       </c>
       <c r="F92" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -33979,13 +35637,31 @@
       <c r="ES92" t="n">
         <v>0</v>
       </c>
+      <c r="ET92" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU92" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV92" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW92" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B93" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C93" t="n">
         <v>4497.91263416745</v>
@@ -33997,7 +35673,7 @@
         <v>0.00235895435883626</v>
       </c>
       <c r="F93" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -34308,10 +35984,28 @@
       <c r="ES93" t="n">
         <v>0</v>
       </c>
+      <c r="ET93" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU93" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV93" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW93" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B94" t="n">
         <v>26</v>
@@ -34326,7 +36020,7 @@
         <v>0.000880726431371255</v>
       </c>
       <c r="F94" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -34749,10 +36443,28 @@
       <c r="ES94" t="n">
         <v>0</v>
       </c>
+      <c r="ET94" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU94" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV94" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW94" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX94" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -34767,7 +36479,7 @@
         <v>0.000585965544185038</v>
       </c>
       <c r="F95" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -34926,13 +36638,31 @@
       <c r="ES95" t="n">
         <v>0</v>
       </c>
+      <c r="ET95" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU95" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV95" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW95" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B96" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C96" t="n">
         <v>1986.37607313627</v>
@@ -34944,7 +36674,7 @@
         <v>0.000402314281465465</v>
       </c>
       <c r="F96" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -35221,10 +36951,28 @@
       <c r="ES96" t="n">
         <v>0</v>
       </c>
+      <c r="ET96" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU96" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV96" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW96" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX96" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B97" t="n">
         <v>3</v>
@@ -35239,7 +36987,7 @@
         <v>0.000579300651412643</v>
       </c>
       <c r="F97" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -35500,13 +37248,31 @@
       <c r="ES97" t="n">
         <v>0</v>
       </c>
+      <c r="ET97" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU97" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV97" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW97" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B98" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C98" t="n">
         <v>6676.53568545475</v>
@@ -35518,7 +37284,7 @@
         <v>0.00241935812630557</v>
       </c>
       <c r="F98" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -35948,14 +37714,32 @@
       </c>
       <c r="ES98" t="n">
         <v>0</v>
+      </c>
+      <c r="ET98" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU98" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV98" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW98" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY98" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B99" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C99" t="n">
         <v>1068.92055629367</v>
@@ -35967,7 +37751,7 @@
         <v>0.00173602156187562</v>
       </c>
       <c r="F99" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -36384,13 +38168,31 @@
       <c r="ES99" t="n">
         <v>0</v>
       </c>
+      <c r="ET99" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU99" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV99" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW99" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B100" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C100" t="n">
         <v>3135.76609940643</v>
@@ -36402,7 +38204,7 @@
         <v>0.00150507766386768</v>
       </c>
       <c r="F100" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -36815,10 +38617,28 @@
       <c r="ES100" t="n">
         <v>4</v>
       </c>
+      <c r="ET100" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU100" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV100" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW100" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY100" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B101" t="n">
         <v>2</v>
@@ -36833,7 +38653,7 @@
         <v>0.000387261238413905</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -37102,13 +38922,31 @@
       <c r="ES101" t="n">
         <v>0</v>
       </c>
+      <c r="ET101" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU101" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV101" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW101" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX101" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C102" t="n">
         <v>6142.82764455949</v>
@@ -37120,7 +38958,7 @@
         <v>0.000329749892185964</v>
       </c>
       <c r="F102" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
@@ -37363,13 +39201,31 @@
       <c r="ES102" t="n">
         <v>0</v>
       </c>
+      <c r="ET102" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU102" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV102" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW102" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B103" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C103" t="n">
         <v>25774.5103419537</v>
@@ -37381,7 +39237,7 @@
         <v>0.00080671926634488</v>
       </c>
       <c r="F103" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -37810,15 +39666,33 @@
         <v>1</v>
       </c>
       <c r="ES103" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET103" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU103" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV103" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW103" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C104" t="n">
         <v>287.908648415219</v>
@@ -37830,7 +39704,7 @@
         <v>0.000542245776326512</v>
       </c>
       <c r="F104" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
@@ -38121,13 +39995,31 @@
       <c r="ES104" t="n">
         <v>0</v>
       </c>
+      <c r="ET104" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU104" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV104" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW104" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B105" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C105" t="n">
         <v>5961.46439416279</v>
@@ -38139,7 +40031,7 @@
         <v>0.000303258608326046</v>
       </c>
       <c r="F105" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
@@ -38398,10 +40290,28 @@
       <c r="ES105" t="n">
         <v>2</v>
       </c>
+      <c r="ET105" t="n">
+        <v>5</v>
+      </c>
+      <c r="EU105" t="n">
+        <v>2</v>
+      </c>
+      <c r="EV105" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW105" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX105" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY105" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B106" t="n">
         <v>6</v>
@@ -38416,7 +40326,7 @@
         <v>0.00223922557196121</v>
       </c>
       <c r="F106" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
@@ -38713,13 +40623,31 @@
       <c r="ES106" t="n">
         <v>0</v>
       </c>
+      <c r="ET106" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU106" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV106" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW106" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B107" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C107" t="n">
         <v>1809.41145170454</v>
@@ -38731,7 +40659,7 @@
         <v>0.000399808350339084</v>
       </c>
       <c r="F107" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
@@ -39012,10 +40940,28 @@
       <c r="ES107" t="n">
         <v>0</v>
       </c>
+      <c r="ET107" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU107" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV107" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW107" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B108" t="n">
         <v>10</v>
@@ -39030,7 +40976,7 @@
         <v>0.00131209265770585</v>
       </c>
       <c r="F108" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -39301,13 +41247,31 @@
       <c r="ES108" t="n">
         <v>0</v>
       </c>
+      <c r="ET108" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU108" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV108" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW108" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B109" t="n">
-        <v>6090</v>
+        <v>8134</v>
       </c>
       <c r="C109" t="n">
         <v>114239.082347694</v>
@@ -39319,7 +41283,7 @@
         <v>0.000895462351899451</v>
       </c>
       <c r="F109" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -39749,14 +41713,32 @@
       </c>
       <c r="ES109" t="n">
         <v>424</v>
+      </c>
+      <c r="ET109" t="n">
+        <v>420</v>
+      </c>
+      <c r="EU109" t="n">
+        <v>479</v>
+      </c>
+      <c r="EV109" t="n">
+        <v>190</v>
+      </c>
+      <c r="EW109" t="n">
+        <v>215</v>
+      </c>
+      <c r="EX109" t="n">
+        <v>239</v>
+      </c>
+      <c r="EY109" t="n">
+        <v>501</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B110" t="n">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="C110" t="n">
         <v>5369.62504534586</v>
@@ -39768,7 +41750,7 @@
         <v>0.00132804412811299</v>
       </c>
       <c r="F110" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
@@ -40059,10 +42041,28 @@
       <c r="ES110" t="n">
         <v>7</v>
       </c>
+      <c r="ET110" t="n">
+        <v>5</v>
+      </c>
+      <c r="EU110" t="n">
+        <v>4</v>
+      </c>
+      <c r="EV110" t="n">
+        <v>5</v>
+      </c>
+      <c r="EW110" t="n">
+        <v>8</v>
+      </c>
+      <c r="EX110" t="n">
+        <v>11</v>
+      </c>
+      <c r="EY110" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -40077,7 +42077,7 @@
         <v>0.000560116659650488</v>
       </c>
       <c r="F111" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
@@ -40356,10 +42356,28 @@
       <c r="ES111" t="n">
         <v>0</v>
       </c>
+      <c r="ET111" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU111" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV111" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW111" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B112" t="n">
         <v>9</v>
@@ -40374,7 +42392,7 @@
         <v>0.00169587961599432</v>
       </c>
       <c r="F112" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -40649,13 +42667,31 @@
       <c r="ES112" t="n">
         <v>0</v>
       </c>
+      <c r="ET112" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU112" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV112" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW112" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX112" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B113" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C113" t="n">
         <v>30904.1648122975</v>
@@ -40667,7 +42703,7 @@
         <v>0.000847344897208913</v>
       </c>
       <c r="F113" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
@@ -41022,13 +43058,31 @@
       <c r="ES113" t="n">
         <v>1</v>
       </c>
+      <c r="ET113" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU113" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV113" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW113" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX113" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>10562.8329665256</v>
@@ -41040,7 +43094,7 @@
         <v>0.000347850161660036</v>
       </c>
       <c r="F114" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
@@ -41305,10 +43359,28 @@
       <c r="ES114" t="n">
         <v>0</v>
       </c>
+      <c r="ET114" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU114" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV114" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW114" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX114" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B115" t="n">
         <v>6</v>
@@ -41323,7 +43395,7 @@
         <v>0.000700909676076501</v>
       </c>
       <c r="F115" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
@@ -41588,10 +43660,28 @@
       <c r="ES115" t="n">
         <v>0</v>
       </c>
+      <c r="ET115" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU115" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV115" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW115" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX115" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -41606,7 +43696,7 @@
         <v>0.000460552988349411</v>
       </c>
       <c r="F116" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
@@ -41887,13 +43977,31 @@
       <c r="ES116" t="n">
         <v>0</v>
       </c>
+      <c r="ET116" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU116" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV116" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW116" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX116" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C117" t="n">
         <v>18552.4411220924</v>
@@ -41905,7 +44013,7 @@
         <v>0.000648489167394676</v>
       </c>
       <c r="F117" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -42334,15 +44442,33 @@
         <v>0</v>
       </c>
       <c r="ES117" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET117" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU117" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV117" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW117" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX117" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B118" t="n">
-        <v>5748</v>
+        <v>5856</v>
       </c>
       <c r="C118" t="n">
         <v>37338.4501582691</v>
@@ -42354,7 +44480,7 @@
         <v>0.00218390265673188</v>
       </c>
       <c r="F118" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -42784,11 +44910,29 @@
       </c>
       <c r="ES118" t="n">
         <v>33</v>
+      </c>
+      <c r="ET118" t="n">
+        <v>27</v>
+      </c>
+      <c r="EU118" t="n">
+        <v>13</v>
+      </c>
+      <c r="EV118" t="n">
+        <v>23</v>
+      </c>
+      <c r="EW118" t="n">
+        <v>11</v>
+      </c>
+      <c r="EX118" t="n">
+        <v>8</v>
+      </c>
+      <c r="EY118" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -42803,7 +44947,7 @@
         <v>0.00104863171588723</v>
       </c>
       <c r="F119" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
@@ -43072,10 +45216,28 @@
       <c r="ES119" t="n">
         <v>0</v>
       </c>
+      <c r="ET119" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU119" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV119" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW119" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B120" t="n">
         <v>21</v>
@@ -43090,7 +45252,7 @@
         <v>0.00179953713455411</v>
       </c>
       <c r="F120" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -43515,15 +45677,33 @@
         <v>0</v>
       </c>
       <c r="ES120" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET120" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU120" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV120" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW120" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX120" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B121" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C121" t="n">
         <v>4470.91360082327</v>
@@ -43535,7 +45715,7 @@
         <v>0.000683051292448351</v>
       </c>
       <c r="F121" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -43808,13 +45988,31 @@
       <c r="ES121" t="n">
         <v>0</v>
       </c>
+      <c r="ET121" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU121" t="n">
+        <v>9</v>
+      </c>
+      <c r="EV121" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW121" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX121" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY121" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B122" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C122" t="n">
         <v>7126.85814362392</v>
@@ -43826,7 +46024,7 @@
         <v>0.00030573308972683</v>
       </c>
       <c r="F122" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
@@ -44095,13 +46293,31 @@
       <c r="ES122" t="n">
         <v>3</v>
       </c>
+      <c r="ET122" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU122" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV122" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW122" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX122" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B123" t="n">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="C123" t="n">
         <v>67019.9122461298</v>
@@ -44113,7 +46329,7 @@
         <v>0.00033349278797579</v>
       </c>
       <c r="F123" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -44522,13 +46738,31 @@
       <c r="ES123" t="n">
         <v>8</v>
       </c>
+      <c r="ET123" t="n">
+        <v>11</v>
+      </c>
+      <c r="EU123" t="n">
+        <v>10</v>
+      </c>
+      <c r="EV123" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW123" t="n">
+        <v>5</v>
+      </c>
+      <c r="EX123" t="n">
+        <v>7</v>
+      </c>
+      <c r="EY123" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B124" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C124" t="n">
         <v>10423.9075967239</v>
@@ -44540,7 +46774,7 @@
         <v>0.00193794029490713</v>
       </c>
       <c r="F124" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -44970,14 +47204,32 @@
       </c>
       <c r="ES124" t="n">
         <v>1</v>
+      </c>
+      <c r="ET124" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU124" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV124" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW124" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX124" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B125" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C125" t="n">
         <v>1977.24805262704</v>
@@ -44989,7 +47241,7 @@
         <v>0.000397437433593268</v>
       </c>
       <c r="F125" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -45408,13 +47660,31 @@
       <c r="ES125" t="n">
         <v>3</v>
       </c>
+      <c r="ET125" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU125" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV125" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW125" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX125" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B126" t="n">
-        <v>1017</v>
+        <v>1225</v>
       </c>
       <c r="C126" t="n">
         <v>114749.416789966</v>
@@ -45426,7 +47696,7 @@
         <v>0.000529860544520923</v>
       </c>
       <c r="F126" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -45847,13 +48117,31 @@
       <c r="ES126" t="n">
         <v>32</v>
       </c>
+      <c r="ET126" t="n">
+        <v>50</v>
+      </c>
+      <c r="EU126" t="n">
+        <v>34</v>
+      </c>
+      <c r="EV126" t="n">
+        <v>32</v>
+      </c>
+      <c r="EW126" t="n">
+        <v>34</v>
+      </c>
+      <c r="EX126" t="n">
+        <v>30</v>
+      </c>
+      <c r="EY126" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B127" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C127" t="n">
         <v>1999.98886056479</v>
@@ -45865,7 +48153,7 @@
         <v>0.000401489546672574</v>
       </c>
       <c r="F127" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
@@ -46158,13 +48446,31 @@
       <c r="ES127" t="n">
         <v>0</v>
       </c>
+      <c r="ET127" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU127" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV127" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW127" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX127" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B128" t="n">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="C128" t="n">
         <v>4294.40325124701</v>
@@ -46176,7 +48482,7 @@
         <v>0.00101129493204826</v>
       </c>
       <c r="F128" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
@@ -46469,10 +48775,28 @@
       <c r="ES128" t="n">
         <v>6</v>
       </c>
+      <c r="ET128" t="n">
+        <v>4</v>
+      </c>
+      <c r="EU128" t="n">
+        <v>4</v>
+      </c>
+      <c r="EV128" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW128" t="n">
+        <v>7</v>
+      </c>
+      <c r="EX128" t="n">
+        <v>4</v>
+      </c>
+      <c r="EY128" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -46487,7 +48811,7 @@
         <v>0.000430456683036194</v>
       </c>
       <c r="F129" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G129"/>
       <c r="H129"/>
@@ -46756,10 +49080,28 @@
       <c r="ES129" t="n">
         <v>0</v>
       </c>
+      <c r="ET129" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU129" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV129" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW129" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX129" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B130" t="n">
         <v>11</v>
@@ -46774,7 +49116,7 @@
         <v>0.000769195183228435</v>
       </c>
       <c r="F130" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G130"/>
       <c r="H130"/>
@@ -47071,13 +49413,31 @@
       <c r="ES130" t="n">
         <v>0</v>
       </c>
+      <c r="ET130" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU130" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV130" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW130" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX130" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B131" t="n">
-        <v>3024</v>
+        <v>3788</v>
       </c>
       <c r="C131" t="n">
         <v>31935.9331415483</v>
@@ -47089,7 +49449,7 @@
         <v>0.000982327877762806</v>
       </c>
       <c r="F131" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G131"/>
       <c r="H131"/>
@@ -47392,13 +49752,31 @@
       <c r="ES131" t="n">
         <v>110</v>
       </c>
+      <c r="ET131" t="n">
+        <v>124</v>
+      </c>
+      <c r="EU131" t="n">
+        <v>96</v>
+      </c>
+      <c r="EV131" t="n">
+        <v>129</v>
+      </c>
+      <c r="EW131" t="n">
+        <v>83</v>
+      </c>
+      <c r="EX131" t="n">
+        <v>173</v>
+      </c>
+      <c r="EY131" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B132" t="n">
-        <v>842</v>
+        <v>886</v>
       </c>
       <c r="C132" t="n">
         <v>68981.1109537369</v>
@@ -47410,7 +49788,7 @@
         <v>0.000638025029617896</v>
       </c>
       <c r="F132" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -47833,13 +50211,31 @@
       <c r="ES132" t="n">
         <v>5</v>
       </c>
+      <c r="ET132" t="n">
+        <v>4</v>
+      </c>
+      <c r="EU132" t="n">
+        <v>11</v>
+      </c>
+      <c r="EV132" t="n">
+        <v>6</v>
+      </c>
+      <c r="EW132" t="n">
+        <v>5</v>
+      </c>
+      <c r="EX132" t="n">
+        <v>5</v>
+      </c>
+      <c r="EY132" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B133" t="n">
-        <v>962</v>
+        <v>1024</v>
       </c>
       <c r="C133" t="n">
         <v>77215.1423090302</v>
@@ -47851,7 +50247,7 @@
         <v>0.0020379964909265</v>
       </c>
       <c r="F133" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
@@ -48156,13 +50552,31 @@
       <c r="ES133" t="n">
         <v>14</v>
       </c>
+      <c r="ET133" t="n">
+        <v>10</v>
+      </c>
+      <c r="EU133" t="n">
+        <v>10</v>
+      </c>
+      <c r="EV133" t="n">
+        <v>11</v>
+      </c>
+      <c r="EW133" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX133" t="n">
+        <v>11</v>
+      </c>
+      <c r="EY133" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B134" t="n">
-        <v>1263</v>
+        <v>1342</v>
       </c>
       <c r="C134" t="n">
         <v>26615.3148012212</v>
@@ -48174,7 +50588,7 @@
         <v>0.00260266492537302</v>
       </c>
       <c r="F134" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
@@ -48483,13 +50897,31 @@
       <c r="ES134" t="n">
         <v>16</v>
       </c>
+      <c r="ET134" t="n">
+        <v>14</v>
+      </c>
+      <c r="EU134" t="n">
+        <v>12</v>
+      </c>
+      <c r="EV134" t="n">
+        <v>13</v>
+      </c>
+      <c r="EW134" t="n">
+        <v>14</v>
+      </c>
+      <c r="EX134" t="n">
+        <v>14</v>
+      </c>
+      <c r="EY134" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B135" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C135" t="n">
         <v>6595.95722933069</v>
@@ -48501,7 +50933,7 @@
         <v>0.00224856761268843</v>
       </c>
       <c r="F135" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
@@ -48756,13 +51188,31 @@
       <c r="ES135" t="n">
         <v>1</v>
       </c>
+      <c r="ET135" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU135" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV135" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW135" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX135" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B136" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C136" t="n">
         <v>950.68527167165</v>
@@ -48774,7 +51224,7 @@
         <v>0.000335685536016452</v>
       </c>
       <c r="F136" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -49197,13 +51647,31 @@
       <c r="ES136" t="n">
         <v>1</v>
       </c>
+      <c r="ET136" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU136" t="n">
+        <v>2</v>
+      </c>
+      <c r="EV136" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW136" t="n">
+        <v>2</v>
+      </c>
+      <c r="EX136" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B137" t="n">
-        <v>1141</v>
+        <v>1210</v>
       </c>
       <c r="C137" t="n">
         <v>40873.3267557483</v>
@@ -49215,7 +51683,7 @@
         <v>0.00211072861852815</v>
       </c>
       <c r="F137" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -49641,14 +52109,32 @@
       </c>
       <c r="ES137" t="n">
         <v>15</v>
+      </c>
+      <c r="ET137" t="n">
+        <v>10</v>
+      </c>
+      <c r="EU137" t="n">
+        <v>8</v>
+      </c>
+      <c r="EV137" t="n">
+        <v>11</v>
+      </c>
+      <c r="EW137" t="n">
+        <v>9</v>
+      </c>
+      <c r="EX137" t="n">
+        <v>18</v>
+      </c>
+      <c r="EY137" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B138" t="n">
-        <v>2972</v>
+        <v>3807</v>
       </c>
       <c r="C138" t="n">
         <v>256123.517136503</v>
@@ -49660,7 +52146,7 @@
         <v>0.00175580691218415</v>
       </c>
       <c r="F138" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -50090,11 +52576,29 @@
       </c>
       <c r="ES138" t="n">
         <v>135</v>
+      </c>
+      <c r="ET138" t="n">
+        <v>127</v>
+      </c>
+      <c r="EU138" t="n">
+        <v>150</v>
+      </c>
+      <c r="EV138" t="n">
+        <v>139</v>
+      </c>
+      <c r="EW138" t="n">
+        <v>153</v>
+      </c>
+      <c r="EX138" t="n">
+        <v>92</v>
+      </c>
+      <c r="EY138" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -50109,7 +52613,7 @@
         <v>0.000379243935153201</v>
       </c>
       <c r="F139" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
@@ -50390,10 +52894,28 @@
       <c r="ES139" t="n">
         <v>0</v>
       </c>
+      <c r="ET139" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU139" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV139" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW139" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX139" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -50408,7 +52930,7 @@
         <v>0.00122176693298997</v>
       </c>
       <c r="F140" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G140"/>
       <c r="H140"/>
@@ -50689,10 +53211,28 @@
       <c r="ES140" t="n">
         <v>0</v>
       </c>
+      <c r="ET140" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU140" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV140" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW140" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -50707,7 +53247,7 @@
         <v>0.00119556052142664</v>
       </c>
       <c r="F141" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G141"/>
       <c r="H141"/>
@@ -50970,13 +53510,31 @@
       <c r="ES141" t="n">
         <v>0</v>
       </c>
+      <c r="ET141" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU141" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV141" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW141" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B142" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C142" t="n">
         <v>85.8934005844624</v>
@@ -50988,7 +53546,7 @@
         <v>0.000399415017040207</v>
       </c>
       <c r="F142" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G142"/>
       <c r="H142"/>
@@ -51219,13 +53777,31 @@
       <c r="ES142" t="n">
         <v>0</v>
       </c>
+      <c r="ET142" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU142" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV142" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW142" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX142" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B143" t="n">
-        <v>339</v>
+        <v>411</v>
       </c>
       <c r="C143" t="n">
         <v>16751.8648403159</v>
@@ -51237,7 +53813,7 @@
         <v>0.000488841083325049</v>
       </c>
       <c r="F143" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G143"/>
       <c r="H143"/>
@@ -51536,13 +54112,31 @@
       <c r="ES143" t="n">
         <v>10</v>
       </c>
+      <c r="ET143" t="n">
+        <v>12</v>
+      </c>
+      <c r="EU143" t="n">
+        <v>13</v>
+      </c>
+      <c r="EV143" t="n">
+        <v>15</v>
+      </c>
+      <c r="EW143" t="n">
+        <v>11</v>
+      </c>
+      <c r="EX143" t="n">
+        <v>9</v>
+      </c>
+      <c r="EY143" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B144" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C144" t="n">
         <v>6117.70598387866</v>
@@ -51554,7 +54148,7 @@
         <v>0.000375403194853051</v>
       </c>
       <c r="F144" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G144"/>
       <c r="H144"/>
@@ -51861,13 +54455,31 @@
       <c r="ES144" t="n">
         <v>0</v>
       </c>
+      <c r="ET144" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU144" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV144" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW144" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX144" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B145" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C145" t="n">
         <v>17271.4268963359</v>
@@ -51879,7 +54491,7 @@
         <v>0.00196887574015814</v>
       </c>
       <c r="F145" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G145"/>
       <c r="H145"/>
@@ -52196,10 +54808,28 @@
       <c r="ES145" t="n">
         <v>1</v>
       </c>
+      <c r="ET145" t="n">
+        <v>2</v>
+      </c>
+      <c r="EU145" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV145" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW145" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX145" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -52214,7 +54844,7 @@
         <v>0.00100000001120105</v>
       </c>
       <c r="F146" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G146"/>
       <c r="H146"/>
@@ -52495,13 +55125,31 @@
       <c r="ES146" t="n">
         <v>0</v>
       </c>
+      <c r="ET146" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU146" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV146" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW146" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B147" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C147" t="n">
         <v>2872.35158124797</v>
@@ -52513,7 +55161,7 @@
         <v>0.000367627733560364</v>
       </c>
       <c r="F147" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G147"/>
       <c r="H147"/>
@@ -52760,13 +55408,31 @@
       <c r="ES147" t="n">
         <v>1</v>
       </c>
+      <c r="ET147" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU147" t="n">
+        <v>3</v>
+      </c>
+      <c r="EV147" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW147" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX147" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY147" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B148" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C148" t="n">
         <v>8125.57471511488</v>
@@ -52778,7 +55444,7 @@
         <v>0.00139991315382775</v>
       </c>
       <c r="F148" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -53207,12 +55873,30 @@
         <v>0</v>
       </c>
       <c r="ES148" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET148" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU148" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV148" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW148" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX148" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B149" t="n">
         <v>28</v>
@@ -53227,7 +55911,7 @@
         <v>0.00173961526791426</v>
       </c>
       <c r="F149" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
@@ -53522,13 +56206,31 @@
       <c r="ES149" t="n">
         <v>0</v>
       </c>
+      <c r="ET149" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU149" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV149" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW149" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX149" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B150" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C150" t="n">
         <v>4772.62846619235</v>
@@ -53540,7 +56242,7 @@
         <v>0.0022960187054663</v>
       </c>
       <c r="F150" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G150"/>
       <c r="H150"/>
@@ -53837,15 +56539,33 @@
         <v>0</v>
       </c>
       <c r="ES150" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="ET150" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU150" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV150" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW150" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX150" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B151" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C151" t="n">
         <v>5327.50127014116</v>
@@ -53857,7 +56577,7 @@
         <v>0.000344980489432569</v>
       </c>
       <c r="F151" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G151"/>
       <c r="H151"/>
@@ -54134,13 +56854,31 @@
       <c r="ES151" t="n">
         <v>2</v>
       </c>
+      <c r="ET151" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU151" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV151" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW151" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX151" t="n">
+        <v>5</v>
+      </c>
+      <c r="EY151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B152" t="n">
-        <v>339</v>
+        <v>524</v>
       </c>
       <c r="C152" t="n">
         <v>37042.917524683</v>
@@ -54152,7 +56890,7 @@
         <v>0.000632582202691945</v>
       </c>
       <c r="F152" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G152"/>
       <c r="H152"/>
@@ -54507,13 +57245,31 @@
       <c r="ES152" t="n">
         <v>27</v>
       </c>
+      <c r="ET152" t="n">
+        <v>30</v>
+      </c>
+      <c r="EU152" t="n">
+        <v>28</v>
+      </c>
+      <c r="EV152" t="n">
+        <v>10</v>
+      </c>
+      <c r="EW152" t="n">
+        <v>22</v>
+      </c>
+      <c r="EX152" t="n">
+        <v>52</v>
+      </c>
+      <c r="EY152" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B153" t="n">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C153" t="n">
         <v>90298.5937303062</v>
@@ -54525,7 +57281,7 @@
         <v>0.00176277266262673</v>
       </c>
       <c r="F153" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -54955,14 +57711,32 @@
       </c>
       <c r="ES153" t="n">
         <v>1</v>
+      </c>
+      <c r="ET153" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU153" t="n">
+        <v>2</v>
+      </c>
+      <c r="EV153" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW153" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX153" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B154" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="n">
         <v>4549.93201544883</v>
@@ -54974,7 +57748,7 @@
         <v>0.000411307678329522</v>
       </c>
       <c r="F154" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
@@ -55211,13 +57985,31 @@
       <c r="ES154" t="n">
         <v>0</v>
       </c>
+      <c r="ET154" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU154" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV154" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW154" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX154" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B155" t="n">
-        <v>27888</v>
+        <v>28752</v>
       </c>
       <c r="C155" t="n">
         <v>112006.542881271</v>
@@ -55229,7 +58021,7 @@
         <v>0.00239653947251376</v>
       </c>
       <c r="F155" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -55657,14 +58449,32 @@
       <c r="ER155" t="n">
         <v>110</v>
       </c>
-      <c r="ES155"/>
+      <c r="ES155" t="n">
+        <v>52</v>
+      </c>
+      <c r="ET155" t="n">
+        <v>688</v>
+      </c>
+      <c r="EU155" t="n">
+        <v>50</v>
+      </c>
+      <c r="EV155" t="n">
+        <v>74</v>
+      </c>
+      <c r="EW155" t="n">
+        <v>-1918</v>
+      </c>
+      <c r="EX155" t="n">
+        <v>283</v>
+      </c>
+      <c r="EY155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B156" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C156" t="n">
         <v>24672.4622558246</v>
@@ -55676,7 +58486,7 @@
         <v>0.00115704230111971</v>
       </c>
       <c r="F156" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -56089,13 +58899,31 @@
       <c r="ES156" t="n">
         <v>0</v>
       </c>
+      <c r="ET156" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU156" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV156" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW156" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX156" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B157" t="n">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C157" t="n">
         <v>18767.4341538849</v>
@@ -56107,7 +58935,7 @@
         <v>0.000438355879371722</v>
       </c>
       <c r="F157" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G157"/>
       <c r="H157"/>
@@ -56390,10 +59218,28 @@
       <c r="ES157" t="n">
         <v>6</v>
       </c>
+      <c r="ET157" t="n">
+        <v>10</v>
+      </c>
+      <c r="EU157" t="n">
+        <v>16</v>
+      </c>
+      <c r="EV157" t="n">
+        <v>9</v>
+      </c>
+      <c r="EW157" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX157" t="n">
+        <v>19</v>
+      </c>
+      <c r="EY157" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -56408,7 +59254,7 @@
         <v>0.000850962176264273</v>
       </c>
       <c r="F158" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G158"/>
       <c r="H158"/>
@@ -56679,10 +59525,28 @@
       <c r="ES158" t="n">
         <v>0</v>
       </c>
+      <c r="ET158" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU158" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV158" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW158" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX158" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B159" t="n">
         <v>2</v>
@@ -56697,7 +59561,7 @@
         <v>0.00046743122966527</v>
       </c>
       <c r="F159" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G159"/>
       <c r="H159"/>
@@ -56978,13 +59842,31 @@
       <c r="ES159" t="n">
         <v>0</v>
       </c>
+      <c r="ET159" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU159" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV159" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW159" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B160" t="n">
-        <v>3831</v>
+        <v>4125</v>
       </c>
       <c r="C160" t="n">
         <v>22679.7805716106</v>
@@ -56996,7 +59878,7 @@
         <v>0.0022597545842535</v>
       </c>
       <c r="F160" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -57426,14 +60308,32 @@
       </c>
       <c r="ES160" t="n">
         <v>88</v>
+      </c>
+      <c r="ET160" t="n">
+        <v>40</v>
+      </c>
+      <c r="EU160" t="n">
+        <v>54</v>
+      </c>
+      <c r="EV160" t="n">
+        <v>67</v>
+      </c>
+      <c r="EW160" t="n">
+        <v>6</v>
+      </c>
+      <c r="EX160" t="n">
+        <v>31</v>
+      </c>
+      <c r="EY160" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B161" t="n">
-        <v>1629</v>
+        <v>1647</v>
       </c>
       <c r="C161" t="n">
         <v>18989.5836166627</v>
@@ -57445,7 +60345,7 @@
         <v>0.00221031145317519</v>
       </c>
       <c r="F161" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -57875,14 +60775,32 @@
       </c>
       <c r="ES161" t="n">
         <v>16</v>
+      </c>
+      <c r="ET161" t="n">
+        <v>8</v>
+      </c>
+      <c r="EU161" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV161" t="n">
+        <v>4</v>
+      </c>
+      <c r="EW161" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX161" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY161" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B162" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C162" t="n">
         <v>9897.17770029723</v>
@@ -57894,7 +60812,7 @@
         <v>0.000579795030307747</v>
       </c>
       <c r="F162" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G162"/>
       <c r="H162"/>
@@ -58159,10 +61077,28 @@
       <c r="ES162" t="n">
         <v>0</v>
       </c>
+      <c r="ET162" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU162" t="n">
+        <v>1</v>
+      </c>
+      <c r="EV162" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW162" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX162" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B163" t="n">
         <v>7</v>
@@ -58177,7 +61113,7 @@
         <v>0.0017433162231338</v>
       </c>
       <c r="F163" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -58604,15 +61540,33 @@
         <v>0</v>
       </c>
       <c r="ES163" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET163" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU163" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV163" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW163" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B164" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C164" t="n">
         <v>4083.0421521526</v>
@@ -58624,7 +61578,7 @@
         <v>0.000438046569797392</v>
       </c>
       <c r="F164" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
@@ -58811,10 +61765,28 @@
       <c r="ES164" t="n">
         <v>3</v>
       </c>
+      <c r="ET164" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU164" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV164" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW164" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX164" t="n">
+        <v>2</v>
+      </c>
+      <c r="EY164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B165" t="n">
         <v>21</v>
@@ -58829,7 +61801,7 @@
         <v>0.000329580140837123</v>
       </c>
       <c r="F165" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G165"/>
       <c r="H165"/>
@@ -59106,13 +62078,31 @@
       <c r="ES165" t="n">
         <v>0</v>
       </c>
+      <c r="ET165" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU165" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV165" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW165" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B166" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C166" t="n">
         <v>100897.366975167</v>
@@ -59124,7 +62114,7 @@
         <v>0.00144914219064351</v>
       </c>
       <c r="F166" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -59541,10 +62531,28 @@
       <c r="ES166" t="n">
         <v>0</v>
       </c>
+      <c r="ET166" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU166" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV166" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW166" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -59559,7 +62567,7 @@
         <v>0.000510082908744125</v>
       </c>
       <c r="F167" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
@@ -59826,13 +62834,31 @@
       <c r="ES167" t="n">
         <v>0</v>
       </c>
+      <c r="ET167" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU167" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV167" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW167" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX167" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C168" t="n">
         <v>2866.62509355349</v>
@@ -59844,7 +62870,7 @@
         <v>0.000354676783542218</v>
       </c>
       <c r="F168" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
@@ -60127,10 +63153,28 @@
       <c r="ES168" t="n">
         <v>0</v>
       </c>
+      <c r="ET168" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU168" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV168" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW168" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX168" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B169" t="n">
         <v>8</v>
@@ -60145,7 +63189,7 @@
         <v>0.0012244639344628</v>
       </c>
       <c r="F169" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
@@ -60430,13 +63474,31 @@
       <c r="ES169" t="n">
         <v>0</v>
       </c>
+      <c r="ET169" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU169" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV169" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW169" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX169" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B170" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C170" t="n">
         <v>11863.7430392756</v>
@@ -60448,7 +63510,7 @@
         <v>0.00101445302270842</v>
       </c>
       <c r="F170" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
@@ -60741,13 +63803,31 @@
       <c r="ES170" t="n">
         <v>0</v>
       </c>
+      <c r="ET170" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU170" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV170" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW170" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX170" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B171" t="n">
-        <v>4222</v>
+        <v>4397</v>
       </c>
       <c r="C171" t="n">
         <v>84422.3993097077</v>
@@ -60759,7 +63839,7 @@
         <v>0.00101189976011403</v>
       </c>
       <c r="F171" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
@@ -61042,10 +64122,28 @@
       <c r="ES171" t="n">
         <v>23</v>
       </c>
+      <c r="ET171" t="n">
+        <v>27</v>
+      </c>
+      <c r="EU171" t="n">
+        <v>27</v>
+      </c>
+      <c r="EV171" t="n">
+        <v>32</v>
+      </c>
+      <c r="EW171" t="n">
+        <v>32</v>
+      </c>
+      <c r="EX171" t="n">
+        <v>29</v>
+      </c>
+      <c r="EY171" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -61060,7 +64158,7 @@
         <v>0.000260931558111894</v>
       </c>
       <c r="F172" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G172"/>
       <c r="H172"/>
@@ -61327,13 +64425,31 @@
       <c r="ES172" t="n">
         <v>0</v>
       </c>
+      <c r="ET172" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU172" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV172" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW172" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX172" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B173" t="n">
-        <v>564</v>
+        <v>644</v>
       </c>
       <c r="C173" t="n">
         <v>83772.0903411142</v>
@@ -61345,7 +64461,7 @@
         <v>0.00190418625575323</v>
       </c>
       <c r="F173" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G173"/>
       <c r="H173"/>
@@ -61628,13 +64744,31 @@
       <c r="ES173" t="n">
         <v>16</v>
       </c>
+      <c r="ET173" t="n">
+        <v>15</v>
+      </c>
+      <c r="EU173" t="n">
+        <v>9</v>
+      </c>
+      <c r="EV173" t="n">
+        <v>17</v>
+      </c>
+      <c r="EW173" t="n">
+        <v>12</v>
+      </c>
+      <c r="EX173" t="n">
+        <v>6</v>
+      </c>
+      <c r="EY173" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B174" t="n">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="C174" t="n">
         <v>3087.01051243429</v>
@@ -61646,7 +64780,7 @@
         <v>0.000315951312389353</v>
       </c>
       <c r="F174" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -62064,14 +65198,32 @@
       </c>
       <c r="ES174" t="n">
         <v>6</v>
+      </c>
+      <c r="ET174" t="n">
+        <v>4</v>
+      </c>
+      <c r="EU174" t="n">
+        <v>4</v>
+      </c>
+      <c r="EV174" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW174" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX174" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY174" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B175" t="n">
-        <v>35704</v>
+        <v>37048</v>
       </c>
       <c r="C175" t="n">
         <v>144477.647009207</v>
@@ -62083,7 +65235,7 @@
         <v>0.00213945361405561</v>
       </c>
       <c r="F175" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -62513,14 +65665,32 @@
       </c>
       <c r="ES175" t="n">
         <v>363</v>
+      </c>
+      <c r="ET175" t="n">
+        <v>338</v>
+      </c>
+      <c r="EU175" t="n">
+        <v>351</v>
+      </c>
+      <c r="EV175" t="n">
+        <v>282</v>
+      </c>
+      <c r="EW175" t="n">
+        <v>118</v>
+      </c>
+      <c r="EX175" t="n">
+        <v>121</v>
+      </c>
+      <c r="EY175" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B176" t="n">
-        <v>93439</v>
+        <v>98916</v>
       </c>
       <c r="C176" t="n">
         <v>601512.345001202</v>
@@ -62532,7 +65702,7 @@
         <v>0.00182794431714275</v>
       </c>
       <c r="F176" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -62962,11 +66132,29 @@
       </c>
       <c r="ES176" t="n">
         <v>1518</v>
+      </c>
+      <c r="ET176" t="n">
+        <v>1263</v>
+      </c>
+      <c r="EU176" t="n">
+        <v>1305</v>
+      </c>
+      <c r="EV176" t="n">
+        <v>1080</v>
+      </c>
+      <c r="EW176" t="n">
+        <v>633</v>
+      </c>
+      <c r="EX176" t="n">
+        <v>500</v>
+      </c>
+      <c r="EY176" t="n">
+        <v>696</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B177" t="n">
         <v>6</v>
@@ -62981,7 +66169,7 @@
         <v>0.00203339942456336</v>
       </c>
       <c r="F177" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G177"/>
       <c r="H177"/>
@@ -63242,13 +66430,31 @@
       <c r="ES177" t="n">
         <v>0</v>
       </c>
+      <c r="ET177" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU177" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV177" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW177" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX177" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B178" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C178" t="n">
         <v>6235.19647848937</v>
@@ -63260,7 +66466,7 @@
         <v>0.00180117879710739</v>
       </c>
       <c r="F178" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G178"/>
       <c r="H178"/>
@@ -63541,13 +66747,31 @@
       <c r="ES178" t="n">
         <v>0</v>
       </c>
+      <c r="ET178" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU178" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV178" t="n">
+        <v>2</v>
+      </c>
+      <c r="EW178" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX178" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B179" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C179" t="n">
         <v>20087.0880840868</v>
@@ -63559,7 +66783,7 @@
         <v>0.000609037100832592</v>
       </c>
       <c r="F179" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G179"/>
       <c r="H179"/>
@@ -63838,13 +67062,31 @@
       <c r="ES179" t="n">
         <v>0</v>
       </c>
+      <c r="ET179" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU179" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV179" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW179" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX179" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B180" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C180" t="n">
         <v>25545.540248594</v>
@@ -63856,7 +67098,7 @@
         <v>0.000895837225859055</v>
       </c>
       <c r="F180" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
@@ -64137,10 +67379,28 @@
       <c r="ES180" t="n">
         <v>0</v>
       </c>
+      <c r="ET180" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU180" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV180" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW180" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX180" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -64155,7 +67415,7 @@
         <v>0.000985299746139586</v>
       </c>
       <c r="F181" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -64584,12 +67844,30 @@
         <v>0</v>
       </c>
       <c r="ES181" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET181" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU181" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV181" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW181" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX181" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -64604,7 +67882,7 @@
         <v>0.000450355919878905</v>
       </c>
       <c r="F182" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G182"/>
       <c r="H182"/>
@@ -64801,13 +68079,31 @@
       <c r="ES182" t="n">
         <v>0</v>
       </c>
+      <c r="ET182" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU182" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV182" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW182" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX182" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B183" t="n">
-        <v>327904</v>
+        <v>350212</v>
       </c>
       <c r="C183" t="n">
         <v>8087237.51412203</v>
@@ -64819,7 +68115,7 @@
         <v>0.00104845671277592</v>
       </c>
       <c r="F183" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -65248,15 +68544,33 @@
         <v>5228</v>
       </c>
       <c r="ES183" t="n">
-        <v>4748</v>
+        <v>4801</v>
+      </c>
+      <c r="ET183" t="n">
+        <v>5442</v>
+      </c>
+      <c r="EU183" t="n">
+        <v>4690</v>
+      </c>
+      <c r="EV183" t="n">
+        <v>3989</v>
+      </c>
+      <c r="EW183" t="n">
+        <v>816</v>
+      </c>
+      <c r="EX183" t="n">
+        <v>3383</v>
+      </c>
+      <c r="EY183" t="n">
+        <v>3935</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B184" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C184" t="n">
         <v>10578.1771306963</v>
@@ -65268,7 +68582,7 @@
         <v>0.000362739367134179</v>
       </c>
       <c r="F184" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G184"/>
       <c r="H184"/>
@@ -65497,10 +68811,28 @@
       <c r="ES184" t="n">
         <v>1</v>
       </c>
+      <c r="ET184" t="n">
+        <v>4</v>
+      </c>
+      <c r="EU184" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV184" t="n">
+        <v>6</v>
+      </c>
+      <c r="EW184" t="n">
+        <v>3</v>
+      </c>
+      <c r="EX184" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY184" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B185" t="n">
         <v>7</v>
@@ -65515,7 +68847,7 @@
         <v>0.000283189168735102</v>
       </c>
       <c r="F185" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G185"/>
       <c r="H185"/>
@@ -65788,10 +69120,28 @@
       <c r="ES185" t="n">
         <v>0</v>
       </c>
+      <c r="ET185" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU185" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV185" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW185" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX185" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B186" t="n">
         <v>4</v>
@@ -65806,7 +69156,7 @@
         <v>0.00037238941461274</v>
       </c>
       <c r="F186" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G186"/>
       <c r="H186"/>
@@ -66075,6 +69425,24 @@
       <c r="ES186" t="n">
         <v>0</v>
       </c>
+      <c r="ET186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY186" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/expected_deaths_per_country_using_diamond_princess_data.xlsx
+++ b/expected_deaths_per_country_using_diamond_princess_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t xml:space="preserve">location</t>
   </si>
@@ -477,6 +477,24 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-02</t>
   </si>
   <si>
     <t xml:space="preserve">Afghanistan</t>
@@ -1832,13 +1850,31 @@
       <c r="EY1" t="s">
         <v>154</v>
       </c>
+      <c r="EZ1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FA1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FB1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FC1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FE1" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B2" t="n">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="C2" t="n">
         <v>12424.7386346819</v>
@@ -1850,7 +1886,7 @@
         <v>0.000326607907060704</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2279,10 +2315,28 @@
       <c r="EY2" t="n">
         <v>1</v>
       </c>
+      <c r="EZ2" t="n">
+        <v>7</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>11</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B3" t="n">
         <v>33</v>
@@ -2297,7 +2351,7 @@
         <v>0.00157829474428685</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -2608,13 +2662,31 @@
       <c r="EY3" t="n">
         <v>1</v>
       </c>
+      <c r="EZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B4" t="n">
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="C4" t="n">
         <v>33668.8832121543</v>
@@ -2626,7 +2698,7 @@
         <v>0.000782032401514519</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3065,10 +3137,28 @@
       <c r="EY4" t="n">
         <v>8</v>
       </c>
+      <c r="EZ4" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB4" t="n">
+        <v>8</v>
+      </c>
+      <c r="FC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="FD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="FE4" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -3083,7 +3173,7 @@
         <v>0.000295525242136416</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -3368,10 +3458,28 @@
       <c r="EY5" t="n">
         <v>0</v>
       </c>
+      <c r="EZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -3386,7 +3494,7 @@
         <v>0.00106574934476638</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -3675,13 +3783,31 @@
       <c r="EY6" t="n">
         <v>0</v>
       </c>
+      <c r="EZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B7" t="n">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="C7" t="n">
         <v>57649.9059297918</v>
@@ -3693,7 +3819,7 @@
         <v>0.00128738358521375</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -4008,13 +4134,31 @@
       <c r="EY7" t="n">
         <v>17</v>
       </c>
+      <c r="EZ7" t="n">
+        <v>16</v>
+      </c>
+      <c r="FA7" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="FC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="FD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="FE7" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B8" t="n">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="C8" t="n">
         <v>4275.07811346079</v>
@@ -4026,7 +4170,7 @@
         <v>0.0014453925829085</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4457,10 +4601,28 @@
       <c r="EY8" t="n">
         <v>4</v>
       </c>
+      <c r="EZ8" t="n">
+        <v>7</v>
+      </c>
+      <c r="FA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="FB8" t="n">
+        <v>7</v>
+      </c>
+      <c r="FC8" t="n">
+        <v>7</v>
+      </c>
+      <c r="FD8" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -4475,7 +4637,7 @@
         <v>0.00152318504812503</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -4758,13 +4920,31 @@
       <c r="EY9" t="n">
         <v>0</v>
       </c>
+      <c r="EZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B10" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" t="n">
         <v>45969.5380912888</v>
@@ -4776,7 +4956,7 @@
         <v>0.00182395640598371</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5223,15 +5403,33 @@
         <v>0</v>
       </c>
       <c r="EY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B11" t="n">
-        <v>643</v>
+        <v>668</v>
       </c>
       <c r="C11" t="n">
         <v>20229.6818387648</v>
@@ -5243,7 +5441,7 @@
         <v>0.00225901037025626</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5691,14 +5889,32 @@
       </c>
       <c r="EY11" t="n">
         <v>2</v>
+      </c>
+      <c r="EZ11" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="FB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B12" t="n">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C12" t="n">
         <v>8603.8284399583</v>
@@ -5710,7 +5926,7 @@
         <v>0.000856296681859664</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6145,10 +6361,28 @@
       <c r="EY12" t="n">
         <v>1</v>
       </c>
+      <c r="EZ12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC12" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -6163,7 +6397,7 @@
         <v>0.000900763549577317</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -6456,13 +6690,31 @@
       <c r="EY13" t="n">
         <v>0</v>
       </c>
+      <c r="EZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B14" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
         <v>714.043604375632</v>
@@ -6474,7 +6726,7 @@
         <v>0.000435083638427136</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6919,15 +7171,33 @@
         <v>0</v>
       </c>
       <c r="EY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B15" t="n">
-        <v>522</v>
+        <v>672</v>
       </c>
       <c r="C15" t="n">
         <v>109749.69017571</v>
@@ -6939,7 +7209,7 @@
         <v>0.000673120307924738</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -7260,10 +7530,28 @@
       <c r="EY15" t="n">
         <v>21</v>
       </c>
+      <c r="EZ15" t="n">
+        <v>22</v>
+      </c>
+      <c r="FA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="FB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="FC15" t="n">
+        <v>28</v>
+      </c>
+      <c r="FD15" t="n">
+        <v>40</v>
+      </c>
+      <c r="FE15" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -7278,7 +7566,7 @@
         <v>0.00191516379412982</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -7571,13 +7859,31 @@
       <c r="EY16" t="n">
         <v>0</v>
       </c>
+      <c r="EZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B17" t="n">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="C17" t="n">
         <v>16849.9976684598</v>
@@ -7589,7 +7895,7 @@
         <v>0.0017826141112239</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -8037,14 +8343,32 @@
       </c>
       <c r="EY17" t="n">
         <v>4</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>5</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>5</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B18" t="n">
-        <v>9334</v>
+        <v>9486</v>
       </c>
       <c r="C18" t="n">
         <v>26083.2114659941</v>
@@ -8056,7 +8380,7 @@
         <v>0.00226037564637606</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -8504,11 +8828,29 @@
       </c>
       <c r="EY18" t="n">
         <v>22</v>
+      </c>
+      <c r="EZ18" t="n">
+        <v>30</v>
+      </c>
+      <c r="FA18" t="n">
+        <v>24</v>
+      </c>
+      <c r="FB18" t="n">
+        <v>55</v>
+      </c>
+      <c r="FC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="FD18" t="n">
+        <v>14</v>
+      </c>
+      <c r="FE18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -8523,7 +8865,7 @@
         <v>0.00063466604356105</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -8804,10 +9146,28 @@
       <c r="EY19" t="n">
         <v>0</v>
       </c>
+      <c r="EZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
@@ -8822,7 +9182,7 @@
         <v>0.00040002212752087</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -9117,10 +9477,28 @@
       <c r="EY20" t="n">
         <v>0</v>
       </c>
+      <c r="EZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -9135,7 +9513,7 @@
         <v>0.000749780099492276</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -9436,13 +9814,31 @@
       <c r="EY21" t="n">
         <v>0</v>
       </c>
+      <c r="EZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B22" t="n">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="C22" t="n">
         <v>10032.7800236585</v>
@@ -9454,7 +9850,7 @@
         <v>0.000871422914092258</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -9540,7 +9936,9 @@
       <c r="CD22" t="n">
         <v>0</v>
       </c>
-      <c r="CE22"/>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
       <c r="CF22" t="n">
         <v>0</v>
       </c>
@@ -9756,14 +10154,32 @@
       </c>
       <c r="EY22" t="n">
         <v>13</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>13</v>
+      </c>
+      <c r="FB22" t="n">
+        <v>7</v>
+      </c>
+      <c r="FC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="FD22" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE22" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B23" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C23" t="n">
         <v>6171.93069714818</v>
@@ -9775,7 +10191,7 @@
         <v>0.0018697177146377</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -10078,10 +10494,28 @@
       <c r="EY23" t="n">
         <v>3</v>
       </c>
+      <c r="EZ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -10096,7 +10530,7 @@
         <v>0.000508439076061826</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -10361,13 +10795,31 @@
       <c r="EY24" t="n">
         <v>0</v>
       </c>
+      <c r="EZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B25" t="n">
-        <v>24512</v>
+        <v>29937</v>
       </c>
       <c r="C25" t="n">
         <v>228696.724029016</v>
@@ -10379,7 +10831,7 @@
         <v>0.00108361641908796</v>
       </c>
       <c r="F25" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -10827,14 +11279,32 @@
       </c>
       <c r="EY25" t="n">
         <v>1039</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>1086</v>
+      </c>
+      <c r="FA25" t="n">
+        <v>1156</v>
+      </c>
+      <c r="FB25" t="n">
+        <v>1124</v>
+      </c>
+      <c r="FC25" t="n">
+        <v>956</v>
+      </c>
+      <c r="FD25" t="n">
+        <v>480</v>
+      </c>
+      <c r="FE25" t="n">
+        <v>623</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>292.744944972981</v>
@@ -10846,7 +11316,7 @@
         <v>0.000675623465190034</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -11153,13 +11623,31 @@
       <c r="EY26" t="n">
         <v>0</v>
       </c>
+      <c r="EZ26" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B27" t="n">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C27" t="n">
         <v>15897.177855263</v>
@@ -11171,7 +11659,7 @@
         <v>0.00227098777438303</v>
       </c>
       <c r="F27" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -11480,10 +11968,28 @@
       <c r="EY27" t="n">
         <v>3</v>
       </c>
+      <c r="EZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA27" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB27" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B28" t="n">
         <v>53</v>
@@ -11498,7 +12004,7 @@
         <v>0.00030686743203392</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -11801,10 +12307,28 @@
       <c r="EY28" t="n">
         <v>1</v>
       </c>
+      <c r="EZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -11819,7 +12343,7 @@
         <v>0.000304105056117771</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -12084,10 +12608,28 @@
       <c r="EY29" t="n">
         <v>0</v>
       </c>
+      <c r="EZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -12102,7 +12644,7 @@
         <v>0.00055263869255376</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -12533,13 +13075,31 @@
       <c r="EY30" t="n">
         <v>0</v>
       </c>
+      <c r="EZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B31" t="n">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C31" t="n">
         <v>8786.28394509146</v>
@@ -12551,7 +13111,7 @@
         <v>0.000339548328176243</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -12854,13 +13414,31 @@
       <c r="EY31" t="n">
         <v>4</v>
       </c>
+      <c r="EZ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC31" t="n">
+        <v>14</v>
+      </c>
+      <c r="FD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE31" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B32" t="n">
-        <v>6639</v>
+        <v>7326</v>
       </c>
       <c r="C32" t="n">
         <v>74837.0137910231</v>
@@ -12872,7 +13450,7 @@
         <v>0.00200039934180448</v>
       </c>
       <c r="F32" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -13320,11 +13898,29 @@
       </c>
       <c r="EY32" t="n">
         <v>94</v>
+      </c>
+      <c r="EZ32" t="n">
+        <v>126</v>
+      </c>
+      <c r="FA32" t="n">
+        <v>112</v>
+      </c>
+      <c r="FB32" t="n">
+        <v>102</v>
+      </c>
+      <c r="FC32" t="n">
+        <v>94</v>
+      </c>
+      <c r="FD32" t="n">
+        <v>222</v>
+      </c>
+      <c r="FE32" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B33" t="n">
         <v>4</v>
@@ -13339,7 +13935,7 @@
         <v>0.000655840557052802</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -13626,13 +14222,31 @@
       <c r="EY33" t="n">
         <v>1</v>
       </c>
+      <c r="EZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" t="n">
         <v>1653.97217162678</v>
@@ -13644,7 +14258,7 @@
         <v>0.000348558509633733</v>
       </c>
       <c r="F34" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -13941,13 +14555,31 @@
       <c r="EY34" t="n">
         <v>0</v>
       </c>
+      <c r="EZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD34" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B35" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C35" t="n">
         <v>4924.69422049695</v>
@@ -13959,7 +14591,7 @@
         <v>0.00030881862802377</v>
       </c>
       <c r="F35" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -14248,13 +14880,31 @@
       <c r="EY35" t="n">
         <v>1</v>
       </c>
+      <c r="EZ35" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA35" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B36" t="n">
-        <v>806</v>
+        <v>1113</v>
       </c>
       <c r="C36" t="n">
         <v>26201.5450466779</v>
@@ -14266,7 +14916,7 @@
         <v>0.00138251881904386</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -14585,10 +15235,28 @@
       <c r="EY36" t="n">
         <v>45</v>
       </c>
+      <c r="EZ36" t="n">
+        <v>35</v>
+      </c>
+      <c r="FA36" t="n">
+        <v>49</v>
+      </c>
+      <c r="FB36" t="n">
+        <v>54</v>
+      </c>
+      <c r="FC36" t="n">
+        <v>53</v>
+      </c>
+      <c r="FD36" t="n">
+        <v>57</v>
+      </c>
+      <c r="FE36" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B37" t="n">
         <v>4638</v>
@@ -14603,7 +15271,7 @@
         <v>0.00123190966398218</v>
       </c>
       <c r="F37" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -15050,15 +15718,33 @@
         <v>0</v>
       </c>
       <c r="EY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B38" t="n">
-        <v>776</v>
+        <v>969</v>
       </c>
       <c r="C38" t="n">
         <v>51741.5321868646</v>
@@ -15070,7 +15756,7 @@
         <v>0.00102785269568566</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -15389,13 +16075,31 @@
       <c r="EY38" t="n">
         <v>26</v>
       </c>
+      <c r="EZ38" t="n">
+        <v>27</v>
+      </c>
+      <c r="FA38" t="n">
+        <v>19</v>
+      </c>
+      <c r="FB38" t="n">
+        <v>31</v>
+      </c>
+      <c r="FC38" t="n">
+        <v>37</v>
+      </c>
+      <c r="FD38" t="n">
+        <v>49</v>
+      </c>
+      <c r="FE38" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="n">
         <v>332.99011594017</v>
@@ -15407,7 +16111,7 @@
         <v>0.000391342858180625</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -15610,13 +16314,31 @@
       <c r="EY39" t="n">
         <v>0</v>
       </c>
+      <c r="EZ39" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B40" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C40" t="n">
         <v>1894.42101267658</v>
@@ -15628,7 +16350,7 @@
         <v>0.000352089946363116</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -15925,10 +16647,28 @@
       <c r="EY40" t="n">
         <v>2</v>
       </c>
+      <c r="EZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD40" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B41" t="n">
         <v>10</v>
@@ -15943,7 +16683,7 @@
         <v>0.00117101694264372</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -16256,13 +16996,31 @@
       <c r="EY41" t="n">
         <v>0</v>
       </c>
+      <c r="EZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B42" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C42" t="n">
         <v>9812.49523348445</v>
@@ -16274,7 +17032,7 @@
         <v>0.00237573483989524</v>
       </c>
       <c r="F42" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -16722,14 +17480,32 @@
       </c>
       <c r="EY42" t="n">
         <v>1</v>
+      </c>
+      <c r="EZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA42" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB42" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B43" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C43" t="n">
         <v>20087.3021527863</v>
@@ -16741,7 +17517,7 @@
         <v>0.00177238545118044</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -17040,10 +17816,28 @@
       <c r="EY43" t="n">
         <v>0</v>
       </c>
+      <c r="EZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC43" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B44" t="n">
         <v>17</v>
@@ -17058,7 +17852,7 @@
         <v>0.00158961905147417</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -17363,13 +18157,31 @@
       <c r="EY44" t="n">
         <v>0</v>
       </c>
+      <c r="EZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B45" t="n">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C45" t="n">
         <v>22118.8199723267</v>
@@ -17381,7 +18193,7 @@
         <v>0.00206926552706235</v>
       </c>
       <c r="F45" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -17829,14 +18641,32 @@
       </c>
       <c r="EY45" t="n">
         <v>0</v>
+      </c>
+      <c r="EZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA45" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD45" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE45" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B46" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C46" t="n">
         <v>31730.3580249049</v>
@@ -17848,7 +18678,7 @@
         <v>0.000365596851382535</v>
       </c>
       <c r="F46" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -18151,13 +18981,31 @@
       <c r="EY46" t="n">
         <v>0</v>
       </c>
+      <c r="EZ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD46" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B47" t="n">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="C47" t="n">
         <v>12584.2078665055</v>
@@ -18169,7 +19017,7 @@
         <v>0.00218026265398681</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -18617,14 +19465,32 @@
       </c>
       <c r="EY47" t="n">
         <v>0</v>
+      </c>
+      <c r="EZ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA47" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC47" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD47" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B48" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C48" t="n">
         <v>549.356432708689</v>
@@ -18636,7 +19502,7 @@
         <v>0.000564277625972274</v>
       </c>
       <c r="F48" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -18927,13 +19793,31 @@
       <c r="EY48" t="n">
         <v>0</v>
       </c>
+      <c r="EZ48" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA48" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC48" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD48" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B49" t="n">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="C49" t="n">
         <v>9563.68459374326</v>
@@ -18945,7 +19829,7 @@
         <v>0.000890559911334337</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -19376,13 +20260,31 @@
       <c r="EY49" t="n">
         <v>8</v>
       </c>
+      <c r="EZ49" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA49" t="n">
+        <v>11</v>
+      </c>
+      <c r="FB49" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC49" t="n">
+        <v>10</v>
+      </c>
+      <c r="FD49" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B50" t="n">
-        <v>3203</v>
+        <v>3394</v>
       </c>
       <c r="C50" t="n">
         <v>15274.9141172754</v>
@@ -19394,7 +20296,7 @@
         <v>0.000879199705466463</v>
       </c>
       <c r="F50" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -19833,13 +20735,31 @@
       <c r="EY50" t="n">
         <v>0</v>
       </c>
+      <c r="EZ50" t="n">
+        <v>72</v>
+      </c>
+      <c r="FA50" t="n">
+        <v>38</v>
+      </c>
+      <c r="FB50" t="n">
+        <v>21</v>
+      </c>
+      <c r="FC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD50" t="n">
+        <v>24</v>
+      </c>
+      <c r="FE50" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B51" t="n">
-        <v>797</v>
+        <v>1005</v>
       </c>
       <c r="C51" t="n">
         <v>62145.086674715</v>
@@ -19851,7 +20771,7 @@
         <v>0.000619048494302884</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -20292,13 +21212,31 @@
       <c r="EY51" t="n">
         <v>14</v>
       </c>
+      <c r="EZ51" t="n">
+        <v>19</v>
+      </c>
+      <c r="FA51" t="n">
+        <v>29</v>
+      </c>
+      <c r="FB51" t="n">
+        <v>34</v>
+      </c>
+      <c r="FC51" t="n">
+        <v>34</v>
+      </c>
+      <c r="FD51" t="n">
+        <v>46</v>
+      </c>
+      <c r="FE51" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B52" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C52" t="n">
         <v>6416.52499255144</v>
@@ -20310,7 +21248,7 @@
         <v>0.000994262846425834</v>
       </c>
       <c r="F52" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -20601,10 +21539,28 @@
       <c r="EY52" t="n">
         <v>0</v>
       </c>
+      <c r="EZ52" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB52" t="n">
+        <v>4</v>
+      </c>
+      <c r="FC52" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B53" t="n">
         <v>12</v>
@@ -20619,7 +21575,7 @@
         <v>0.000321815515316653</v>
       </c>
       <c r="F53" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -20918,10 +21874,28 @@
       <c r="EY53" t="n">
         <v>0</v>
       </c>
+      <c r="EZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -20936,7 +21910,7 @@
         <v>0.000500137454675162</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -21221,13 +22195,31 @@
       <c r="EY54" t="n">
         <v>0</v>
       </c>
+      <c r="EZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B55" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C55" t="n">
         <v>3080.7067992988</v>
@@ -21239,7 +22231,7 @@
         <v>0.00232392345130483</v>
       </c>
       <c r="F55" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -21686,15 +22678,33 @@
         <v>1</v>
       </c>
       <c r="EY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ55" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB55" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD55" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B56" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
         <v>47338.9362834201</v>
@@ -21706,7 +22716,7 @@
         <v>0.00042237218402554</v>
       </c>
       <c r="F56" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -22007,10 +23017,28 @@
       <c r="EY56" t="n">
         <v>1</v>
       </c>
+      <c r="EZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA56" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB56" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD56" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -22025,7 +23053,7 @@
         <v>0.000658740043712816</v>
       </c>
       <c r="F57" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -22314,13 +23342,31 @@
       <c r="EY57" t="n">
         <v>0</v>
       </c>
+      <c r="EZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B58" t="n">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C58" t="n">
         <v>13371.3393209836</v>
@@ -22332,7 +23378,7 @@
         <v>0.00241702006774997</v>
       </c>
       <c r="F58" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -22780,14 +23826,32 @@
       </c>
       <c r="EY58" t="n">
         <v>4</v>
+      </c>
+      <c r="EZ58" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB58" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC58" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD58" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B59" t="n">
-        <v>28530</v>
+        <v>28833</v>
       </c>
       <c r="C59" t="n">
         <v>155494.034736421</v>
@@ -22799,7 +23863,7 @@
         <v>0.00238745097091409</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -23247,11 +24311,29 @@
       </c>
       <c r="EY59" t="n">
         <v>98</v>
+      </c>
+      <c r="EZ59" t="n">
+        <v>66</v>
+      </c>
+      <c r="FA59" t="n">
+        <v>66</v>
+      </c>
+      <c r="FB59" t="n">
+        <v>52</v>
+      </c>
+      <c r="FC59" t="n">
+        <v>57</v>
+      </c>
+      <c r="FD59" t="n">
+        <v>31</v>
+      </c>
+      <c r="FE59" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -23266,7 +24348,7 @@
         <v>0.000992700472639409</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -23557,13 +24639,31 @@
       <c r="EY60" t="n">
         <v>0</v>
       </c>
+      <c r="EZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B61" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C61" t="n">
         <v>966.553501733155</v>
@@ -23575,7 +24675,7 @@
         <v>0.00044488782530853</v>
       </c>
       <c r="F61" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -23876,10 +24976,28 @@
       <c r="EY61" t="n">
         <v>0</v>
       </c>
+      <c r="EZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB61" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC61" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -23894,7 +25012,7 @@
         <v>0.00031828406811343</v>
       </c>
       <c r="F62" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -24187,10 +25305,28 @@
       <c r="EY62" t="n">
         <v>0</v>
       </c>
+      <c r="EZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B63" t="n">
         <v>12</v>
@@ -24205,7 +25341,7 @@
         <v>0.00173743284021825</v>
       </c>
       <c r="F63" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -24648,13 +25784,31 @@
       <c r="EY63" t="n">
         <v>0</v>
       </c>
+      <c r="EZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B64" t="n">
-        <v>8349</v>
+        <v>8522</v>
       </c>
       <c r="C64" t="n">
         <v>218868.764986589</v>
@@ -24666,7 +25820,7 @@
         <v>0.0026206478568128</v>
       </c>
       <c r="F64" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -25114,14 +26268,32 @@
       </c>
       <c r="EY64" t="n">
         <v>47</v>
+      </c>
+      <c r="EZ64" t="n">
+        <v>62</v>
+      </c>
+      <c r="FA64" t="n">
+        <v>39</v>
+      </c>
+      <c r="FB64" t="n">
+        <v>39</v>
+      </c>
+      <c r="FC64" t="n">
+        <v>11</v>
+      </c>
+      <c r="FD64" t="n">
+        <v>11</v>
+      </c>
+      <c r="FE64" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B65" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C65" t="n">
         <v>12190.9828388573</v>
@@ -25133,7 +26305,7 @@
         <v>0.000400783738251961</v>
       </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -25434,13 +26606,31 @@
       <c r="EY65" t="n">
         <v>2</v>
       </c>
+      <c r="EZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC65" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD65" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B66" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C66" t="n">
         <v>28263.1945021056</v>
@@ -25452,7 +26642,7 @@
         <v>0.00269855578677456</v>
       </c>
       <c r="F66" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -25900,11 +27090,29 @@
       </c>
       <c r="EY66" t="n">
         <v>1</v>
+      </c>
+      <c r="EZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -25919,7 +27127,7 @@
         <v>0.00116597229275071</v>
       </c>
       <c r="F67" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -26202,10 +27410,28 @@
       <c r="EY67" t="n">
         <v>0</v>
       </c>
+      <c r="EZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B68" t="n">
         <v>5</v>
@@ -26220,7 +27446,7 @@
         <v>0.00116117444660682</v>
       </c>
       <c r="F68" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -26511,13 +27737,31 @@
       <c r="EY68" t="n">
         <v>0</v>
       </c>
+      <c r="EZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B69" t="n">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C69" t="n">
         <v>10675.1133572492</v>
@@ -26529,7 +27773,7 @@
         <v>0.000607179588178444</v>
       </c>
       <c r="F69" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -26828,13 +28072,31 @@
       <c r="EY69" t="n">
         <v>4</v>
       </c>
+      <c r="EZ69" t="n">
+        <v>5</v>
+      </c>
+      <c r="FA69" t="n">
+        <v>12</v>
+      </c>
+      <c r="FB69" t="n">
+        <v>10</v>
+      </c>
+      <c r="FC69" t="n">
+        <v>12</v>
+      </c>
+      <c r="FD69" t="n">
+        <v>6</v>
+      </c>
+      <c r="FE69" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B70" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C70" t="n">
         <v>4481.23143358768</v>
@@ -26846,7 +28108,7 @@
         <v>0.000350884462210825</v>
       </c>
       <c r="F70" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -27145,13 +28407,31 @@
       <c r="EY70" t="n">
         <v>0</v>
       </c>
+      <c r="EZ70" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA70" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC70" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B71" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="n">
         <v>652.600813657327</v>
@@ -27163,7 +28443,7 @@
         <v>0.000339734175600248</v>
       </c>
       <c r="F71" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -27438,13 +28718,31 @@
       <c r="EY71" t="n">
         <v>0</v>
       </c>
+      <c r="EZ71" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB71" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B72" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="n">
         <v>645.339164471122</v>
@@ -27456,7 +28754,7 @@
         <v>0.000824424853209571</v>
       </c>
       <c r="F72" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -27755,13 +29053,31 @@
       <c r="EY72" t="n">
         <v>0</v>
       </c>
+      <c r="EZ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC72" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B73" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C73" t="n">
         <v>6785.40203132334</v>
@@ -27773,7 +29089,7 @@
         <v>0.000602446456366269</v>
       </c>
       <c r="F73" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -28062,13 +29378,31 @@
       <c r="EY73" t="n">
         <v>2</v>
       </c>
+      <c r="EZ73" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA73" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC73" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD73" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B74" t="n">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="C74" t="n">
         <v>5975.1028994163</v>
@@ -28080,7 +29414,7 @@
         <v>0.000613075416459965</v>
       </c>
       <c r="F74" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -28381,10 +29715,28 @@
       <c r="EY74" t="n">
         <v>6</v>
       </c>
+      <c r="EZ74" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA74" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB74" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC74" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD74" t="n">
+        <v>11</v>
+      </c>
+      <c r="FE74" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -28399,7 +29751,7 @@
         <v>0.00211272955020031</v>
       </c>
       <c r="F75" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -28762,21 +30114,41 @@
       <c r="EQ75" t="n">
         <v>0</v>
       </c>
-      <c r="ER75"/>
-      <c r="ES75"/>
-      <c r="ET75"/>
-      <c r="EU75"/>
-      <c r="EV75"/>
-      <c r="EW75"/>
-      <c r="EX75"/>
+      <c r="ER75" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES75" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW75" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX75" t="n">
+        <v>0</v>
+      </c>
       <c r="EY75"/>
+      <c r="EZ75"/>
+      <c r="FA75"/>
+      <c r="FB75"/>
+      <c r="FC75"/>
+      <c r="FD75"/>
+      <c r="FE75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B76" t="n">
-        <v>505</v>
+        <v>532</v>
       </c>
       <c r="C76" t="n">
         <v>20343.8576548164</v>
@@ -28788,7 +30160,7 @@
         <v>0.00210062259721708</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -29109,10 +30481,28 @@
       <c r="EY76" t="n">
         <v>6</v>
       </c>
+      <c r="EZ76" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA76" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC76" t="n">
+        <v>7</v>
+      </c>
+      <c r="FD76" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE76" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B77" t="n">
         <v>10</v>
@@ -29127,7 +30517,7 @@
         <v>0.00173303942255681</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -29574,15 +30964,33 @@
         <v>0</v>
       </c>
       <c r="EY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B78" t="n">
-        <v>4337</v>
+        <v>5598</v>
       </c>
       <c r="C78" t="n">
         <v>1007352.75961413</v>
@@ -29594,7 +31002,7 @@
         <v>0.000737221655623268</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -30040,14 +31448,32 @@
       </c>
       <c r="EY78" t="n">
         <v>170</v>
+      </c>
+      <c r="EZ78" t="n">
+        <v>194</v>
+      </c>
+      <c r="FA78" t="n">
+        <v>175</v>
+      </c>
+      <c r="FB78" t="n">
+        <v>265</v>
+      </c>
+      <c r="FC78" t="n">
+        <v>193</v>
+      </c>
+      <c r="FD78" t="n">
+        <v>230</v>
+      </c>
+      <c r="FE78" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B79" t="n">
-        <v>1418</v>
+        <v>1641</v>
       </c>
       <c r="C79" t="n">
         <v>197413.463693284</v>
@@ -30059,7 +31485,7 @@
         <v>0.000729470854811306</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -30494,13 +31920,31 @@
       <c r="EY79" t="n">
         <v>27</v>
       </c>
+      <c r="EZ79" t="n">
+        <v>55</v>
+      </c>
+      <c r="FA79" t="n">
+        <v>23</v>
+      </c>
+      <c r="FB79" t="n">
+        <v>24</v>
+      </c>
+      <c r="FC79" t="n">
+        <v>53</v>
+      </c>
+      <c r="FD79" t="n">
+        <v>40</v>
+      </c>
+      <c r="FE79" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B80" t="n">
-        <v>7508</v>
+        <v>7878</v>
       </c>
       <c r="C80" t="n">
         <v>64236.7361883875</v>
@@ -30512,7 +31956,7 @@
         <v>0.000774740322329184</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -30960,14 +32404,32 @@
       </c>
       <c r="EY80" t="n">
         <v>57</v>
+      </c>
+      <c r="EZ80" t="n">
+        <v>56</v>
+      </c>
+      <c r="FA80" t="n">
+        <v>63</v>
+      </c>
+      <c r="FB80" t="n">
+        <v>50</v>
+      </c>
+      <c r="FC80" t="n">
+        <v>57</v>
+      </c>
+      <c r="FD80" t="n">
+        <v>63</v>
+      </c>
+      <c r="FE80" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B81" t="n">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="C81" t="n">
         <v>16242.4441635167</v>
@@ -30979,7 +32441,7 @@
         <v>0.000413190835918949</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -31423,14 +32885,32 @@
       </c>
       <c r="EY81" t="n">
         <v>6</v>
+      </c>
+      <c r="EZ81" t="n">
+        <v>6</v>
+      </c>
+      <c r="FA81" t="n">
+        <v>4</v>
+      </c>
+      <c r="FB81" t="n">
+        <v>6</v>
+      </c>
+      <c r="FC81" t="n">
+        <v>10</v>
+      </c>
+      <c r="FD81" t="n">
+        <v>10</v>
+      </c>
+      <c r="FE81" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B82" t="n">
-        <v>1615</v>
+        <v>1652</v>
       </c>
       <c r="C82" t="n">
         <v>7663.69136924019</v>
@@ -31442,7 +32922,7 @@
         <v>0.00156962509134468</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -31888,14 +33368,32 @@
       </c>
       <c r="EY82" t="n">
         <v>9</v>
+      </c>
+      <c r="EZ82" t="n">
+        <v>16</v>
+      </c>
+      <c r="FA82" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB82" t="n">
+        <v>6</v>
+      </c>
+      <c r="FC82" t="n">
+        <v>6</v>
+      </c>
+      <c r="FD82" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE82" t="n">
+        <v>-2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B83" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C83" t="n">
         <v>11713.287711048</v>
@@ -31907,7 +33405,7 @@
         <v>0.00137490036953991</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -32355,14 +33853,32 @@
       </c>
       <c r="EY83" t="n">
         <v>0</v>
+      </c>
+      <c r="EZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA83" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD83" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B84" t="n">
-        <v>32955</v>
+        <v>33475</v>
       </c>
       <c r="C84" t="n">
         <v>167507.793589674</v>
@@ -32374,7 +33890,7 @@
         <v>0.00276643334562851</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -32822,11 +34338,29 @@
       </c>
       <c r="EY84" t="n">
         <v>78</v>
+      </c>
+      <c r="EZ84" t="n">
+        <v>117</v>
+      </c>
+      <c r="FA84" t="n">
+        <v>70</v>
+      </c>
+      <c r="FB84" t="n">
+        <v>87</v>
+      </c>
+      <c r="FC84" t="n">
+        <v>111</v>
+      </c>
+      <c r="FD84" t="n">
+        <v>75</v>
+      </c>
+      <c r="FE84" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B85" t="n">
         <v>9</v>
@@ -32841,7 +34375,7 @@
         <v>0.00107588252839865</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -33144,13 +34678,31 @@
       <c r="EY85" t="n">
         <v>0</v>
       </c>
+      <c r="EZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B86" t="n">
-        <v>858</v>
+        <v>894</v>
       </c>
       <c r="C86" t="n">
         <v>408185.308690873</v>
@@ -33162,7 +34714,7 @@
         <v>0.00321759693070622</v>
       </c>
       <c r="F86" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -33610,11 +35162,29 @@
       </c>
       <c r="EY86" t="n">
         <v>12</v>
+      </c>
+      <c r="EZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA86" t="n">
+        <v>16</v>
+      </c>
+      <c r="FB86" t="n">
+        <v>12</v>
+      </c>
+      <c r="FC86" t="n">
+        <v>5</v>
+      </c>
+      <c r="FD86" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B87" t="n">
         <v>9</v>
@@ -33629,7 +35199,7 @@
         <v>0.000499912687157966</v>
       </c>
       <c r="F87" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -33932,13 +35502,31 @@
       <c r="EY87" t="n">
         <v>0</v>
       </c>
+      <c r="EZ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B88" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C88" t="n">
         <v>17133.7852434201</v>
@@ -33950,7 +35538,7 @@
         <v>0.000923583142332935</v>
       </c>
       <c r="F88" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -34253,13 +35841,31 @@
       <c r="EY88" t="n">
         <v>2</v>
       </c>
+      <c r="EZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC88" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD88" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B89" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C89" t="n">
         <v>17041.2158969674</v>
@@ -34271,7 +35877,7 @@
         <v>0.000324137912152746</v>
       </c>
       <c r="F89" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -34588,13 +36194,31 @@
       <c r="EY89" t="n">
         <v>0</v>
       </c>
+      <c r="EZ89" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA89" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB89" t="n">
+        <v>4</v>
+      </c>
+      <c r="FC89" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD89" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B90" t="n">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="C90" t="n">
         <v>2002.98606207839</v>
@@ -34606,7 +36230,7 @@
         <v>0.000476099216172748</v>
       </c>
       <c r="F90" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -35049,13 +36673,31 @@
       <c r="EY90" t="n">
         <v>7</v>
       </c>
+      <c r="EZ90" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA90" t="n">
+        <v>10</v>
+      </c>
+      <c r="FB90" t="n">
+        <v>9</v>
+      </c>
+      <c r="FC90" t="n">
+        <v>11</v>
+      </c>
+      <c r="FD90" t="n">
+        <v>7</v>
+      </c>
+      <c r="FE90" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B91" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C91" t="n">
         <v>3927.60436572775</v>
@@ -35067,7 +36709,7 @@
         <v>0.000612172004263775</v>
       </c>
       <c r="F91" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -35358,10 +37000,28 @@
       <c r="EY91" t="n">
         <v>0</v>
       </c>
+      <c r="EZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -35376,7 +37036,7 @@
         <v>0.000511768875418625</v>
       </c>
       <c r="F92" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -35655,13 +37315,31 @@
       <c r="EY92" t="n">
         <v>0</v>
       </c>
+      <c r="EZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B93" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
         <v>4497.91263416745</v>
@@ -35673,7 +37351,7 @@
         <v>0.00235895435883626</v>
       </c>
       <c r="F93" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -36002,13 +37680,31 @@
       <c r="EY93" t="n">
         <v>0</v>
       </c>
+      <c r="EZ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA93" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B94" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C94" t="n">
         <v>6038.00324136336</v>
@@ -36020,7 +37716,7 @@
         <v>0.000880726431371255</v>
       </c>
       <c r="F94" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -36461,10 +38157,28 @@
       <c r="EY94" t="n">
         <v>0</v>
       </c>
+      <c r="EZ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD94" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -36479,7 +38193,7 @@
         <v>0.000585965544185038</v>
       </c>
       <c r="F95" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -36656,13 +38370,31 @@
       <c r="EY95" t="n">
         <v>0</v>
       </c>
+      <c r="EZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B96" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C96" t="n">
         <v>1986.37607313627</v>
@@ -36674,7 +38406,7 @@
         <v>0.000402314281465465</v>
       </c>
       <c r="F96" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -36969,13 +38701,31 @@
       <c r="EY96" t="n">
         <v>0</v>
       </c>
+      <c r="EZ96" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C97" t="n">
         <v>3926.18293781857</v>
@@ -36987,7 +38737,7 @@
         <v>0.000579300651412643</v>
       </c>
       <c r="F97" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -37266,13 +39016,31 @@
       <c r="EY97" t="n">
         <v>0</v>
       </c>
+      <c r="EZ97" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA97" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B98" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C98" t="n">
         <v>6676.53568545475</v>
@@ -37284,7 +39052,7 @@
         <v>0.00241935812630557</v>
       </c>
       <c r="F98" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -37732,11 +39500,29 @@
       </c>
       <c r="EY98" t="n">
         <v>2</v>
+      </c>
+      <c r="EZ98" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA98" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC98" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B99" t="n">
         <v>110</v>
@@ -37751,7 +39537,7 @@
         <v>0.00173602156187562</v>
       </c>
       <c r="F99" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -38186,13 +39972,31 @@
       <c r="EY99" t="n">
         <v>0</v>
       </c>
+      <c r="EZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC99" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B100" t="n">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C100" t="n">
         <v>3135.76609940643</v>
@@ -38204,7 +40008,7 @@
         <v>0.00150507766386768</v>
       </c>
       <c r="F100" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -38635,13 +40439,31 @@
       <c r="EY100" t="n">
         <v>3</v>
       </c>
+      <c r="EZ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="FA100" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB100" t="n">
+        <v>4</v>
+      </c>
+      <c r="FC100" t="n">
+        <v>5</v>
+      </c>
+      <c r="FD100" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE100" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C101" t="n">
         <v>10444.1668407235</v>
@@ -38653,7 +40475,7 @@
         <v>0.000387261238413905</v>
       </c>
       <c r="F101" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -38940,10 +40762,28 @@
       <c r="EY101" t="n">
         <v>0</v>
       </c>
+      <c r="EZ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB101" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC101" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD101" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B102" t="n">
         <v>4</v>
@@ -38958,7 +40798,7 @@
         <v>0.000329749892185964</v>
       </c>
       <c r="F102" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
@@ -39219,10 +41059,28 @@
       <c r="EY102" t="n">
         <v>0</v>
       </c>
+      <c r="EZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B103" t="n">
         <v>115</v>
@@ -39237,7 +41095,7 @@
         <v>0.00080671926634488</v>
       </c>
       <c r="F103" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -39684,15 +41542,33 @@
         <v>0</v>
       </c>
       <c r="EY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B104" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="n">
         <v>287.908648415219</v>
@@ -39704,7 +41580,7 @@
         <v>0.000542245776326512</v>
       </c>
       <c r="F104" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
@@ -40013,13 +41889,31 @@
       <c r="EY104" t="n">
         <v>1</v>
       </c>
+      <c r="EZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B105" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C105" t="n">
         <v>5961.46439416279</v>
@@ -40031,7 +41925,7 @@
         <v>0.000303258608326046</v>
       </c>
       <c r="F105" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
@@ -40308,13 +42202,31 @@
       <c r="EY105" t="n">
         <v>3</v>
       </c>
+      <c r="EZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA105" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB105" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC105" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD105" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C106" t="n">
         <v>986.101200477989</v>
@@ -40326,7 +42238,7 @@
         <v>0.00223922557196121</v>
       </c>
       <c r="F106" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
@@ -40641,13 +42553,31 @@
       <c r="EY106" t="n">
         <v>0</v>
       </c>
+      <c r="EZ106" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B107" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C107" t="n">
         <v>1809.41145170454</v>
@@ -40659,7 +42589,7 @@
         <v>0.000399808350339084</v>
       </c>
       <c r="F107" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
@@ -40958,10 +42888,28 @@
       <c r="EY107" t="n">
         <v>3</v>
       </c>
+      <c r="EZ107" t="n">
+        <v>7</v>
+      </c>
+      <c r="FA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB107" t="n">
+        <v>4</v>
+      </c>
+      <c r="FC107" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD107" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B108" t="n">
         <v>10</v>
@@ -40976,7 +42924,7 @@
         <v>0.00131209265770585</v>
       </c>
       <c r="F108" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -41265,13 +43213,31 @@
       <c r="EY108" t="n">
         <v>0</v>
       </c>
+      <c r="EZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B109" t="n">
-        <v>8134</v>
+        <v>10167</v>
       </c>
       <c r="C109" t="n">
         <v>114239.082347694</v>
@@ -41283,7 +43249,7 @@
         <v>0.000895462351899451</v>
       </c>
       <c r="F109" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -41731,14 +43697,32 @@
       </c>
       <c r="EY109" t="n">
         <v>501</v>
+      </c>
+      <c r="EZ109" t="n">
+        <v>463</v>
+      </c>
+      <c r="FA109" t="n">
+        <v>447</v>
+      </c>
+      <c r="FB109" t="n">
+        <v>371</v>
+      </c>
+      <c r="FC109" t="n">
+        <v>364</v>
+      </c>
+      <c r="FD109" t="n">
+        <v>151</v>
+      </c>
+      <c r="FE109" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B110" t="n">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="C110" t="n">
         <v>5369.62504534586</v>
@@ -41750,7 +43734,7 @@
         <v>0.00132804412811299</v>
       </c>
       <c r="F110" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
@@ -42059,10 +44043,28 @@
       <c r="EY110" t="n">
         <v>6</v>
       </c>
+      <c r="EZ110" t="n">
+        <v>7</v>
+      </c>
+      <c r="FA110" t="n">
+        <v>8</v>
+      </c>
+      <c r="FB110" t="n">
+        <v>6</v>
+      </c>
+      <c r="FC110" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD110" t="n">
+        <v>4</v>
+      </c>
+      <c r="FE110" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -42077,7 +44079,7 @@
         <v>0.000560116659650488</v>
       </c>
       <c r="F111" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
@@ -42374,10 +44376,28 @@
       <c r="EY111" t="n">
         <v>0</v>
       </c>
+      <c r="EZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB111" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B112" t="n">
         <v>9</v>
@@ -42392,7 +44412,7 @@
         <v>0.00169587961599432</v>
       </c>
       <c r="F112" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -42685,13 +44705,31 @@
       <c r="EY112" t="n">
         <v>0</v>
       </c>
+      <c r="EZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B113" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C113" t="n">
         <v>30904.1648122975</v>
@@ -42703,7 +44741,7 @@
         <v>0.000847344897208913</v>
       </c>
       <c r="F113" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
@@ -43076,13 +45114,31 @@
       <c r="EY113" t="n">
         <v>2</v>
       </c>
+      <c r="EZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC113" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD113" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C114" t="n">
         <v>10562.8329665256</v>
@@ -43094,7 +45150,7 @@
         <v>0.000347850161660036</v>
       </c>
       <c r="F114" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
@@ -43377,10 +45433,28 @@
       <c r="EY114" t="n">
         <v>0</v>
       </c>
+      <c r="EZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA114" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B115" t="n">
         <v>6</v>
@@ -43395,7 +45469,7 @@
         <v>0.000700909676076501</v>
       </c>
       <c r="F115" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
@@ -43678,10 +45752,28 @@
       <c r="EY115" t="n">
         <v>0</v>
       </c>
+      <c r="EZ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -43696,7 +45788,7 @@
         <v>0.000460552988349411</v>
       </c>
       <c r="F116" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
@@ -43995,13 +46087,31 @@
       <c r="EY116" t="n">
         <v>0</v>
       </c>
+      <c r="EZ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B117" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C117" t="n">
         <v>18552.4411220924</v>
@@ -44013,7 +46123,7 @@
         <v>0.000648489167394676</v>
       </c>
       <c r="F117" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -44460,15 +46570,33 @@
         <v>1</v>
       </c>
       <c r="EY117" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA117" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB117" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD117" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE117" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B118" t="n">
-        <v>5856</v>
+        <v>5962</v>
       </c>
       <c r="C118" t="n">
         <v>37338.4501582691</v>
@@ -44480,7 +46608,7 @@
         <v>0.00218390265673188</v>
       </c>
       <c r="F118" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -44928,11 +47056,29 @@
       </c>
       <c r="EY118" t="n">
         <v>26</v>
+      </c>
+      <c r="EZ118" t="n">
+        <v>15</v>
+      </c>
+      <c r="FA118" t="n">
+        <v>32</v>
+      </c>
+      <c r="FB118" t="n">
+        <v>28</v>
+      </c>
+      <c r="FC118" t="n">
+        <v>20</v>
+      </c>
+      <c r="FD118" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE118" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -44947,7 +47093,7 @@
         <v>0.00104863171588723</v>
       </c>
       <c r="F119" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
@@ -45234,13 +47380,31 @@
       <c r="EY119" t="n">
         <v>0</v>
       </c>
+      <c r="EZ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B120" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C120" t="n">
         <v>8607.29768587464</v>
@@ -45252,7 +47416,7 @@
         <v>0.00179953713455411</v>
       </c>
       <c r="F120" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -45695,12 +47859,30 @@
         <v>0</v>
       </c>
       <c r="EY120" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ120" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB120" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC120" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD120" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B121" t="n">
         <v>35</v>
@@ -45715,7 +47897,7 @@
         <v>0.000683051292448351</v>
       </c>
       <c r="F121" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -46006,13 +48188,31 @@
       <c r="EY121" t="n">
         <v>18</v>
       </c>
+      <c r="EZ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B122" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C122" t="n">
         <v>7126.85814362392</v>
@@ -46024,7 +48224,7 @@
         <v>0.00030573308972683</v>
       </c>
       <c r="F122" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
@@ -46311,13 +48511,31 @@
       <c r="EY122" t="n">
         <v>1</v>
       </c>
+      <c r="EZ122" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B123" t="n">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="C123" t="n">
         <v>67019.9122461298</v>
@@ -46329,7 +48547,7 @@
         <v>0.00033349278797579</v>
       </c>
       <c r="F123" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -46756,13 +48974,31 @@
       <c r="EY123" t="n">
         <v>16</v>
       </c>
+      <c r="EZ123" t="n">
+        <v>5</v>
+      </c>
+      <c r="FA123" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB123" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC123" t="n">
+        <v>12</v>
+      </c>
+      <c r="FD123" t="n">
+        <v>14</v>
+      </c>
+      <c r="FE123" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B124" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C124" t="n">
         <v>10423.9075967239</v>
@@ -46774,7 +49010,7 @@
         <v>0.00193794029490713</v>
       </c>
       <c r="F124" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -47221,15 +49457,33 @@
         <v>0</v>
       </c>
       <c r="EY124" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA124" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB124" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC124" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE124" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B125" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C125" t="n">
         <v>1977.24805262704</v>
@@ -47241,7 +49495,7 @@
         <v>0.000397437433593268</v>
       </c>
       <c r="F125" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -47678,13 +49932,31 @@
       <c r="EY125" t="n">
         <v>0</v>
       </c>
+      <c r="EZ125" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA125" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC125" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD125" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B126" t="n">
-        <v>1225</v>
+        <v>1621</v>
       </c>
       <c r="C126" t="n">
         <v>114749.416789966</v>
@@ -47696,7 +49968,7 @@
         <v>0.000529860544520923</v>
       </c>
       <c r="F126" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -48135,10 +50407,28 @@
       <c r="EY126" t="n">
         <v>28</v>
       </c>
+      <c r="EZ126" t="n">
+        <v>35</v>
+      </c>
+      <c r="FA126" t="n">
+        <v>57</v>
+      </c>
+      <c r="FB126" t="n">
+        <v>78</v>
+      </c>
+      <c r="FC126" t="n">
+        <v>88</v>
+      </c>
+      <c r="FD126" t="n">
+        <v>60</v>
+      </c>
+      <c r="FE126" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B127" t="n">
         <v>5</v>
@@ -48153,7 +50443,7 @@
         <v>0.000401489546672574</v>
       </c>
       <c r="F127" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
@@ -48464,13 +50754,31 @@
       <c r="EY127" t="n">
         <v>0</v>
       </c>
+      <c r="EZ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB127" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC127" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B128" t="n">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="C128" t="n">
         <v>4294.40325124701</v>
@@ -48482,7 +50790,7 @@
         <v>0.00101129493204826</v>
       </c>
       <c r="F128" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
@@ -48793,10 +51101,28 @@
       <c r="EY128" t="n">
         <v>3</v>
       </c>
+      <c r="EZ128" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA128" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB128" t="n">
+        <v>6</v>
+      </c>
+      <c r="FC128" t="n">
+        <v>4</v>
+      </c>
+      <c r="FD128" t="n">
+        <v>6</v>
+      </c>
+      <c r="FE128" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -48811,7 +51137,7 @@
         <v>0.000430456683036194</v>
       </c>
       <c r="F129" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G129"/>
       <c r="H129"/>
@@ -49098,10 +51424,28 @@
       <c r="EY129" t="n">
         <v>0</v>
       </c>
+      <c r="EZ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB129" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC129" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD129" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B130" t="n">
         <v>11</v>
@@ -49116,7 +51460,7 @@
         <v>0.000769195183228435</v>
       </c>
       <c r="F130" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G130"/>
       <c r="H130"/>
@@ -49431,13 +51775,31 @@
       <c r="EY130" t="n">
         <v>0</v>
       </c>
+      <c r="EZ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA130" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB130" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC130" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD130" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B131" t="n">
-        <v>3788</v>
+        <v>4634</v>
       </c>
       <c r="C131" t="n">
         <v>31935.9331415483</v>
@@ -49449,7 +51811,7 @@
         <v>0.000982327877762806</v>
       </c>
       <c r="F131" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G131"/>
       <c r="H131"/>
@@ -49770,13 +52132,31 @@
       <c r="EY131" t="n">
         <v>159</v>
       </c>
+      <c r="EZ131" t="n">
+        <v>195</v>
+      </c>
+      <c r="FA131" t="n">
+        <v>116</v>
+      </c>
+      <c r="FB131" t="n">
+        <v>131</v>
+      </c>
+      <c r="FC131" t="n">
+        <v>141</v>
+      </c>
+      <c r="FD131" t="n">
+        <v>135</v>
+      </c>
+      <c r="FE131" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B132" t="n">
-        <v>886</v>
+        <v>960</v>
       </c>
       <c r="C132" t="n">
         <v>68981.1109537369</v>
@@ -49788,7 +52168,7 @@
         <v>0.000638025029617896</v>
       </c>
       <c r="F132" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -50229,13 +52609,31 @@
       <c r="EY132" t="n">
         <v>13</v>
       </c>
+      <c r="EZ132" t="n">
+        <v>18</v>
+      </c>
+      <c r="FA132" t="n">
+        <v>17</v>
+      </c>
+      <c r="FB132" t="n">
+        <v>21</v>
+      </c>
+      <c r="FC132" t="n">
+        <v>8</v>
+      </c>
+      <c r="FD132" t="n">
+        <v>7</v>
+      </c>
+      <c r="FE132" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B133" t="n">
-        <v>1024</v>
+        <v>1074</v>
       </c>
       <c r="C133" t="n">
         <v>77215.1423090302</v>
@@ -50247,7 +52645,7 @@
         <v>0.0020379964909265</v>
       </c>
       <c r="F133" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
@@ -50570,13 +52968,31 @@
       <c r="EY133" t="n">
         <v>17</v>
       </c>
+      <c r="EZ133" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA133" t="n">
+        <v>10</v>
+      </c>
+      <c r="FB133" t="n">
+        <v>13</v>
+      </c>
+      <c r="FC133" t="n">
+        <v>10</v>
+      </c>
+      <c r="FD133" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE133" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B134" t="n">
-        <v>1342</v>
+        <v>1424</v>
       </c>
       <c r="C134" t="n">
         <v>26615.3148012212</v>
@@ -50588,7 +53004,7 @@
         <v>0.00260266492537302</v>
       </c>
       <c r="F134" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
@@ -50915,13 +53331,31 @@
       <c r="EY134" t="n">
         <v>12</v>
       </c>
+      <c r="EZ134" t="n">
+        <v>14</v>
+      </c>
+      <c r="FA134" t="n">
+        <v>13</v>
+      </c>
+      <c r="FB134" t="n">
+        <v>14</v>
+      </c>
+      <c r="FC134" t="n">
+        <v>13</v>
+      </c>
+      <c r="FD134" t="n">
+        <v>14</v>
+      </c>
+      <c r="FE134" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B135" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C135" t="n">
         <v>6595.95722933069</v>
@@ -50933,7 +53367,7 @@
         <v>0.00224856761268843</v>
       </c>
       <c r="F135" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
@@ -51206,13 +53640,31 @@
       <c r="EY135" t="n">
         <v>0</v>
       </c>
+      <c r="EZ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA135" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB135" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC135" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD135" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B136" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C136" t="n">
         <v>950.68527167165</v>
@@ -51224,7 +53676,7 @@
         <v>0.000335685536016452</v>
       </c>
       <c r="F136" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -51665,13 +54117,31 @@
       <c r="EY136" t="n">
         <v>2</v>
       </c>
+      <c r="EZ136" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA136" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB136" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC136" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD136" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B137" t="n">
-        <v>1210</v>
+        <v>1279</v>
       </c>
       <c r="C137" t="n">
         <v>40873.3267557483</v>
@@ -51683,7 +54153,7 @@
         <v>0.00211072861852815</v>
       </c>
       <c r="F137" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -52127,14 +54597,32 @@
       </c>
       <c r="EY137" t="n">
         <v>13</v>
+      </c>
+      <c r="EZ137" t="n">
+        <v>9</v>
+      </c>
+      <c r="FA137" t="n">
+        <v>10</v>
+      </c>
+      <c r="FB137" t="n">
+        <v>11</v>
+      </c>
+      <c r="FC137" t="n">
+        <v>13</v>
+      </c>
+      <c r="FD137" t="n">
+        <v>9</v>
+      </c>
+      <c r="FE137" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B138" t="n">
-        <v>3807</v>
+        <v>5037</v>
       </c>
       <c r="C138" t="n">
         <v>256123.517136503</v>
@@ -52146,7 +54634,7 @@
         <v>0.00175580691218415</v>
       </c>
       <c r="F138" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -52594,14 +55082,32 @@
       </c>
       <c r="EY138" t="n">
         <v>174</v>
+      </c>
+      <c r="EZ138" t="n">
+        <v>161</v>
+      </c>
+      <c r="FA138" t="n">
+        <v>174</v>
+      </c>
+      <c r="FB138" t="n">
+        <v>232</v>
+      </c>
+      <c r="FC138" t="n">
+        <v>181</v>
+      </c>
+      <c r="FD138" t="n">
+        <v>138</v>
+      </c>
+      <c r="FE138" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>4788.68889756762</v>
@@ -52613,7 +55119,7 @@
         <v>0.000379243935153201</v>
       </c>
       <c r="F139" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
@@ -52912,10 +55418,28 @@
       <c r="EY139" t="n">
         <v>0</v>
       </c>
+      <c r="EZ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC139" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -52930,7 +55454,7 @@
         <v>0.00122176693298997</v>
       </c>
       <c r="F140" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G140"/>
       <c r="H140"/>
@@ -53229,10 +55753,28 @@
       <c r="EY140" t="n">
         <v>0</v>
       </c>
+      <c r="EZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -53247,7 +55789,7 @@
         <v>0.00119556052142664</v>
       </c>
       <c r="F141" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G141"/>
       <c r="H141"/>
@@ -53528,10 +56070,28 @@
       <c r="EY141" t="n">
         <v>0</v>
       </c>
+      <c r="EZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B142" t="n">
         <v>12</v>
@@ -53546,7 +56106,7 @@
         <v>0.000399415017040207</v>
       </c>
       <c r="F142" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G142"/>
       <c r="H142"/>
@@ -53795,13 +56355,31 @@
       <c r="EY142" t="n">
         <v>1</v>
       </c>
+      <c r="EZ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B143" t="n">
-        <v>411</v>
+        <v>525</v>
       </c>
       <c r="C143" t="n">
         <v>16751.8648403159</v>
@@ -53813,7 +56391,7 @@
         <v>0.000488841083325049</v>
       </c>
       <c r="F143" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G143"/>
       <c r="H143"/>
@@ -54130,13 +56708,31 @@
       <c r="EY143" t="n">
         <v>12</v>
       </c>
+      <c r="EZ143" t="n">
+        <v>14</v>
+      </c>
+      <c r="FA143" t="n">
+        <v>16</v>
+      </c>
+      <c r="FB143" t="n">
+        <v>17</v>
+      </c>
+      <c r="FC143" t="n">
+        <v>22</v>
+      </c>
+      <c r="FD143" t="n">
+        <v>23</v>
+      </c>
+      <c r="FE143" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B144" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C144" t="n">
         <v>6117.70598387866</v>
@@ -54148,7 +56744,7 @@
         <v>0.000375403194853051</v>
       </c>
       <c r="F144" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G144"/>
       <c r="H144"/>
@@ -54473,13 +57069,31 @@
       <c r="EY144" t="n">
         <v>1</v>
       </c>
+      <c r="EZ144" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA144" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC144" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B145" t="n">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C145" t="n">
         <v>17271.4268963359</v>
@@ -54491,7 +57105,7 @@
         <v>0.00196887574015814</v>
       </c>
       <c r="F145" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G145"/>
       <c r="H145"/>
@@ -54826,10 +57440,28 @@
       <c r="EY145" t="n">
         <v>0</v>
       </c>
+      <c r="EZ145" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA145" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB145" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC145" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD145" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -54844,7 +57476,7 @@
         <v>0.00100000001120105</v>
       </c>
       <c r="F146" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G146"/>
       <c r="H146"/>
@@ -55143,13 +57775,31 @@
       <c r="EY146" t="n">
         <v>0</v>
       </c>
+      <c r="EZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B147" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C147" t="n">
         <v>2872.35158124797</v>
@@ -55161,7 +57811,7 @@
         <v>0.000367627733560364</v>
       </c>
       <c r="F147" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G147"/>
       <c r="H147"/>
@@ -55426,13 +58076,31 @@
       <c r="EY147" t="n">
         <v>2</v>
       </c>
+      <c r="EZ147" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC147" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B148" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C148" t="n">
         <v>8125.57471511488</v>
@@ -55444,7 +58112,7 @@
         <v>0.00139991315382775</v>
       </c>
       <c r="F148" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -55892,11 +58560,29 @@
       </c>
       <c r="EY148" t="n">
         <v>0</v>
+      </c>
+      <c r="EZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B149" t="n">
         <v>28</v>
@@ -55911,7 +58597,7 @@
         <v>0.00173961526791426</v>
       </c>
       <c r="F149" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
@@ -56224,13 +58910,31 @@
       <c r="EY149" t="n">
         <v>0</v>
       </c>
+      <c r="EZ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B150" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C150" t="n">
         <v>4772.62846619235</v>
@@ -56242,7 +58946,7 @@
         <v>0.0022960187054663</v>
       </c>
       <c r="F150" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G150"/>
       <c r="H150"/>
@@ -56559,13 +59263,31 @@
       <c r="EY150" t="n">
         <v>0</v>
       </c>
+      <c r="EZ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA150" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC150" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD150" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B151" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C151" t="n">
         <v>5327.50127014116</v>
@@ -56577,7 +59299,7 @@
         <v>0.000344980489432569</v>
       </c>
       <c r="F151" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G151"/>
       <c r="H151"/>
@@ -56872,13 +59594,31 @@
       <c r="EY151" t="n">
         <v>1</v>
       </c>
+      <c r="EZ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA151" t="n">
+        <v>5</v>
+      </c>
+      <c r="FB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC151" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD151" t="n">
+        <v>5</v>
+      </c>
+      <c r="FE151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B152" t="n">
-        <v>524</v>
+        <v>705</v>
       </c>
       <c r="C152" t="n">
         <v>37042.917524683</v>
@@ -56890,7 +59630,7 @@
         <v>0.000632582202691945</v>
       </c>
       <c r="F152" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G152"/>
       <c r="H152"/>
@@ -57263,13 +60003,31 @@
       <c r="EY152" t="n">
         <v>43</v>
       </c>
+      <c r="EZ152" t="n">
+        <v>28</v>
+      </c>
+      <c r="FA152" t="n">
+        <v>25</v>
+      </c>
+      <c r="FB152" t="n">
+        <v>34</v>
+      </c>
+      <c r="FC152" t="n">
+        <v>32</v>
+      </c>
+      <c r="FD152" t="n">
+        <v>40</v>
+      </c>
+      <c r="FE152" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B153" t="n">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C153" t="n">
         <v>90298.5937303062</v>
@@ -57281,7 +60039,7 @@
         <v>0.00176277266262673</v>
       </c>
       <c r="F153" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -57729,14 +60487,32 @@
       </c>
       <c r="EY153" t="n">
         <v>0</v>
+      </c>
+      <c r="EZ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC153" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD153" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B154" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C154" t="n">
         <v>4549.93201544883</v>
@@ -57748,7 +60524,7 @@
         <v>0.000411307678329522</v>
       </c>
       <c r="F154" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
@@ -58003,10 +60779,28 @@
       <c r="EY154" t="n">
         <v>0</v>
       </c>
+      <c r="EZ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB154" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B155" t="n">
         <v>28752</v>
@@ -58021,7 +60815,7 @@
         <v>0.00239653947251376</v>
       </c>
       <c r="F155" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -58467,14 +61261,32 @@
       <c r="EX155" t="n">
         <v>283</v>
       </c>
-      <c r="EY155"/>
+      <c r="EY155" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ155" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA155" t="n">
+        <v>2</v>
+      </c>
+      <c r="FB155" t="n">
+        <v>4</v>
+      </c>
+      <c r="FC155" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD155" t="n">
+        <v>813</v>
+      </c>
+      <c r="FE155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B156" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C156" t="n">
         <v>24672.4622558246</v>
@@ -58486,7 +61298,7 @@
         <v>0.00115704230111971</v>
       </c>
       <c r="F156" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -58917,13 +61729,31 @@
       <c r="EY156" t="n">
         <v>0</v>
       </c>
+      <c r="EZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B157" t="n">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="C157" t="n">
         <v>18767.4341538849</v>
@@ -58935,7 +61765,7 @@
         <v>0.000438355879371722</v>
       </c>
       <c r="F157" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G157"/>
       <c r="H157"/>
@@ -59236,10 +62066,28 @@
       <c r="EY157" t="n">
         <v>5</v>
       </c>
+      <c r="EZ157" t="n">
+        <v>14</v>
+      </c>
+      <c r="FA157" t="n">
+        <v>11</v>
+      </c>
+      <c r="FB157" t="n">
+        <v>38</v>
+      </c>
+      <c r="FC157" t="n">
+        <v>29</v>
+      </c>
+      <c r="FD157" t="n">
+        <v>24</v>
+      </c>
+      <c r="FE157" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -59254,7 +62102,7 @@
         <v>0.000850962176264273</v>
       </c>
       <c r="F158" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G158"/>
       <c r="H158"/>
@@ -59543,13 +62391,31 @@
       <c r="EY158" t="n">
         <v>0</v>
       </c>
+      <c r="EZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB158" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC158" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD158" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" t="n">
         <v>536.673220009276</v>
@@ -59561,7 +62427,7 @@
         <v>0.00046743122966527</v>
       </c>
       <c r="F159" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G159"/>
       <c r="H159"/>
@@ -59860,13 +62726,31 @@
       <c r="EY159" t="n">
         <v>0</v>
       </c>
+      <c r="EZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B160" t="n">
-        <v>4125</v>
+        <v>4403</v>
       </c>
       <c r="C160" t="n">
         <v>22679.7805716106</v>
@@ -59878,7 +62762,7 @@
         <v>0.0022597545842535</v>
       </c>
       <c r="F160" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -60326,14 +63210,32 @@
       </c>
       <c r="EY160" t="n">
         <v>96</v>
+      </c>
+      <c r="EZ160" t="n">
+        <v>95</v>
+      </c>
+      <c r="FA160" t="n">
+        <v>46</v>
+      </c>
+      <c r="FB160" t="n">
+        <v>84</v>
+      </c>
+      <c r="FC160" t="n">
+        <v>45</v>
+      </c>
+      <c r="FD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE160" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B161" t="n">
-        <v>1647</v>
+        <v>1656</v>
       </c>
       <c r="C161" t="n">
         <v>18989.5836166627</v>
@@ -60345,7 +63247,7 @@
         <v>0.00221031145317519</v>
       </c>
       <c r="F161" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -60793,14 +63695,32 @@
       </c>
       <c r="EY161" t="n">
         <v>6</v>
+      </c>
+      <c r="EZ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA161" t="n">
+        <v>7</v>
+      </c>
+      <c r="FB161" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC161" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD161" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE161" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B162" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C162" t="n">
         <v>9897.17770029723</v>
@@ -60812,7 +63732,7 @@
         <v>0.000579795030307747</v>
       </c>
       <c r="F162" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G162"/>
       <c r="H162"/>
@@ -61095,10 +64015,28 @@
       <c r="EY162" t="n">
         <v>0</v>
       </c>
+      <c r="EZ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA162" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB162" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC162" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD162" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B163" t="n">
         <v>7</v>
@@ -61113,7 +64051,7 @@
         <v>0.0017433162231338</v>
       </c>
       <c r="F163" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -61558,15 +64496,33 @@
         <v>0</v>
       </c>
       <c r="EY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B164" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C164" t="n">
         <v>4083.0421521526</v>
@@ -61578,7 +64534,7 @@
         <v>0.000438046569797392</v>
       </c>
       <c r="F164" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
@@ -61783,10 +64739,28 @@
       <c r="EY164" t="n">
         <v>0</v>
       </c>
+      <c r="EZ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA164" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB164" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC164" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD164" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B165" t="n">
         <v>21</v>
@@ -61801,7 +64775,7 @@
         <v>0.000329580140837123</v>
       </c>
       <c r="F165" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G165"/>
       <c r="H165"/>
@@ -62096,10 +65070,28 @@
       <c r="EY165" t="n">
         <v>0</v>
       </c>
+      <c r="EZ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA165" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB165" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC165" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD165" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B166" t="n">
         <v>57</v>
@@ -62114,7 +65106,7 @@
         <v>0.00144914219064351</v>
       </c>
       <c r="F166" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -62549,10 +65541,28 @@
       <c r="EY166" t="n">
         <v>0</v>
       </c>
+      <c r="EZ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA166" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB166" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC166" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD166" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -62567,7 +65577,7 @@
         <v>0.000510082908744125</v>
       </c>
       <c r="F167" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
@@ -62852,10 +65862,28 @@
       <c r="EY167" t="n">
         <v>0</v>
       </c>
+      <c r="EZ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA167" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB167" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC167" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD167" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B168" t="n">
         <v>13</v>
@@ -62870,7 +65898,7 @@
         <v>0.000354676783542218</v>
       </c>
       <c r="F168" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
@@ -63171,10 +66199,28 @@
       <c r="EY168" t="n">
         <v>0</v>
       </c>
+      <c r="EZ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA168" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB168" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC168" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD168" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B169" t="n">
         <v>8</v>
@@ -63189,7 +66235,7 @@
         <v>0.0012244639344628</v>
       </c>
       <c r="F169" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
@@ -63492,10 +66538,28 @@
       <c r="EY169" t="n">
         <v>0</v>
       </c>
+      <c r="EZ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA169" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB169" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC169" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD169" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B170" t="n">
         <v>48</v>
@@ -63510,7 +66574,7 @@
         <v>0.00101445302270842</v>
       </c>
       <c r="F170" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
@@ -63821,13 +66885,31 @@
       <c r="EY170" t="n">
         <v>0</v>
       </c>
+      <c r="EZ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC170" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B171" t="n">
-        <v>4397</v>
+        <v>4563</v>
       </c>
       <c r="C171" t="n">
         <v>84422.3993097077</v>
@@ -63839,7 +66921,7 @@
         <v>0.00101189976011403</v>
       </c>
       <c r="F171" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
@@ -64140,10 +67222,28 @@
       <c r="EY171" t="n">
         <v>28</v>
       </c>
+      <c r="EZ171" t="n">
+        <v>34</v>
+      </c>
+      <c r="FA171" t="n">
+        <v>30</v>
+      </c>
+      <c r="FB171" t="n">
+        <v>28</v>
+      </c>
+      <c r="FC171" t="n">
+        <v>26</v>
+      </c>
+      <c r="FD171" t="n">
+        <v>25</v>
+      </c>
+      <c r="FE171" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -64158,7 +67258,7 @@
         <v>0.000260931558111894</v>
       </c>
       <c r="F172" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G172"/>
       <c r="H172"/>
@@ -64443,13 +67543,31 @@
       <c r="EY172" t="n">
         <v>0</v>
       </c>
+      <c r="EZ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC172" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B173" t="n">
-        <v>644</v>
+        <v>727</v>
       </c>
       <c r="C173" t="n">
         <v>83772.0903411142</v>
@@ -64461,7 +67579,7 @@
         <v>0.00190418625575323</v>
       </c>
       <c r="F173" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G173"/>
       <c r="H173"/>
@@ -64762,13 +67880,31 @@
       <c r="EY173" t="n">
         <v>21</v>
       </c>
+      <c r="EZ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA173" t="n">
+        <v>25</v>
+      </c>
+      <c r="FB173" t="n">
+        <v>27</v>
+      </c>
+      <c r="FC173" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD173" t="n">
+        <v>12</v>
+      </c>
+      <c r="FE173" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B174" t="n">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="C174" t="n">
         <v>3087.01051243429</v>
@@ -64780,7 +67916,7 @@
         <v>0.000315951312389353</v>
       </c>
       <c r="F174" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -65216,14 +68352,32 @@
       </c>
       <c r="EY174" t="n">
         <v>5</v>
+      </c>
+      <c r="EZ174" t="n">
+        <v>2</v>
+      </c>
+      <c r="FA174" t="n">
+        <v>3</v>
+      </c>
+      <c r="FB174" t="n">
+        <v>2</v>
+      </c>
+      <c r="FC174" t="n">
+        <v>2</v>
+      </c>
+      <c r="FD174" t="n">
+        <v>2</v>
+      </c>
+      <c r="FE174" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B175" t="n">
-        <v>37048</v>
+        <v>39045</v>
       </c>
       <c r="C175" t="n">
         <v>144477.647009207</v>
@@ -65235,7 +68389,7 @@
         <v>0.00213945361405561</v>
       </c>
       <c r="F175" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -65683,14 +68837,32 @@
       </c>
       <c r="EY175" t="n">
         <v>134</v>
+      </c>
+      <c r="EZ175" t="n">
+        <v>412</v>
+      </c>
+      <c r="FA175" t="n">
+        <v>377</v>
+      </c>
+      <c r="FB175" t="n">
+        <v>324</v>
+      </c>
+      <c r="FC175" t="n">
+        <v>215</v>
+      </c>
+      <c r="FD175" t="n">
+        <v>113</v>
+      </c>
+      <c r="FE175" t="n">
+        <v>556</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B176" t="n">
-        <v>98916</v>
+        <v>105147</v>
       </c>
       <c r="C176" t="n">
         <v>601512.345001202</v>
@@ -65702,7 +68874,7 @@
         <v>0.00182794431714275</v>
       </c>
       <c r="F176" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -66150,11 +69322,29 @@
       </c>
       <c r="EY176" t="n">
         <v>696</v>
+      </c>
+      <c r="EZ176" t="n">
+        <v>1526</v>
+      </c>
+      <c r="FA176" t="n">
+        <v>1175</v>
+      </c>
+      <c r="FB176" t="n">
+        <v>1219</v>
+      </c>
+      <c r="FC176" t="n">
+        <v>945</v>
+      </c>
+      <c r="FD176" t="n">
+        <v>602</v>
+      </c>
+      <c r="FE176" t="n">
+        <v>764</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B177" t="n">
         <v>6</v>
@@ -66169,7 +69359,7 @@
         <v>0.00203339942456336</v>
       </c>
       <c r="F177" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G177"/>
       <c r="H177"/>
@@ -66448,13 +69638,31 @@
       <c r="EY177" t="n">
         <v>0</v>
       </c>
+      <c r="EZ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC177" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B178" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C178" t="n">
         <v>6235.19647848937</v>
@@ -66466,7 +69674,7 @@
         <v>0.00180117879710739</v>
       </c>
       <c r="F178" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G178"/>
       <c r="H178"/>
@@ -66765,13 +69973,31 @@
       <c r="EY178" t="n">
         <v>0</v>
       </c>
+      <c r="EZ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC178" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD178" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B179" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C179" t="n">
         <v>20087.0880840868</v>
@@ -66783,7 +70009,7 @@
         <v>0.000609037100832592</v>
       </c>
       <c r="F179" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G179"/>
       <c r="H179"/>
@@ -67080,13 +70306,31 @@
       <c r="EY179" t="n">
         <v>1</v>
       </c>
+      <c r="EZ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC179" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD179" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B180" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C180" t="n">
         <v>25545.540248594</v>
@@ -67098,7 +70342,7 @@
         <v>0.000895837225859055</v>
       </c>
       <c r="F180" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
@@ -67397,10 +70641,28 @@
       <c r="EY180" t="n">
         <v>1</v>
       </c>
+      <c r="EZ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB180" t="n">
+        <v>3</v>
+      </c>
+      <c r="FC180" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE180" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -67415,7 +70677,7 @@
         <v>0.000985299746139586</v>
       </c>
       <c r="F181" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -67862,15 +71124,33 @@
         <v>0</v>
       </c>
       <c r="EY181" t="n">
+        <v>0</v>
+      </c>
+      <c r="EZ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
         <v>262.313408380827</v>
@@ -67882,7 +71162,7 @@
         <v>0.000450355919878905</v>
       </c>
       <c r="F182" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G182"/>
       <c r="H182"/>
@@ -68097,13 +71377,31 @@
       <c r="EY182" t="n">
         <v>0</v>
       </c>
+      <c r="EZ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA182" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB182" t="n">
+        <v>1</v>
+      </c>
+      <c r="FC182" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD182" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B183" t="n">
-        <v>350212</v>
+        <v>376427</v>
       </c>
       <c r="C183" t="n">
         <v>8087237.51412203</v>
@@ -68115,7 +71413,7 @@
         <v>0.00104845671277592</v>
       </c>
       <c r="F183" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -68562,15 +71860,33 @@
         <v>3383</v>
       </c>
       <c r="EY183" t="n">
-        <v>3935</v>
+        <v>3936</v>
+      </c>
+      <c r="EZ183" t="n">
+        <v>5177</v>
+      </c>
+      <c r="FA183" t="n">
+        <v>4701</v>
+      </c>
+      <c r="FB183" t="n">
+        <v>4804</v>
+      </c>
+      <c r="FC183" t="n">
+        <v>4051</v>
+      </c>
+      <c r="FD183" t="n">
+        <v>3724</v>
+      </c>
+      <c r="FE183" t="n">
+        <v>3757</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B184" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="C184" t="n">
         <v>10578.1771306963</v>
@@ -68582,7 +71898,7 @@
         <v>0.000362739367134179</v>
       </c>
       <c r="F184" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G184"/>
       <c r="H184"/>
@@ -68829,10 +72145,28 @@
       <c r="EY184" t="n">
         <v>4</v>
       </c>
+      <c r="EZ184" t="n">
+        <v>4</v>
+      </c>
+      <c r="FA184" t="n">
+        <v>4</v>
+      </c>
+      <c r="FB184" t="n">
+        <v>9</v>
+      </c>
+      <c r="FC184" t="n">
+        <v>11</v>
+      </c>
+      <c r="FD184" t="n">
+        <v>3</v>
+      </c>
+      <c r="FE184" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B185" t="n">
         <v>7</v>
@@ -68847,7 +72181,7 @@
         <v>0.000283189168735102</v>
       </c>
       <c r="F185" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G185"/>
       <c r="H185"/>
@@ -69138,10 +72472,28 @@
       <c r="EY185" t="n">
         <v>0</v>
       </c>
+      <c r="EZ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD185" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B186" t="n">
         <v>4</v>
@@ -69156,7 +72508,7 @@
         <v>0.00037238941461274</v>
       </c>
       <c r="F186" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G186"/>
       <c r="H186"/>
@@ -69443,6 +72795,24 @@
       <c r="EY186" t="n">
         <v>0</v>
       </c>
+      <c r="EZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="FA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="FD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="FE186" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/expected_deaths_per_country_using_diamond_princess_data.xlsx
+++ b/expected_deaths_per_country_using_diamond_princess_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
   <si>
     <t xml:space="preserve">location</t>
   </si>
@@ -495,6 +495,15 @@
   </si>
   <si>
     <t xml:space="preserve">2020-06-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-06-05</t>
   </si>
   <si>
     <t xml:space="preserve">Afghanistan</t>
@@ -1868,13 +1877,22 @@
       <c r="FE1" t="s">
         <v>160</v>
       </c>
+      <c r="FF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FH1" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B2" t="n">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C2" t="n">
         <v>12424.7386346819</v>
@@ -1886,7 +1904,7 @@
         <v>0.000326607907060704</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2333,10 +2351,19 @@
       <c r="FE2" t="n">
         <v>8</v>
       </c>
+      <c r="FF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>24</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B3" t="n">
         <v>33</v>
@@ -2351,7 +2378,7 @@
         <v>0.00157829474428685</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -2680,13 +2707,22 @@
       <c r="FE3" t="n">
         <v>0</v>
       </c>
+      <c r="FF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B4" t="n">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="C4" t="n">
         <v>33668.8832121543</v>
@@ -2698,7 +2734,7 @@
         <v>0.000782032401514519</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3155,10 +3191,19 @@
       <c r="FE4" t="n">
         <v>8</v>
       </c>
+      <c r="FF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH4" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -3173,7 +3218,7 @@
         <v>0.000295525242136416</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -3476,10 +3521,19 @@
       <c r="FE5" t="n">
         <v>0</v>
       </c>
+      <c r="FF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -3494,7 +3548,7 @@
         <v>0.00106574934476638</v>
       </c>
       <c r="F6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -3801,13 +3855,22 @@
       <c r="FE6" t="n">
         <v>0</v>
       </c>
+      <c r="FF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B7" t="n">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="C7" t="n">
         <v>57649.9059297918</v>
@@ -3819,7 +3882,7 @@
         <v>0.00128738358521375</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -4152,13 +4215,22 @@
       <c r="FE7" t="n">
         <v>17</v>
       </c>
+      <c r="FF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="FG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="FH7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B8" t="n">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="C8" t="n">
         <v>4275.07811346079</v>
@@ -4170,7 +4242,7 @@
         <v>0.0014453925829085</v>
       </c>
       <c r="F8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4619,10 +4691,19 @@
       <c r="FE8" t="n">
         <v>8</v>
       </c>
+      <c r="FF8" t="n">
+        <v>19</v>
+      </c>
+      <c r="FG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="FH8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -4637,7 +4718,7 @@
         <v>0.00152318504812503</v>
       </c>
       <c r="F9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -4938,13 +5019,22 @@
       <c r="FE9" t="n">
         <v>0</v>
       </c>
+      <c r="FF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B10" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" t="n">
         <v>45969.5380912888</v>
@@ -4956,7 +5046,7 @@
         <v>0.00182395640598371</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5406,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
         <v>0</v>
@@ -5421,15 +5511,24 @@
         <v>0</v>
       </c>
       <c r="FE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B11" t="n">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C11" t="n">
         <v>20229.6818387648</v>
@@ -5441,7 +5540,7 @@
         <v>0.00225901037025626</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5906,15 +6005,24 @@
         <v>0</v>
       </c>
       <c r="FE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C12" t="n">
         <v>8603.8284399583</v>
@@ -5926,7 +6034,7 @@
         <v>0.000856296681859664</v>
       </c>
       <c r="F12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6379,10 +6487,19 @@
       <c r="FE12" t="n">
         <v>5</v>
       </c>
+      <c r="FF12" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG12" t="n">
+        <v>5</v>
+      </c>
+      <c r="FH12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -6397,7 +6514,7 @@
         <v>0.000900763549577317</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -6708,13 +6825,22 @@
       <c r="FE13" t="n">
         <v>0</v>
       </c>
+      <c r="FF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="n">
         <v>714.043604375632</v>
@@ -6726,7 +6852,7 @@
         <v>0.000435083638427136</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -7190,14 +7316,23 @@
       </c>
       <c r="FE14" t="n">
         <v>0</v>
+      </c>
+      <c r="FF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B15" t="n">
-        <v>672</v>
+        <v>781</v>
       </c>
       <c r="C15" t="n">
         <v>109749.69017571</v>
@@ -7209,7 +7344,7 @@
         <v>0.000673120307924738</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -7548,10 +7683,19 @@
       <c r="FE15" t="n">
         <v>22</v>
       </c>
+      <c r="FF15" t="n">
+        <v>37</v>
+      </c>
+      <c r="FG15" t="n">
+        <v>37</v>
+      </c>
+      <c r="FH15" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -7566,7 +7710,7 @@
         <v>0.00191516379412982</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -7877,13 +8021,22 @@
       <c r="FE16" t="n">
         <v>0</v>
       </c>
+      <c r="FF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B17" t="n">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C17" t="n">
         <v>16849.9976684598</v>
@@ -7895,7 +8048,7 @@
         <v>0.0017826141112239</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -8360,15 +8513,24 @@
         <v>6</v>
       </c>
       <c r="FE17" t="n">
+        <v>5</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>5</v>
+      </c>
+      <c r="FH17" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B18" t="n">
-        <v>9486</v>
+        <v>9548</v>
       </c>
       <c r="C18" t="n">
         <v>26083.2114659941</v>
@@ -8380,7 +8542,7 @@
         <v>0.00226037564637606</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -8846,11 +9008,20 @@
       </c>
       <c r="FE18" t="n">
         <v>19</v>
+      </c>
+      <c r="FF18" t="n">
+        <v>19</v>
+      </c>
+      <c r="FG18" t="n">
+        <v>17</v>
+      </c>
+      <c r="FH18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -8865,7 +9036,7 @@
         <v>0.00063466604356105</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -9164,10 +9335,19 @@
       <c r="FE19" t="n">
         <v>0</v>
       </c>
+      <c r="FF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B20" t="n">
         <v>3</v>
@@ -9182,7 +9362,7 @@
         <v>0.00040002212752087</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -9495,10 +9675,19 @@
       <c r="FE20" t="n">
         <v>0</v>
       </c>
+      <c r="FF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -9513,7 +9702,7 @@
         <v>0.000749780099492276</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -9832,13 +10021,22 @@
       <c r="FE21" t="n">
         <v>0</v>
       </c>
+      <c r="FF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B22" t="n">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="C22" t="n">
         <v>10032.7800236585</v>
@@ -9850,7 +10048,7 @@
         <v>0.000871422914092258</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -10173,13 +10371,22 @@
       <c r="FE22" t="n">
         <v>30</v>
       </c>
+      <c r="FF22" t="n">
+        <v>33</v>
+      </c>
+      <c r="FG22" t="n">
+        <v>24</v>
+      </c>
+      <c r="FH22" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B23" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C23" t="n">
         <v>6171.93069714818</v>
@@ -10191,7 +10398,7 @@
         <v>0.0018697177146377</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -10512,10 +10719,19 @@
       <c r="FE23" t="n">
         <v>0</v>
       </c>
+      <c r="FF23" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -10530,7 +10746,7 @@
         <v>0.000508439076061826</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -10813,13 +11029,22 @@
       <c r="FE24" t="n">
         <v>0</v>
       </c>
+      <c r="FF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B25" t="n">
-        <v>29937</v>
+        <v>34021</v>
       </c>
       <c r="C25" t="n">
         <v>228696.724029016</v>
@@ -10831,7 +11056,7 @@
         <v>0.00108361641908796</v>
       </c>
       <c r="F25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -11297,11 +11522,20 @@
       </c>
       <c r="FE25" t="n">
         <v>623</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>1262</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>1349</v>
+      </c>
+      <c r="FH25" t="n">
+        <v>1473</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B26" t="n">
         <v>2</v>
@@ -11316,7 +11550,7 @@
         <v>0.000675623465190034</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -11641,13 +11875,22 @@
       <c r="FE26" t="n">
         <v>0</v>
       </c>
+      <c r="FF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B27" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C27" t="n">
         <v>15897.177855263</v>
@@ -11659,7 +11902,7 @@
         <v>0.00227098777438303</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -11986,10 +12229,19 @@
       <c r="FE27" t="n">
         <v>4</v>
       </c>
+      <c r="FF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG27" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" t="n">
         <v>53</v>
@@ -12004,7 +12256,7 @@
         <v>0.00030686743203392</v>
       </c>
       <c r="F28" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -12325,10 +12577,19 @@
       <c r="FE28" t="n">
         <v>0</v>
       </c>
+      <c r="FF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -12343,7 +12604,7 @@
         <v>0.000304105056117771</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -12626,10 +12887,19 @@
       <c r="FE29" t="n">
         <v>0</v>
       </c>
+      <c r="FF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -12644,7 +12914,7 @@
         <v>0.00055263869255376</v>
       </c>
       <c r="F30" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -13093,13 +13363,22 @@
       <c r="FE30" t="n">
         <v>0</v>
       </c>
+      <c r="FF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B31" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C31" t="n">
         <v>8786.28394509146</v>
@@ -13111,7 +13390,7 @@
         <v>0.000339548328176243</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -13432,13 +13711,22 @@
       <c r="FE31" t="n">
         <v>8</v>
       </c>
+      <c r="FF31" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B32" t="n">
-        <v>7326</v>
+        <v>7637</v>
       </c>
       <c r="C32" t="n">
         <v>74837.0137910231</v>
@@ -13450,7 +13738,7 @@
         <v>0.00200039934180448</v>
       </c>
       <c r="F32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -13916,14 +14204,23 @@
       </c>
       <c r="FE32" t="n">
         <v>31</v>
+      </c>
+      <c r="FF32" t="n">
+        <v>69</v>
+      </c>
+      <c r="FG32" t="n">
+        <v>103</v>
+      </c>
+      <c r="FH32" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
         <v>360.67033258339</v>
@@ -13935,7 +14232,7 @@
         <v>0.000655840557052802</v>
       </c>
       <c r="F33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -14240,10 +14537,19 @@
       <c r="FE33" t="n">
         <v>0</v>
       </c>
+      <c r="FF33" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B34" t="n">
         <v>4</v>
@@ -14258,7 +14564,7 @@
         <v>0.000348558509633733</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -14573,10 +14879,19 @@
       <c r="FE34" t="n">
         <v>2</v>
       </c>
+      <c r="FF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B35" t="n">
         <v>66</v>
@@ -14591,7 +14906,7 @@
         <v>0.00030881862802377</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -14898,13 +15213,22 @@
       <c r="FE35" t="n">
         <v>1</v>
       </c>
+      <c r="FF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B36" t="n">
-        <v>1113</v>
+        <v>1356</v>
       </c>
       <c r="C36" t="n">
         <v>26201.5450466779</v>
@@ -14916,7 +15240,7 @@
         <v>0.00138251881904386</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -15253,10 +15577,19 @@
       <c r="FE36" t="n">
         <v>59</v>
       </c>
+      <c r="FF36" t="n">
+        <v>75</v>
+      </c>
+      <c r="FG36" t="n">
+        <v>87</v>
+      </c>
+      <c r="FH36" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B37" t="n">
         <v>4638</v>
@@ -15271,7 +15604,7 @@
         <v>0.00123190966398218</v>
       </c>
       <c r="F37" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -15736,15 +16069,24 @@
         <v>0</v>
       </c>
       <c r="FE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B38" t="n">
-        <v>969</v>
+        <v>1087</v>
       </c>
       <c r="C38" t="n">
         <v>51741.5321868646</v>
@@ -15756,7 +16098,7 @@
         <v>0.00102785269568566</v>
       </c>
       <c r="F38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -16093,10 +16435,19 @@
       <c r="FE38" t="n">
         <v>30</v>
       </c>
+      <c r="FF38" t="n">
+        <v>40</v>
+      </c>
+      <c r="FG38" t="n">
+        <v>36</v>
+      </c>
+      <c r="FH38" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
@@ -16111,7 +16462,7 @@
         <v>0.000391342858180625</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -16332,10 +16683,19 @@
       <c r="FE39" t="n">
         <v>0</v>
       </c>
+      <c r="FF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B40" t="n">
         <v>20</v>
@@ -16350,7 +16710,7 @@
         <v>0.000352089946363116</v>
       </c>
       <c r="F40" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -16665,10 +17025,19 @@
       <c r="FE40" t="n">
         <v>0</v>
       </c>
+      <c r="FF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B41" t="n">
         <v>10</v>
@@ -16683,7 +17052,7 @@
         <v>0.00117101694264372</v>
       </c>
       <c r="F41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -17014,10 +17383,19 @@
       <c r="FE41" t="n">
         <v>0</v>
       </c>
+      <c r="FF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B42" t="n">
         <v>103</v>
@@ -17032,7 +17410,7 @@
         <v>0.00237573483989524</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -17497,12 +17875,21 @@
         <v>0</v>
       </c>
       <c r="FE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B43" t="n">
         <v>83</v>
@@ -17517,7 +17904,7 @@
         <v>0.00177238545118044</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -17834,10 +18221,19 @@
       <c r="FE43" t="n">
         <v>0</v>
       </c>
+      <c r="FF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B44" t="n">
         <v>17</v>
@@ -17852,7 +18248,7 @@
         <v>0.00158961905147417</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -18175,13 +18571,22 @@
       <c r="FE44" t="n">
         <v>0</v>
       </c>
+      <c r="FF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B45" t="n">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C45" t="n">
         <v>22118.8199723267</v>
@@ -18193,7 +18598,7 @@
         <v>0.00206926552706235</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -18659,14 +19064,23 @@
       </c>
       <c r="FE45" t="n">
         <v>1</v>
+      </c>
+      <c r="FF45" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG45" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B46" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C46" t="n">
         <v>31730.3580249049</v>
@@ -18678,7 +19092,7 @@
         <v>0.000365596851382535</v>
       </c>
       <c r="F46" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -18999,13 +19413,22 @@
       <c r="FE46" t="n">
         <v>1</v>
       </c>
+      <c r="FF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG46" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B47" t="n">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="C47" t="n">
         <v>12584.2078665055</v>
@@ -19017,7 +19440,7 @@
         <v>0.00218026265398681</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -19482,15 +19905,24 @@
         <v>3</v>
       </c>
       <c r="FE47" t="n">
+        <v>2</v>
+      </c>
+      <c r="FF47" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B48" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C48" t="n">
         <v>549.356432708689</v>
@@ -19502,7 +19934,7 @@
         <v>0.000564277625972274</v>
       </c>
       <c r="F48" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -19811,13 +20243,22 @@
       <c r="FE48" t="n">
         <v>0</v>
       </c>
+      <c r="FF48" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG48" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B49" t="n">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="C49" t="n">
         <v>9563.68459374326</v>
@@ -19829,7 +20270,7 @@
         <v>0.000890559911334337</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -20278,13 +20719,22 @@
       <c r="FE49" t="n">
         <v>0</v>
       </c>
+      <c r="FF49" t="n">
+        <v>13</v>
+      </c>
+      <c r="FG49" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B50" t="n">
-        <v>3394</v>
+        <v>3486</v>
       </c>
       <c r="C50" t="n">
         <v>15274.9141172754</v>
@@ -20296,7 +20746,7 @@
         <v>0.000879199705466463</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -20753,13 +21203,22 @@
       <c r="FE50" t="n">
         <v>36</v>
       </c>
+      <c r="FF50" t="n">
+        <v>44</v>
+      </c>
+      <c r="FG50" t="n">
+        <v>48</v>
+      </c>
+      <c r="FH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B51" t="n">
-        <v>1005</v>
+        <v>1126</v>
       </c>
       <c r="C51" t="n">
         <v>62145.086674715</v>
@@ -20771,7 +21230,7 @@
         <v>0.000619048494302884</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -21230,13 +21689,22 @@
       <c r="FE51" t="n">
         <v>46</v>
       </c>
+      <c r="FF51" t="n">
+        <v>47</v>
+      </c>
+      <c r="FG51" t="n">
+        <v>36</v>
+      </c>
+      <c r="FH51" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B52" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C52" t="n">
         <v>6416.52499255144</v>
@@ -21248,7 +21716,7 @@
         <v>0.000994262846425834</v>
       </c>
       <c r="F52" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -21557,10 +22025,19 @@
       <c r="FE52" t="n">
         <v>0</v>
       </c>
+      <c r="FF52" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG52" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B53" t="n">
         <v>12</v>
@@ -21575,7 +22052,7 @@
         <v>0.000321815515316653</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -21892,10 +22369,19 @@
       <c r="FE53" t="n">
         <v>0</v>
       </c>
+      <c r="FF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -21910,7 +22396,7 @@
         <v>0.000500137454675162</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -22213,13 +22699,22 @@
       <c r="FE54" t="n">
         <v>0</v>
       </c>
+      <c r="FF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B55" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" t="n">
         <v>3080.7067992988</v>
@@ -22231,7 +22726,7 @@
         <v>0.00232392345130483</v>
       </c>
       <c r="F55" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -22696,15 +23191,24 @@
         <v>1</v>
       </c>
       <c r="FE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG55" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B56" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C56" t="n">
         <v>47338.9362834201</v>
@@ -22716,7 +23220,7 @@
         <v>0.00042237218402554</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -23035,10 +23539,19 @@
       <c r="FE56" t="n">
         <v>1</v>
       </c>
+      <c r="FF56" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG56" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -23053,7 +23566,7 @@
         <v>0.000658740043712816</v>
       </c>
       <c r="F57" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -23360,13 +23873,22 @@
       <c r="FE57" t="n">
         <v>0</v>
       </c>
+      <c r="FF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B58" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C58" t="n">
         <v>13371.3393209836</v>
@@ -23378,7 +23900,7 @@
         <v>0.00241702006774997</v>
       </c>
       <c r="F58" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -23844,14 +24366,23 @@
       </c>
       <c r="FE58" t="n">
         <v>0</v>
+      </c>
+      <c r="FF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG58" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B59" t="n">
-        <v>28833</v>
+        <v>29065</v>
       </c>
       <c r="C59" t="n">
         <v>155494.034736421</v>
@@ -23863,7 +24394,7 @@
         <v>0.00238745097091409</v>
       </c>
       <c r="F59" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -24329,11 +24860,20 @@
       </c>
       <c r="FE59" t="n">
         <v>31</v>
+      </c>
+      <c r="FF59" t="n">
+        <v>107</v>
+      </c>
+      <c r="FG59" t="n">
+        <v>81</v>
+      </c>
+      <c r="FH59" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -24348,7 +24888,7 @@
         <v>0.000992700472639409</v>
       </c>
       <c r="F60" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -24657,13 +25197,22 @@
       <c r="FE60" t="n">
         <v>0</v>
       </c>
+      <c r="FF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C61" t="n">
         <v>966.553501733155</v>
@@ -24675,7 +25224,7 @@
         <v>0.00044488782530853</v>
       </c>
       <c r="F61" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -24994,10 +25543,19 @@
       <c r="FE61" t="n">
         <v>0</v>
       </c>
+      <c r="FF61" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -25012,7 +25570,7 @@
         <v>0.00031828406811343</v>
       </c>
       <c r="F62" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -25323,13 +25881,22 @@
       <c r="FE62" t="n">
         <v>0</v>
       </c>
+      <c r="FF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="n">
         <v>6944.10381590352</v>
@@ -25341,7 +25908,7 @@
         <v>0.00173743284021825</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -25802,13 +26369,22 @@
       <c r="FE63" t="n">
         <v>0</v>
       </c>
+      <c r="FF63" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B64" t="n">
-        <v>8522</v>
+        <v>8613</v>
       </c>
       <c r="C64" t="n">
         <v>218868.764986589</v>
@@ -25820,7 +26396,7 @@
         <v>0.0026206478568128</v>
       </c>
       <c r="F64" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -26286,14 +26862,23 @@
       </c>
       <c r="FE64" t="n">
         <v>11</v>
+      </c>
+      <c r="FF64" t="n">
+        <v>29</v>
+      </c>
+      <c r="FG64" t="n">
+        <v>30</v>
+      </c>
+      <c r="FH64" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B65" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C65" t="n">
         <v>12190.9828388573</v>
@@ -26305,7 +26890,7 @@
         <v>0.000400783738251961</v>
       </c>
       <c r="F65" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -26624,13 +27209,22 @@
       <c r="FE65" t="n">
         <v>0</v>
       </c>
+      <c r="FF65" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B66" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C66" t="n">
         <v>28263.1945021056</v>
@@ -26642,7 +27236,7 @@
         <v>0.00269855578677456</v>
       </c>
       <c r="F66" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -27107,12 +27701,21 @@
         <v>0</v>
       </c>
       <c r="FE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF66" t="n">
+        <v>4</v>
+      </c>
+      <c r="FG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -27127,7 +27730,7 @@
         <v>0.00116597229275071</v>
       </c>
       <c r="F67" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -27428,10 +28031,19 @@
       <c r="FE67" t="n">
         <v>0</v>
       </c>
+      <c r="FF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B68" t="n">
         <v>5</v>
@@ -27446,7 +28058,7 @@
         <v>0.00116117444660682</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -27755,13 +28367,22 @@
       <c r="FE68" t="n">
         <v>0</v>
       </c>
+      <c r="FF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B69" t="n">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="C69" t="n">
         <v>10675.1133572492</v>
@@ -27773,7 +28394,7 @@
         <v>0.000607179588178444</v>
       </c>
       <c r="F69" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -28090,10 +28711,19 @@
       <c r="FE69" t="n">
         <v>8</v>
       </c>
+      <c r="FF69" t="n">
+        <v>7</v>
+      </c>
+      <c r="FG69" t="n">
+        <v>20</v>
+      </c>
+      <c r="FH69" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B70" t="n">
         <v>23</v>
@@ -28108,7 +28738,7 @@
         <v>0.000350884462210825</v>
       </c>
       <c r="F70" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -28425,13 +29055,22 @@
       <c r="FE70" t="n">
         <v>0</v>
       </c>
+      <c r="FF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="n">
         <v>652.600813657327</v>
@@ -28443,7 +29082,7 @@
         <v>0.000339734175600248</v>
       </c>
       <c r="F71" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -28736,10 +29375,19 @@
       <c r="FE71" t="n">
         <v>0</v>
       </c>
+      <c r="FF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B72" t="n">
         <v>12</v>
@@ -28754,7 +29402,7 @@
         <v>0.000824424853209571</v>
       </c>
       <c r="F72" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -29071,13 +29719,22 @@
       <c r="FE72" t="n">
         <v>0</v>
       </c>
+      <c r="FF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B73" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C73" t="n">
         <v>6785.40203132334</v>
@@ -29089,7 +29746,7 @@
         <v>0.000602446456366269</v>
       </c>
       <c r="F73" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -29396,13 +30053,22 @@
       <c r="FE73" t="n">
         <v>1</v>
       </c>
+      <c r="FF73" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG73" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B74" t="n">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="C74" t="n">
         <v>5975.1028994163</v>
@@ -29414,7 +30080,7 @@
         <v>0.000613075416459965</v>
       </c>
       <c r="F74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -29733,10 +30399,19 @@
       <c r="FE74" t="n">
         <v>5</v>
       </c>
+      <c r="FF74" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG74" t="n">
+        <v>9</v>
+      </c>
+      <c r="FH74" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -29751,7 +30426,7 @@
         <v>0.00211272955020031</v>
       </c>
       <c r="F75" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -30142,13 +30817,16 @@
       <c r="FC75"/>
       <c r="FD75"/>
       <c r="FE75"/>
+      <c r="FF75"/>
+      <c r="FG75"/>
+      <c r="FH75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B76" t="n">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C76" t="n">
         <v>20343.8576548164</v>
@@ -30160,7 +30838,7 @@
         <v>0.00210062259721708</v>
       </c>
       <c r="F76" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -30499,10 +31177,19 @@
       <c r="FE76" t="n">
         <v>6</v>
       </c>
+      <c r="FF76" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH76" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B77" t="n">
         <v>10</v>
@@ -30517,7 +31204,7 @@
         <v>0.00173303942255681</v>
       </c>
       <c r="F77" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -30982,15 +31669,24 @@
         <v>0</v>
       </c>
       <c r="FE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B78" t="n">
-        <v>5598</v>
+        <v>6348</v>
       </c>
       <c r="C78" t="n">
         <v>1007352.75961413</v>
@@ -31002,7 +31698,7 @@
         <v>0.000737221655623268</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -31466,14 +32162,23 @@
       </c>
       <c r="FE78" t="n">
         <v>204</v>
+      </c>
+      <c r="FF78" t="n">
+        <v>217</v>
+      </c>
+      <c r="FG78" t="n">
+        <v>260</v>
+      </c>
+      <c r="FH78" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B79" t="n">
-        <v>1641</v>
+        <v>1721</v>
       </c>
       <c r="C79" t="n">
         <v>197413.463693284</v>
@@ -31485,7 +32190,7 @@
         <v>0.000729470854811306</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -31938,13 +32643,22 @@
       <c r="FE79" t="n">
         <v>28</v>
       </c>
+      <c r="FF79" t="n">
+        <v>22</v>
+      </c>
+      <c r="FG79" t="n">
+        <v>35</v>
+      </c>
+      <c r="FH79" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B80" t="n">
-        <v>7878</v>
+        <v>8071</v>
       </c>
       <c r="C80" t="n">
         <v>64236.7361883875</v>
@@ -31956,7 +32670,7 @@
         <v>0.000774740322329184</v>
       </c>
       <c r="F80" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -32422,14 +33136,23 @@
       </c>
       <c r="FE80" t="n">
         <v>81</v>
+      </c>
+      <c r="FF80" t="n">
+        <v>64</v>
+      </c>
+      <c r="FG80" t="n">
+        <v>70</v>
+      </c>
+      <c r="FH80" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B81" t="n">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="C81" t="n">
         <v>16242.4441635167</v>
@@ -32441,7 +33164,7 @@
         <v>0.000413190835918949</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -32903,14 +33626,23 @@
       </c>
       <c r="FE81" t="n">
         <v>10</v>
+      </c>
+      <c r="FF81" t="n">
+        <v>20</v>
+      </c>
+      <c r="FG81" t="n">
+        <v>21</v>
+      </c>
+      <c r="FH81" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B82" t="n">
-        <v>1652</v>
+        <v>1664</v>
       </c>
       <c r="C82" t="n">
         <v>7663.69136924019</v>
@@ -32922,7 +33654,7 @@
         <v>0.00156962509134468</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -33379,21 +34111,30 @@
         <v>6</v>
       </c>
       <c r="FC82" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="FD82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE82" t="n">
-        <v>-2</v>
+        <v>0</v>
+      </c>
+      <c r="FF82" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG82" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH82" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B83" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C83" t="n">
         <v>11713.287711048</v>
@@ -33405,7 +34146,7 @@
         <v>0.00137490036953991</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -33871,14 +34612,23 @@
       </c>
       <c r="FE83" t="n">
         <v>2</v>
+      </c>
+      <c r="FF83" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG83" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B84" t="n">
-        <v>33475</v>
+        <v>33689</v>
       </c>
       <c r="C84" t="n">
         <v>167507.793589674</v>
@@ -33890,7 +34640,7 @@
         <v>0.00276643334562851</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -34356,14 +35106,23 @@
       </c>
       <c r="FE84" t="n">
         <v>60</v>
+      </c>
+      <c r="FF84" t="n">
+        <v>55</v>
+      </c>
+      <c r="FG84" t="n">
+        <v>71</v>
+      </c>
+      <c r="FH84" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C85" t="n">
         <v>3171.99863729704</v>
@@ -34375,7 +35134,7 @@
         <v>0.00107588252839865</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -34696,13 +35455,22 @@
       <c r="FE85" t="n">
         <v>0</v>
       </c>
+      <c r="FF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B86" t="n">
-        <v>894</v>
+        <v>907</v>
       </c>
       <c r="C86" t="n">
         <v>408185.308690873</v>
@@ -34714,7 +35482,7 @@
         <v>0.00321759693070622</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -35180,11 +35948,20 @@
       </c>
       <c r="FE86" t="n">
         <v>2</v>
+      </c>
+      <c r="FF86" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG86" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B87" t="n">
         <v>9</v>
@@ -35199,7 +35976,7 @@
         <v>0.000499912687157966</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -35520,13 +36297,22 @@
       <c r="FE87" t="n">
         <v>0</v>
       </c>
+      <c r="FF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B88" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C88" t="n">
         <v>17133.7852434201</v>
@@ -35538,7 +36324,7 @@
         <v>0.000923583142332935</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -35859,13 +36645,22 @@
       <c r="FE88" t="n">
         <v>0</v>
       </c>
+      <c r="FF88" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG88" t="n">
+        <v>4</v>
+      </c>
+      <c r="FH88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B89" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C89" t="n">
         <v>17041.2158969674</v>
@@ -35877,7 +36672,7 @@
         <v>0.000324137912152746</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -36212,13 +37007,22 @@
       <c r="FE89" t="n">
         <v>5</v>
       </c>
+      <c r="FF89" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG89" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH89" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B90" t="n">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C90" t="n">
         <v>2002.98606207839</v>
@@ -36230,7 +37034,7 @@
         <v>0.000476099216172748</v>
       </c>
       <c r="F90" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -36691,13 +37495,22 @@
       <c r="FE90" t="n">
         <v>8</v>
       </c>
+      <c r="FF90" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG90" t="n">
+        <v>4</v>
+      </c>
+      <c r="FH90" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B91" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C91" t="n">
         <v>3927.60436572775</v>
@@ -36709,7 +37522,7 @@
         <v>0.000612172004263775</v>
       </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -37018,10 +37831,19 @@
       <c r="FE91" t="n">
         <v>1</v>
       </c>
+      <c r="FF91" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -37036,7 +37858,7 @@
         <v>0.000511768875418625</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -37333,13 +38155,22 @@
       <c r="FE92" t="n">
         <v>0</v>
       </c>
+      <c r="FF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B93" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C93" t="n">
         <v>4497.91263416745</v>
@@ -37351,7 +38182,7 @@
         <v>0.00235895435883626</v>
       </c>
       <c r="F93" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -37698,13 +38529,22 @@
       <c r="FE93" t="n">
         <v>0</v>
       </c>
+      <c r="FF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B94" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C94" t="n">
         <v>6038.00324136336</v>
@@ -37716,7 +38556,7 @@
         <v>0.000880726431371255</v>
       </c>
       <c r="F94" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -38175,10 +39015,19 @@
       <c r="FE94" t="n">
         <v>0</v>
       </c>
+      <c r="FF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -38193,7 +39042,7 @@
         <v>0.000585965544185038</v>
       </c>
       <c r="F95" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -38388,13 +39237,22 @@
       <c r="FE95" t="n">
         <v>0</v>
       </c>
+      <c r="FF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C96" t="n">
         <v>1986.37607313627</v>
@@ -38406,7 +39264,7 @@
         <v>0.000402314281465465</v>
       </c>
       <c r="F96" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -38719,10 +39577,19 @@
       <c r="FE96" t="n">
         <v>0</v>
       </c>
+      <c r="FF96" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG96" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B97" t="n">
         <v>5</v>
@@ -38737,7 +39604,7 @@
         <v>0.000579300651412643</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -39034,13 +39901,22 @@
       <c r="FE97" t="n">
         <v>0</v>
       </c>
+      <c r="FF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B98" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C98" t="n">
         <v>6676.53568545475</v>
@@ -39052,7 +39928,7 @@
         <v>0.00241935812630557</v>
       </c>
       <c r="F98" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -39517,12 +40393,21 @@
         <v>0</v>
       </c>
       <c r="FE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF98" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B99" t="n">
         <v>110</v>
@@ -39537,7 +40422,7 @@
         <v>0.00173602156187562</v>
       </c>
       <c r="F99" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -39990,13 +40875,22 @@
       <c r="FE99" t="n">
         <v>0</v>
       </c>
+      <c r="FF99" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG99" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B100" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C100" t="n">
         <v>3135.76609940643</v>
@@ -40008,7 +40902,7 @@
         <v>0.00150507766386768</v>
       </c>
       <c r="F100" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -40457,13 +41351,22 @@
       <c r="FE100" t="n">
         <v>7</v>
       </c>
+      <c r="FF100" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG100" t="n">
+        <v>4</v>
+      </c>
+      <c r="FH100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
         <v>10444.1668407235</v>
@@ -40475,7 +41378,7 @@
         <v>0.000387261238413905</v>
       </c>
       <c r="F101" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -40780,10 +41683,19 @@
       <c r="FE101" t="n">
         <v>0</v>
       </c>
+      <c r="FF101" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH101" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B102" t="n">
         <v>4</v>
@@ -40798,7 +41710,7 @@
         <v>0.000329749892185964</v>
       </c>
       <c r="F102" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
@@ -41077,10 +41989,19 @@
       <c r="FE102" t="n">
         <v>0</v>
       </c>
+      <c r="FF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B103" t="n">
         <v>115</v>
@@ -41095,7 +42016,7 @@
         <v>0.00080671926634488</v>
       </c>
       <c r="F103" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -41560,15 +42481,24 @@
         <v>0</v>
       </c>
       <c r="FE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG103" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B104" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C104" t="n">
         <v>287.908648415219</v>
@@ -41580,7 +42510,7 @@
         <v>0.000542245776326512</v>
       </c>
       <c r="F104" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
@@ -41907,13 +42837,22 @@
       <c r="FE104" t="n">
         <v>1</v>
       </c>
+      <c r="FF104" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG104" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B105" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C105" t="n">
         <v>5961.46439416279</v>
@@ -41925,7 +42864,7 @@
         <v>0.000303258608326046</v>
       </c>
       <c r="F105" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
@@ -42220,10 +43159,19 @@
       <c r="FE105" t="n">
         <v>1</v>
       </c>
+      <c r="FF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH105" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B106" t="n">
         <v>9</v>
@@ -42238,7 +43186,7 @@
         <v>0.00223922557196121</v>
       </c>
       <c r="F106" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
@@ -42571,13 +43519,22 @@
       <c r="FE106" t="n">
         <v>2</v>
       </c>
+      <c r="FF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B107" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C107" t="n">
         <v>1809.41145170454</v>
@@ -42589,7 +43546,7 @@
         <v>0.000399808350339084</v>
       </c>
       <c r="F107" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
@@ -42906,10 +43863,19 @@
       <c r="FE107" t="n">
         <v>0</v>
       </c>
+      <c r="FF107" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH107" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B108" t="n">
         <v>10</v>
@@ -42924,7 +43890,7 @@
         <v>0.00131209265770585</v>
       </c>
       <c r="F108" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -43231,13 +44197,22 @@
       <c r="FE108" t="n">
         <v>0</v>
       </c>
+      <c r="FF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B109" t="n">
-        <v>10167</v>
+        <v>12545</v>
       </c>
       <c r="C109" t="n">
         <v>114239.082347694</v>
@@ -43249,7 +44224,7 @@
         <v>0.000895462351899451</v>
       </c>
       <c r="F109" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -43715,14 +44690,23 @@
       </c>
       <c r="FE109" t="n">
         <v>237</v>
+      </c>
+      <c r="FF109" t="n">
+        <v>470</v>
+      </c>
+      <c r="FG109" t="n">
+        <v>1091</v>
+      </c>
+      <c r="FH109" t="n">
+        <v>817</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B110" t="n">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C110" t="n">
         <v>5369.62504534586</v>
@@ -43734,7 +44718,7 @@
         <v>0.00132804412811299</v>
       </c>
       <c r="F110" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
@@ -44061,10 +45045,19 @@
       <c r="FE110" t="n">
         <v>12</v>
       </c>
+      <c r="FF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG110" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH110" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -44079,7 +45072,7 @@
         <v>0.000560116659650488</v>
       </c>
       <c r="F111" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
@@ -44394,10 +45387,19 @@
       <c r="FE111" t="n">
         <v>0</v>
       </c>
+      <c r="FF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B112" t="n">
         <v>9</v>
@@ -44412,7 +45414,7 @@
         <v>0.00169587961599432</v>
       </c>
       <c r="F112" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -44723,13 +45725,22 @@
       <c r="FE112" t="n">
         <v>0</v>
       </c>
+      <c r="FF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B113" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C113" t="n">
         <v>30904.1648122975</v>
@@ -44741,7 +45752,7 @@
         <v>0.000847344897208913</v>
       </c>
       <c r="F113" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
@@ -45132,10 +46143,19 @@
       <c r="FE113" t="n">
         <v>0</v>
       </c>
+      <c r="FF113" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B114" t="n">
         <v>2</v>
@@ -45150,7 +46170,7 @@
         <v>0.000347850161660036</v>
       </c>
       <c r="F114" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
@@ -45451,10 +46471,19 @@
       <c r="FE114" t="n">
         <v>0</v>
       </c>
+      <c r="FF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B115" t="n">
         <v>6</v>
@@ -45469,7 +46498,7 @@
         <v>0.000700909676076501</v>
       </c>
       <c r="F115" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
@@ -45770,10 +46799,19 @@
       <c r="FE115" t="n">
         <v>0</v>
       </c>
+      <c r="FF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -45788,7 +46826,7 @@
         <v>0.000460552988349411</v>
       </c>
       <c r="F116" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
@@ -46105,13 +47143,22 @@
       <c r="FE116" t="n">
         <v>0</v>
       </c>
+      <c r="FF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C117" t="n">
         <v>18552.4411220924</v>
@@ -46123,7 +47170,7 @@
         <v>0.000648489167394676</v>
       </c>
       <c r="F117" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -46589,14 +47636,23 @@
       </c>
       <c r="FE117" t="n">
         <v>0</v>
+      </c>
+      <c r="FF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG117" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH117" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B118" t="n">
-        <v>5962</v>
+        <v>5990</v>
       </c>
       <c r="C118" t="n">
         <v>37338.4501582691</v>
@@ -46608,7 +47664,7 @@
         <v>0.00218390265673188</v>
       </c>
       <c r="F118" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -47074,11 +48130,20 @@
       </c>
       <c r="FE118" t="n">
         <v>6</v>
+      </c>
+      <c r="FF118" t="n">
+        <v>5</v>
+      </c>
+      <c r="FG118" t="n">
+        <v>10</v>
+      </c>
+      <c r="FH118" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -47093,7 +48158,7 @@
         <v>0.00104863171588723</v>
       </c>
       <c r="F119" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
@@ -47398,10 +48463,19 @@
       <c r="FE119" t="n">
         <v>0</v>
       </c>
+      <c r="FF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG119" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B120" t="n">
         <v>22</v>
@@ -47416,7 +48490,7 @@
         <v>0.00179953713455411</v>
       </c>
       <c r="F120" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -47877,15 +48951,24 @@
         <v>0</v>
       </c>
       <c r="FE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG120" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH120" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B121" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C121" t="n">
         <v>4470.91360082327</v>
@@ -47897,7 +48980,7 @@
         <v>0.000683051292448351</v>
       </c>
       <c r="F121" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -48206,10 +49289,19 @@
       <c r="FE121" t="n">
         <v>0</v>
       </c>
+      <c r="FF121" t="n">
+        <v>11</v>
+      </c>
+      <c r="FG121" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B122" t="n">
         <v>65</v>
@@ -48224,7 +49316,7 @@
         <v>0.00030573308972683</v>
       </c>
       <c r="F122" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
@@ -48529,13 +49621,22 @@
       <c r="FE122" t="n">
         <v>1</v>
       </c>
+      <c r="FF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG122" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B123" t="n">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="C123" t="n">
         <v>67019.9122461298</v>
@@ -48547,7 +49648,7 @@
         <v>0.00033349278797579</v>
       </c>
       <c r="F123" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -48992,13 +50093,22 @@
       <c r="FE123" t="n">
         <v>12</v>
       </c>
+      <c r="FF123" t="n">
+        <v>15</v>
+      </c>
+      <c r="FG123" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH123" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B124" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C124" t="n">
         <v>10423.9075967239</v>
@@ -49010,7 +50120,7 @@
         <v>0.00193794029490713</v>
       </c>
       <c r="F124" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -49476,14 +50586,23 @@
       </c>
       <c r="FE124" t="n">
         <v>0</v>
+      </c>
+      <c r="FF124" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG124" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH124" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B125" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C125" t="n">
         <v>1977.24805262704</v>
@@ -49495,7 +50614,7 @@
         <v>0.000397437433593268</v>
       </c>
       <c r="F125" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -49950,13 +51069,22 @@
       <c r="FE125" t="n">
         <v>3</v>
       </c>
+      <c r="FF125" t="n">
+        <v>9</v>
+      </c>
+      <c r="FG125" t="n">
+        <v>8</v>
+      </c>
+      <c r="FH125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B126" t="n">
-        <v>1621</v>
+        <v>1838</v>
       </c>
       <c r="C126" t="n">
         <v>114749.416789966</v>
@@ -49968,7 +51096,7 @@
         <v>0.000529860544520923</v>
       </c>
       <c r="F126" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -50425,10 +51553,19 @@
       <c r="FE126" t="n">
         <v>78</v>
       </c>
+      <c r="FF126" t="n">
+        <v>67</v>
+      </c>
+      <c r="FG126" t="n">
+        <v>82</v>
+      </c>
+      <c r="FH126" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B127" t="n">
         <v>5</v>
@@ -50443,7 +51580,7 @@
         <v>0.000401489546672574</v>
       </c>
       <c r="F127" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
@@ -50772,13 +51909,22 @@
       <c r="FE127" t="n">
         <v>0</v>
       </c>
+      <c r="FF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG127" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B128" t="n">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C128" t="n">
         <v>4294.40325124701</v>
@@ -50790,7 +51936,7 @@
         <v>0.00101129493204826</v>
       </c>
       <c r="F128" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
@@ -51119,10 +52265,19 @@
       <c r="FE128" t="n">
         <v>8</v>
       </c>
+      <c r="FF128" t="n">
+        <v>-86</v>
+      </c>
+      <c r="FG128" t="n">
+        <v>99</v>
+      </c>
+      <c r="FH128" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -51137,7 +52292,7 @@
         <v>0.000430456683036194</v>
       </c>
       <c r="F129" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G129"/>
       <c r="H129"/>
@@ -51442,10 +52597,19 @@
       <c r="FE129" t="n">
         <v>0</v>
       </c>
+      <c r="FF129" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG129" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B130" t="n">
         <v>11</v>
@@ -51460,7 +52624,7 @@
         <v>0.000769195183228435</v>
       </c>
       <c r="F130" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G130"/>
       <c r="H130"/>
@@ -51793,13 +52957,22 @@
       <c r="FE130" t="n">
         <v>0</v>
       </c>
+      <c r="FF130" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG130" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B131" t="n">
-        <v>4634</v>
+        <v>5031</v>
       </c>
       <c r="C131" t="n">
         <v>31935.9331415483</v>
@@ -51811,7 +52984,7 @@
         <v>0.000982327877762806</v>
       </c>
       <c r="F131" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G131"/>
       <c r="H131"/>
@@ -52150,13 +53323,22 @@
       <c r="FE131" t="n">
         <v>128</v>
       </c>
+      <c r="FF131" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG131" t="n">
+        <v>260</v>
+      </c>
+      <c r="FH131" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B132" t="n">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="C132" t="n">
         <v>68981.1109537369</v>
@@ -52168,7 +53350,7 @@
         <v>0.000638025029617896</v>
       </c>
       <c r="F132" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -52627,13 +53809,22 @@
       <c r="FE132" t="n">
         <v>3</v>
       </c>
+      <c r="FF132" t="n">
+        <v>6</v>
+      </c>
+      <c r="FG132" t="n">
+        <v>8</v>
+      </c>
+      <c r="FH132" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B133" t="n">
-        <v>1074</v>
+        <v>1117</v>
       </c>
       <c r="C133" t="n">
         <v>77215.1423090302</v>
@@ -52645,7 +53836,7 @@
         <v>0.0020379964909265</v>
       </c>
       <c r="F133" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
@@ -52986,13 +54177,22 @@
       <c r="FE133" t="n">
         <v>10</v>
       </c>
+      <c r="FF133" t="n">
+        <v>18</v>
+      </c>
+      <c r="FG133" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH133" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B134" t="n">
-        <v>1424</v>
+        <v>1455</v>
       </c>
       <c r="C134" t="n">
         <v>26615.3148012212</v>
@@ -53004,7 +54204,7 @@
         <v>0.00260266492537302</v>
       </c>
       <c r="F134" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
@@ -53349,13 +54549,22 @@
       <c r="FE134" t="n">
         <v>14</v>
       </c>
+      <c r="FF134" t="n">
+        <v>12</v>
+      </c>
+      <c r="FG134" t="n">
+        <v>11</v>
+      </c>
+      <c r="FH134" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B135" t="n">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C135" t="n">
         <v>6595.95722933069</v>
@@ -53367,7 +54576,7 @@
         <v>0.00224856761268843</v>
       </c>
       <c r="F135" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
@@ -53658,13 +54867,22 @@
       <c r="FE135" t="n">
         <v>0</v>
       </c>
+      <c r="FF135" t="n">
+        <v>2</v>
+      </c>
+      <c r="FG135" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B136" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C136" t="n">
         <v>950.68527167165</v>
@@ -53676,7 +54894,7 @@
         <v>0.000335685536016452</v>
       </c>
       <c r="F136" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -54135,13 +55353,22 @@
       <c r="FE136" t="n">
         <v>2</v>
       </c>
+      <c r="FF136" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG136" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B137" t="n">
-        <v>1279</v>
+        <v>1299</v>
       </c>
       <c r="C137" t="n">
         <v>40873.3267557483</v>
@@ -54153,7 +55380,7 @@
         <v>0.00211072861852815</v>
       </c>
       <c r="F137" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -54615,14 +55842,23 @@
       </c>
       <c r="FE137" t="n">
         <v>17</v>
+      </c>
+      <c r="FF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG137" t="n">
+        <v>9</v>
+      </c>
+      <c r="FH137" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B138" t="n">
-        <v>5037</v>
+        <v>5384</v>
       </c>
       <c r="C138" t="n">
         <v>256123.517136503</v>
@@ -54634,7 +55870,7 @@
         <v>0.00175580691218415</v>
       </c>
       <c r="F138" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -55099,15 +56335,24 @@
         <v>138</v>
       </c>
       <c r="FE138" t="n">
-        <v>344</v>
+        <v>162</v>
+      </c>
+      <c r="FF138" t="n">
+        <v>182</v>
+      </c>
+      <c r="FG138" t="n">
+        <v>178</v>
+      </c>
+      <c r="FH138" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C139" t="n">
         <v>4788.68889756762</v>
@@ -55119,7 +56364,7 @@
         <v>0.000379243935153201</v>
       </c>
       <c r="F139" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
@@ -55436,10 +56681,19 @@
       <c r="FE139" t="n">
         <v>0</v>
       </c>
+      <c r="FF139" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -55454,7 +56708,7 @@
         <v>0.00122176693298997</v>
       </c>
       <c r="F140" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G140"/>
       <c r="H140"/>
@@ -55771,10 +57025,19 @@
       <c r="FE140" t="n">
         <v>0</v>
       </c>
+      <c r="FF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -55789,7 +57052,7 @@
         <v>0.00119556052142664</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G141"/>
       <c r="H141"/>
@@ -56088,10 +57351,19 @@
       <c r="FE141" t="n">
         <v>0</v>
       </c>
+      <c r="FF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B142" t="n">
         <v>12</v>
@@ -56106,7 +57378,7 @@
         <v>0.000399415017040207</v>
       </c>
       <c r="F142" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G142"/>
       <c r="H142"/>
@@ -56373,13 +57645,22 @@
       <c r="FE142" t="n">
         <v>0</v>
       </c>
+      <c r="FF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B143" t="n">
-        <v>525</v>
+        <v>611</v>
       </c>
       <c r="C143" t="n">
         <v>16751.8648403159</v>
@@ -56391,7 +57672,7 @@
         <v>0.000488841083325049</v>
       </c>
       <c r="F143" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G143"/>
       <c r="H143"/>
@@ -56726,13 +58007,22 @@
       <c r="FE143" t="n">
         <v>22</v>
       </c>
+      <c r="FF143" t="n">
+        <v>24</v>
+      </c>
+      <c r="FG143" t="n">
+        <v>30</v>
+      </c>
+      <c r="FH143" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B144" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C144" t="n">
         <v>6117.70598387866</v>
@@ -56744,7 +58034,7 @@
         <v>0.000375403194853051</v>
       </c>
       <c r="F144" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G144"/>
       <c r="H144"/>
@@ -57087,13 +58377,22 @@
       <c r="FE144" t="n">
         <v>0</v>
       </c>
+      <c r="FF144" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG144" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B145" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C145" t="n">
         <v>17271.4268963359</v>
@@ -57105,7 +58404,7 @@
         <v>0.00196887574015814</v>
       </c>
       <c r="F145" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G145"/>
       <c r="H145"/>
@@ -57458,10 +58757,19 @@
       <c r="FE145" t="n">
         <v>1</v>
       </c>
+      <c r="FF145" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG145" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -57476,7 +58784,7 @@
         <v>0.00100000001120105</v>
       </c>
       <c r="F146" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G146"/>
       <c r="H146"/>
@@ -57793,13 +59101,22 @@
       <c r="FE146" t="n">
         <v>0</v>
       </c>
+      <c r="FF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B147" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C147" t="n">
         <v>2872.35158124797</v>
@@ -57811,7 +59128,7 @@
         <v>0.000367627733560364</v>
       </c>
       <c r="F147" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G147"/>
       <c r="H147"/>
@@ -58094,10 +59411,19 @@
       <c r="FE147" t="n">
         <v>0</v>
       </c>
+      <c r="FF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG147" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B148" t="n">
         <v>24</v>
@@ -58112,7 +59438,7 @@
         <v>0.00139991315382775</v>
       </c>
       <c r="F148" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -58578,11 +59904,20 @@
       </c>
       <c r="FE148" t="n">
         <v>1</v>
+      </c>
+      <c r="FF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B149" t="n">
         <v>28</v>
@@ -58597,7 +59932,7 @@
         <v>0.00173961526791426</v>
       </c>
       <c r="F149" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
@@ -58928,10 +60263,19 @@
       <c r="FE149" t="n">
         <v>0</v>
       </c>
+      <c r="FF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B150" t="n">
         <v>108</v>
@@ -58946,7 +60290,7 @@
         <v>0.0022960187054663</v>
       </c>
       <c r="F150" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G150"/>
       <c r="H150"/>
@@ -59281,10 +60625,19 @@
       <c r="FE150" t="n">
         <v>0</v>
       </c>
+      <c r="FF150" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B151" t="n">
         <v>79</v>
@@ -59299,7 +60652,7 @@
         <v>0.000344980489432569</v>
       </c>
       <c r="F151" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G151"/>
       <c r="H151"/>
@@ -59612,13 +60965,22 @@
       <c r="FE151" t="n">
         <v>1</v>
       </c>
+      <c r="FF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B152" t="n">
-        <v>705</v>
+        <v>848</v>
       </c>
       <c r="C152" t="n">
         <v>37042.917524683</v>
@@ -59630,7 +60992,7 @@
         <v>0.000632582202691945</v>
       </c>
       <c r="F152" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G152"/>
       <c r="H152"/>
@@ -60021,13 +61383,22 @@
       <c r="FE152" t="n">
         <v>22</v>
       </c>
+      <c r="FF152" t="n">
+        <v>50</v>
+      </c>
+      <c r="FG152" t="n">
+        <v>37</v>
+      </c>
+      <c r="FH152" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B153" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C153" t="n">
         <v>90298.5937303062</v>
@@ -60039,7 +61410,7 @@
         <v>0.00176277266262673</v>
       </c>
       <c r="F153" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -60505,14 +61876,23 @@
       </c>
       <c r="FE153" t="n">
         <v>1</v>
+      </c>
+      <c r="FF153" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B154" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C154" t="n">
         <v>4549.93201544883</v>
@@ -60524,7 +61904,7 @@
         <v>0.000411307678329522</v>
       </c>
       <c r="F154" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
@@ -60797,10 +62177,19 @@
       <c r="FE154" t="n">
         <v>0</v>
       </c>
+      <c r="FF154" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH154" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B155" t="n">
         <v>28752</v>
@@ -60815,7 +62204,7 @@
         <v>0.00239653947251376</v>
       </c>
       <c r="F155" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -61279,11 +62668,20 @@
       <c r="FD155" t="n">
         <v>813</v>
       </c>
-      <c r="FE155"/>
+      <c r="FE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B156" t="n">
         <v>11</v>
@@ -61298,7 +62696,7 @@
         <v>0.00115704230111971</v>
       </c>
       <c r="F156" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -61747,13 +63145,22 @@
       <c r="FE156" t="n">
         <v>1</v>
       </c>
+      <c r="FF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B157" t="n">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="C157" t="n">
         <v>18767.4341538849</v>
@@ -61765,7 +63172,7 @@
         <v>0.000438355879371722</v>
       </c>
       <c r="F157" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G157"/>
       <c r="H157"/>
@@ -62084,10 +63491,19 @@
       <c r="FE157" t="n">
         <v>12</v>
       </c>
+      <c r="FF157" t="n">
+        <v>9</v>
+      </c>
+      <c r="FG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH157" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B158" t="n">
         <v>1</v>
@@ -62102,7 +63518,7 @@
         <v>0.000850962176264273</v>
       </c>
       <c r="F158" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G158"/>
       <c r="H158"/>
@@ -62409,10 +63825,19 @@
       <c r="FE158" t="n">
         <v>0</v>
       </c>
+      <c r="FF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG158" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B159" t="n">
         <v>3</v>
@@ -62427,7 +63852,7 @@
         <v>0.00046743122966527</v>
       </c>
       <c r="F159" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G159"/>
       <c r="H159"/>
@@ -62744,13 +64169,22 @@
       <c r="FE159" t="n">
         <v>1</v>
       </c>
+      <c r="FF159" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG159" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B160" t="n">
-        <v>4403</v>
+        <v>4562</v>
       </c>
       <c r="C160" t="n">
         <v>22679.7805716106</v>
@@ -62762,7 +64196,7 @@
         <v>0.0022597545842535</v>
       </c>
       <c r="F160" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -63228,14 +64662,23 @@
       </c>
       <c r="FE160" t="n">
         <v>8</v>
+      </c>
+      <c r="FF160" t="n">
+        <v>65</v>
+      </c>
+      <c r="FG160" t="n">
+        <v>74</v>
+      </c>
+      <c r="FH160" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B161" t="n">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="C161" t="n">
         <v>18989.5836166627</v>
@@ -63247,7 +64690,7 @@
         <v>0.00221031145317519</v>
       </c>
       <c r="F161" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -63712,15 +65155,24 @@
         <v>0</v>
       </c>
       <c r="FE161" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF161" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG161" t="n">
+        <v>3</v>
+      </c>
+      <c r="FH161" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B162" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="n">
         <v>9897.17770029723</v>
@@ -63732,7 +65184,7 @@
         <v>0.000579795030307747</v>
       </c>
       <c r="F162" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G162"/>
       <c r="H162"/>
@@ -64033,10 +65485,19 @@
       <c r="FE162" t="n">
         <v>1</v>
       </c>
+      <c r="FF162" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B163" t="n">
         <v>7</v>
@@ -64051,7 +65512,7 @@
         <v>0.0017433162231338</v>
       </c>
       <c r="F163" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -64514,15 +65975,24 @@
         <v>0</v>
       </c>
       <c r="FE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF163" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG163" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B164" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C164" t="n">
         <v>4083.0421521526</v>
@@ -64534,7 +66004,7 @@
         <v>0.000438046569797392</v>
       </c>
       <c r="F164" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
@@ -64757,10 +66227,19 @@
       <c r="FE164" t="n">
         <v>0</v>
       </c>
+      <c r="FF164" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG164" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B165" t="n">
         <v>21</v>
@@ -64775,7 +66254,7 @@
         <v>0.000329580140837123</v>
       </c>
       <c r="F165" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G165"/>
       <c r="H165"/>
@@ -65088,13 +66567,22 @@
       <c r="FE165" t="n">
         <v>0</v>
       </c>
+      <c r="FF165" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG165" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B166" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C166" t="n">
         <v>100897.366975167</v>
@@ -65106,7 +66594,7 @@
         <v>0.00144914219064351</v>
       </c>
       <c r="F166" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -65559,10 +67047,19 @@
       <c r="FE166" t="n">
         <v>0</v>
       </c>
+      <c r="FF166" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG166" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -65577,7 +67074,7 @@
         <v>0.000510082908744125</v>
       </c>
       <c r="F167" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
@@ -65880,10 +67377,19 @@
       <c r="FE167" t="n">
         <v>0</v>
       </c>
+      <c r="FF167" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG167" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B168" t="n">
         <v>13</v>
@@ -65898,7 +67404,7 @@
         <v>0.000354676783542218</v>
       </c>
       <c r="F168" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
@@ -66217,10 +67723,19 @@
       <c r="FE168" t="n">
         <v>0</v>
       </c>
+      <c r="FF168" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG168" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B169" t="n">
         <v>8</v>
@@ -66235,7 +67750,7 @@
         <v>0.0012244639344628</v>
       </c>
       <c r="F169" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
@@ -66556,13 +68071,22 @@
       <c r="FE169" t="n">
         <v>0</v>
       </c>
+      <c r="FF169" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG169" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B170" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C170" t="n">
         <v>11863.7430392756</v>
@@ -66574,7 +68098,7 @@
         <v>0.00101445302270842</v>
       </c>
       <c r="F170" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
@@ -66903,13 +68427,22 @@
       <c r="FE170" t="n">
         <v>0</v>
       </c>
+      <c r="FF170" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG170" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B171" t="n">
-        <v>4563</v>
+        <v>4630</v>
       </c>
       <c r="C171" t="n">
         <v>84422.3993097077</v>
@@ -66921,7 +68454,7 @@
         <v>0.00101189976011403</v>
       </c>
       <c r="F171" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
@@ -67240,10 +68773,19 @@
       <c r="FE171" t="n">
         <v>23</v>
       </c>
+      <c r="FF171" t="n">
+        <v>22</v>
+      </c>
+      <c r="FG171" t="n">
+        <v>24</v>
+      </c>
+      <c r="FH171" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -67258,7 +68800,7 @@
         <v>0.000260931558111894</v>
       </c>
       <c r="F172" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G172"/>
       <c r="H172"/>
@@ -67561,13 +69103,22 @@
       <c r="FE172" t="n">
         <v>0</v>
       </c>
+      <c r="FF172" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG172" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B173" t="n">
-        <v>727</v>
+        <v>762</v>
       </c>
       <c r="C173" t="n">
         <v>83772.0903411142</v>
@@ -67579,7 +69130,7 @@
         <v>0.00190418625575323</v>
       </c>
       <c r="F173" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G173"/>
       <c r="H173"/>
@@ -67898,13 +69449,22 @@
       <c r="FE173" t="n">
         <v>19</v>
       </c>
+      <c r="FF173" t="n">
+        <v>8</v>
+      </c>
+      <c r="FG173" t="n">
+        <v>12</v>
+      </c>
+      <c r="FH173" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B174" t="n">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C174" t="n">
         <v>3087.01051243429</v>
@@ -67916,7 +69476,7 @@
         <v>0.000315951312389353</v>
       </c>
       <c r="F174" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -68370,14 +69930,23 @@
       </c>
       <c r="FE174" t="n">
         <v>2</v>
+      </c>
+      <c r="FF174" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG174" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B175" t="n">
-        <v>39045</v>
+        <v>39904</v>
       </c>
       <c r="C175" t="n">
         <v>144477.647009207</v>
@@ -68389,7 +69958,7 @@
         <v>0.00213945361405561</v>
       </c>
       <c r="F175" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -68855,14 +70424,23 @@
       </c>
       <c r="FE175" t="n">
         <v>556</v>
+      </c>
+      <c r="FF175" t="n">
+        <v>324</v>
+      </c>
+      <c r="FG175" t="n">
+        <v>359</v>
+      </c>
+      <c r="FH175" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B176" t="n">
-        <v>105147</v>
+        <v>108211</v>
       </c>
       <c r="C176" t="n">
         <v>601512.345001202</v>
@@ -68874,7 +70452,7 @@
         <v>0.00182794431714275</v>
       </c>
       <c r="F176" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -69340,11 +70918,20 @@
       </c>
       <c r="FE176" t="n">
         <v>764</v>
+      </c>
+      <c r="FF176" t="n">
+        <v>1034</v>
+      </c>
+      <c r="FG176" t="n">
+        <v>994</v>
+      </c>
+      <c r="FH176" t="n">
+        <v>1036</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B177" t="n">
         <v>6</v>
@@ -69359,7 +70946,7 @@
         <v>0.00203339942456336</v>
       </c>
       <c r="F177" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G177"/>
       <c r="H177"/>
@@ -69656,10 +71243,19 @@
       <c r="FE177" t="n">
         <v>0</v>
       </c>
+      <c r="FF177" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG177" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B178" t="n">
         <v>23</v>
@@ -69674,7 +71270,7 @@
         <v>0.00180117879710739</v>
       </c>
       <c r="F178" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G178"/>
       <c r="H178"/>
@@ -69991,13 +71587,22 @@
       <c r="FE178" t="n">
         <v>1</v>
       </c>
+      <c r="FF178" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG178" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B179" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C179" t="n">
         <v>20087.0880840868</v>
@@ -70009,7 +71614,7 @@
         <v>0.000609037100832592</v>
       </c>
       <c r="F179" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G179"/>
       <c r="H179"/>
@@ -70324,13 +71929,22 @@
       <c r="FE179" t="n">
         <v>0</v>
       </c>
+      <c r="FF179" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG179" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B180" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C180" t="n">
         <v>25545.540248594</v>
@@ -70342,7 +71956,7 @@
         <v>0.000895837225859055</v>
       </c>
       <c r="F180" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
@@ -70659,10 +72273,19 @@
       <c r="FE180" t="n">
         <v>3</v>
       </c>
+      <c r="FF180" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG180" t="n">
+        <v>2</v>
+      </c>
+      <c r="FH180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -70677,7 +72300,7 @@
         <v>0.000985299746139586</v>
       </c>
       <c r="F181" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -71142,12 +72765,21 @@
         <v>0</v>
       </c>
       <c r="FE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF181" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG181" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH181" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -71162,7 +72794,7 @@
         <v>0.000450355919878905</v>
       </c>
       <c r="F182" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G182"/>
       <c r="H182"/>
@@ -71395,13 +73027,22 @@
       <c r="FE182" t="n">
         <v>0</v>
       </c>
+      <c r="FF182" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG182" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B183" t="n">
-        <v>376427</v>
+        <v>391732</v>
       </c>
       <c r="C183" t="n">
         <v>8087237.51412203</v>
@@ -71413,7 +73054,7 @@
         <v>0.00104845671277592</v>
       </c>
       <c r="F183" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -71863,7 +73504,7 @@
         <v>3936</v>
       </c>
       <c r="EZ183" t="n">
-        <v>5177</v>
+        <v>5176</v>
       </c>
       <c r="FA183" t="n">
         <v>4701</v>
@@ -71872,21 +73513,30 @@
         <v>4804</v>
       </c>
       <c r="FC183" t="n">
-        <v>4051</v>
+        <v>4050</v>
       </c>
       <c r="FD183" t="n">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="FE183" t="n">
-        <v>3757</v>
+        <v>3577</v>
+      </c>
+      <c r="FF183" t="n">
+        <v>4559</v>
+      </c>
+      <c r="FG183" t="n">
+        <v>5741</v>
+      </c>
+      <c r="FH183" t="n">
+        <v>5188</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B184" t="n">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="C184" t="n">
         <v>10578.1771306963</v>
@@ -71898,7 +73548,7 @@
         <v>0.000362739367134179</v>
       </c>
       <c r="F184" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G184"/>
       <c r="H184"/>
@@ -72163,10 +73813,19 @@
       <c r="FE184" t="n">
         <v>4</v>
       </c>
+      <c r="FF184" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG184" t="n">
+        <v>1</v>
+      </c>
+      <c r="FH184" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B185" t="n">
         <v>7</v>
@@ -72181,7 +73840,7 @@
         <v>0.000283189168735102</v>
       </c>
       <c r="F185" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G185"/>
       <c r="H185"/>
@@ -72490,10 +74149,19 @@
       <c r="FE185" t="n">
         <v>0</v>
       </c>
+      <c r="FF185" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG185" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B186" t="n">
         <v>4</v>
@@ -72508,7 +74176,7 @@
         <v>0.00037238941461274</v>
       </c>
       <c r="F186" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G186"/>
       <c r="H186"/>
@@ -72813,6 +74481,15 @@
       <c r="FE186" t="n">
         <v>0</v>
       </c>
+      <c r="FF186" t="n">
+        <v>0</v>
+      </c>
+      <c r="FG186" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH186" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/expected_deaths_per_country_using_diamond_princess_data.xlsx
+++ b/expected_deaths_per_country_using_diamond_princess_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
   <si>
     <t xml:space="preserve">location</t>
   </si>
@@ -684,6 +684,33 @@
   </si>
   <si>
     <t xml:space="preserve">2020-08-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-13</t>
   </si>
   <si>
     <t xml:space="preserve">Afghanistan</t>
@@ -2246,13 +2273,40 @@
       <c r="HP1" t="s">
         <v>223</v>
       </c>
+      <c r="HQ1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HR1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HS1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HT1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HU1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HV1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HW1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HX1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HY1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B2" t="n">
-        <v>1288</v>
+        <v>1354</v>
       </c>
       <c r="C2" t="n">
         <v>12424.7386346819</v>
@@ -2264,7 +2318,7 @@
         <v>0.000326607907060704</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2900,13 +2954,40 @@
       <c r="HP2" t="n">
         <v>4</v>
       </c>
+      <c r="HQ2" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>9</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>32</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B3" t="n">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="C3" t="n">
         <v>4546.92984664766</v>
@@ -2918,7 +2999,7 @@
         <v>0.00157829474428685</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -3436,13 +3517,40 @@
       <c r="HP3" t="n">
         <v>6</v>
       </c>
+      <c r="HQ3" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B4" t="n">
-        <v>1239</v>
+        <v>1333</v>
       </c>
       <c r="C4" t="n">
         <v>33668.8832121543</v>
@@ -3454,7 +3562,7 @@
         <v>0.000782032401514519</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -4100,13 +4208,40 @@
       <c r="HP4" t="n">
         <v>8</v>
       </c>
+      <c r="HQ4" t="n">
+        <v>9</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>12</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>9</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>11</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>10</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>10</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B5" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
         <v>9405.17919303885</v>
@@ -4118,7 +4253,7 @@
         <v>0.000295525242136416</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -4610,10 +4745,37 @@
       <c r="HP5" t="n">
         <v>2</v>
       </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR5" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT5" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV5" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX5" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -4628,7 +4790,7 @@
         <v>0.00106574934476638</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
@@ -5124,10 +5286,37 @@
       <c r="HP6" t="n">
         <v>0</v>
       </c>
+      <c r="HQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="n">
@@ -5140,7 +5329,7 @@
         <v>0.00128738358521375</v>
       </c>
       <c r="F7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
@@ -5662,13 +5851,40 @@
       <c r="HP7" t="n">
         <v>55</v>
       </c>
+      <c r="HQ7" t="n">
+        <v>196</v>
+      </c>
+      <c r="HR7" t="n">
+        <v>146</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>126</v>
+      </c>
+      <c r="HT7" t="n">
+        <v>156</v>
+      </c>
+      <c r="HU7" t="n">
+        <v>159</v>
+      </c>
+      <c r="HV7" t="n">
+        <v>106</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>78</v>
+      </c>
+      <c r="HX7" t="n">
+        <v>151</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>303</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B8" t="n">
-        <v>762</v>
+        <v>806</v>
       </c>
       <c r="C8" t="n">
         <v>4275.07811346079</v>
@@ -5680,7 +5896,7 @@
         <v>0.0014453925829085</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6318,10 +6534,37 @@
       <c r="HP8" t="n">
         <v>0</v>
       </c>
+      <c r="HQ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR8" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT8" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU8" t="n">
+        <v>8</v>
+      </c>
+      <c r="HV8" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX8" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -6336,7 +6579,7 @@
         <v>0.00152318504812503</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -6826,13 +7069,40 @@
       <c r="HP9" t="n">
         <v>0</v>
       </c>
+      <c r="HQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B10" t="n">
-        <v>221</v>
+        <v>352</v>
       </c>
       <c r="C10" t="n">
         <v>45969.5380912888</v>
@@ -6844,7 +7114,7 @@
         <v>0.00182395640598371</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7499,14 +7769,41 @@
       </c>
       <c r="HP10" t="n">
         <v>13</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>15</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>11</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>12</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>17</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>18</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>18</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B11" t="n">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C11" t="n">
         <v>20229.6818387648</v>
@@ -7518,7 +7815,7 @@
         <v>0.00225901037025626</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -8173,14 +8470,41 @@
       </c>
       <c r="HP11" t="n">
         <v>0</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B12" t="n">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="C12" t="n">
         <v>8603.8284399583</v>
@@ -8192,7 +8516,7 @@
         <v>0.000856296681859664</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -8834,13 +9158,40 @@
       <c r="HP12" t="n">
         <v>6</v>
       </c>
+      <c r="HQ12" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT12" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU12" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV12" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX12" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>350.834791870671</v>
@@ -8852,7 +9203,7 @@
         <v>0.000900763549577317</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
@@ -9352,13 +9703,40 @@
       <c r="HP13" t="n">
         <v>0</v>
       </c>
+      <c r="HQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B14" t="n">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C14" t="n">
         <v>714.043604375632</v>
@@ -9370,7 +9748,7 @@
         <v>0.000435083638427136</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -10023,11 +10401,38 @@
       </c>
       <c r="HP14" t="n">
         <v>3</v>
+      </c>
+      <c r="HQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS14" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT14" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU14" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV14" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX14" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="n">
@@ -10040,7 +10445,7 @@
         <v>0.000673120307924738</v>
       </c>
       <c r="F15" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -10546,10 +10951,37 @@
       <c r="HP15" t="n">
         <v>30</v>
       </c>
+      <c r="HQ15" t="n">
+        <v>50</v>
+      </c>
+      <c r="HR15" t="n">
+        <v>33</v>
+      </c>
+      <c r="HS15" t="n">
+        <v>39</v>
+      </c>
+      <c r="HT15" t="n">
+        <v>27</v>
+      </c>
+      <c r="HU15" t="n">
+        <v>32</v>
+      </c>
+      <c r="HV15" t="n">
+        <v>34</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>39</v>
+      </c>
+      <c r="HX15" t="n">
+        <v>33</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -10564,7 +10996,7 @@
         <v>0.00191516379412982</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -11064,10 +11496,37 @@
       <c r="HP16" t="n">
         <v>0</v>
       </c>
+      <c r="HQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="n">
@@ -11080,7 +11539,7 @@
         <v>0.0017826141112239</v>
       </c>
       <c r="F17" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -11720,13 +12179,40 @@
       <c r="HP17" t="n">
         <v>4</v>
       </c>
+      <c r="HQ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B18" t="n">
-        <v>9850</v>
+        <v>9900</v>
       </c>
       <c r="C18" t="n">
         <v>26083.2114659941</v>
@@ -11738,7 +12224,7 @@
         <v>0.00226037564637606</v>
       </c>
       <c r="F18" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -12281,7 +12767,7 @@
         <v>2</v>
       </c>
       <c r="GE18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="GF18" t="n">
         <v>5</v>
@@ -12371,7 +12857,7 @@
         <v>2</v>
       </c>
       <c r="HI18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="HJ18" t="n">
         <v>1</v>
@@ -12386,18 +12872,45 @@
         <v>3</v>
       </c>
       <c r="HN18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="HO18" t="n">
+        <v>5</v>
+      </c>
+      <c r="HP18" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ18" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR18" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS18" t="n">
         <v>4</v>
       </c>
-      <c r="HP18" t="n">
+      <c r="HT18" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU18" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV18" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX18" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
@@ -12412,7 +12925,7 @@
         <v>0.00063466604356105</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
@@ -12900,13 +13413,40 @@
       <c r="HP19" t="n">
         <v>0</v>
       </c>
+      <c r="HQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
         <v>4720.72113019291</v>
@@ -12918,7 +13458,7 @@
         <v>0.00040002212752087</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -13420,10 +13960,37 @@
       <c r="HP20" t="n">
         <v>0</v>
       </c>
+      <c r="HQ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -13438,7 +14005,7 @@
         <v>0.000749780099492276</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -13946,10 +14513,37 @@
       <c r="HP21" t="n">
         <v>0</v>
       </c>
+      <c r="HQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="n">
@@ -13962,7 +14556,7 @@
         <v>0.000871422914092258</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -14472,13 +15066,40 @@
       <c r="HP22" t="n">
         <v>75</v>
       </c>
+      <c r="HQ22" t="n">
+        <v>92</v>
+      </c>
+      <c r="HR22" t="n">
+        <v>65</v>
+      </c>
+      <c r="HS22" t="n">
+        <v>80</v>
+      </c>
+      <c r="HT22" t="n">
+        <v>59</v>
+      </c>
+      <c r="HU22" t="n">
+        <v>63</v>
+      </c>
+      <c r="HV22" t="n">
+        <v>53</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>72</v>
+      </c>
+      <c r="HX22" t="n">
+        <v>49</v>
+      </c>
+      <c r="HY22" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B23" t="n">
-        <v>347</v>
+        <v>453</v>
       </c>
       <c r="C23" t="n">
         <v>6171.93069714818</v>
@@ -14490,7 +15111,7 @@
         <v>0.0018697177146377</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -15000,10 +15621,37 @@
       <c r="HP23" t="n">
         <v>4</v>
       </c>
+      <c r="HQ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>15</v>
+      </c>
+      <c r="HU23" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV23" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>23</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>22</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B24" t="n">
         <v>2</v>
@@ -15018,7 +15666,7 @@
         <v>0.000508439076061826</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -15490,13 +16138,40 @@
       <c r="HP24" t="n">
         <v>0</v>
       </c>
+      <c r="HQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B25" t="n">
-        <v>94665</v>
+        <v>104201</v>
       </c>
       <c r="C25" t="n">
         <v>228696.724029016</v>
@@ -15508,7 +16183,7 @@
         <v>0.00108361641908796</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -16163,11 +16838,38 @@
       </c>
       <c r="HP25" t="n">
         <v>561</v>
+      </c>
+      <c r="HQ25" t="n">
+        <v>1154</v>
+      </c>
+      <c r="HR25" t="n">
+        <v>1437</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>1237</v>
+      </c>
+      <c r="HT25" t="n">
+        <v>1079</v>
+      </c>
+      <c r="HU25" t="n">
+        <v>905</v>
+      </c>
+      <c r="HV25" t="n">
+        <v>572</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>703</v>
+      </c>
+      <c r="HX25" t="n">
+        <v>1274</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>1175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B26" t="n">
         <v>3</v>
@@ -16182,7 +16884,7 @@
         <v>0.000675623465190034</v>
       </c>
       <c r="F26" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -16696,13 +17398,40 @@
       <c r="HP26" t="n">
         <v>0</v>
       </c>
+      <c r="HQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B27" t="n">
-        <v>388</v>
+        <v>482</v>
       </c>
       <c r="C27" t="n">
         <v>15897.177855263</v>
@@ -16714,7 +17443,7 @@
         <v>0.00227098777438303</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -17230,10 +17959,37 @@
       <c r="HP27" t="n">
         <v>0</v>
       </c>
+      <c r="HQ27" t="n">
+        <v>16</v>
+      </c>
+      <c r="HR27" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS27" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT27" t="n">
+        <v>11</v>
+      </c>
+      <c r="HU27" t="n">
+        <v>10</v>
+      </c>
+      <c r="HV27" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>12</v>
+      </c>
+      <c r="HX27" t="n">
+        <v>12</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B28" t="n">
         <v>54</v>
@@ -17248,7 +18004,7 @@
         <v>0.00030686743203392</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -17758,10 +18514,37 @@
       <c r="HP28" t="n">
         <v>1</v>
       </c>
+      <c r="HQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -17776,7 +18559,7 @@
         <v>0.000304105056117771</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -18248,10 +19031,37 @@
       <c r="HP29" t="n">
         <v>0</v>
       </c>
+      <c r="HQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -18266,7 +19076,7 @@
         <v>0.00055263869255376</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -18904,13 +19714,40 @@
       <c r="HP30" t="n">
         <v>0</v>
       </c>
+      <c r="HQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B31" t="n">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="C31" t="n">
         <v>8786.28394509146</v>
@@ -18922,7 +19759,7 @@
         <v>0.000339548328176243</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G31"/>
       <c r="H31"/>
@@ -19432,13 +20269,40 @@
       <c r="HP31" t="n">
         <v>0</v>
       </c>
+      <c r="HQ31" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV31" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX31" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B32" t="n">
-        <v>8947</v>
+        <v>9006</v>
       </c>
       <c r="C32" t="n">
         <v>74837.0137910231</v>
@@ -19450,7 +20314,7 @@
         <v>0.00200039934180448</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -20105,14 +20969,41 @@
       </c>
       <c r="HP32" t="n">
         <v>2</v>
+      </c>
+      <c r="HQ32" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR32" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS32" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT32" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU32" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV32" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>6</v>
+      </c>
+      <c r="HX32" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C33" t="n">
         <v>360.67033258339</v>
@@ -20124,7 +21015,7 @@
         <v>0.000655840557052802</v>
       </c>
       <c r="F33" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G33"/>
       <c r="H33"/>
@@ -20618,13 +21509,40 @@
       <c r="HP33" t="n">
         <v>1</v>
       </c>
+      <c r="HQ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT33" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU33" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX33" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B34" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C34" t="n">
         <v>1653.97217162678</v>
@@ -20636,7 +21554,7 @@
         <v>0.000348558509633733</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
@@ -21140,13 +22058,40 @@
       <c r="HP34" t="n">
         <v>0</v>
       </c>
+      <c r="HQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU34" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX34" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B35" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" t="n">
         <v>4924.69422049695</v>
@@ -21158,7 +22103,7 @@
         <v>0.00030881862802377</v>
       </c>
       <c r="F35" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G35"/>
       <c r="H35"/>
@@ -21654,13 +22599,40 @@
       <c r="HP35" t="n">
         <v>0</v>
       </c>
+      <c r="HQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS35" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B36" t="n">
-        <v>9707</v>
+        <v>10205</v>
       </c>
       <c r="C36" t="n">
         <v>26201.5450466779</v>
@@ -21672,7 +22644,7 @@
         <v>0.00138251881904386</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G36"/>
       <c r="H36"/>
@@ -22198,13 +23170,40 @@
       <c r="HP36" t="n">
         <v>99</v>
       </c>
+      <c r="HQ36" t="n">
+        <v>38</v>
+      </c>
+      <c r="HR36" t="n">
+        <v>47</v>
+      </c>
+      <c r="HS36" t="n">
+        <v>97</v>
+      </c>
+      <c r="HT36" t="n">
+        <v>69</v>
+      </c>
+      <c r="HU36" t="n">
+        <v>53</v>
+      </c>
+      <c r="HV36" t="n">
+        <v>66</v>
+      </c>
+      <c r="HW36" t="n">
+        <v>62</v>
+      </c>
+      <c r="HX36" t="n">
+        <v>39</v>
+      </c>
+      <c r="HY36" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B37" t="n">
-        <v>4672</v>
+        <v>4697</v>
       </c>
       <c r="C37" t="n">
         <v>1766291.98623485</v>
@@ -22216,7 +23215,7 @@
         <v>0.00123190966398218</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -22871,11 +23870,38 @@
       </c>
       <c r="HP37" t="n">
         <v>3</v>
+      </c>
+      <c r="HQ37" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR37" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS37" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT37" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV37" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW37" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX37" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY37" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B38"/>
       <c r="C38" t="n">
@@ -22888,7 +23914,7 @@
         <v>0.00102785269568566</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G38"/>
       <c r="H38"/>
@@ -23402,10 +24428,37 @@
       <c r="HP38" t="n">
         <v>367</v>
       </c>
+      <c r="HQ38" t="n">
+        <v>298</v>
+      </c>
+      <c r="HR38" t="n">
+        <v>309</v>
+      </c>
+      <c r="HS38" t="n">
+        <v>315</v>
+      </c>
+      <c r="HT38" t="n">
+        <v>311</v>
+      </c>
+      <c r="HU38" t="n">
+        <v>290</v>
+      </c>
+      <c r="HV38" t="n">
+        <v>302</v>
+      </c>
+      <c r="HW38" t="n">
+        <v>312</v>
+      </c>
+      <c r="HX38" t="n">
+        <v>321</v>
+      </c>
+      <c r="HY38" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="B39" t="n">
         <v>7</v>
@@ -23420,7 +24473,7 @@
         <v>0.000391342858180625</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G39"/>
       <c r="H39"/>
@@ -23830,13 +24883,40 @@
       <c r="HP39" t="n">
         <v>0</v>
       </c>
+      <c r="HQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B40" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C40" t="n">
         <v>1894.42101267658</v>
@@ -23848,7 +24928,7 @@
         <v>0.000352089946363116</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
@@ -24352,13 +25432,40 @@
       <c r="HP40" t="n">
         <v>2</v>
       </c>
+      <c r="HQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX40" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="B41" t="n">
-        <v>171</v>
+        <v>263</v>
       </c>
       <c r="C41" t="n">
         <v>5910.77945002768</v>
@@ -24370,7 +25477,7 @@
         <v>0.00117101694264372</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G41"/>
       <c r="H41"/>
@@ -24890,10 +25997,37 @@
       <c r="HP41" t="n">
         <v>9</v>
       </c>
+      <c r="HQ41" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR41" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS41" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT41" t="n">
+        <v>18</v>
+      </c>
+      <c r="HU41" t="n">
+        <v>10</v>
+      </c>
+      <c r="HV41" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>9</v>
+      </c>
+      <c r="HX41" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="n">
@@ -24906,7 +26040,7 @@
         <v>0.00237573483989524</v>
       </c>
       <c r="F42" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -25556,13 +26690,40 @@
       <c r="HP42" t="n">
         <v>4</v>
       </c>
+      <c r="HQ42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW42" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX42" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B43" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C43" t="n">
         <v>20087.3021527863</v>
@@ -25574,7 +26735,7 @@
         <v>0.00177238545118044</v>
       </c>
       <c r="F43" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
@@ -26080,13 +27241,40 @@
       <c r="HP43" t="n">
         <v>0</v>
       </c>
+      <c r="HQ43" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX43" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="B44" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" t="n">
         <v>1905.27447538255</v>
@@ -26098,7 +27286,7 @@
         <v>0.00158961905147417</v>
       </c>
       <c r="F44" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
@@ -26610,13 +27798,40 @@
       <c r="HP44" t="n">
         <v>0</v>
       </c>
+      <c r="HQ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX44" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="B45" t="n">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C45" t="n">
         <v>22118.8199723267</v>
@@ -26628,7 +27843,7 @@
         <v>0.00206926552706235</v>
       </c>
       <c r="F45" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -27279,18 +28494,45 @@
         <v>1</v>
       </c>
       <c r="HO45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HP45" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="HQ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR45" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS45" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX45" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B46" t="n">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C46" t="n">
         <v>31730.3580249049</v>
@@ -27302,7 +28544,7 @@
         <v>0.000365596851382535</v>
       </c>
       <c r="F46" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
@@ -27812,13 +29054,40 @@
       <c r="HP46" t="n">
         <v>0</v>
       </c>
+      <c r="HQ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR46" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT46" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU46" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV46" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX46" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B47" t="n">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="C47" t="n">
         <v>12584.2078665055</v>
@@ -27830,7 +29099,7 @@
         <v>0.00218026265398681</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -28485,11 +29754,38 @@
       </c>
       <c r="HP47" t="n">
         <v>1</v>
+      </c>
+      <c r="HQ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS47" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV47" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW47" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX47" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B48" t="n">
         <v>59</v>
@@ -28504,7 +29800,7 @@
         <v>0.000564277625972274</v>
       </c>
       <c r="F48" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
@@ -29002,13 +30298,40 @@
       <c r="HP48" t="n">
         <v>0</v>
       </c>
+      <c r="HQ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX48" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B49" t="n">
-        <v>1183</v>
+        <v>1371</v>
       </c>
       <c r="C49" t="n">
         <v>9563.68459374326</v>
@@ -29020,7 +30343,7 @@
         <v>0.000890559911334337</v>
       </c>
       <c r="F49" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -29658,13 +30981,40 @@
       <c r="HP49" t="n">
         <v>5</v>
       </c>
+      <c r="HQ49" t="n">
+        <v>30</v>
+      </c>
+      <c r="HR49" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS49" t="n">
+        <v>24</v>
+      </c>
+      <c r="HT49" t="n">
+        <v>13</v>
+      </c>
+      <c r="HU49" t="n">
+        <v>30</v>
+      </c>
+      <c r="HV49" t="n">
+        <v>20</v>
+      </c>
+      <c r="HW49" t="n">
+        <v>19</v>
+      </c>
+      <c r="HX49" t="n">
+        <v>18</v>
+      </c>
+      <c r="HY49" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="B50" t="n">
-        <v>5767</v>
+        <v>5984</v>
       </c>
       <c r="C50" t="n">
         <v>15274.9141172754</v>
@@ -29676,7 +31026,7 @@
         <v>0.000879199705466463</v>
       </c>
       <c r="F50" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -30322,13 +31672,40 @@
       <c r="HP50" t="n">
         <v>17</v>
       </c>
+      <c r="HQ50" t="n">
+        <v>41</v>
+      </c>
+      <c r="HR50" t="n">
+        <v>39</v>
+      </c>
+      <c r="HS50" t="n">
+        <v>40</v>
+      </c>
+      <c r="HT50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HU50" t="n">
+        <v>19</v>
+      </c>
+      <c r="HV50" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW50" t="n">
+        <v>10</v>
+      </c>
+      <c r="HX50" t="n">
+        <v>19</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B51" t="n">
-        <v>4888</v>
+        <v>5085</v>
       </c>
       <c r="C51" t="n">
         <v>62145.086674715</v>
@@ -30340,7 +31717,7 @@
         <v>0.000619048494302884</v>
       </c>
       <c r="F51" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -30988,13 +32365,40 @@
       <c r="HP51" t="n">
         <v>23</v>
       </c>
+      <c r="HQ51" t="n">
+        <v>24</v>
+      </c>
+      <c r="HR51" t="n">
+        <v>18</v>
+      </c>
+      <c r="HS51" t="n">
+        <v>21</v>
+      </c>
+      <c r="HT51" t="n">
+        <v>20</v>
+      </c>
+      <c r="HU51" t="n">
+        <v>21</v>
+      </c>
+      <c r="HV51" t="n">
+        <v>17</v>
+      </c>
+      <c r="HW51" t="n">
+        <v>26</v>
+      </c>
+      <c r="HX51" t="n">
+        <v>24</v>
+      </c>
+      <c r="HY51" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B52" t="n">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="C52" t="n">
         <v>6416.52499255144</v>
@@ -31006,7 +32410,7 @@
         <v>0.000994262846425834</v>
       </c>
       <c r="F52" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G52"/>
       <c r="H52"/>
@@ -31504,10 +32908,37 @@
       <c r="HP52" t="n">
         <v>19</v>
       </c>
+      <c r="HQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR52" t="n">
+        <v>27</v>
+      </c>
+      <c r="HS52" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT52" t="n">
+        <v>16</v>
+      </c>
+      <c r="HU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV52" t="n">
+        <v>27</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX52" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B53" t="n">
         <v>83</v>
@@ -31522,7 +32953,7 @@
         <v>0.000321815515316653</v>
       </c>
       <c r="F53" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G53"/>
       <c r="H53"/>
@@ -32028,10 +33459,37 @@
       <c r="HP53" t="n">
         <v>0</v>
       </c>
+      <c r="HQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX53" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -32046,7 +33504,7 @@
         <v>0.000500137454675162</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G54"/>
       <c r="H54"/>
@@ -32538,10 +33996,37 @@
       <c r="HP54" t="n">
         <v>0</v>
       </c>
+      <c r="HQ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX54" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B55"/>
       <c r="C55" t="n">
@@ -32554,7 +34039,7 @@
         <v>0.00232392345130483</v>
       </c>
       <c r="F55" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -32967,7 +34452,7 @@
         <v>0</v>
       </c>
       <c r="EQ55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ER55" t="n">
         <v>0</v>
@@ -32988,25 +34473,25 @@
         <v>0</v>
       </c>
       <c r="EX55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EY55" t="n">
         <v>0</v>
       </c>
       <c r="EZ55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FA55" t="n">
         <v>0</v>
       </c>
       <c r="FB55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FC55" t="n">
         <v>0</v>
       </c>
       <c r="FD55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FE55" t="n">
         <v>0</v>
@@ -33015,7 +34500,7 @@
         <v>0</v>
       </c>
       <c r="FG55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FH55" t="n">
         <v>0</v>
@@ -33198,15 +34683,42 @@
         <v>0</v>
       </c>
       <c r="HP55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX55" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B56" t="n">
-        <v>336</v>
+        <v>463</v>
       </c>
       <c r="C56" t="n">
         <v>47338.9362834201</v>
@@ -33218,7 +34730,7 @@
         <v>0.00042237218402554</v>
       </c>
       <c r="F56" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G56"/>
       <c r="H56"/>
@@ -33726,10 +35238,37 @@
       <c r="HP56" t="n">
         <v>52</v>
       </c>
+      <c r="HQ56" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR56" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS56" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT56" t="n">
+        <v>15</v>
+      </c>
+      <c r="HU56" t="n">
+        <v>10</v>
+      </c>
+      <c r="HV56" t="n">
+        <v>17</v>
+      </c>
+      <c r="HW56" t="n">
+        <v>13</v>
+      </c>
+      <c r="HX56" t="n">
+        <v>20</v>
+      </c>
+      <c r="HY56" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B57"/>
       <c r="C57" t="n">
@@ -33742,7 +35281,7 @@
         <v>0.000658740043712816</v>
       </c>
       <c r="F57" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G57"/>
       <c r="H57"/>
@@ -34238,10 +35777,37 @@
       <c r="HP57" t="n">
         <v>0</v>
       </c>
+      <c r="HQ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS57" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW57" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B58"/>
       <c r="C58" t="n">
@@ -34254,7 +35820,7 @@
         <v>0.00241702006774997</v>
       </c>
       <c r="F58" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -34900,15 +36466,42 @@
         <v>0</v>
       </c>
       <c r="HP58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW58" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX58" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B59" t="n">
-        <v>30294</v>
+        <v>30371</v>
       </c>
       <c r="C59" t="n">
         <v>155494.034736421</v>
@@ -34920,7 +36513,7 @@
         <v>0.00238745097091409</v>
       </c>
       <c r="F59" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -35575,11 +37168,38 @@
       </c>
       <c r="HP59" t="n">
         <v>29</v>
+      </c>
+      <c r="HQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR59" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS59" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT59" t="n">
+        <v>12</v>
+      </c>
+      <c r="HU59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW59" t="n">
+        <v>16</v>
+      </c>
+      <c r="HX59" t="n">
+        <v>14</v>
+      </c>
+      <c r="HY59" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -35594,7 +37214,7 @@
         <v>0.000992700472639409</v>
       </c>
       <c r="F60" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G60"/>
       <c r="H60"/>
@@ -36092,10 +37712,37 @@
       <c r="HP60" t="n">
         <v>0</v>
       </c>
+      <c r="HQ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX60" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B61" t="n">
         <v>51</v>
@@ -36110,7 +37757,7 @@
         <v>0.00044488782530853</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G61"/>
       <c r="H61"/>
@@ -36618,13 +38265,40 @@
       <c r="HP61" t="n">
         <v>1</v>
       </c>
+      <c r="HQ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX61" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C62" t="n">
         <v>747.234233573626</v>
@@ -36636,7 +38310,7 @@
         <v>0.00031828406811343</v>
       </c>
       <c r="F62" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G62"/>
       <c r="H62"/>
@@ -37136,10 +38810,37 @@
       <c r="HP62" t="n">
         <v>0</v>
       </c>
+      <c r="HQ62" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR62" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT62" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV62" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW62" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX62" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B63" t="n">
         <v>17</v>
@@ -37154,7 +38855,7 @@
         <v>0.00173743284021825</v>
       </c>
       <c r="F63" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -37804,13 +39505,40 @@
       <c r="HP63" t="n">
         <v>0</v>
       </c>
+      <c r="HQ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX63" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B64" t="n">
-        <v>9156</v>
+        <v>9211</v>
       </c>
       <c r="C64" t="n">
         <v>218868.764986589</v>
@@ -37822,7 +39550,7 @@
         <v>0.0026206478568128</v>
       </c>
       <c r="F64" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -38477,14 +40205,41 @@
       </c>
       <c r="HP64" t="n">
         <v>8</v>
+      </c>
+      <c r="HQ64" t="n">
+        <v>12</v>
+      </c>
+      <c r="HR64" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS64" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT64" t="n">
+        <v>12</v>
+      </c>
+      <c r="HU64" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV64" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW64" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX64" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY64" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B65" t="n">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="C65" t="n">
         <v>12190.9828388573</v>
@@ -38496,7 +40251,7 @@
         <v>0.000400783738251961</v>
       </c>
       <c r="F65" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G65"/>
       <c r="H65"/>
@@ -39004,10 +40759,37 @@
       <c r="HP65" t="n">
         <v>9</v>
       </c>
+      <c r="HQ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR65" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS65" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV65" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX65" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY65" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B66"/>
       <c r="C66" t="n">
@@ -39020,7 +40802,7 @@
         <v>0.00269855578677456</v>
       </c>
       <c r="F66" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -39672,10 +41454,37 @@
       <c r="HP66" t="n">
         <v>1</v>
       </c>
+      <c r="HQ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR66" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU66" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV66" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW66" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX66" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -39690,7 +41499,7 @@
         <v>0.00116597229275071</v>
       </c>
       <c r="F67" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G67"/>
       <c r="H67"/>
@@ -40180,10 +41989,37 @@
       <c r="HP67" t="n">
         <v>0</v>
       </c>
+      <c r="HQ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX67" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B68" t="n">
         <v>5</v>
@@ -40198,7 +42034,7 @@
         <v>0.00116117444660682</v>
       </c>
       <c r="F68" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G68"/>
       <c r="H68"/>
@@ -40696,13 +42532,40 @@
       <c r="HP68" t="n">
         <v>0</v>
       </c>
+      <c r="HQ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B69" t="n">
-        <v>2013</v>
+        <v>2267</v>
       </c>
       <c r="C69" t="n">
         <v>10675.1133572492</v>
@@ -40714,7 +42577,7 @@
         <v>0.000607179588178444</v>
       </c>
       <c r="F69" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G69"/>
       <c r="H69"/>
@@ -41220,13 +43083,40 @@
       <c r="HP69" t="n">
         <v>18</v>
       </c>
+      <c r="HQ69" t="n">
+        <v>24</v>
+      </c>
+      <c r="HR69" t="n">
+        <v>35</v>
+      </c>
+      <c r="HS69" t="n">
+        <v>47</v>
+      </c>
+      <c r="HT69" t="n">
+        <v>49</v>
+      </c>
+      <c r="HU69" t="n">
+        <v>29</v>
+      </c>
+      <c r="HV69" t="n">
+        <v>14</v>
+      </c>
+      <c r="HW69" t="n">
+        <v>11</v>
+      </c>
+      <c r="HX69" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY69" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B70" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C70" t="n">
         <v>4481.23143358768</v>
@@ -41238,7 +43128,7 @@
         <v>0.000350884462210825</v>
       </c>
       <c r="F70" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G70"/>
       <c r="H70"/>
@@ -41744,13 +43634,40 @@
       <c r="HP70" t="n">
         <v>0</v>
       </c>
+      <c r="HQ70" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR70" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT70" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX70" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B71" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C71" t="n">
         <v>652.600813657327</v>
@@ -41762,7 +43679,7 @@
         <v>0.000339734175600248</v>
       </c>
       <c r="F71" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G71"/>
       <c r="H71"/>
@@ -42244,13 +44161,40 @@
       <c r="HP71" t="n">
         <v>1</v>
       </c>
+      <c r="HQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU71" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX71" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B72" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C72" t="n">
         <v>645.339164471122</v>
@@ -42262,7 +44206,7 @@
         <v>0.000824424853209571</v>
       </c>
       <c r="F72" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G72"/>
       <c r="H72"/>
@@ -42768,13 +44712,40 @@
       <c r="HP72" t="n">
         <v>0</v>
       </c>
+      <c r="HQ72" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX72" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B73" t="n">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="C73" t="n">
         <v>6785.40203132334</v>
@@ -42786,7 +44757,7 @@
         <v>0.000602446456366269</v>
       </c>
       <c r="F73" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G73"/>
       <c r="H73"/>
@@ -43282,13 +45253,40 @@
       <c r="HP73" t="n">
         <v>1</v>
       </c>
+      <c r="HQ73" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT73" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU73" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV73" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B74" t="n">
-        <v>1384</v>
+        <v>1533</v>
       </c>
       <c r="C74" t="n">
         <v>5975.1028994163</v>
@@ -43300,7 +45298,7 @@
         <v>0.000613075416459965</v>
       </c>
       <c r="F74" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G74"/>
       <c r="H74"/>
@@ -43808,10 +45806,37 @@
       <c r="HP74" t="n">
         <v>7</v>
       </c>
+      <c r="HQ74" t="n">
+        <v>16</v>
+      </c>
+      <c r="HR74" t="n">
+        <v>23</v>
+      </c>
+      <c r="HS74" t="n">
+        <v>23</v>
+      </c>
+      <c r="HT74" t="n">
+        <v>19</v>
+      </c>
+      <c r="HU74" t="n">
+        <v>11</v>
+      </c>
+      <c r="HV74" t="n">
+        <v>19</v>
+      </c>
+      <c r="HW74" t="n">
+        <v>11</v>
+      </c>
+      <c r="HX74" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY74" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="n">
@@ -43824,7 +45849,7 @@
         <v>0.00211272955020031</v>
       </c>
       <c r="F75" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G75"/>
       <c r="H75"/>
@@ -44044,10 +46069,19 @@
       <c r="HN75"/>
       <c r="HO75"/>
       <c r="HP75"/>
+      <c r="HQ75"/>
+      <c r="HR75"/>
+      <c r="HS75"/>
+      <c r="HT75"/>
+      <c r="HU75"/>
+      <c r="HV75"/>
+      <c r="HW75"/>
+      <c r="HX75"/>
+      <c r="HY75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="n">
@@ -44060,7 +46094,7 @@
         <v>0.00210062259721708</v>
       </c>
       <c r="F76" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G76"/>
       <c r="H76"/>
@@ -44584,10 +46618,37 @@
       <c r="HP76" t="n">
         <v>0</v>
       </c>
+      <c r="HQ76" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR76" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS76" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT76" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU76" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV76" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B77" t="n">
         <v>10</v>
@@ -44602,7 +46663,7 @@
         <v>0.00173303942255681</v>
       </c>
       <c r="F77" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -45256,15 +47317,42 @@
         <v>0</v>
       </c>
       <c r="HP77" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR77" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS77" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT77" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV77" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW77" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX77" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B78" t="n">
-        <v>38938</v>
+        <v>47033</v>
       </c>
       <c r="C78" t="n">
         <v>1007352.75961413</v>
@@ -45276,7 +47364,7 @@
         <v>0.000737221655623268</v>
       </c>
       <c r="F78" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -45929,14 +48017,41 @@
       </c>
       <c r="HP78" t="n">
         <v>803</v>
+      </c>
+      <c r="HQ78" t="n">
+        <v>857</v>
+      </c>
+      <c r="HR78" t="n">
+        <v>904</v>
+      </c>
+      <c r="HS78" t="n">
+        <v>886</v>
+      </c>
+      <c r="HT78" t="n">
+        <v>933</v>
+      </c>
+      <c r="HU78" t="n">
+        <v>861</v>
+      </c>
+      <c r="HV78" t="n">
+        <v>1007</v>
+      </c>
+      <c r="HW78" t="n">
+        <v>871</v>
+      </c>
+      <c r="HX78" t="n">
+        <v>834</v>
+      </c>
+      <c r="HY78" t="n">
+        <v>942</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B79" t="n">
-        <v>5302</v>
+        <v>5903</v>
       </c>
       <c r="C79" t="n">
         <v>197413.463693284</v>
@@ -45948,7 +48063,7 @@
         <v>0.000729470854811306</v>
       </c>
       <c r="F79" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -46590,13 +48705,40 @@
       <c r="HP79" t="n">
         <v>66</v>
       </c>
+      <c r="HQ79" t="n">
+        <v>86</v>
+      </c>
+      <c r="HR79" t="n">
+        <v>64</v>
+      </c>
+      <c r="HS79" t="n">
+        <v>69</v>
+      </c>
+      <c r="HT79" t="n">
+        <v>72</v>
+      </c>
+      <c r="HU79" t="n">
+        <v>65</v>
+      </c>
+      <c r="HV79" t="n">
+        <v>65</v>
+      </c>
+      <c r="HW79" t="n">
+        <v>42</v>
+      </c>
+      <c r="HX79" t="n">
+        <v>59</v>
+      </c>
+      <c r="HY79" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B80" t="n">
-        <v>17405</v>
+        <v>18988</v>
       </c>
       <c r="C80" t="n">
         <v>64236.7361883875</v>
@@ -46608,7 +48750,7 @@
         <v>0.000774740322329184</v>
       </c>
       <c r="F80" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -47263,14 +49405,41 @@
       </c>
       <c r="HP80" t="n">
         <v>215</v>
+      </c>
+      <c r="HQ80" t="n">
+        <v>212</v>
+      </c>
+      <c r="HR80" t="n">
+        <v>185</v>
+      </c>
+      <c r="HS80" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT80" t="n">
+        <v>316</v>
+      </c>
+      <c r="HU80" t="n">
+        <v>132</v>
+      </c>
+      <c r="HV80" t="n">
+        <v>163</v>
+      </c>
+      <c r="HW80" t="n">
+        <v>189</v>
+      </c>
+      <c r="HX80" t="n">
+        <v>184</v>
+      </c>
+      <c r="HY80" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B81" t="n">
-        <v>4934</v>
+        <v>5588</v>
       </c>
       <c r="C81" t="n">
         <v>16242.4441635167</v>
@@ -47282,7 +49451,7 @@
         <v>0.000413190835918949</v>
       </c>
       <c r="F81" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -47933,14 +50102,41 @@
       </c>
       <c r="HP81" t="n">
         <v>66</v>
+      </c>
+      <c r="HQ81" t="n">
+        <v>83</v>
+      </c>
+      <c r="HR81" t="n">
+        <v>77</v>
+      </c>
+      <c r="HS81" t="n">
+        <v>67</v>
+      </c>
+      <c r="HT81" t="n">
+        <v>75</v>
+      </c>
+      <c r="HU81" t="n">
+        <v>74</v>
+      </c>
+      <c r="HV81" t="n">
+        <v>82</v>
+      </c>
+      <c r="HW81" t="n">
+        <v>72</v>
+      </c>
+      <c r="HX81" t="n">
+        <v>67</v>
+      </c>
+      <c r="HY81" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B82" t="n">
-        <v>1763</v>
+        <v>1774</v>
       </c>
       <c r="C82" t="n">
         <v>7663.69136924019</v>
@@ -47952,7 +50148,7 @@
         <v>0.00156962509134468</v>
       </c>
       <c r="F82" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -48603,11 +50799,38 @@
       </c>
       <c r="HP82" t="n">
         <v>0</v>
+      </c>
+      <c r="HQ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS82" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT82" t="n">
+        <v>4</v>
+      </c>
+      <c r="HU82" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV82" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW82" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX82" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B83"/>
       <c r="C83" t="n">
@@ -48620,7 +50843,7 @@
         <v>0.00137490036953991</v>
       </c>
       <c r="F83" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -49270,13 +51493,40 @@
       <c r="HP83" t="n">
         <v>10</v>
       </c>
+      <c r="HQ83" t="n">
+        <v>15</v>
+      </c>
+      <c r="HR83" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS83" t="n">
+        <v>11</v>
+      </c>
+      <c r="HT83" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU83" t="n">
+        <v>13</v>
+      </c>
+      <c r="HV83" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW83" t="n">
+        <v>13</v>
+      </c>
+      <c r="HX83" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY83" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B84" t="n">
-        <v>35166</v>
+        <v>35225</v>
       </c>
       <c r="C84" t="n">
         <v>167507.793589674</v>
@@ -49288,7 +51538,7 @@
         <v>0.00276643334562851</v>
       </c>
       <c r="F84" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -49943,14 +52193,41 @@
       </c>
       <c r="HP84" t="n">
         <v>12</v>
+      </c>
+      <c r="HQ84" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR84" t="n">
+        <v>10</v>
+      </c>
+      <c r="HS84" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT84" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU84" t="n">
+        <v>13</v>
+      </c>
+      <c r="HV84" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW84" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX84" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY84" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B85" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" t="n">
         <v>3171.99863729704</v>
@@ -49962,7 +52239,7 @@
         <v>0.00107588252839865</v>
       </c>
       <c r="F85" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G85"/>
       <c r="H85"/>
@@ -50472,13 +52749,40 @@
       <c r="HP85" t="n">
         <v>0</v>
       </c>
+      <c r="HQ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS85" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT85" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU85" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV85" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW85" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B86" t="n">
-        <v>1016</v>
+        <v>1062</v>
       </c>
       <c r="C86" t="n">
         <v>408185.308690873</v>
@@ -50490,7 +52794,7 @@
         <v>0.00321759693070622</v>
       </c>
       <c r="F86" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -51145,14 +53449,41 @@
       </c>
       <c r="HP86" t="n">
         <v>5</v>
+      </c>
+      <c r="HQ86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR86" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU86" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW86" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX86" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B87" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C87" t="n">
         <v>5049.96649212557</v>
@@ -51164,7 +53495,7 @@
         <v>0.000499912687157966</v>
       </c>
       <c r="F87" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G87"/>
       <c r="H87"/>
@@ -51672,12 +54003,39 @@
         <v>0</v>
       </c>
       <c r="HP87" t="n">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="HQ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS87" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT87" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU87" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV87" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW87" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B88"/>
       <c r="C88" t="n">
@@ -51690,7 +54048,7 @@
         <v>0.000923583142332935</v>
       </c>
       <c r="F88" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G88"/>
       <c r="H88"/>
@@ -52196,10 +54554,37 @@
       <c r="HP88" t="n">
         <v>265</v>
       </c>
+      <c r="HQ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS88" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT88" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU88" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV88" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW88" t="n">
+        <v>211</v>
+      </c>
+      <c r="HX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B89"/>
       <c r="C89" t="n">
@@ -52212,7 +54597,7 @@
         <v>0.000324137912152746</v>
       </c>
       <c r="F89" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G89"/>
       <c r="H89"/>
@@ -52720,13 +55105,40 @@
       <c r="HP89" t="n">
         <v>13</v>
       </c>
+      <c r="HQ89" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS89" t="n">
+        <v>8</v>
+      </c>
+      <c r="HT89" t="n">
+        <v>14</v>
+      </c>
+      <c r="HU89" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV89" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW89" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX89" t="n">
+        <v>15</v>
+      </c>
+      <c r="HY89" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B90" t="n">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="C90" t="n">
         <v>2002.98606207839</v>
@@ -52738,7 +55150,7 @@
         <v>0.000476099216172748</v>
       </c>
       <c r="F90" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -53388,13 +55800,40 @@
       <c r="HP90" t="n">
         <v>4</v>
       </c>
+      <c r="HQ90" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR90" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS90" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT90" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU90" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV90" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW90" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX90" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="B91" t="n">
-        <v>1427</v>
+        <v>1484</v>
       </c>
       <c r="C91" t="n">
         <v>3927.60436572775</v>
@@ -53406,7 +55845,7 @@
         <v>0.000612172004263775</v>
       </c>
       <c r="F91" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G91"/>
       <c r="H91"/>
@@ -53904,10 +56343,37 @@
       <c r="HP91" t="n">
         <v>7</v>
       </c>
+      <c r="HQ91" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR91" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS91" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT91" t="n">
+        <v>9</v>
+      </c>
+      <c r="HU91" t="n">
+        <v>8</v>
+      </c>
+      <c r="HV91" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW91" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX91" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -53922,7 +56388,7 @@
         <v>0.000511768875418625</v>
       </c>
       <c r="F92" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G92"/>
       <c r="H92"/>
@@ -54408,10 +56874,37 @@
       <c r="HP92" t="n">
         <v>0</v>
       </c>
+      <c r="HQ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS92" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU92" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV92" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW92" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B93"/>
       <c r="C93" t="n">
@@ -54424,7 +56917,7 @@
         <v>0.00235895435883626</v>
       </c>
       <c r="F93" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -54946,13 +57439,40 @@
       <c r="HP93" t="n">
         <v>0</v>
       </c>
+      <c r="HQ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR93" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS93" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU93" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV93" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW93" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="B94" t="n">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="C94" t="n">
         <v>6038.00324136336</v>
@@ -54964,7 +57484,7 @@
         <v>0.000880726431371255</v>
       </c>
       <c r="F94" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -55612,13 +58132,40 @@
       <c r="HP94" t="n">
         <v>3</v>
       </c>
+      <c r="HQ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR94" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS94" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT94" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU94" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV94" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW94" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX94" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="B95" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C95" t="n">
         <v>1245.3332341935</v>
@@ -55630,7 +58177,7 @@
         <v>0.000585965544185038</v>
       </c>
       <c r="F95" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G95"/>
       <c r="H95"/>
@@ -56014,13 +58561,40 @@
       <c r="HP95" t="n">
         <v>0</v>
       </c>
+      <c r="HQ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="HR95" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS95" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT95" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU95" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV95" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW95" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B96" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C96" t="n">
         <v>1986.37607313627</v>
@@ -56032,7 +58606,7 @@
         <v>0.000402314281465465</v>
       </c>
       <c r="F96" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -56534,13 +59108,40 @@
       <c r="HP96" t="n">
         <v>1</v>
       </c>
+      <c r="HQ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR96" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS96" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT96" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU96" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV96" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW96" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX96" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B97" t="n">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="C97" t="n">
         <v>3926.18293781857</v>
@@ -56552,7 +59153,7 @@
         <v>0.000579300651412643</v>
       </c>
       <c r="F97" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -57038,10 +59639,37 @@
       <c r="HP97" t="n">
         <v>13</v>
       </c>
+      <c r="HQ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR97" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS97" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT97" t="n">
+        <v>9</v>
+      </c>
+      <c r="HU97" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV97" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW97" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX97" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY97" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B98"/>
       <c r="C98" t="n">
@@ -57054,7 +59682,7 @@
         <v>0.00241935812630557</v>
       </c>
       <c r="F98" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -57692,10 +60320,37 @@
       <c r="HP98" t="n">
         <v>0</v>
       </c>
+      <c r="HQ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR98" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS98" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU98" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV98" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW98" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="B99"/>
       <c r="C99" t="n">
@@ -57708,7 +60363,7 @@
         <v>0.00173602156187562</v>
       </c>
       <c r="F99" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -58350,13 +61005,40 @@
       <c r="HP99" t="n">
         <v>1</v>
       </c>
+      <c r="HQ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR99" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS99" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT99" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU99" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV99" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW99" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX99" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B100" t="n">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="C100" t="n">
         <v>3135.76609940643</v>
@@ -58368,7 +61050,7 @@
         <v>0.00150507766386768</v>
       </c>
       <c r="F100" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -59006,13 +61688,40 @@
       <c r="HP100" t="n">
         <v>3</v>
       </c>
+      <c r="HQ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR100" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS100" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT100" t="n">
+        <v>8</v>
+      </c>
+      <c r="HU100" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV100" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW100" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B101" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C101" t="n">
         <v>10444.1668407235</v>
@@ -59024,7 +61733,7 @@
         <v>0.000387261238413905</v>
       </c>
       <c r="F101" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G101"/>
       <c r="H101"/>
@@ -59518,13 +62227,40 @@
       <c r="HP101" t="n">
         <v>4</v>
       </c>
+      <c r="HQ101" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR101" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT101" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU101" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW101" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX101" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B102" t="n">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C102" t="n">
         <v>6142.82764455949</v>
@@ -59536,7 +62272,7 @@
         <v>0.000329749892185964</v>
       </c>
       <c r="F102" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G102"/>
       <c r="H102"/>
@@ -60004,10 +62740,37 @@
       <c r="HP102" t="n">
         <v>0</v>
       </c>
+      <c r="HQ102" t="n">
+        <v>5</v>
+      </c>
+      <c r="HR102" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS102" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU102" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV102" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW102" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX102" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B103"/>
       <c r="C103" t="n">
@@ -60020,7 +62783,7 @@
         <v>0.00080671926634488</v>
       </c>
       <c r="F103" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -60672,15 +63435,42 @@
         <v>0</v>
       </c>
       <c r="HP103" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR103" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS103" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT103" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU103" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV103" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW103" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B104" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C104" t="n">
         <v>287.908648415219</v>
@@ -60692,7 +63482,7 @@
         <v>0.000542245776326512</v>
       </c>
       <c r="F104" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G104"/>
       <c r="H104"/>
@@ -61208,13 +63998,40 @@
       <c r="HP104" t="n">
         <v>1</v>
       </c>
+      <c r="HQ104" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR104" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS104" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT104" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU104" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV104" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW104" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX104" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY104" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B105" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C105" t="n">
         <v>5961.46439416279</v>
@@ -61226,7 +64043,7 @@
         <v>0.000303258608326046</v>
       </c>
       <c r="F105" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G105"/>
       <c r="H105"/>
@@ -61710,10 +64527,37 @@
       <c r="HP105" t="n">
         <v>0</v>
       </c>
+      <c r="HQ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR105" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS105" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT105" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU105" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV105" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW105" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B106"/>
       <c r="C106" t="n">
@@ -61726,7 +64570,7 @@
         <v>0.00223922557196121</v>
       </c>
       <c r="F106" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G106"/>
       <c r="H106"/>
@@ -62248,10 +65092,37 @@
       <c r="HP106" t="n">
         <v>0</v>
       </c>
+      <c r="HQ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR106" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS106" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU106" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV106" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW106" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="B107" t="n">
         <v>157</v>
@@ -62266,7 +65137,7 @@
         <v>0.000399808350339084</v>
       </c>
       <c r="F107" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G107"/>
       <c r="H107"/>
@@ -62772,10 +65643,37 @@
       <c r="HP107" t="n">
         <v>0</v>
       </c>
+      <c r="HQ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR107" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS107" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT107" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU107" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV107" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW107" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B108" t="n">
         <v>10</v>
@@ -62790,7 +65688,7 @@
         <v>0.00131209265770585</v>
       </c>
       <c r="F108" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G108"/>
       <c r="H108"/>
@@ -63286,10 +66184,37 @@
       <c r="HP108" t="n">
         <v>0</v>
       </c>
+      <c r="HQ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR108" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS108" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT108" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU108" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV108" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW108" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B109"/>
       <c r="C109" t="n">
@@ -63302,7 +66227,7 @@
         <v>0.000895462351899451</v>
       </c>
       <c r="F109" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -63942,13 +66867,40 @@
       <c r="HP109" t="n">
         <v>266</v>
       </c>
+      <c r="HQ109" t="n">
+        <v>857</v>
+      </c>
+      <c r="HR109" t="n">
+        <v>829</v>
+      </c>
+      <c r="HS109" t="n">
+        <v>819</v>
+      </c>
+      <c r="HT109" t="n">
+        <v>794</v>
+      </c>
+      <c r="HU109" t="n">
+        <v>695</v>
+      </c>
+      <c r="HV109" t="n">
+        <v>292</v>
+      </c>
+      <c r="HW109" t="n">
+        <v>705</v>
+      </c>
+      <c r="HX109" t="n">
+        <v>926</v>
+      </c>
+      <c r="HY109" t="n">
+        <v>737</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B110" t="n">
-        <v>800</v>
+        <v>863</v>
       </c>
       <c r="C110" t="n">
         <v>5369.62504534586</v>
@@ -63960,7 +66912,7 @@
         <v>0.00132804412811299</v>
       </c>
       <c r="F110" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G110"/>
       <c r="H110"/>
@@ -64476,10 +67428,37 @@
       <c r="HP110" t="n">
         <v>9</v>
       </c>
+      <c r="HQ110" t="n">
+        <v>10</v>
+      </c>
+      <c r="HR110" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS110" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT110" t="n">
+        <v>7</v>
+      </c>
+      <c r="HU110" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV110" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW110" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX110" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY110" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -64494,7 +67473,7 @@
         <v>0.000560116659650488</v>
       </c>
       <c r="F111" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G111"/>
       <c r="H111"/>
@@ -64998,13 +67977,40 @@
       <c r="HP111" t="n">
         <v>0</v>
       </c>
+      <c r="HQ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR111" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS111" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT111" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU111" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV111" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW111" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="B112" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C112" t="n">
         <v>1064.99204828904</v>
@@ -65016,7 +68022,7 @@
         <v>0.00169587961599432</v>
       </c>
       <c r="F112" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G112"/>
       <c r="H112"/>
@@ -65516,10 +68522,37 @@
       <c r="HP112" t="n">
         <v>1</v>
       </c>
+      <c r="HQ112" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR112" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS112" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT112" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU112" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV112" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW112" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX112" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B113"/>
       <c r="C113" t="n">
@@ -65532,7 +68565,7 @@
         <v>0.000847344897208913</v>
       </c>
       <c r="F113" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G113"/>
       <c r="H113"/>
@@ -66048,13 +69081,40 @@
       <c r="HP113" t="n">
         <v>19</v>
       </c>
+      <c r="HQ113" t="n">
+        <v>16</v>
+      </c>
+      <c r="HR113" t="n">
+        <v>18</v>
+      </c>
+      <c r="HS113" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT113" t="n">
+        <v>12</v>
+      </c>
+      <c r="HU113" t="n">
+        <v>19</v>
+      </c>
+      <c r="HV113" t="n">
+        <v>18</v>
+      </c>
+      <c r="HW113" t="n">
+        <v>18</v>
+      </c>
+      <c r="HX113" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY113" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B114" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C114" t="n">
         <v>10562.8329665256</v>
@@ -66066,7 +69126,7 @@
         <v>0.000347850161660036</v>
       </c>
       <c r="F114" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G114"/>
       <c r="H114"/>
@@ -66556,10 +69616,37 @@
       <c r="HP114" t="n">
         <v>1</v>
       </c>
+      <c r="HQ114" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR114" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS114" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT114" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU114" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV114" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW114" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX114" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B115" t="n">
         <v>6</v>
@@ -66574,7 +69661,7 @@
         <v>0.000700909676076501</v>
       </c>
       <c r="F115" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G115"/>
       <c r="H115"/>
@@ -67064,13 +70151,40 @@
       <c r="HP115" t="n">
         <v>0</v>
       </c>
+      <c r="HQ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR115" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS115" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT115" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU115" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV115" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW115" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX115" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B116" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C116" t="n">
         <v>1148.86048270933</v>
@@ -67082,7 +70196,7 @@
         <v>0.000460552988349411</v>
       </c>
       <c r="F116" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G116"/>
       <c r="H116"/>
@@ -67588,10 +70702,37 @@
       <c r="HP116" t="n">
         <v>1</v>
       </c>
+      <c r="HQ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR116" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS116" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT116" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU116" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV116" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW116" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX116" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY116" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B117"/>
       <c r="C117" t="n">
@@ -67604,7 +70745,7 @@
         <v>0.000648489167394676</v>
       </c>
       <c r="F117" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -68234,13 +71375,40 @@
       <c r="HP117" t="n">
         <v>0</v>
       </c>
+      <c r="HQ117" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR117" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS117" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT117" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU117" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV117" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW117" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX117" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY117" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="B118" t="n">
-        <v>6140</v>
+        <v>6152</v>
       </c>
       <c r="C118" t="n">
         <v>37338.4501582691</v>
@@ -68252,7 +71420,7 @@
         <v>0.00218390265673188</v>
       </c>
       <c r="F118" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -68907,11 +72075,38 @@
       </c>
       <c r="HP118" t="n">
         <v>0</v>
+      </c>
+      <c r="HQ118" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR118" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS118" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT118" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU118" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV118" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW118" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX118" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY118" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -68926,7 +72121,7 @@
         <v>0.00104863171588723</v>
       </c>
       <c r="F119" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G119"/>
       <c r="H119"/>
@@ -69420,10 +72615,37 @@
       <c r="HP119" t="n">
         <v>0</v>
       </c>
+      <c r="HQ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR119" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS119" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT119" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU119" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV119" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW119" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="B120"/>
       <c r="C120" t="n">
@@ -69436,7 +72658,7 @@
         <v>0.00179953713455411</v>
       </c>
       <c r="F120" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -70074,13 +73296,40 @@
       <c r="HP120" t="n">
         <v>0</v>
       </c>
+      <c r="HQ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR120" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS120" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT120" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU120" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV120" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW120" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX120" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B121" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C121" t="n">
         <v>4470.91360082327</v>
@@ -70092,7 +73341,7 @@
         <v>0.000683051292448351</v>
       </c>
       <c r="F121" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G121"/>
       <c r="H121"/>
@@ -70590,10 +73839,37 @@
       <c r="HP121" t="n">
         <v>0</v>
       </c>
+      <c r="HQ121" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR121" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS121" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT121" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU121" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV121" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW121" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX121" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="B122" t="n">
         <v>69</v>
@@ -70608,7 +73884,7 @@
         <v>0.00030573308972683</v>
       </c>
       <c r="F122" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G122"/>
       <c r="H122"/>
@@ -71102,13 +74378,40 @@
       <c r="HP122" t="n">
         <v>0</v>
       </c>
+      <c r="HQ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR122" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS122" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT122" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU122" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV122" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW122" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX122" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B123" t="n">
-        <v>896</v>
+        <v>956</v>
       </c>
       <c r="C123" t="n">
         <v>67019.9122461298</v>
@@ -71120,7 +74423,7 @@
         <v>0.00033349278797579</v>
       </c>
       <c r="F123" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -71754,10 +75057,37 @@
       <c r="HP123" t="n">
         <v>8</v>
       </c>
+      <c r="HQ123" t="n">
+        <v>14</v>
+      </c>
+      <c r="HR123" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS123" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT123" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU123" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV123" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW123" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX123" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B124" t="n">
         <v>256</v>
@@ -71772,7 +75102,7 @@
         <v>0.00193794029490713</v>
       </c>
       <c r="F124" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -72427,14 +75757,41 @@
       </c>
       <c r="HP124" t="n">
         <v>1</v>
+      </c>
+      <c r="HQ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR124" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS124" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT124" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU124" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV124" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW124" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX124" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B125" t="n">
-        <v>421</v>
+        <v>539</v>
       </c>
       <c r="C125" t="n">
         <v>1977.24805262704</v>
@@ -72446,7 +75803,7 @@
         <v>0.000397437433593268</v>
       </c>
       <c r="F125" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -73090,13 +76447,40 @@
       <c r="HP125" t="n">
         <v>0</v>
       </c>
+      <c r="HQ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR125" t="n">
+        <v>67</v>
+      </c>
+      <c r="HS125" t="n">
+        <v>4</v>
+      </c>
+      <c r="HT125" t="n">
+        <v>10</v>
+      </c>
+      <c r="HU125" t="n">
+        <v>7</v>
+      </c>
+      <c r="HV125" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW125" t="n">
+        <v>8</v>
+      </c>
+      <c r="HX125" t="n">
+        <v>12</v>
+      </c>
+      <c r="HY125" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B126" t="n">
-        <v>5999</v>
+        <v>6139</v>
       </c>
       <c r="C126" t="n">
         <v>114749.416789966</v>
@@ -73108,7 +76492,7 @@
         <v>0.000529860544520923</v>
       </c>
       <c r="F126" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -73754,13 +77138,40 @@
       <c r="HP126" t="n">
         <v>15</v>
       </c>
+      <c r="HQ126" t="n">
+        <v>15</v>
+      </c>
+      <c r="HR126" t="n">
+        <v>21</v>
+      </c>
+      <c r="HS126" t="n">
+        <v>17</v>
+      </c>
+      <c r="HT126" t="n">
+        <v>16</v>
+      </c>
+      <c r="HU126" t="n">
+        <v>14</v>
+      </c>
+      <c r="HV126" t="n">
+        <v>15</v>
+      </c>
+      <c r="HW126" t="n">
+        <v>15</v>
+      </c>
+      <c r="HX126" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY126" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B127" t="n">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="C127" t="n">
         <v>1999.98886056479</v>
@@ -73772,7 +77183,7 @@
         <v>0.000401489546672574</v>
       </c>
       <c r="F127" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G127"/>
       <c r="H127"/>
@@ -74290,10 +77701,37 @@
       <c r="HP127" t="n">
         <v>0</v>
       </c>
+      <c r="HQ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR127" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS127" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT127" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU127" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV127" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW127" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX127" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY127" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B128"/>
       <c r="C128" t="n">
@@ -74306,7 +77744,7 @@
         <v>0.00101129493204826</v>
       </c>
       <c r="F128" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G128"/>
       <c r="H128"/>
@@ -74822,13 +78260,40 @@
       <c r="HP128" t="n">
         <v>26</v>
       </c>
+      <c r="HQ128" t="n">
+        <v>25</v>
+      </c>
+      <c r="HR128" t="n">
+        <v>31</v>
+      </c>
+      <c r="HS128" t="n">
+        <v>21</v>
+      </c>
+      <c r="HT128" t="n">
+        <v>17</v>
+      </c>
+      <c r="HU128" t="n">
+        <v>18</v>
+      </c>
+      <c r="HV128" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW128" t="n">
+        <v>25</v>
+      </c>
+      <c r="HX128" t="n">
+        <v>16</v>
+      </c>
+      <c r="HY128" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129" t="n">
         <v>3777.73907467092</v>
@@ -74840,7 +78305,7 @@
         <v>0.000430456683036194</v>
       </c>
       <c r="F129" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G129"/>
       <c r="H129"/>
@@ -75334,10 +78799,37 @@
       <c r="HP129" t="n">
         <v>0</v>
       </c>
+      <c r="HQ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR129" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS129" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU129" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV129" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW129" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX129" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B130"/>
       <c r="C130" t="n">
@@ -75350,7 +78842,7 @@
         <v>0.000769195183228435</v>
       </c>
       <c r="F130" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G130"/>
       <c r="H130"/>
@@ -75862,10 +79354,37 @@
       <c r="HP130" t="n">
         <v>3</v>
       </c>
+      <c r="HQ130" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR130" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS130" t="n">
+        <v>5</v>
+      </c>
+      <c r="HT130" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU130" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV130" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW130" t="n">
+        <v>7</v>
+      </c>
+      <c r="HX130" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY130" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B131"/>
       <c r="C131" t="n">
@@ -75878,7 +79397,7 @@
         <v>0.000982327877762806</v>
       </c>
       <c r="F131" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G131"/>
       <c r="H131"/>
@@ -76398,13 +79917,40 @@
       <c r="HP131" t="n">
         <v>197</v>
       </c>
+      <c r="HQ131" t="n">
+        <v>196</v>
+      </c>
+      <c r="HR131" t="n">
+        <v>221</v>
+      </c>
+      <c r="HS131" t="n">
+        <v>196</v>
+      </c>
+      <c r="HT131" t="n">
+        <v>225</v>
+      </c>
+      <c r="HU131" t="n">
+        <v>195</v>
+      </c>
+      <c r="HV131" t="n">
+        <v>228</v>
+      </c>
+      <c r="HW131" t="n">
+        <v>204</v>
+      </c>
+      <c r="HX131" t="n">
+        <v>225</v>
+      </c>
+      <c r="HY131" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B132" t="n">
-        <v>2104</v>
+        <v>2404</v>
       </c>
       <c r="C132" t="n">
         <v>68981.1109537369</v>
@@ -76416,7 +79962,7 @@
         <v>0.000638025029617896</v>
       </c>
       <c r="F132" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -77064,13 +80610,40 @@
       <c r="HP132" t="n">
         <v>45</v>
       </c>
+      <c r="HQ132" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR132" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS132" t="n">
+        <v>27</v>
+      </c>
+      <c r="HT132" t="n">
+        <v>18</v>
+      </c>
+      <c r="HU132" t="n">
+        <v>41</v>
+      </c>
+      <c r="HV132" t="n">
+        <v>61</v>
+      </c>
+      <c r="HW132" t="n">
+        <v>23</v>
+      </c>
+      <c r="HX132" t="n">
+        <v>19</v>
+      </c>
+      <c r="HY132" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="B133" t="n">
-        <v>1732</v>
+        <v>1830</v>
       </c>
       <c r="C133" t="n">
         <v>77215.1423090302</v>
@@ -77082,7 +80655,7 @@
         <v>0.0020379964909265</v>
       </c>
       <c r="F133" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G133"/>
       <c r="H133"/>
@@ -77606,10 +81179,37 @@
       <c r="HP133" t="n">
         <v>1</v>
       </c>
+      <c r="HQ133" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR133" t="n">
+        <v>18</v>
+      </c>
+      <c r="HS133" t="n">
+        <v>18</v>
+      </c>
+      <c r="HT133" t="n">
+        <v>13</v>
+      </c>
+      <c r="HU133" t="n">
+        <v>13</v>
+      </c>
+      <c r="HV133" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW133" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX133" t="n">
+        <v>12</v>
+      </c>
+      <c r="HY133" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B134"/>
       <c r="C134" t="n">
@@ -77622,7 +81222,7 @@
         <v>0.00260266492537302</v>
       </c>
       <c r="F134" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G134"/>
       <c r="H134"/>
@@ -78152,13 +81752,40 @@
       <c r="HP134" t="n">
         <v>0</v>
       </c>
+      <c r="HQ134" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR134" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS134" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT134" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU134" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV134" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW134" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX134" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY134" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B135" t="n">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="C135" t="n">
         <v>6595.95722933069</v>
@@ -78170,7 +81797,7 @@
         <v>0.00224856761268843</v>
       </c>
       <c r="F135" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G135"/>
       <c r="H135"/>
@@ -78650,13 +82277,40 @@
       <c r="HP135" t="n">
         <v>0</v>
       </c>
+      <c r="HQ135" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR135" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS135" t="n">
+        <v>12</v>
+      </c>
+      <c r="HT135" t="n">
+        <v>7</v>
+      </c>
+      <c r="HU135" t="n">
+        <v>9</v>
+      </c>
+      <c r="HV135" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW135" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX135" t="n">
+        <v>8</v>
+      </c>
+      <c r="HY135" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B136" t="n">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="C136" t="n">
         <v>950.68527167165</v>
@@ -78668,7 +82322,7 @@
         <v>0.000335685536016452</v>
       </c>
       <c r="F136" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -79316,13 +82970,40 @@
       <c r="HP136" t="n">
         <v>0</v>
       </c>
+      <c r="HQ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR136" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS136" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT136" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU136" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV136" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW136" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX136" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="B137" t="n">
-        <v>2432</v>
+        <v>2807</v>
       </c>
       <c r="C137" t="n">
         <v>40873.3267557483</v>
@@ -79334,7 +83015,7 @@
         <v>0.00211072861852815</v>
       </c>
       <c r="F137" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -79985,14 +83666,41 @@
       </c>
       <c r="HP137" t="n">
         <v>19</v>
+      </c>
+      <c r="HQ137" t="n">
+        <v>48</v>
+      </c>
+      <c r="HR137" t="n">
+        <v>41</v>
+      </c>
+      <c r="HS137" t="n">
+        <v>45</v>
+      </c>
+      <c r="HT137" t="n">
+        <v>50</v>
+      </c>
+      <c r="HU137" t="n">
+        <v>43</v>
+      </c>
+      <c r="HV137" t="n">
+        <v>41</v>
+      </c>
+      <c r="HW137" t="n">
+        <v>29</v>
+      </c>
+      <c r="HX137" t="n">
+        <v>35</v>
+      </c>
+      <c r="HY137" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B138" t="n">
-        <v>14207</v>
+        <v>15260</v>
       </c>
       <c r="C138" t="n">
         <v>256123.517136503</v>
@@ -80004,7 +83712,7 @@
         <v>0.00175580691218415</v>
       </c>
       <c r="F138" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -80659,14 +84367,41 @@
       </c>
       <c r="HP138" t="n">
         <v>79</v>
+      </c>
+      <c r="HQ138" t="n">
+        <v>144</v>
+      </c>
+      <c r="HR138" t="n">
+        <v>181</v>
+      </c>
+      <c r="HS138" t="n">
+        <v>74</v>
+      </c>
+      <c r="HT138" t="n">
+        <v>119</v>
+      </c>
+      <c r="HU138" t="n">
+        <v>129</v>
+      </c>
+      <c r="HV138" t="n">
+        <v>77</v>
+      </c>
+      <c r="HW138" t="n">
+        <v>130</v>
+      </c>
+      <c r="HX138" t="n">
+        <v>70</v>
+      </c>
+      <c r="HY138" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="B139" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" t="n">
         <v>4788.68889756762</v>
@@ -80678,7 +84413,7 @@
         <v>0.000379243935153201</v>
       </c>
       <c r="F139" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G139"/>
       <c r="H139"/>
@@ -81184,10 +84919,37 @@
       <c r="HP139" t="n">
         <v>0</v>
       </c>
+      <c r="HQ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR139" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS139" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT139" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU139" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV139" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW139" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX139" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -81202,7 +84964,7 @@
         <v>0.00122176693298997</v>
       </c>
       <c r="F140" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G140"/>
       <c r="H140"/>
@@ -81708,10 +85470,37 @@
       <c r="HP140" t="n">
         <v>0</v>
       </c>
+      <c r="HQ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR140" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS140" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT140" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU140" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV140" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW140" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -81726,7 +85515,7 @@
         <v>0.00119556052142664</v>
       </c>
       <c r="F141" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G141"/>
       <c r="H141"/>
@@ -82214,10 +86003,37 @@
       <c r="HP141" t="n">
         <v>0</v>
       </c>
+      <c r="HQ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR141" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS141" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT141" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU141" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV141" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW141" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="B142" t="n">
         <v>15</v>
@@ -82232,7 +86048,7 @@
         <v>0.000399415017040207</v>
       </c>
       <c r="F142" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G142"/>
       <c r="H142"/>
@@ -82688,13 +86504,40 @@
       <c r="HP142" t="n">
         <v>0</v>
       </c>
+      <c r="HQ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR142" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS142" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT142" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU142" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV142" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW142" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX142" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B143" t="n">
-        <v>2949</v>
+        <v>3269</v>
       </c>
       <c r="C143" t="n">
         <v>16751.8648403159</v>
@@ -82706,7 +86549,7 @@
         <v>0.000488841083325049</v>
       </c>
       <c r="F143" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G143"/>
       <c r="H143"/>
@@ -83230,10 +87073,37 @@
       <c r="HP143" t="n">
         <v>32</v>
       </c>
+      <c r="HQ143" t="n">
+        <v>35</v>
+      </c>
+      <c r="HR143" t="n">
+        <v>36</v>
+      </c>
+      <c r="HS143" t="n">
+        <v>35</v>
+      </c>
+      <c r="HT143" t="n">
+        <v>38</v>
+      </c>
+      <c r="HU143" t="n">
+        <v>37</v>
+      </c>
+      <c r="HV143" t="n">
+        <v>37</v>
+      </c>
+      <c r="HW143" t="n">
+        <v>32</v>
+      </c>
+      <c r="HX143" t="n">
+        <v>34</v>
+      </c>
+      <c r="HY143" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B144"/>
       <c r="C144" t="n">
@@ -83246,7 +87116,7 @@
         <v>0.000375403194853051</v>
       </c>
       <c r="F144" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G144"/>
       <c r="H144"/>
@@ -83762,10 +87632,37 @@
       <c r="HP144" t="n">
         <v>2</v>
       </c>
+      <c r="HQ144" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR144" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS144" t="n">
+        <v>9</v>
+      </c>
+      <c r="HT144" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU144" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV144" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW144" t="n">
+        <v>4</v>
+      </c>
+      <c r="HX144" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B145"/>
       <c r="C145" t="n">
@@ -83778,7 +87675,7 @@
         <v>0.00196887574015814</v>
       </c>
       <c r="F145" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G145"/>
       <c r="H145"/>
@@ -84294,10 +88191,37 @@
       <c r="HP145" t="n">
         <v>8</v>
       </c>
+      <c r="HQ145" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR145" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS145" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT145" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU145" t="n">
+        <v>6</v>
+      </c>
+      <c r="HV145" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW145" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX145" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY145" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -84312,7 +88236,7 @@
         <v>0.00100000001120105</v>
       </c>
       <c r="F146" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G146"/>
       <c r="H146"/>
@@ -84818,13 +88742,40 @@
       <c r="HP146" t="n">
         <v>0</v>
       </c>
+      <c r="HQ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR146" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS146" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT146" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU146" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV146" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW146" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B147" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C147" t="n">
         <v>2872.35158124797</v>
@@ -84836,7 +88787,7 @@
         <v>0.000367627733560364</v>
       </c>
       <c r="F147" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G147"/>
       <c r="H147"/>
@@ -85308,10 +89259,37 @@
       <c r="HP147" t="n">
         <v>0</v>
       </c>
+      <c r="HQ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR147" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS147" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT147" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU147" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV147" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW147" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX147" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="B148" t="n">
         <v>27</v>
@@ -85326,7 +89304,7 @@
         <v>0.00139991315382775</v>
       </c>
       <c r="F148" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -85980,15 +89958,42 @@
         <v>0</v>
       </c>
       <c r="HP148" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR148" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS148" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT148" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU148" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV148" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW148" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX148" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY148" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B149" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C149" t="n">
         <v>9493.10139239133</v>
@@ -86000,7 +90005,7 @@
         <v>0.00173961526791426</v>
       </c>
       <c r="F149" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G149"/>
       <c r="H149"/>
@@ -86520,13 +90525,40 @@
       <c r="HP149" t="n">
         <v>0</v>
       </c>
+      <c r="HQ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR149" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS149" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT149" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU149" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV149" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW149" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX149" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B150" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C150" t="n">
         <v>4772.62846619235</v>
@@ -86538,7 +90570,7 @@
         <v>0.0022960187054663</v>
       </c>
       <c r="F150" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G150"/>
       <c r="H150"/>
@@ -87062,10 +91094,37 @@
       <c r="HP150" t="n">
         <v>0</v>
       </c>
+      <c r="HQ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR150" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS150" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT150" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU150" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV150" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW150" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX150" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY150" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B151" t="n">
         <v>93</v>
@@ -87080,7 +91139,7 @@
         <v>0.000344980489432569</v>
       </c>
       <c r="F151" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G151"/>
       <c r="H151"/>
@@ -87582,10 +91641,37 @@
       <c r="HP151" t="n">
         <v>0</v>
       </c>
+      <c r="HQ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR151" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS151" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT151" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU151" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV151" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW151" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX151" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B152"/>
       <c r="C152" t="n">
@@ -87598,7 +91684,7 @@
         <v>0.000632582202691945</v>
       </c>
       <c r="F152" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G152"/>
       <c r="H152"/>
@@ -88118,13 +92204,40 @@
       <c r="HP152" t="n">
         <v>173</v>
       </c>
+      <c r="HQ152" t="n">
+        <v>345</v>
+      </c>
+      <c r="HR152" t="n">
+        <v>414</v>
+      </c>
+      <c r="HS152" t="n">
+        <v>306</v>
+      </c>
+      <c r="HT152" t="n">
+        <v>305</v>
+      </c>
+      <c r="HU152" t="n">
+        <v>301</v>
+      </c>
+      <c r="HV152" t="n">
+        <v>198</v>
+      </c>
+      <c r="HW152" t="n">
+        <v>213</v>
+      </c>
+      <c r="HX152" t="n">
+        <v>130</v>
+      </c>
+      <c r="HY152" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B153" t="n">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C153" t="n">
         <v>90298.5937303062</v>
@@ -88136,7 +92249,7 @@
         <v>0.00176277266262673</v>
       </c>
       <c r="F153" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -88790,15 +92903,42 @@
         <v>0</v>
       </c>
       <c r="HP153" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ153" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR153" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS153" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT153" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU153" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV153" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW153" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX153" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY153" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B154" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C154" t="n">
         <v>4549.93201544883</v>
@@ -88810,7 +92950,7 @@
         <v>0.000411307678329522</v>
       </c>
       <c r="F154" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G154"/>
       <c r="H154"/>
@@ -89272,10 +93412,37 @@
       <c r="HP154" t="n">
         <v>0</v>
       </c>
+      <c r="HQ154" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR154" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS154" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT154" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU154" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV154" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW154" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX154" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B155" t="n">
         <v>28752</v>
@@ -89290,7 +93457,7 @@
         <v>0.00239653947251376</v>
       </c>
       <c r="F155" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -89943,11 +94110,38 @@
       <c r="HO155" t="n">
         <v>27</v>
       </c>
-      <c r="HP155"/>
+      <c r="HP155" t="n">
+        <v>26</v>
+      </c>
+      <c r="HQ155" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR155" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS155" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT155" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU155" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV155" t="n">
+        <v>73</v>
+      </c>
+      <c r="HW155" t="n">
+        <v>5</v>
+      </c>
+      <c r="HX155" t="n">
+        <v>-2</v>
+      </c>
+      <c r="HY155"/>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="B156" t="n">
         <v>11</v>
@@ -89962,7 +94156,7 @@
         <v>0.00115704230111971</v>
       </c>
       <c r="F156" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -90600,13 +94794,40 @@
       <c r="HP156" t="n">
         <v>0</v>
       </c>
+      <c r="HQ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR156" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS156" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT156" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU156" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV156" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW156" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B157" t="n">
-        <v>752</v>
+        <v>792</v>
       </c>
       <c r="C157" t="n">
         <v>18767.4341538849</v>
@@ -90618,7 +94839,7 @@
         <v>0.000438355879371722</v>
       </c>
       <c r="F157" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G157"/>
       <c r="H157"/>
@@ -91126,13 +95347,40 @@
       <c r="HP157" t="n">
         <v>0</v>
       </c>
+      <c r="HQ157" t="n">
+        <v>11</v>
+      </c>
+      <c r="HR157" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS157" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT157" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU157" t="n">
+        <v>4</v>
+      </c>
+      <c r="HV157" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW157" t="n">
+        <v>8</v>
+      </c>
+      <c r="HX157" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY157" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B158" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C158" t="n">
         <v>494.717923679526</v>
@@ -91144,7 +95392,7 @@
         <v>0.000850962176264273</v>
       </c>
       <c r="F158" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G158"/>
       <c r="H158"/>
@@ -91640,13 +95888,40 @@
       <c r="HP158" t="n">
         <v>0</v>
       </c>
+      <c r="HQ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR158" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS158" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT158" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU158" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV158" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW158" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX158" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="B159" t="n">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C159" t="n">
         <v>536.673220009276</v>
@@ -91658,7 +95933,7 @@
         <v>0.00046743122966527</v>
       </c>
       <c r="F159" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G159"/>
       <c r="H159"/>
@@ -92164,13 +96439,40 @@
       <c r="HP159" t="n">
         <v>2</v>
       </c>
+      <c r="HQ159" t="n">
+        <v>4</v>
+      </c>
+      <c r="HR159" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS159" t="n">
+        <v>2</v>
+      </c>
+      <c r="HT159" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU159" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV159" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW159" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX159" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B160" t="n">
-        <v>5744</v>
+        <v>5774</v>
       </c>
       <c r="C160" t="n">
         <v>22679.7805716106</v>
@@ -92182,7 +96484,7 @@
         <v>0.0022597545842535</v>
       </c>
       <c r="F160" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -92837,14 +97139,41 @@
       </c>
       <c r="HP160" t="n">
         <v>1</v>
+      </c>
+      <c r="HQ160" t="n">
+        <v>3</v>
+      </c>
+      <c r="HR160" t="n">
+        <v>13</v>
+      </c>
+      <c r="HS160" t="n">
+        <v>3</v>
+      </c>
+      <c r="HT160" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU160" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV160" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW160" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX160" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY160" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B161" t="n">
-        <v>1706</v>
+        <v>1713</v>
       </c>
       <c r="C161" t="n">
         <v>18989.5836166627</v>
@@ -92856,7 +97185,7 @@
         <v>0.00221031145317519</v>
       </c>
       <c r="F161" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -93504,21 +97833,48 @@
         <v>0</v>
       </c>
       <c r="HN161" t="n">
+        <v>2</v>
+      </c>
+      <c r="HO161" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP161" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR161" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS161" t="n">
         <v>3</v>
       </c>
-      <c r="HO161" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP161" t="n">
-        <v>0</v>
+      <c r="HT161" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU161" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV161" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW161" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX161" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B162" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C162" t="n">
         <v>9897.17770029723</v>
@@ -93530,7 +97886,7 @@
         <v>0.000579795030307747</v>
       </c>
       <c r="F162" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G162"/>
       <c r="H162"/>
@@ -94020,10 +98376,37 @@
       <c r="HP162" t="n">
         <v>2</v>
       </c>
+      <c r="HQ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR162" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS162" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT162" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU162" t="n">
+        <v>2</v>
+      </c>
+      <c r="HV162" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW162" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX162" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY162" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B163" t="n">
         <v>7</v>
@@ -94038,7 +98421,7 @@
         <v>0.0017433162231338</v>
       </c>
       <c r="F163" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -94692,15 +99075,42 @@
         <v>0</v>
       </c>
       <c r="HP163" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR163" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS163" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT163" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU163" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV163" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW163" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY163" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B164" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C164" t="n">
         <v>4083.0421521526</v>
@@ -94712,7 +99122,7 @@
         <v>0.000438046569797392</v>
       </c>
       <c r="F164" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G164"/>
       <c r="H164"/>
@@ -95124,10 +99534,37 @@
       <c r="HP164" t="n">
         <v>0</v>
       </c>
+      <c r="HQ164" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR164" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS164" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT164" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU164" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV164" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW164" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX164" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B165" t="n">
         <v>21</v>
@@ -95142,7 +99579,7 @@
         <v>0.000329580140837123</v>
       </c>
       <c r="F165" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G165"/>
       <c r="H165"/>
@@ -95644,10 +100081,37 @@
       <c r="HP165" t="n">
         <v>0</v>
       </c>
+      <c r="HQ165" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR165" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS165" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT165" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU165" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV165" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW165" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX165" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B166"/>
       <c r="C166" t="n">
@@ -95660,7 +100124,7 @@
         <v>0.00144914219064351</v>
       </c>
       <c r="F166" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -96302,10 +100766,37 @@
       <c r="HP166" t="n">
         <v>0</v>
       </c>
+      <c r="HQ166" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR166" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS166" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT166" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU166" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV166" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW166" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX166" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -96320,7 +100811,7 @@
         <v>0.000510082908744125</v>
       </c>
       <c r="F167" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G167"/>
       <c r="H167"/>
@@ -96812,10 +101303,37 @@
       <c r="HP167" t="n">
         <v>0</v>
       </c>
+      <c r="HQ167" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR167" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS167" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT167" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU167" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV167" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW167" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX167" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B168"/>
       <c r="C168" t="n">
@@ -96828,7 +101346,7 @@
         <v>0.000354676783542218</v>
       </c>
       <c r="F168" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G168"/>
       <c r="H168"/>
@@ -97336,10 +101854,37 @@
       <c r="HP168" t="n">
         <v>0</v>
       </c>
+      <c r="HQ168" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR168" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS168" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT168" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU168" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV168" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW168" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX168" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B169" t="n">
         <v>8</v>
@@ -97354,7 +101899,7 @@
         <v>0.0012244639344628</v>
       </c>
       <c r="F169" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G169"/>
       <c r="H169"/>
@@ -97864,13 +102409,40 @@
       <c r="HP169" t="n">
         <v>0</v>
       </c>
+      <c r="HQ169" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR169" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS169" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT169" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU169" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV169" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW169" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX169" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="B170" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C170" t="n">
         <v>11863.7430392756</v>
@@ -97882,7 +102454,7 @@
         <v>0.00101445302270842</v>
       </c>
       <c r="F170" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G170"/>
       <c r="H170"/>
@@ -98400,13 +102972,40 @@
       <c r="HP170" t="n">
         <v>0</v>
       </c>
+      <c r="HQ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR170" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS170" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT170" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU170" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV170" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW170" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX170" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B171" t="n">
-        <v>5747</v>
+        <v>5891</v>
       </c>
       <c r="C171" t="n">
         <v>84422.3993097077</v>
@@ -98418,7 +103017,7 @@
         <v>0.00101189976011403</v>
       </c>
       <c r="F171" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G171"/>
       <c r="H171"/>
@@ -98926,13 +103525,40 @@
       <c r="HP171" t="n">
         <v>19</v>
       </c>
+      <c r="HQ171" t="n">
+        <v>18</v>
+      </c>
+      <c r="HR171" t="n">
+        <v>19</v>
+      </c>
+      <c r="HS171" t="n">
+        <v>14</v>
+      </c>
+      <c r="HT171" t="n">
+        <v>15</v>
+      </c>
+      <c r="HU171" t="n">
+        <v>16</v>
+      </c>
+      <c r="HV171" t="n">
+        <v>15</v>
+      </c>
+      <c r="HW171" t="n">
+        <v>14</v>
+      </c>
+      <c r="HX171" t="n">
+        <v>15</v>
+      </c>
+      <c r="HY171" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B172" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C172" t="n">
         <v>11551.33231288</v>
@@ -98944,7 +103570,7 @@
         <v>0.000260931558111894</v>
       </c>
       <c r="F172" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G172"/>
       <c r="H172"/>
@@ -99436,13 +104062,40 @@
       <c r="HP172" t="n">
         <v>1</v>
       </c>
+      <c r="HQ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR172" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS172" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT172" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU172" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV172" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW172" t="n">
+        <v>2</v>
+      </c>
+      <c r="HX172" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="B173" t="n">
-        <v>1738</v>
+        <v>1992</v>
       </c>
       <c r="C173" t="n">
         <v>83772.0903411142</v>
@@ -99454,7 +104107,7 @@
         <v>0.00190418625575323</v>
       </c>
       <c r="F173" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G173"/>
       <c r="H173"/>
@@ -99962,10 +104615,37 @@
       <c r="HP173" t="n">
         <v>13</v>
       </c>
+      <c r="HQ173" t="n">
+        <v>26</v>
+      </c>
+      <c r="HR173" t="n">
+        <v>24</v>
+      </c>
+      <c r="HS173" t="n">
+        <v>31</v>
+      </c>
+      <c r="HT173" t="n">
+        <v>33</v>
+      </c>
+      <c r="HU173" t="n">
+        <v>27</v>
+      </c>
+      <c r="HV173" t="n">
+        <v>43</v>
+      </c>
+      <c r="HW173" t="n">
+        <v>29</v>
+      </c>
+      <c r="HX173" t="n">
+        <v>19</v>
+      </c>
+      <c r="HY173" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B174"/>
       <c r="C174" t="n">
@@ -99978,7 +104658,7 @@
         <v>0.000315951312389353</v>
       </c>
       <c r="F174" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -100620,15 +105300,42 @@
         <v>0</v>
       </c>
       <c r="HP174" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR174" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS174" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT174" t="n">
+        <v>2</v>
+      </c>
+      <c r="HU174" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV174" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW174" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX174" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY174" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="B175" t="n">
-        <v>46210</v>
+        <v>46706</v>
       </c>
       <c r="C175" t="n">
         <v>144477.647009207</v>
@@ -100640,7 +105347,7 @@
         <v>0.00213945361405561</v>
       </c>
       <c r="F175" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -101295,14 +106002,41 @@
       </c>
       <c r="HP175" t="n">
         <v>9</v>
+      </c>
+      <c r="HQ175" t="n">
+        <v>89</v>
+      </c>
+      <c r="HR175" t="n">
+        <v>65</v>
+      </c>
+      <c r="HS175" t="n">
+        <v>49</v>
+      </c>
+      <c r="HT175" t="n">
+        <v>98</v>
+      </c>
+      <c r="HU175" t="n">
+        <v>55</v>
+      </c>
+      <c r="HV175" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW175" t="n">
+        <v>-48</v>
+      </c>
+      <c r="HX175" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY175" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B176" t="n">
-        <v>155403</v>
+        <v>166027</v>
       </c>
       <c r="C176" t="n">
         <v>601512.345001202</v>
@@ -101314,7 +106048,7 @@
         <v>0.00182794431714275</v>
       </c>
       <c r="F176" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -101969,14 +106703,41 @@
       </c>
       <c r="HP176" t="n">
         <v>543</v>
+      </c>
+      <c r="HQ176" t="n">
+        <v>1403</v>
+      </c>
+      <c r="HR176" t="n">
+        <v>1450</v>
+      </c>
+      <c r="HS176" t="n">
+        <v>1848</v>
+      </c>
+      <c r="HT176" t="n">
+        <v>1252</v>
+      </c>
+      <c r="HU176" t="n">
+        <v>1069</v>
+      </c>
+      <c r="HV176" t="n">
+        <v>513</v>
+      </c>
+      <c r="HW176" t="n">
+        <v>523</v>
+      </c>
+      <c r="HX176" t="n">
+        <v>1076</v>
+      </c>
+      <c r="HY176" t="n">
+        <v>1490</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="B177" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="n">
         <v>212.650878421411</v>
@@ -101988,7 +106749,7 @@
         <v>0.00203339942456336</v>
       </c>
       <c r="F177" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G177"/>
       <c r="H177"/>
@@ -102474,13 +107235,40 @@
       <c r="HP177" t="n">
         <v>0</v>
       </c>
+      <c r="HQ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR177" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS177" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT177" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU177" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV177" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW177" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX177" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B178" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C178" t="n">
         <v>6235.19647848937</v>
@@ -102492,7 +107280,7 @@
         <v>0.00180117879710739</v>
       </c>
       <c r="F178" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G178"/>
       <c r="H178"/>
@@ -102998,13 +107786,40 @@
       <c r="HP178" t="n">
         <v>0</v>
       </c>
+      <c r="HQ178" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR178" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS178" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT178" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU178" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV178" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW178" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX178" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B179" t="n">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C179" t="n">
         <v>20087.0880840868</v>
@@ -103016,7 +107831,7 @@
         <v>0.000609037100832592</v>
       </c>
       <c r="F179" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G179"/>
       <c r="H179"/>
@@ -103520,13 +108335,40 @@
       <c r="HP179" t="n">
         <v>6</v>
       </c>
+      <c r="HQ179" t="n">
+        <v>6</v>
+      </c>
+      <c r="HR179" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS179" t="n">
+        <v>6</v>
+      </c>
+      <c r="HT179" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU179" t="n">
+        <v>5</v>
+      </c>
+      <c r="HV179" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW179" t="n">
+        <v>6</v>
+      </c>
+      <c r="HX179" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY179" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B180" t="n">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="C180" t="n">
         <v>25545.540248594</v>
@@ -103538,7 +108380,7 @@
         <v>0.000895837225859055</v>
       </c>
       <c r="F180" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G180"/>
       <c r="H180"/>
@@ -104042,10 +108884,37 @@
       <c r="HP180" t="n">
         <v>0</v>
       </c>
+      <c r="HQ180" t="n">
+        <v>13</v>
+      </c>
+      <c r="HR180" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS180" t="n">
+        <v>7</v>
+      </c>
+      <c r="HT180" t="n">
+        <v>6</v>
+      </c>
+      <c r="HU180" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV180" t="n">
+        <v>15</v>
+      </c>
+      <c r="HW180" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX180" t="n">
+        <v>15</v>
+      </c>
+      <c r="HY180" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="B181"/>
       <c r="C181" t="n">
@@ -104058,7 +108927,7 @@
         <v>0.000985299746139586</v>
       </c>
       <c r="F181" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -104706,10 +109575,37 @@
       <c r="HP181" t="n">
         <v>2</v>
       </c>
+      <c r="HQ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR181" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS181" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT181" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU181" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV181" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW181" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX181" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -104724,7 +109620,7 @@
         <v>0.000450355919878905</v>
       </c>
       <c r="F182" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G182"/>
       <c r="H182"/>
@@ -105146,13 +110042,40 @@
       <c r="HP182" t="n">
         <v>0</v>
       </c>
+      <c r="HQ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR182" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS182" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT182" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU182" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV182" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW182" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX182" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="B183" t="n">
-        <v>693726</v>
+        <v>749444</v>
       </c>
       <c r="C183" t="n">
         <v>8087237.51412203</v>
@@ -105164,7 +110087,7 @@
         <v>0.00104845671277592</v>
       </c>
       <c r="F183" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -105587,7 +110510,7 @@
         <v>2957</v>
       </c>
       <c r="EQ183" t="n">
-        <v>3271</v>
+        <v>3270</v>
       </c>
       <c r="ER183" t="n">
         <v>5233</v>
@@ -105608,25 +110531,25 @@
         <v>1131</v>
       </c>
       <c r="EX183" t="n">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="EY183" t="n">
         <v>3960</v>
       </c>
       <c r="EZ183" t="n">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="FA183" t="n">
         <v>4716</v>
       </c>
       <c r="FB183" t="n">
-        <v>4794</v>
+        <v>4793</v>
       </c>
       <c r="FC183" t="n">
         <v>4094</v>
       </c>
       <c r="FD183" t="n">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="FE183" t="n">
         <v>3142</v>
@@ -105635,7 +110558,7 @@
         <v>4647</v>
       </c>
       <c r="FG183" t="n">
-        <v>5674</v>
+        <v>5673</v>
       </c>
       <c r="FH183" t="n">
         <v>5154</v>
@@ -105707,7 +110630,7 @@
         <v>4706</v>
       </c>
       <c r="GE183" t="n">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="GF183" t="n">
         <v>3052</v>
@@ -105797,7 +110720,7 @@
         <v>3967</v>
       </c>
       <c r="HI183" t="n">
-        <v>4658</v>
+        <v>4657</v>
       </c>
       <c r="HJ183" t="n">
         <v>6256</v>
@@ -105818,15 +110741,42 @@
         <v>3971</v>
       </c>
       <c r="HP183" t="n">
-        <v>4483</v>
+        <v>4498</v>
+      </c>
+      <c r="HQ183" t="n">
+        <v>6802</v>
+      </c>
+      <c r="HR183" t="n">
+        <v>7173</v>
+      </c>
+      <c r="HS183" t="n">
+        <v>6913</v>
+      </c>
+      <c r="HT183" t="n">
+        <v>6550</v>
+      </c>
+      <c r="HU183" t="n">
+        <v>5673</v>
+      </c>
+      <c r="HV183" t="n">
+        <v>4488</v>
+      </c>
+      <c r="HW183" t="n">
+        <v>4983</v>
+      </c>
+      <c r="HX183" t="n">
+        <v>6109</v>
+      </c>
+      <c r="HY183" t="n">
+        <v>7018</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B184" t="n">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="C184" t="n">
         <v>10578.1771306963</v>
@@ -105838,7 +110788,7 @@
         <v>0.000362739367134179</v>
       </c>
       <c r="F184" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G184"/>
       <c r="H184"/>
@@ -106292,13 +111242,40 @@
       <c r="HP184" t="n">
         <v>2</v>
       </c>
+      <c r="HQ184" t="n">
+        <v>7</v>
+      </c>
+      <c r="HR184" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS184" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT184" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU184" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV184" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW184" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX184" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY184" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B185" t="n">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="C185" t="n">
         <v>5058.0513712094</v>
@@ -106310,7 +111287,7 @@
         <v>0.000283189168735102</v>
       </c>
       <c r="F185" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G185"/>
       <c r="H185"/>
@@ -106808,13 +111785,40 @@
       <c r="HP185" t="n">
         <v>1</v>
       </c>
+      <c r="HQ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR185" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS185" t="n">
+        <v>23</v>
+      </c>
+      <c r="HT185" t="n">
+        <v>1</v>
+      </c>
+      <c r="HU185" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV185" t="n">
+        <v>32</v>
+      </c>
+      <c r="HW185" t="n">
+        <v>6</v>
+      </c>
+      <c r="HX185" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY185" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B186" t="n">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="C186" t="n">
         <v>5453.81874480727</v>
@@ -106826,7 +111830,7 @@
         <v>0.00037238941461274</v>
       </c>
       <c r="F186" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="G186"/>
       <c r="H186"/>
@@ -107320,6 +112324,33 @@
       <c r="HP186" t="n">
         <v>10</v>
       </c>
+      <c r="HQ186" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR186" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS186" t="n">
+        <v>13</v>
+      </c>
+      <c r="HT186" t="n">
+        <v>5</v>
+      </c>
+      <c r="HU186" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV186" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW186" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY186" t="n">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
